--- a/strategy_test.xlsx
+++ b/strategy_test.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Evaluation" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Raw_Data_COM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Dia_Raw_Temp" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Dia_Raw_Voltage" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,16 +28,49 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="003BCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="003D33FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="00FF087F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor rgb="003BCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor rgb="003D33FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor rgb="004B0082"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -43,18 +78,570 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$B$2:$B$31</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$C$2:$C$31</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$D$2:$D$31</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$E$2:$E$31</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$F$2:$F$31</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$G$2:$G$31</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$H$2:$H$31</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+        <tickLblSkip val="3"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperature [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$I$2:$I$31</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$J$2:$J$31</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!K1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$K$2:$K$31</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+        <tickLblSkip val="3"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Voltage [mV]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <absoluteAnchor>
+    <pos x="0" y="0"/>
+    <ext cx="0" cy="0"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </absoluteAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <absoluteAnchor>
+    <pos x="0" y="0"/>
+    <ext cx="0" cy="0"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </absoluteAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -355,87 +942,87 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Substance Data</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Substance</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Molar Mass [g/mol]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Weighing [g]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Volume [ml]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Concentration [mol/l]</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Additional data</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>40.01</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="3" t="n">
         <v>1.999500124968758</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>concentration [mol/l]</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="5" t="n">
         <v>55.34276991396059</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="6" t="n">
         <v>60.05</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="6" t="n">
         <v>1.998334721065779</v>
       </c>
       <c r="H4" t="inlineStr">
@@ -443,188 +1030,389 @@
           <t>cp [J/(molK)]</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="7" t="n">
         <v>75.336</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Process setup</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Evaluation Start Time</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Evaluation End Time</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>V_A [ml/min]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>V_A,act [ml/min]</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>n_A,act [mol/s]</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>n_A,act,water [mol/s]</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>V_B [ml/min]</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>V_B,act [ml/min]</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>n_B,act [mol/s]</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>n_B,act,water [mol/s]</t>
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0002014987510407993</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.005580395966324359</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.000203282512705157</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.00562651494125266</v>
+      </c>
+    </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>47</v>
+      </c>
+      <c r="C9" t="n">
+        <v>63</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0002014987510407993</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.005580395966324359</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.000203282512705157</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00562651494125266</v>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Raw Data Processing</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>T_A [°C]</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>T_B [°C]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>T_out [°C]</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Upre [V]</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>Ur1 [V]</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>Ur2 [V]</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>dT_A [°C]</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>dT_B [°C]</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>dT_out [°C]</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>Q_Out [W]</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.6999999999999957</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.5999999999999979</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.4221419200666112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.6999999999999957</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.5999999999999979</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.4221419200666112</v>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Calculation</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Q_A [W]</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Q_B [W]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>Qpre [W] - cp flux</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>QSE,pre [W]</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>Qr1 [W]</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>Qr2 [W]</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>dHr [kJ/mol]</t>
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.2942832973633066</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.2543274777685253</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-10.45138922486817</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>-93.6657475415978</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.2942832973633066</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.2543274777685253</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-10.45138922486817</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>-93.6657475415978</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -635,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,6 +1488,1326 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>25</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>26</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>29</v>
+      </c>
+      <c r="B14" t="n">
+        <v>25</v>
+      </c>
+      <c r="C14" t="n">
+        <v>26</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33</v>
+      </c>
+      <c r="B16" t="n">
+        <v>25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" t="n">
+        <v>25</v>
+      </c>
+      <c r="C17" t="n">
+        <v>26</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37</v>
+      </c>
+      <c r="B18" t="n">
+        <v>25</v>
+      </c>
+      <c r="C18" t="n">
+        <v>26</v>
+      </c>
+      <c r="D18" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39</v>
+      </c>
+      <c r="B19" t="n">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>26</v>
+      </c>
+      <c r="D19" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>41</v>
+      </c>
+      <c r="B20" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>26</v>
+      </c>
+      <c r="D20" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>43</v>
+      </c>
+      <c r="B21" t="n">
+        <v>25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>26</v>
+      </c>
+      <c r="D21" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G21" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>45</v>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>26</v>
+      </c>
+      <c r="D22" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>47</v>
+      </c>
+      <c r="B23" t="n">
+        <v>25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>26</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>49</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>26</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G24" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>51</v>
+      </c>
+      <c r="B25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G25" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>55</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59</v>
+      </c>
+      <c r="B29" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" t="n">
+        <v>26</v>
+      </c>
+      <c r="D29" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61</v>
+      </c>
+      <c r="B30" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" t="n">
+        <v>26</v>
+      </c>
+      <c r="D30" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63</v>
+      </c>
+      <c r="B31" t="n">
+        <v>25</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G31" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/strategy_test.xlsx
+++ b/strategy_test.xlsx
@@ -1247,13 +1247,13 @@
         <v>25.5</v>
       </c>
       <c r="E13" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="F13" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="G13" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="H13" t="n">
         <v>-0.6999999999999957</v>
@@ -1282,13 +1282,13 @@
         <v>25.5</v>
       </c>
       <c r="E14" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="F14" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="H14" t="n">
         <v>-0.6999999999999957</v>
@@ -1364,19 +1364,19 @@
         <v>-0.2543274777685253</v>
       </c>
       <c r="D18" t="n">
-        <v>-11</v>
+        <v>-704.25</v>
       </c>
       <c r="E18" t="n">
-        <v>-10.45138922486817</v>
+        <v>-703.7013892248682</v>
       </c>
       <c r="F18" t="n">
-        <v>-6</v>
+        <v>-704.25</v>
       </c>
       <c r="G18" t="n">
-        <v>-2</v>
+        <v>-704.25</v>
       </c>
       <c r="H18" s="10" t="n">
-        <v>-93.6657475415978</v>
+        <v>-10484.54901200441</v>
       </c>
     </row>
     <row r="19">
@@ -1390,19 +1390,19 @@
         <v>-0.2543274777685253</v>
       </c>
       <c r="D19" t="n">
-        <v>-11</v>
+        <v>-704.25</v>
       </c>
       <c r="E19" t="n">
-        <v>-10.45138922486817</v>
+        <v>-703.7013892248682</v>
       </c>
       <c r="F19" t="n">
-        <v>-6</v>
+        <v>-704.25</v>
       </c>
       <c r="G19" t="n">
-        <v>-2</v>
+        <v>-704.25</v>
       </c>
       <c r="H19" s="10" t="n">
-        <v>-93.6657475415978</v>
+        <v>-10484.54901200441</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1514,21 +1514,66 @@
         <v>25.5</v>
       </c>
       <c r="I2" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J2" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K2" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1558,21 +1603,66 @@
         <v>25.5</v>
       </c>
       <c r="I3" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J3" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K3" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1602,21 +1692,66 @@
         <v>25.5</v>
       </c>
       <c r="I4" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J4" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K4" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1646,21 +1781,66 @@
         <v>25.5</v>
       </c>
       <c r="I5" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J5" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K5" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1690,21 +1870,66 @@
         <v>25.5</v>
       </c>
       <c r="I6" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J6" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K6" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,21 +1959,66 @@
         <v>25.5</v>
       </c>
       <c r="I7" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J7" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K7" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1778,21 +2048,66 @@
         <v>25.5</v>
       </c>
       <c r="I8" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J8" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K8" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1822,21 +2137,66 @@
         <v>25.5</v>
       </c>
       <c r="I9" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J9" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K9" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1866,21 +2226,66 @@
         <v>25.5</v>
       </c>
       <c r="I10" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J10" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K10" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1910,21 +2315,66 @@
         <v>25.5</v>
       </c>
       <c r="I11" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J11" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K11" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,21 +2404,66 @@
         <v>25.5</v>
       </c>
       <c r="I12" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J12" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K12" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1998,21 +2493,66 @@
         <v>25.5</v>
       </c>
       <c r="I13" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J13" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K13" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2042,21 +2582,66 @@
         <v>25.5</v>
       </c>
       <c r="I14" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J14" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K14" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2086,21 +2671,66 @@
         <v>25.5</v>
       </c>
       <c r="I15" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J15" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K15" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2130,21 +2760,66 @@
         <v>25.5</v>
       </c>
       <c r="I16" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J16" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K16" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2174,21 +2849,66 @@
         <v>25.5</v>
       </c>
       <c r="I17" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J17" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K17" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2218,21 +2938,66 @@
         <v>25.5</v>
       </c>
       <c r="I18" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J18" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K18" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2262,21 +3027,66 @@
         <v>25.5</v>
       </c>
       <c r="I19" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J19" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K19" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,21 +3116,66 @@
         <v>25.5</v>
       </c>
       <c r="I20" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J20" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K20" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2350,21 +3205,66 @@
         <v>25.5</v>
       </c>
       <c r="I21" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J21" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K21" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2394,21 +3294,66 @@
         <v>25.5</v>
       </c>
       <c r="I22" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J22" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K22" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2438,21 +3383,66 @@
         <v>25.5</v>
       </c>
       <c r="I23" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J23" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K23" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2482,21 +3472,66 @@
         <v>25.5</v>
       </c>
       <c r="I24" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J24" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K24" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,21 +3561,66 @@
         <v>25.5</v>
       </c>
       <c r="I25" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J25" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K25" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2570,21 +3650,66 @@
         <v>25.5</v>
       </c>
       <c r="I26" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J26" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K26" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2614,21 +3739,66 @@
         <v>25.5</v>
       </c>
       <c r="I27" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J27" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K27" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2658,21 +3828,66 @@
         <v>25.5</v>
       </c>
       <c r="I28" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J28" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K28" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2702,21 +3917,66 @@
         <v>25.5</v>
       </c>
       <c r="I29" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J29" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K29" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2746,21 +4006,66 @@
         <v>25.5</v>
       </c>
       <c r="I30" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J30" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K30" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2790,21 +4095,66 @@
         <v>25.5</v>
       </c>
       <c r="I31" t="n">
-        <v>-4</v>
+        <v>25.5</v>
       </c>
       <c r="J31" t="n">
-        <v>-3</v>
+        <v>25.5</v>
       </c>
       <c r="K31" t="n">
-        <v>-1</v>
+        <v>25.5</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/strategy_test.xlsx
+++ b/strategy_test.xlsx
@@ -147,12 +147,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+              <f>'Raw_Data_COM'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$B$2:$B$31</f>
+              <f>'Raw_Data_COM'!$B$2:$B$35</f>
             </numRef>
           </val>
         </ser>
@@ -179,12 +179,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+              <f>'Raw_Data_COM'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$C$2:$C$31</f>
+              <f>'Raw_Data_COM'!$C$2:$C$35</f>
             </numRef>
           </val>
         </ser>
@@ -211,12 +211,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+              <f>'Raw_Data_COM'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$D$2:$D$31</f>
+              <f>'Raw_Data_COM'!$D$2:$D$35</f>
             </numRef>
           </val>
         </ser>
@@ -243,12 +243,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+              <f>'Raw_Data_COM'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$E$2:$E$31</f>
+              <f>'Raw_Data_COM'!$E$2:$E$35</f>
             </numRef>
           </val>
         </ser>
@@ -275,12 +275,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+              <f>'Raw_Data_COM'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$F$2:$F$31</f>
+              <f>'Raw_Data_COM'!$F$2:$F$35</f>
             </numRef>
           </val>
         </ser>
@@ -307,12 +307,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+              <f>'Raw_Data_COM'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$G$2:$G$31</f>
+              <f>'Raw_Data_COM'!$G$2:$G$35</f>
             </numRef>
           </val>
         </ser>
@@ -339,12 +339,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+              <f>'Raw_Data_COM'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$H$2:$H$31</f>
+              <f>'Raw_Data_COM'!$H$2:$H$35</f>
             </numRef>
           </val>
         </ser>
@@ -376,7 +376,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
-        <tickLblSkip val="3"/>
+        <tickLblSkip val="4"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -443,12 +443,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+              <f>'Raw_Data_COM'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$I$2:$I$31</f>
+              <f>'Raw_Data_COM'!$I$2:$I$35</f>
             </numRef>
           </val>
         </ser>
@@ -475,12 +475,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+              <f>'Raw_Data_COM'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$J$2:$J$31</f>
+              <f>'Raw_Data_COM'!$J$2:$J$35</f>
             </numRef>
           </val>
         </ser>
@@ -507,12 +507,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$31</f>
+              <f>'Raw_Data_COM'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$K$2:$K$31</f>
+              <f>'Raw_Data_COM'!$K$2:$K$35</f>
             </numRef>
           </val>
         </ser>
@@ -544,7 +544,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
-        <tickLblSkip val="3"/>
+        <tickLblSkip val="4"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -1106,31 +1106,31 @@
         <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
-        <v>6.05</v>
+        <v>1</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>6.05</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002014987510407993</v>
+        <v>3.330557868442965e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005580395966324359</v>
+        <v>0.0009223794985660098</v>
       </c>
       <c r="H8" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="I8" s="9" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000203282512705157</v>
+        <v>3.332500208281263e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00562651494125266</v>
+        <v>0.0009223794985660098</v>
       </c>
     </row>
     <row r="9">
@@ -1138,34 +1138,34 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C9" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D9" t="n">
-        <v>6.05</v>
+        <v>1</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>6.05</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002014987510407993</v>
+        <v>3.330557868442965e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005580395966324359</v>
+        <v>0.0009223794985660098</v>
       </c>
       <c r="H9" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000203282512705157</v>
+        <v>3.332500208281263e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00562651494125266</v>
+        <v>0.0009223794985660098</v>
       </c>
     </row>
     <row r="10"/>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>25.7</v>
+        <v>25.69999999999999</v>
       </c>
       <c r="C13" t="n">
         <v>25.6</v>
@@ -1256,7 +1256,7 @@
         <v>25.5</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6999999999999957</v>
+        <v>-0.6999999999999922</v>
       </c>
       <c r="I13" t="n">
         <v>-0.5999999999999979</v>
@@ -1265,7 +1265,7 @@
         <v>-0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.4221419200666112</v>
+        <v>-0.06948838190396892</v>
       </c>
     </row>
     <row r="14">
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>25.7</v>
+        <v>25.69999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>25.6</v>
@@ -1291,7 +1291,7 @@
         <v>25.5</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.6999999999999957</v>
+        <v>-0.6999999999999922</v>
       </c>
       <c r="I14" t="n">
         <v>-0.5999999999999979</v>
@@ -1300,7 +1300,7 @@
         <v>-0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.4221419200666112</v>
+        <v>-0.06948838190396892</v>
       </c>
     </row>
     <row r="15"/>
@@ -1358,16 +1358,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2942832973633066</v>
+        <v>-0.04864186733277769</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2543274777685253</v>
+        <v>-0.0416930291423812</v>
       </c>
       <c r="D18" t="n">
         <v>-704.25</v>
       </c>
       <c r="E18" t="n">
-        <v>-703.7013892248682</v>
+        <v>-704.1596651035248</v>
       </c>
       <c r="F18" t="n">
         <v>-704.25</v>
@@ -1376,7 +1376,7 @@
         <v>-704.25</v>
       </c>
       <c r="H18" s="10" t="n">
-        <v>-10484.54901200441</v>
+        <v>-63434.6928334</v>
       </c>
     </row>
     <row r="19">
@@ -1384,16 +1384,16 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2942832973633066</v>
+        <v>-0.04864186733277769</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2543274777685253</v>
+        <v>-0.0416930291423812</v>
       </c>
       <c r="D19" t="n">
         <v>-704.25</v>
       </c>
       <c r="E19" t="n">
-        <v>-703.7013892248682</v>
+        <v>-704.1596651035248</v>
       </c>
       <c r="F19" t="n">
         <v>-704.25</v>
@@ -1402,7 +1402,7 @@
         <v>-704.25</v>
       </c>
       <c r="H19" s="10" t="n">
-        <v>-10484.54901200441</v>
+        <v>-63434.6928334</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4158,6 +4158,362 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65</v>
+      </c>
+      <c r="B32" t="n">
+        <v>25</v>
+      </c>
+      <c r="C32" t="n">
+        <v>26</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>67</v>
+      </c>
+      <c r="B33" t="n">
+        <v>25</v>
+      </c>
+      <c r="C33" t="n">
+        <v>26</v>
+      </c>
+      <c r="D33" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G33" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>69</v>
+      </c>
+      <c r="B34" t="n">
+        <v>25</v>
+      </c>
+      <c r="C34" t="n">
+        <v>26</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G34" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>71</v>
+      </c>
+      <c r="B35" t="n">
+        <v>25</v>
+      </c>
+      <c r="C35" t="n">
+        <v>26</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G35" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/strategy_test.xlsx
+++ b/strategy_test.xlsx
@@ -147,12 +147,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$35</f>
+              <f>'Raw_Data_COM'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$B$2:$B$35</f>
+              <f>'Raw_Data_COM'!$B$2:$B$21</f>
             </numRef>
           </val>
         </ser>
@@ -179,12 +179,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$35</f>
+              <f>'Raw_Data_COM'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$C$2:$C$35</f>
+              <f>'Raw_Data_COM'!$C$2:$C$21</f>
             </numRef>
           </val>
         </ser>
@@ -211,12 +211,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$35</f>
+              <f>'Raw_Data_COM'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$D$2:$D$35</f>
+              <f>'Raw_Data_COM'!$D$2:$D$21</f>
             </numRef>
           </val>
         </ser>
@@ -243,12 +243,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$35</f>
+              <f>'Raw_Data_COM'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$E$2:$E$35</f>
+              <f>'Raw_Data_COM'!$E$2:$E$21</f>
             </numRef>
           </val>
         </ser>
@@ -275,12 +275,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$35</f>
+              <f>'Raw_Data_COM'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$F$2:$F$35</f>
+              <f>'Raw_Data_COM'!$F$2:$F$21</f>
             </numRef>
           </val>
         </ser>
@@ -307,12 +307,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$35</f>
+              <f>'Raw_Data_COM'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$G$2:$G$35</f>
+              <f>'Raw_Data_COM'!$G$2:$G$21</f>
             </numRef>
           </val>
         </ser>
@@ -339,12 +339,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$35</f>
+              <f>'Raw_Data_COM'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$H$2:$H$35</f>
+              <f>'Raw_Data_COM'!$H$2:$H$21</f>
             </numRef>
           </val>
         </ser>
@@ -376,7 +376,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
-        <tickLblSkip val="4"/>
+        <tickLblSkip val="2"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -443,12 +443,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$35</f>
+              <f>'Raw_Data_COM'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$I$2:$I$35</f>
+              <f>'Raw_Data_COM'!$I$2:$I$21</f>
             </numRef>
           </val>
         </ser>
@@ -475,12 +475,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$35</f>
+              <f>'Raw_Data_COM'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$J$2:$J$35</f>
+              <f>'Raw_Data_COM'!$J$2:$J$21</f>
             </numRef>
           </val>
         </ser>
@@ -507,12 +507,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$35</f>
+              <f>'Raw_Data_COM'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$K$2:$K$35</f>
+              <f>'Raw_Data_COM'!$K$2:$K$21</f>
             </numRef>
           </val>
         </ser>
@@ -544,7 +544,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
-        <tickLblSkip val="4"/>
+        <tickLblSkip val="2"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -933,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,311 +1106,215 @@
         <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.661115736885929e-05</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00184475899713202</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.665000416562526e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.00184475899713202</v>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Raw Data Processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Process Points</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>T_A [°C]</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>T_B [°C]</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>T_out [°C]</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Upre [V]</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Ur1 [V]</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Ur2 [V]</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>dT_A [°C]</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>dT_B [°C]</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>dT_out [°C]</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Q_Out [W]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="B12" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.6999999999999957</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.5999999999999979</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.1389767638079378</v>
+      </c>
+    </row>
+    <row r="13"/>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Calculation</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Process Points</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Q_A [W]</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Q_B [W]</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Qpre [W] - cp flux</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>QSE,pre [W]</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Qr1 [W]</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Qr2 [W]</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>dHr [kJ/mol]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>3.330557868442965e-05</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0009223794985660098</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.332500208281263e-05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0009223794985660098</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>51</v>
-      </c>
-      <c r="C9" t="n">
-        <v>71</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.330557868442965e-05</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0009223794985660098</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.332500208281263e-05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0009223794985660098</v>
-      </c>
-    </row>
-    <row r="10"/>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Raw Data Processing</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Process Points</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>T_A [°C]</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>T_B [°C]</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>T_out [°C]</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Upre [V]</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Ur1 [V]</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>Ur2 [V]</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>dT_A [°C]</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>dT_B [°C]</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>dT_out [°C]</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Q_Out [W]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>25.69999999999999</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.6999999999999922</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-0.06948838190396892</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>25.69999999999999</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.6999999999999922</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-0.06948838190396892</v>
-      </c>
-    </row>
-    <row r="15"/>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Calculation</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Process Points</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Q_A [W]</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Q_B [W]</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>Qpre [W] - cp flux</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>QSE,pre [W]</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>Qr1 [W]</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>Qr2 [W]</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>dHr [kJ/mol]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.04864186733277769</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.0416930291423812</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="B16" t="n">
+        <v>-0.09728373466555588</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.08338605828476239</v>
+      </c>
+      <c r="D16" t="n">
         <v>-704.25</v>
       </c>
-      <c r="E18" t="n">
-        <v>-704.1596651035248</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E16" t="n">
+        <v>-704.0693302070497</v>
+      </c>
+      <c r="F16" t="n">
         <v>-704.25</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G16" t="n">
         <v>-704.25</v>
       </c>
-      <c r="H18" s="10" t="n">
-        <v>-63434.6928334</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.04864186733277769</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.0416930291423812</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-704.25</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-704.1596651035248</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-704.25</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-704.25</v>
-      </c>
-      <c r="H19" s="10" t="n">
-        <v>-63434.6928334</v>
+      <c r="H16" s="10" t="n">
+        <v>-31717.03345839999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1423,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3268,1252 +3172,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>45</v>
-      </c>
-      <c r="B22" t="n">
-        <v>25</v>
-      </c>
-      <c r="C22" t="n">
-        <v>26</v>
-      </c>
-      <c r="D22" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E22" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G22" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H22" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>47</v>
-      </c>
-      <c r="B23" t="n">
-        <v>25</v>
-      </c>
-      <c r="C23" t="n">
-        <v>26</v>
-      </c>
-      <c r="D23" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E23" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F23" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G23" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H23" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>49</v>
-      </c>
-      <c r="B24" t="n">
-        <v>25</v>
-      </c>
-      <c r="C24" t="n">
-        <v>26</v>
-      </c>
-      <c r="D24" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E24" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F24" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G24" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L24" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>51</v>
-      </c>
-      <c r="B25" t="n">
-        <v>25</v>
-      </c>
-      <c r="C25" t="n">
-        <v>26</v>
-      </c>
-      <c r="D25" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E25" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F25" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G25" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L25" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>53</v>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>26</v>
-      </c>
-      <c r="D26" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E26" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F26" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G26" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H26" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L26" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M26" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>55</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>26</v>
-      </c>
-      <c r="D27" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E27" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G27" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H27" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T27" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>57</v>
-      </c>
-      <c r="B28" t="n">
-        <v>25</v>
-      </c>
-      <c r="C28" t="n">
-        <v>26</v>
-      </c>
-      <c r="D28" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E28" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F28" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G28" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H28" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M28" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>59</v>
-      </c>
-      <c r="B29" t="n">
-        <v>25</v>
-      </c>
-      <c r="C29" t="n">
-        <v>26</v>
-      </c>
-      <c r="D29" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E29" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F29" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G29" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H29" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M29" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>61</v>
-      </c>
-      <c r="B30" t="n">
-        <v>25</v>
-      </c>
-      <c r="C30" t="n">
-        <v>26</v>
-      </c>
-      <c r="D30" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E30" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F30" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G30" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I30" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L30" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M30" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>63</v>
-      </c>
-      <c r="B31" t="n">
-        <v>25</v>
-      </c>
-      <c r="C31" t="n">
-        <v>26</v>
-      </c>
-      <c r="D31" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E31" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F31" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G31" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H31" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I31" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L31" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M31" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T31" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>65</v>
-      </c>
-      <c r="B32" t="n">
-        <v>25</v>
-      </c>
-      <c r="C32" t="n">
-        <v>26</v>
-      </c>
-      <c r="D32" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E32" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F32" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G32" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H32" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I32" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>67</v>
-      </c>
-      <c r="B33" t="n">
-        <v>25</v>
-      </c>
-      <c r="C33" t="n">
-        <v>26</v>
-      </c>
-      <c r="D33" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E33" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F33" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G33" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M33" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>69</v>
-      </c>
-      <c r="B34" t="n">
-        <v>25</v>
-      </c>
-      <c r="C34" t="n">
-        <v>26</v>
-      </c>
-      <c r="D34" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E34" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G34" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H34" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I34" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M34" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T34" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>71</v>
-      </c>
-      <c r="B35" t="n">
-        <v>25</v>
-      </c>
-      <c r="C35" t="n">
-        <v>26</v>
-      </c>
-      <c r="D35" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E35" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F35" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G35" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H35" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I35" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M35" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/strategy_test.xlsx
+++ b/strategy_test.xlsx
@@ -147,12 +147,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$21</f>
+              <f>'Raw_Data_COM'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$B$2:$B$21</f>
+              <f>'Raw_Data_COM'!$B$2:$B$52</f>
             </numRef>
           </val>
         </ser>
@@ -179,12 +179,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$21</f>
+              <f>'Raw_Data_COM'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$C$2:$C$21</f>
+              <f>'Raw_Data_COM'!$C$2:$C$52</f>
             </numRef>
           </val>
         </ser>
@@ -211,12 +211,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$21</f>
+              <f>'Raw_Data_COM'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$D$2:$D$21</f>
+              <f>'Raw_Data_COM'!$D$2:$D$52</f>
             </numRef>
           </val>
         </ser>
@@ -243,12 +243,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$21</f>
+              <f>'Raw_Data_COM'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$E$2:$E$21</f>
+              <f>'Raw_Data_COM'!$E$2:$E$52</f>
             </numRef>
           </val>
         </ser>
@@ -275,12 +275,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$21</f>
+              <f>'Raw_Data_COM'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$F$2:$F$21</f>
+              <f>'Raw_Data_COM'!$F$2:$F$52</f>
             </numRef>
           </val>
         </ser>
@@ -307,12 +307,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$21</f>
+              <f>'Raw_Data_COM'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$G$2:$G$21</f>
+              <f>'Raw_Data_COM'!$G$2:$G$52</f>
             </numRef>
           </val>
         </ser>
@@ -339,12 +339,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$21</f>
+              <f>'Raw_Data_COM'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$H$2:$H$21</f>
+              <f>'Raw_Data_COM'!$H$2:$H$52</f>
             </numRef>
           </val>
         </ser>
@@ -376,7 +376,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
-        <tickLblSkip val="2"/>
+        <tickLblSkip val="6"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -443,12 +443,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$21</f>
+              <f>'Raw_Data_COM'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$I$2:$I$21</f>
+              <f>'Raw_Data_COM'!$I$2:$I$52</f>
             </numRef>
           </val>
         </ser>
@@ -475,12 +475,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$21</f>
+              <f>'Raw_Data_COM'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$J$2:$J$21</f>
+              <f>'Raw_Data_COM'!$J$2:$J$52</f>
             </numRef>
           </val>
         </ser>
@@ -507,12 +507,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$21</f>
+              <f>'Raw_Data_COM'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$K$2:$K$21</f>
+              <f>'Raw_Data_COM'!$K$2:$K$52</f>
             </numRef>
           </val>
         </ser>
@@ -544,7 +544,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
-        <tickLblSkip val="2"/>
+        <tickLblSkip val="6"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -933,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -1133,179 +1133,275 @@
         <v>0.00184475899713202</v>
       </c>
     </row>
-    <row r="9"/>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>105</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.661115736885929e-05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00184475899713202</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.665000416562526e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00184475899713202</v>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Raw Data Processing</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>T_A [°C]</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>T_B [°C]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>T_out [°C]</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Upre [V]</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>Ur1 [V]</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>Ur2 [V]</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>dT_A [°C]</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>dT_B [°C]</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>dT_out [°C]</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>Q_Out [W]</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="13">
+      <c r="A13" t="n">
         <v>1</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>25.7</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>25.6</v>
       </c>
-      <c r="D12" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="D13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H13" t="n">
         <v>-0.6999999999999957</v>
       </c>
-      <c r="I12" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I13" t="n">
+        <v>-0.600000000000005</v>
+      </c>
+      <c r="J13" t="n">
         <v>-0.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K13" t="n">
         <v>-0.1389767638079378</v>
       </c>
     </row>
-    <row r="13"/>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>25.69999999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25.60000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.6999999999999922</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.6000000000000085</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.1389767638079378</v>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Calculation</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Q_A [W]</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Q_B [W]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>Qpre [W] - cp flux</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>QSE,pre [W]</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>Qr1 [W]</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>Qr2 [W]</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>dHr [kJ/mol]</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="18">
+      <c r="A18" t="n">
         <v>1</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B18" t="n">
         <v>-0.09728373466555588</v>
       </c>
-      <c r="C16" t="n">
-        <v>-0.08338605828476239</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C18" t="n">
+        <v>-0.08338605828476338</v>
+      </c>
+      <c r="D18" t="n">
         <v>-704.25</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E18" t="n">
         <v>-704.0693302070497</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F18" t="n">
         <v>-704.25</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G18" t="n">
         <v>-704.25</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H18" s="10" t="n">
+        <v>-31717.03345839999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.09728373466555539</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.08338605828476389</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-704.25</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-704.0693302070497</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-704.25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-704.25</v>
+      </c>
+      <c r="H19" s="10" t="n">
         <v>-31717.03345839999</v>
       </c>
     </row>
@@ -1313,8 +1409,8 @@
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A16:H16"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1327,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1363,32 +1459,122 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>T_r3</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>T_r4</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>T_r5</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>T_A</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>T_B</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>T_out</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>U_pre</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>U_r1</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>U_r2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>U_r3</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>U_r4</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>U_r5</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>PWM_pre</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>PWM_r1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>PWM_r2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>PWM_r3</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>PWM_r4</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>PWM_r5</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>mW_pre</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>mW_r1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>mW_r2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>mW_r3</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>mW_r4</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>mW_r5</t>
         </is>
       </c>
     </row>
@@ -3169,6 +3355,2765 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>45</v>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>26</v>
+      </c>
+      <c r="D22" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>47</v>
+      </c>
+      <c r="B23" t="n">
+        <v>25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>26</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>49</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>26</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G24" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>51</v>
+      </c>
+      <c r="B25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G25" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>55</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59</v>
+      </c>
+      <c r="B29" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" t="n">
+        <v>26</v>
+      </c>
+      <c r="D29" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61</v>
+      </c>
+      <c r="B30" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" t="n">
+        <v>26</v>
+      </c>
+      <c r="D30" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63</v>
+      </c>
+      <c r="B31" t="n">
+        <v>25</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G31" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65</v>
+      </c>
+      <c r="B32" t="n">
+        <v>25</v>
+      </c>
+      <c r="C32" t="n">
+        <v>26</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>67</v>
+      </c>
+      <c r="B33" t="n">
+        <v>25</v>
+      </c>
+      <c r="C33" t="n">
+        <v>26</v>
+      </c>
+      <c r="D33" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G33" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>69</v>
+      </c>
+      <c r="B34" t="n">
+        <v>25</v>
+      </c>
+      <c r="C34" t="n">
+        <v>26</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G34" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>71</v>
+      </c>
+      <c r="B35" t="n">
+        <v>25</v>
+      </c>
+      <c r="C35" t="n">
+        <v>26</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G35" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>73</v>
+      </c>
+      <c r="B36" t="n">
+        <v>25</v>
+      </c>
+      <c r="C36" t="n">
+        <v>26</v>
+      </c>
+      <c r="D36" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G36" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H36" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>75</v>
+      </c>
+      <c r="B37" t="n">
+        <v>25</v>
+      </c>
+      <c r="C37" t="n">
+        <v>26</v>
+      </c>
+      <c r="D37" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E37" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F37" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>77</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>26</v>
+      </c>
+      <c r="D38" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G38" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H38" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>79</v>
+      </c>
+      <c r="B39" t="n">
+        <v>25</v>
+      </c>
+      <c r="C39" t="n">
+        <v>26</v>
+      </c>
+      <c r="D39" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E39" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G39" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>81</v>
+      </c>
+      <c r="B40" t="n">
+        <v>25</v>
+      </c>
+      <c r="C40" t="n">
+        <v>26</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G40" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H40" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>83</v>
+      </c>
+      <c r="B41" t="n">
+        <v>25</v>
+      </c>
+      <c r="C41" t="n">
+        <v>26</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>85</v>
+      </c>
+      <c r="B42" t="n">
+        <v>25</v>
+      </c>
+      <c r="C42" t="n">
+        <v>26</v>
+      </c>
+      <c r="D42" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E42" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F42" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G42" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>87</v>
+      </c>
+      <c r="B43" t="n">
+        <v>25</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26</v>
+      </c>
+      <c r="D43" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G43" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>89</v>
+      </c>
+      <c r="B44" t="n">
+        <v>25</v>
+      </c>
+      <c r="C44" t="n">
+        <v>26</v>
+      </c>
+      <c r="D44" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G44" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>91</v>
+      </c>
+      <c r="B45" t="n">
+        <v>25</v>
+      </c>
+      <c r="C45" t="n">
+        <v>26</v>
+      </c>
+      <c r="D45" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E45" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G45" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>93</v>
+      </c>
+      <c r="B46" t="n">
+        <v>25</v>
+      </c>
+      <c r="C46" t="n">
+        <v>26</v>
+      </c>
+      <c r="D46" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G46" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>95</v>
+      </c>
+      <c r="B47" t="n">
+        <v>25</v>
+      </c>
+      <c r="C47" t="n">
+        <v>26</v>
+      </c>
+      <c r="D47" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G47" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>97</v>
+      </c>
+      <c r="B48" t="n">
+        <v>25</v>
+      </c>
+      <c r="C48" t="n">
+        <v>26</v>
+      </c>
+      <c r="D48" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G48" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>99</v>
+      </c>
+      <c r="B49" t="n">
+        <v>25</v>
+      </c>
+      <c r="C49" t="n">
+        <v>26</v>
+      </c>
+      <c r="D49" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G49" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H49" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>101</v>
+      </c>
+      <c r="B50" t="n">
+        <v>25</v>
+      </c>
+      <c r="C50" t="n">
+        <v>26</v>
+      </c>
+      <c r="D50" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G50" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H50" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>103</v>
+      </c>
+      <c r="B51" t="n">
+        <v>25</v>
+      </c>
+      <c r="C51" t="n">
+        <v>26</v>
+      </c>
+      <c r="D51" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E51" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H51" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>105</v>
+      </c>
+      <c r="B52" t="n">
+        <v>25</v>
+      </c>
+      <c r="C52" t="n">
+        <v>26</v>
+      </c>
+      <c r="D52" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G52" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
         <v>0</v>
       </c>
     </row>

--- a/strategy_test.xlsx
+++ b/strategy_test.xlsx
@@ -147,12 +147,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$52</f>
+              <f>'Raw_Data_COM'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$B$2:$B$52</f>
+              <f>'Raw_Data_COM'!$B$2:$B$51</f>
             </numRef>
           </val>
         </ser>
@@ -179,12 +179,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$52</f>
+              <f>'Raw_Data_COM'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$C$2:$C$52</f>
+              <f>'Raw_Data_COM'!$C$2:$C$51</f>
             </numRef>
           </val>
         </ser>
@@ -211,12 +211,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$52</f>
+              <f>'Raw_Data_COM'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$D$2:$D$52</f>
+              <f>'Raw_Data_COM'!$D$2:$D$51</f>
             </numRef>
           </val>
         </ser>
@@ -243,12 +243,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$52</f>
+              <f>'Raw_Data_COM'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$E$2:$E$52</f>
+              <f>'Raw_Data_COM'!$E$2:$E$51</f>
             </numRef>
           </val>
         </ser>
@@ -275,12 +275,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$52</f>
+              <f>'Raw_Data_COM'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$F$2:$F$52</f>
+              <f>'Raw_Data_COM'!$F$2:$F$51</f>
             </numRef>
           </val>
         </ser>
@@ -307,12 +307,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$52</f>
+              <f>'Raw_Data_COM'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$G$2:$G$52</f>
+              <f>'Raw_Data_COM'!$G$2:$G$51</f>
             </numRef>
           </val>
         </ser>
@@ -339,12 +339,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$52</f>
+              <f>'Raw_Data_COM'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$H$2:$H$52</f>
+              <f>'Raw_Data_COM'!$H$2:$H$51</f>
             </numRef>
           </val>
         </ser>
@@ -376,7 +376,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
-        <tickLblSkip val="6"/>
+        <tickLblSkip val="5"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -443,12 +443,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$52</f>
+              <f>'Raw_Data_COM'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$I$2:$I$52</f>
+              <f>'Raw_Data_COM'!$I$2:$I$51</f>
             </numRef>
           </val>
         </ser>
@@ -475,12 +475,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$52</f>
+              <f>'Raw_Data_COM'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$J$2:$J$52</f>
+              <f>'Raw_Data_COM'!$J$2:$J$51</f>
             </numRef>
           </val>
         </ser>
@@ -507,12 +507,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$52</f>
+              <f>'Raw_Data_COM'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$K$2:$K$52</f>
+              <f>'Raw_Data_COM'!$K$2:$K$51</f>
             </numRef>
           </val>
         </ser>
@@ -544,7 +544,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
-        <tickLblSkip val="6"/>
+        <tickLblSkip val="5"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -1106,7 +1106,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -1121,16 +1121,16 @@
         <v>0.00184475899713202</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>6.665000416562526e-05</v>
+        <v>3.332500208281263e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00184475899713202</v>
+        <v>0.0009223794985660098</v>
       </c>
     </row>
     <row r="9">
@@ -1138,22 +1138,22 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>6.661115736885929e-05</v>
+        <v>0.0001332223147377186</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00184475899713202</v>
+        <v>0.003689517994264039</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -1238,34 +1238,34 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>25.7</v>
+        <v>25.83526315789474</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6</v>
+        <v>26.08505263157895</v>
       </c>
       <c r="D13" t="n">
-        <v>25.5</v>
+        <v>25.68789473684211</v>
       </c>
       <c r="E13" t="n">
-        <v>25.5</v>
+        <v>25.45973684210526</v>
       </c>
       <c r="F13" t="n">
-        <v>25.5</v>
+        <v>25.45973684210527</v>
       </c>
       <c r="G13" t="n">
-        <v>25.5</v>
+        <v>25.41947368421053</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6999999999999957</v>
+        <v>-0.8352631578947403</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.600000000000005</v>
+        <v>-1.08505263157895</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.5</v>
+        <v>-0.6878947368421073</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1389767638079378</v>
+        <v>-0.1434020765502436</v>
       </c>
     </row>
     <row r="14">
@@ -1273,34 +1273,34 @@
         <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>25.69999999999999</v>
+        <v>25.17247368421053</v>
       </c>
       <c r="C14" t="n">
-        <v>25.60000000000001</v>
+        <v>25.95031578947369</v>
       </c>
       <c r="D14" t="n">
-        <v>25.5</v>
+        <v>25.43289473684211</v>
       </c>
       <c r="E14" t="n">
-        <v>25.5</v>
+        <v>25.45973684210526</v>
       </c>
       <c r="F14" t="n">
-        <v>25.5</v>
+        <v>24.90947368421052</v>
       </c>
       <c r="G14" t="n">
-        <v>25.5</v>
+        <v>25.71473684210526</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.6999999999999922</v>
+        <v>-0.1724736842105266</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6000000000000085</v>
+        <v>-0.950315789473688</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.5</v>
+        <v>-0.4328947368421083</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.1389767638079378</v>
+        <v>-0.1804869287874153</v>
       </c>
     </row>
     <row r="15"/>
@@ -1358,25 +1358,25 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.09728373466555588</v>
+        <v>-0.1160821706122096</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.08338605828476338</v>
+        <v>-0.07539855164906456</v>
       </c>
       <c r="D18" t="n">
-        <v>-704.25</v>
+        <v>-702.1176737534626</v>
       </c>
       <c r="E18" t="n">
-        <v>-704.0693302070497</v>
+        <v>-701.9261930312013</v>
       </c>
       <c r="F18" t="n">
-        <v>-704.25</v>
+        <v>-702.1176737534629</v>
       </c>
       <c r="G18" t="n">
-        <v>-704.25</v>
+        <v>-699.9885897506925</v>
       </c>
       <c r="H18" s="10" t="n">
-        <v>-31717.03345839999</v>
+        <v>-31588.94007741124</v>
       </c>
     </row>
     <row r="19">
@@ -1384,25 +1384,25 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.09728373466555539</v>
+        <v>-0.0479396689472224</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.08338605828476389</v>
+        <v>-0.1320718130166387</v>
       </c>
       <c r="D19" t="n">
-        <v>-704.25</v>
+        <v>-702.1176737534627</v>
       </c>
       <c r="E19" t="n">
-        <v>-704.0693302070497</v>
+        <v>-701.9376622714988</v>
       </c>
       <c r="F19" t="n">
-        <v>-704.25</v>
+        <v>-673.3008265927975</v>
       </c>
       <c r="G19" t="n">
-        <v>-704.25</v>
+        <v>-715.6771645429363</v>
       </c>
       <c r="H19" s="10" t="n">
-        <v>-31717.03345839999</v>
+        <v>-15696.29040339725</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC52"/>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,40 +1583,40 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>24.7</v>
       </c>
       <c r="D2" t="n">
-        <v>25.9</v>
+        <v>26.936</v>
       </c>
       <c r="E2" t="n">
-        <v>25.8</v>
+        <v>27.864</v>
       </c>
       <c r="F2" t="n">
-        <v>25.7</v>
+        <v>26.728</v>
       </c>
       <c r="G2" t="n">
-        <v>25.6</v>
+        <v>27.136</v>
       </c>
       <c r="H2" t="n">
-        <v>25.5</v>
+        <v>25.245</v>
       </c>
       <c r="I2" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="J2" t="n">
-        <v>25.5</v>
+        <v>24.735</v>
       </c>
       <c r="K2" t="n">
-        <v>25.5</v>
+        <v>24.99</v>
       </c>
       <c r="L2" t="n">
-        <v>-4</v>
+        <v>-4.04</v>
       </c>
       <c r="M2" t="n">
-        <v>-3</v>
+        <v>-3.03</v>
       </c>
       <c r="N2" t="n">
         <v>-1</v>
@@ -1631,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-4</v>
+        <v>-3.84</v>
       </c>
       <c r="S2" t="n">
-        <v>-3</v>
+        <v>-3.12</v>
       </c>
       <c r="T2" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3</v>
+        <v>-2.73</v>
       </c>
       <c r="Z2" t="n">
         <v>-1</v>
@@ -1672,43 +1672,43 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>27.82</v>
       </c>
       <c r="D3" t="n">
-        <v>25.9</v>
+        <v>23.31</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8</v>
+        <v>26.574</v>
       </c>
       <c r="F3" t="n">
-        <v>25.7</v>
+        <v>28.013</v>
       </c>
       <c r="G3" t="n">
-        <v>25.6</v>
+        <v>24.32</v>
       </c>
       <c r="H3" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="I3" t="n">
-        <v>25.5</v>
+        <v>25.245</v>
       </c>
       <c r="J3" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="K3" t="n">
-        <v>25.5</v>
+        <v>23.97</v>
       </c>
       <c r="L3" t="n">
-        <v>-4</v>
+        <v>-3.68</v>
       </c>
       <c r="M3" t="n">
-        <v>-3</v>
+        <v>-3.24</v>
       </c>
       <c r="N3" t="n">
-        <v>-1</v>
+        <v>-1.05</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1720,13 +1720,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="S3" t="n">
-        <v>-3</v>
+        <v>-2.79</v>
       </c>
       <c r="T3" t="n">
-        <v>-1</v>
+        <v>-1.07</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1741,10 +1741,10 @@
         <v>-4</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3</v>
+        <v>-3.21</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1</v>
+        <v>-1.03</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1761,43 +1761,43 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>27.56</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9</v>
+        <v>28.231</v>
       </c>
       <c r="E4" t="n">
-        <v>25.8</v>
+        <v>26.316</v>
       </c>
       <c r="F4" t="n">
-        <v>25.7</v>
+        <v>23.387</v>
       </c>
       <c r="G4" t="n">
-        <v>25.6</v>
+        <v>23.04</v>
       </c>
       <c r="H4" t="n">
-        <v>25.5</v>
+        <v>25.245</v>
       </c>
       <c r="I4" t="n">
-        <v>25.5</v>
+        <v>27.795</v>
       </c>
       <c r="J4" t="n">
-        <v>25.5</v>
+        <v>23.205</v>
       </c>
       <c r="K4" t="n">
-        <v>25.5</v>
+        <v>24.48</v>
       </c>
       <c r="L4" t="n">
-        <v>-4</v>
+        <v>-3.64</v>
       </c>
       <c r="M4" t="n">
-        <v>-3</v>
+        <v>-3.12</v>
       </c>
       <c r="N4" t="n">
-        <v>-1</v>
+        <v>-1.06</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="S4" t="n">
-        <v>-3</v>
+        <v>-3.06</v>
       </c>
       <c r="T4" t="n">
-        <v>-1</v>
+        <v>-0.91</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>-4</v>
+        <v>-3.88</v>
       </c>
       <c r="Y4" t="n">
         <v>-3</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1</v>
+        <v>-0.95</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1850,43 +1850,43 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>25.48</v>
       </c>
       <c r="D5" t="n">
-        <v>25.9</v>
+        <v>23.569</v>
       </c>
       <c r="E5" t="n">
-        <v>25.8</v>
+        <v>28.122</v>
       </c>
       <c r="F5" t="n">
-        <v>25.7</v>
+        <v>26.214</v>
       </c>
       <c r="G5" t="n">
-        <v>25.6</v>
+        <v>27.136</v>
       </c>
       <c r="H5" t="n">
-        <v>25.5</v>
+        <v>24.99</v>
       </c>
       <c r="I5" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="J5" t="n">
-        <v>25.5</v>
+        <v>26.775</v>
       </c>
       <c r="K5" t="n">
-        <v>25.5</v>
+        <v>24.99</v>
       </c>
       <c r="L5" t="n">
-        <v>-4</v>
+        <v>-3.72</v>
       </c>
       <c r="M5" t="n">
-        <v>-3</v>
+        <v>-3.21</v>
       </c>
       <c r="N5" t="n">
-        <v>-1</v>
+        <v>-0.92</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-4</v>
+        <v>-3.76</v>
       </c>
       <c r="S5" t="n">
-        <v>-3</v>
+        <v>-2.91</v>
       </c>
       <c r="T5" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1916,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>-3</v>
+        <v>-3.27</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1</v>
+        <v>-1.07</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1939,43 +1939,43 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>26.26</v>
       </c>
       <c r="D6" t="n">
-        <v>25.9</v>
+        <v>23.828</v>
       </c>
       <c r="E6" t="n">
-        <v>25.8</v>
+        <v>27.606</v>
       </c>
       <c r="F6" t="n">
-        <v>25.7</v>
+        <v>26.471</v>
       </c>
       <c r="G6" t="n">
-        <v>25.6</v>
+        <v>24.32</v>
       </c>
       <c r="H6" t="n">
-        <v>25.5</v>
+        <v>26.265</v>
       </c>
       <c r="I6" t="n">
-        <v>25.5</v>
+        <v>27.03</v>
       </c>
       <c r="J6" t="n">
-        <v>25.5</v>
+        <v>24.225</v>
       </c>
       <c r="K6" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="L6" t="n">
-        <v>-4</v>
+        <v>-4.16</v>
       </c>
       <c r="M6" t="n">
-        <v>-3</v>
+        <v>-3.18</v>
       </c>
       <c r="N6" t="n">
-        <v>-1</v>
+        <v>-0.92</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1987,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-4</v>
+        <v>-4.08</v>
       </c>
       <c r="S6" t="n">
-        <v>-3</v>
+        <v>-3.18</v>
       </c>
       <c r="T6" t="n">
-        <v>-1</v>
+        <v>-0.95</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>-4</v>
+        <v>-3.72</v>
       </c>
       <c r="Y6" t="n">
-        <v>-3</v>
+        <v>-3.15</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1</v>
+        <v>-1.06</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -2028,43 +2028,43 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>26.78</v>
       </c>
       <c r="D7" t="n">
-        <v>25.9</v>
+        <v>26.677</v>
       </c>
       <c r="E7" t="n">
-        <v>25.8</v>
+        <v>24.51</v>
       </c>
       <c r="F7" t="n">
-        <v>25.7</v>
+        <v>27.499</v>
       </c>
       <c r="G7" t="n">
-        <v>25.6</v>
+        <v>24.576</v>
       </c>
       <c r="H7" t="n">
-        <v>25.5</v>
+        <v>26.775</v>
       </c>
       <c r="I7" t="n">
-        <v>25.5</v>
+        <v>27.03</v>
       </c>
       <c r="J7" t="n">
-        <v>25.5</v>
+        <v>22.95</v>
       </c>
       <c r="K7" t="n">
-        <v>25.5</v>
+        <v>25.755</v>
       </c>
       <c r="L7" t="n">
-        <v>-4</v>
+        <v>-4.36</v>
       </c>
       <c r="M7" t="n">
-        <v>-3</v>
+        <v>-3.06</v>
       </c>
       <c r="N7" t="n">
-        <v>-1</v>
+        <v>-1.01</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -2076,13 +2076,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-4</v>
+        <v>-4.32</v>
       </c>
       <c r="S7" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="T7" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -2094,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1</v>
+        <v>-1.06</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -2117,43 +2117,43 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>28.08</v>
       </c>
       <c r="D8" t="n">
-        <v>25.9</v>
+        <v>26.936</v>
       </c>
       <c r="E8" t="n">
-        <v>25.8</v>
+        <v>26.316</v>
       </c>
       <c r="F8" t="n">
-        <v>25.7</v>
+        <v>23.901</v>
       </c>
       <c r="G8" t="n">
-        <v>25.6</v>
+        <v>27.136</v>
       </c>
       <c r="H8" t="n">
         <v>25.5</v>
       </c>
       <c r="I8" t="n">
-        <v>25.5</v>
+        <v>27.03</v>
       </c>
       <c r="J8" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="K8" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="L8" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="M8" t="n">
-        <v>-3</v>
+        <v>-3.15</v>
       </c>
       <c r="N8" t="n">
-        <v>-1</v>
+        <v>-0.98</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-4</v>
+        <v>-4.12</v>
       </c>
       <c r="S8" t="n">
         <v>-3</v>
       </c>
       <c r="T8" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>-4</v>
+        <v>-4.32</v>
       </c>
       <c r="Y8" t="n">
-        <v>-3</v>
+        <v>-3.24</v>
       </c>
       <c r="Z8" t="n">
-        <v>-1</v>
+        <v>-0.98</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -2206,43 +2206,43 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>26.26</v>
       </c>
       <c r="D9" t="n">
-        <v>25.9</v>
+        <v>24.087</v>
       </c>
       <c r="E9" t="n">
-        <v>25.8</v>
+        <v>23.22</v>
       </c>
       <c r="F9" t="n">
-        <v>25.7</v>
+        <v>27.242</v>
       </c>
       <c r="G9" t="n">
-        <v>25.6</v>
+        <v>26.88</v>
       </c>
       <c r="H9" t="n">
-        <v>25.5</v>
+        <v>26.775</v>
       </c>
       <c r="I9" t="n">
-        <v>25.5</v>
+        <v>24.735</v>
       </c>
       <c r="J9" t="n">
-        <v>25.5</v>
+        <v>27.03</v>
       </c>
       <c r="K9" t="n">
-        <v>25.5</v>
+        <v>22.95</v>
       </c>
       <c r="L9" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>-3</v>
+        <v>-3.21</v>
       </c>
       <c r="N9" t="n">
-        <v>-1</v>
+        <v>-1.05</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -2254,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-4</v>
+        <v>-3.64</v>
       </c>
       <c r="S9" t="n">
-        <v>-3</v>
+        <v>-2.91</v>
       </c>
       <c r="T9" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -2272,13 +2272,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="Y9" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="Z9" t="n">
-        <v>-1</v>
+        <v>-0.92</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -2295,43 +2295,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>25.75</v>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>28.08</v>
       </c>
       <c r="D10" t="n">
-        <v>25.9</v>
+        <v>26.936</v>
       </c>
       <c r="E10" t="n">
-        <v>25.8</v>
+        <v>26.316</v>
       </c>
       <c r="F10" t="n">
-        <v>25.7</v>
+        <v>25.443</v>
       </c>
       <c r="G10" t="n">
-        <v>25.6</v>
+        <v>23.552</v>
       </c>
       <c r="H10" t="n">
-        <v>25.5</v>
+        <v>23.205</v>
       </c>
       <c r="I10" t="n">
-        <v>25.5</v>
+        <v>24.48</v>
       </c>
       <c r="J10" t="n">
-        <v>25.5</v>
+        <v>23.97</v>
       </c>
       <c r="K10" t="n">
-        <v>25.5</v>
+        <v>26.52</v>
       </c>
       <c r="L10" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="M10" t="n">
-        <v>-3</v>
+        <v>-2.85</v>
       </c>
       <c r="N10" t="n">
-        <v>-1</v>
+        <v>-1.01</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -2343,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="S10" t="n">
-        <v>-3</v>
+        <v>-3.12</v>
       </c>
       <c r="T10" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -2361,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>-4</v>
+        <v>-3.72</v>
       </c>
       <c r="Y10" t="n">
-        <v>-3</v>
+        <v>-2.94</v>
       </c>
       <c r="Z10" t="n">
-        <v>-1</v>
+        <v>-0.99</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -2384,43 +2384,43 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>24.96</v>
       </c>
       <c r="D11" t="n">
-        <v>25.9</v>
+        <v>26.677</v>
       </c>
       <c r="E11" t="n">
-        <v>25.8</v>
+        <v>27.09</v>
       </c>
       <c r="F11" t="n">
-        <v>25.7</v>
+        <v>23.901</v>
       </c>
       <c r="G11" t="n">
-        <v>25.6</v>
+        <v>23.04</v>
       </c>
       <c r="H11" t="n">
-        <v>25.5</v>
+        <v>24.99</v>
       </c>
       <c r="I11" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="J11" t="n">
-        <v>25.5</v>
+        <v>25.245</v>
       </c>
       <c r="K11" t="n">
-        <v>25.5</v>
+        <v>23.97</v>
       </c>
       <c r="L11" t="n">
-        <v>-4</v>
+        <v>-4.24</v>
       </c>
       <c r="M11" t="n">
-        <v>-3</v>
+        <v>-3.09</v>
       </c>
       <c r="N11" t="n">
-        <v>-1</v>
+        <v>-1.08</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2432,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-4</v>
+        <v>-4.32</v>
       </c>
       <c r="S11" t="n">
-        <v>-3</v>
+        <v>-2.88</v>
       </c>
       <c r="T11" t="n">
-        <v>-1</v>
+        <v>-1.07</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-4</v>
+        <v>-3.84</v>
       </c>
       <c r="Y11" t="n">
-        <v>-3</v>
+        <v>-3.18</v>
       </c>
       <c r="Z11" t="n">
-        <v>-1</v>
+        <v>-0.93</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -2473,43 +2473,43 @@
         <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>23.4</v>
       </c>
       <c r="D12" t="n">
-        <v>25.9</v>
+        <v>24.087</v>
       </c>
       <c r="E12" t="n">
-        <v>25.8</v>
+        <v>23.736</v>
       </c>
       <c r="F12" t="n">
-        <v>25.7</v>
+        <v>23.387</v>
       </c>
       <c r="G12" t="n">
-        <v>25.6</v>
+        <v>23.808</v>
       </c>
       <c r="H12" t="n">
-        <v>25.5</v>
+        <v>24.99</v>
       </c>
       <c r="I12" t="n">
-        <v>25.5</v>
+        <v>26.265</v>
       </c>
       <c r="J12" t="n">
-        <v>25.5</v>
+        <v>24.225</v>
       </c>
       <c r="K12" t="n">
-        <v>25.5</v>
+        <v>25.245</v>
       </c>
       <c r="L12" t="n">
-        <v>-4</v>
+        <v>-3.72</v>
       </c>
       <c r="M12" t="n">
-        <v>-3</v>
+        <v>-2.85</v>
       </c>
       <c r="N12" t="n">
-        <v>-1</v>
+        <v>-0.97</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="S12" t="n">
-        <v>-3</v>
+        <v>-2.91</v>
       </c>
       <c r="T12" t="n">
-        <v>-1</v>
+        <v>-0.93</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -2539,13 +2539,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>-4</v>
+        <v>-4.12</v>
       </c>
       <c r="Y12" t="n">
-        <v>-3</v>
+        <v>-3.12</v>
       </c>
       <c r="Z12" t="n">
-        <v>-1</v>
+        <v>-1.03</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -2562,43 +2562,43 @@
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>27.56</v>
       </c>
       <c r="D13" t="n">
-        <v>25.9</v>
+        <v>26.159</v>
       </c>
       <c r="E13" t="n">
-        <v>25.8</v>
+        <v>25.284</v>
       </c>
       <c r="F13" t="n">
-        <v>25.7</v>
+        <v>23.901</v>
       </c>
       <c r="G13" t="n">
-        <v>25.6</v>
+        <v>24.064</v>
       </c>
       <c r="H13" t="n">
-        <v>25.5</v>
+        <v>25.245</v>
       </c>
       <c r="I13" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="J13" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="K13" t="n">
-        <v>25.5</v>
+        <v>23.205</v>
       </c>
       <c r="L13" t="n">
-        <v>-4</v>
+        <v>-4.24</v>
       </c>
       <c r="M13" t="n">
-        <v>-3</v>
+        <v>-2.82</v>
       </c>
       <c r="N13" t="n">
-        <v>-1</v>
+        <v>-0.91</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2610,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="S13" t="n">
-        <v>-3</v>
+        <v>-2.73</v>
       </c>
       <c r="T13" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2628,13 +2628,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-4</v>
+        <v>-4.36</v>
       </c>
       <c r="Y13" t="n">
-        <v>-3</v>
+        <v>-3.03</v>
       </c>
       <c r="Z13" t="n">
-        <v>-1</v>
+        <v>-1.09</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2651,43 +2651,43 @@
         <v>29</v>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>28.34</v>
       </c>
       <c r="D14" t="n">
-        <v>25.9</v>
+        <v>23.31</v>
       </c>
       <c r="E14" t="n">
-        <v>25.8</v>
+        <v>25.542</v>
       </c>
       <c r="F14" t="n">
-        <v>25.7</v>
+        <v>24.415</v>
       </c>
       <c r="G14" t="n">
-        <v>25.6</v>
+        <v>26.112</v>
       </c>
       <c r="H14" t="n">
-        <v>25.5</v>
+        <v>26.775</v>
       </c>
       <c r="I14" t="n">
-        <v>25.5</v>
+        <v>24.48</v>
       </c>
       <c r="J14" t="n">
-        <v>25.5</v>
+        <v>24.735</v>
       </c>
       <c r="K14" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="L14" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="M14" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="N14" t="n">
-        <v>-1</v>
+        <v>-1.06</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2699,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="S14" t="n">
-        <v>-3</v>
+        <v>-3.27</v>
       </c>
       <c r="T14" t="n">
-        <v>-1</v>
+        <v>-1.07</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2717,13 +2717,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-4</v>
+        <v>-3.68</v>
       </c>
       <c r="Y14" t="n">
-        <v>-3</v>
+        <v>-3.15</v>
       </c>
       <c r="Z14" t="n">
-        <v>-1</v>
+        <v>-0.93</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2740,43 +2740,43 @@
         <v>31</v>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>25.75</v>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>27.82</v>
       </c>
       <c r="D15" t="n">
-        <v>25.9</v>
+        <v>24.087</v>
       </c>
       <c r="E15" t="n">
-        <v>25.8</v>
+        <v>23.736</v>
       </c>
       <c r="F15" t="n">
-        <v>25.7</v>
+        <v>28.013</v>
       </c>
       <c r="G15" t="n">
-        <v>25.6</v>
+        <v>27.904</v>
       </c>
       <c r="H15" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="I15" t="n">
-        <v>25.5</v>
+        <v>23.46</v>
       </c>
       <c r="J15" t="n">
-        <v>25.5</v>
+        <v>24.735</v>
       </c>
       <c r="K15" t="n">
-        <v>25.5</v>
+        <v>25.755</v>
       </c>
       <c r="L15" t="n">
-        <v>-4</v>
+        <v>-4.36</v>
       </c>
       <c r="M15" t="n">
-        <v>-3</v>
+        <v>-2.94</v>
       </c>
       <c r="N15" t="n">
-        <v>-1</v>
+        <v>-0.98</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2788,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="S15" t="n">
-        <v>-3</v>
+        <v>-2.73</v>
       </c>
       <c r="T15" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>-3</v>
+        <v>-3.18</v>
       </c>
       <c r="Z15" t="n">
-        <v>-1</v>
+        <v>-1.08</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2832,40 +2832,40 @@
         <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>25.48</v>
       </c>
       <c r="D16" t="n">
         <v>25.9</v>
       </c>
       <c r="E16" t="n">
-        <v>25.8</v>
+        <v>27.606</v>
       </c>
       <c r="F16" t="n">
-        <v>25.7</v>
+        <v>25.443</v>
       </c>
       <c r="G16" t="n">
-        <v>25.6</v>
+        <v>26.88</v>
       </c>
       <c r="H16" t="n">
-        <v>25.5</v>
+        <v>24.735</v>
       </c>
       <c r="I16" t="n">
-        <v>25.5</v>
+        <v>23.205</v>
       </c>
       <c r="J16" t="n">
-        <v>25.5</v>
+        <v>25.245</v>
       </c>
       <c r="K16" t="n">
-        <v>25.5</v>
+        <v>24.735</v>
       </c>
       <c r="L16" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="M16" t="n">
-        <v>-3</v>
+        <v>-3.27</v>
       </c>
       <c r="N16" t="n">
-        <v>-1</v>
+        <v>-1.05</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2877,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="S16" t="n">
-        <v>-3</v>
+        <v>-2.73</v>
       </c>
       <c r="T16" t="n">
-        <v>-1</v>
+        <v>-1.03</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2895,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="Y16" t="n">
-        <v>-3</v>
+        <v>-3.15</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1</v>
+        <v>-1.04</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2918,43 +2918,43 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>24.25</v>
       </c>
       <c r="C17" t="n">
-        <v>26</v>
+        <v>27.04</v>
       </c>
       <c r="D17" t="n">
-        <v>25.9</v>
+        <v>27.713</v>
       </c>
       <c r="E17" t="n">
-        <v>25.8</v>
+        <v>23.22</v>
       </c>
       <c r="F17" t="n">
-        <v>25.7</v>
+        <v>23.644</v>
       </c>
       <c r="G17" t="n">
-        <v>25.6</v>
+        <v>23.808</v>
       </c>
       <c r="H17" t="n">
-        <v>25.5</v>
+        <v>27.285</v>
       </c>
       <c r="I17" t="n">
-        <v>25.5</v>
+        <v>27.795</v>
       </c>
       <c r="J17" t="n">
-        <v>25.5</v>
+        <v>23.205</v>
       </c>
       <c r="K17" t="n">
-        <v>25.5</v>
+        <v>25.245</v>
       </c>
       <c r="L17" t="n">
-        <v>-4</v>
+        <v>-4.16</v>
       </c>
       <c r="M17" t="n">
-        <v>-3</v>
+        <v>-2.85</v>
       </c>
       <c r="N17" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2966,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-4</v>
+        <v>-4.08</v>
       </c>
       <c r="S17" t="n">
-        <v>-3</v>
+        <v>-2.76</v>
       </c>
       <c r="T17" t="n">
-        <v>-1</v>
+        <v>-0.98</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2984,13 +2984,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-4</v>
+        <v>-3.72</v>
       </c>
       <c r="Y17" t="n">
-        <v>-3</v>
+        <v>-3.24</v>
       </c>
       <c r="Z17" t="n">
-        <v>-1</v>
+        <v>-0.92</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -3007,40 +3007,40 @@
         <v>37</v>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>28.08</v>
       </c>
       <c r="D18" t="n">
-        <v>25.9</v>
+        <v>23.31</v>
       </c>
       <c r="E18" t="n">
-        <v>25.8</v>
+        <v>27.348</v>
       </c>
       <c r="F18" t="n">
         <v>25.7</v>
       </c>
       <c r="G18" t="n">
-        <v>25.6</v>
+        <v>26.368</v>
       </c>
       <c r="H18" t="n">
-        <v>25.5</v>
+        <v>26.775</v>
       </c>
       <c r="I18" t="n">
-        <v>25.5</v>
+        <v>24.735</v>
       </c>
       <c r="J18" t="n">
         <v>25.5</v>
       </c>
       <c r="K18" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="L18" t="n">
-        <v>-4</v>
+        <v>-3.64</v>
       </c>
       <c r="M18" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="N18" t="n">
         <v>-1</v>
@@ -3055,13 +3055,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="S18" t="n">
-        <v>-3</v>
+        <v>-2.85</v>
       </c>
       <c r="T18" t="n">
-        <v>-1</v>
+        <v>-0.91</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>-4</v>
+        <v>-3.84</v>
       </c>
       <c r="Y18" t="n">
-        <v>-3</v>
+        <v>-2.79</v>
       </c>
       <c r="Z18" t="n">
-        <v>-1</v>
+        <v>-0.91</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -3096,43 +3096,43 @@
         <v>39</v>
       </c>
       <c r="B19" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>24.44</v>
       </c>
       <c r="D19" t="n">
-        <v>25.9</v>
+        <v>26.418</v>
       </c>
       <c r="E19" t="n">
-        <v>25.8</v>
+        <v>26.316</v>
       </c>
       <c r="F19" t="n">
-        <v>25.7</v>
+        <v>25.186</v>
       </c>
       <c r="G19" t="n">
-        <v>25.6</v>
+        <v>27.136</v>
       </c>
       <c r="H19" t="n">
-        <v>25.5</v>
+        <v>23.46</v>
       </c>
       <c r="I19" t="n">
-        <v>25.5</v>
+        <v>27.795</v>
       </c>
       <c r="J19" t="n">
-        <v>25.5</v>
+        <v>26.775</v>
       </c>
       <c r="K19" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="L19" t="n">
-        <v>-4</v>
+        <v>-3.88</v>
       </c>
       <c r="M19" t="n">
-        <v>-3</v>
+        <v>-3.06</v>
       </c>
       <c r="N19" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -3144,13 +3144,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-4</v>
+        <v>-3.68</v>
       </c>
       <c r="S19" t="n">
-        <v>-3</v>
+        <v>-3.24</v>
       </c>
       <c r="T19" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-4</v>
+        <v>-3.84</v>
       </c>
       <c r="Y19" t="n">
-        <v>-3</v>
+        <v>-3.27</v>
       </c>
       <c r="Z19" t="n">
-        <v>-1</v>
+        <v>-0.98</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -3185,43 +3185,43 @@
         <v>41</v>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>27.82</v>
       </c>
       <c r="D20" t="n">
-        <v>25.9</v>
+        <v>23.31</v>
       </c>
       <c r="E20" t="n">
-        <v>25.8</v>
+        <v>26.316</v>
       </c>
       <c r="F20" t="n">
-        <v>25.7</v>
+        <v>23.901</v>
       </c>
       <c r="G20" t="n">
-        <v>25.6</v>
+        <v>27.136</v>
       </c>
       <c r="H20" t="n">
-        <v>25.5</v>
+        <v>27.285</v>
       </c>
       <c r="I20" t="n">
-        <v>25.5</v>
+        <v>24.225</v>
       </c>
       <c r="J20" t="n">
-        <v>25.5</v>
+        <v>27.795</v>
       </c>
       <c r="K20" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="L20" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="M20" t="n">
-        <v>-3</v>
+        <v>-2.85</v>
       </c>
       <c r="N20" t="n">
-        <v>-1</v>
+        <v>-0.99</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -3233,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="S20" t="n">
-        <v>-3</v>
+        <v>-3.09</v>
       </c>
       <c r="T20" t="n">
-        <v>-1</v>
+        <v>-0.97</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -3254,10 +3254,10 @@
         <v>-4</v>
       </c>
       <c r="Y20" t="n">
-        <v>-3</v>
+        <v>-3.06</v>
       </c>
       <c r="Z20" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -3274,43 +3274,43 @@
         <v>43</v>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="C21" t="n">
-        <v>26</v>
+        <v>24.96</v>
       </c>
       <c r="D21" t="n">
-        <v>25.9</v>
+        <v>26.418</v>
       </c>
       <c r="E21" t="n">
-        <v>25.8</v>
+        <v>27.606</v>
       </c>
       <c r="F21" t="n">
-        <v>25.7</v>
+        <v>25.186</v>
       </c>
       <c r="G21" t="n">
         <v>25.6</v>
       </c>
       <c r="H21" t="n">
-        <v>25.5</v>
+        <v>26.775</v>
       </c>
       <c r="I21" t="n">
-        <v>25.5</v>
+        <v>27.285</v>
       </c>
       <c r="J21" t="n">
-        <v>25.5</v>
+        <v>24.735</v>
       </c>
       <c r="K21" t="n">
-        <v>25.5</v>
+        <v>25.245</v>
       </c>
       <c r="L21" t="n">
-        <v>-4</v>
+        <v>-4.24</v>
       </c>
       <c r="M21" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="N21" t="n">
-        <v>-1</v>
+        <v>-1.03</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-4</v>
+        <v>-4.24</v>
       </c>
       <c r="S21" t="n">
-        <v>-3</v>
+        <v>-3.12</v>
       </c>
       <c r="T21" t="n">
-        <v>-1</v>
+        <v>-1.04</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -3340,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>-4</v>
+        <v>-3.64</v>
       </c>
       <c r="Y21" t="n">
-        <v>-3</v>
+        <v>-2.76</v>
       </c>
       <c r="Z21" t="n">
-        <v>-1</v>
+        <v>-0.97</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -3363,43 +3363,43 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>22.75</v>
       </c>
       <c r="C22" t="n">
-        <v>26</v>
+        <v>26.52</v>
       </c>
       <c r="D22" t="n">
-        <v>25.9</v>
+        <v>26.677</v>
       </c>
       <c r="E22" t="n">
-        <v>25.8</v>
+        <v>25.542</v>
       </c>
       <c r="F22" t="n">
         <v>25.7</v>
       </c>
       <c r="G22" t="n">
-        <v>25.6</v>
+        <v>24.576</v>
       </c>
       <c r="H22" t="n">
-        <v>25.5</v>
+        <v>25.755</v>
       </c>
       <c r="I22" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="J22" t="n">
-        <v>25.5</v>
+        <v>23.46</v>
       </c>
       <c r="K22" t="n">
-        <v>25.5</v>
+        <v>26.52</v>
       </c>
       <c r="L22" t="n">
-        <v>-4</v>
+        <v>-4.32</v>
       </c>
       <c r="M22" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="N22" t="n">
-        <v>-1</v>
+        <v>-1.06</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-4</v>
+        <v>-4.08</v>
       </c>
       <c r="S22" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="T22" t="n">
-        <v>-1</v>
+        <v>-1.04</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>-3</v>
+        <v>-3.12</v>
       </c>
       <c r="Z22" t="n">
-        <v>-1</v>
+        <v>-0.97</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -3452,43 +3452,43 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>24.18</v>
       </c>
       <c r="D23" t="n">
-        <v>25.9</v>
+        <v>26.418</v>
       </c>
       <c r="E23" t="n">
-        <v>25.8</v>
+        <v>23.994</v>
       </c>
       <c r="F23" t="n">
-        <v>25.7</v>
+        <v>26.985</v>
       </c>
       <c r="G23" t="n">
-        <v>25.6</v>
+        <v>26.368</v>
       </c>
       <c r="H23" t="n">
-        <v>25.5</v>
+        <v>24.225</v>
       </c>
       <c r="I23" t="n">
-        <v>25.5</v>
+        <v>23.46</v>
       </c>
       <c r="J23" t="n">
-        <v>25.5</v>
+        <v>25.755</v>
       </c>
       <c r="K23" t="n">
-        <v>25.5</v>
+        <v>24.225</v>
       </c>
       <c r="L23" t="n">
-        <v>-4</v>
+        <v>-3.68</v>
       </c>
       <c r="M23" t="n">
-        <v>-3</v>
+        <v>-3.03</v>
       </c>
       <c r="N23" t="n">
-        <v>-1</v>
+        <v>-0.92</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-4</v>
+        <v>-3.64</v>
       </c>
       <c r="S23" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="T23" t="n">
-        <v>-1</v>
+        <v>-1.06</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-4</v>
+        <v>-4.36</v>
       </c>
       <c r="Y23" t="n">
-        <v>-3</v>
+        <v>-2.91</v>
       </c>
       <c r="Z23" t="n">
-        <v>-1</v>
+        <v>-1.01</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -3541,43 +3541,43 @@
         <v>49</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>25.75</v>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>25.74</v>
       </c>
       <c r="D24" t="n">
-        <v>25.9</v>
+        <v>28.231</v>
       </c>
       <c r="E24" t="n">
-        <v>25.8</v>
+        <v>27.348</v>
       </c>
       <c r="F24" t="n">
-        <v>25.7</v>
+        <v>27.242</v>
       </c>
       <c r="G24" t="n">
-        <v>25.6</v>
+        <v>24.832</v>
       </c>
       <c r="H24" t="n">
         <v>25.5</v>
       </c>
       <c r="I24" t="n">
-        <v>25.5</v>
+        <v>27.03</v>
       </c>
       <c r="J24" t="n">
-        <v>25.5</v>
+        <v>23.97</v>
       </c>
       <c r="K24" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="L24" t="n">
-        <v>-4</v>
+        <v>-3.92</v>
       </c>
       <c r="M24" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="N24" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3589,13 +3589,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-4</v>
+        <v>-3.84</v>
       </c>
       <c r="S24" t="n">
-        <v>-3</v>
+        <v>-3.06</v>
       </c>
       <c r="T24" t="n">
-        <v>-1</v>
+        <v>-1.09</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3607,13 +3607,13 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>-4</v>
+        <v>-4.32</v>
       </c>
       <c r="Y24" t="n">
-        <v>-3</v>
+        <v>-3.18</v>
       </c>
       <c r="Z24" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -3630,43 +3630,43 @@
         <v>51</v>
       </c>
       <c r="B25" t="n">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="C25" t="n">
-        <v>26</v>
+        <v>27.56</v>
       </c>
       <c r="D25" t="n">
-        <v>25.9</v>
+        <v>24.864</v>
       </c>
       <c r="E25" t="n">
-        <v>25.8</v>
+        <v>25.284</v>
       </c>
       <c r="F25" t="n">
-        <v>25.7</v>
+        <v>27.242</v>
       </c>
       <c r="G25" t="n">
-        <v>25.6</v>
+        <v>24.832</v>
       </c>
       <c r="H25" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="I25" t="n">
-        <v>25.5</v>
+        <v>23.205</v>
       </c>
       <c r="J25" t="n">
-        <v>25.5</v>
+        <v>24.225</v>
       </c>
       <c r="K25" t="n">
-        <v>25.5</v>
+        <v>26.775</v>
       </c>
       <c r="L25" t="n">
-        <v>-4</v>
+        <v>-4.08</v>
       </c>
       <c r="M25" t="n">
-        <v>-3</v>
+        <v>-3.21</v>
       </c>
       <c r="N25" t="n">
-        <v>-1</v>
+        <v>-1.09</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>-4</v>
       </c>
       <c r="S25" t="n">
-        <v>-3</v>
+        <v>-3.12</v>
       </c>
       <c r="T25" t="n">
-        <v>-1</v>
+        <v>-1.09</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -3696,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-4</v>
+        <v>-3.88</v>
       </c>
       <c r="Y25" t="n">
-        <v>-3</v>
+        <v>-3.12</v>
       </c>
       <c r="Z25" t="n">
-        <v>-1</v>
+        <v>-0.97</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3719,43 +3719,43 @@
         <v>53</v>
       </c>
       <c r="B26" t="n">
-        <v>25</v>
+        <v>23.75</v>
       </c>
       <c r="C26" t="n">
-        <v>26</v>
+        <v>25.74</v>
       </c>
       <c r="D26" t="n">
-        <v>25.9</v>
+        <v>23.828</v>
       </c>
       <c r="E26" t="n">
-        <v>25.8</v>
+        <v>26.316</v>
       </c>
       <c r="F26" t="n">
         <v>25.7</v>
       </c>
       <c r="G26" t="n">
-        <v>25.6</v>
+        <v>24.576</v>
       </c>
       <c r="H26" t="n">
-        <v>25.5</v>
+        <v>24.48</v>
       </c>
       <c r="I26" t="n">
-        <v>25.5</v>
+        <v>26.52</v>
       </c>
       <c r="J26" t="n">
-        <v>25.5</v>
+        <v>26.265</v>
       </c>
       <c r="K26" t="n">
-        <v>25.5</v>
+        <v>23.46</v>
       </c>
       <c r="L26" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="M26" t="n">
-        <v>-3</v>
+        <v>-3.15</v>
       </c>
       <c r="N26" t="n">
-        <v>-1</v>
+        <v>-0.95</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3767,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-4</v>
+        <v>-4.08</v>
       </c>
       <c r="S26" t="n">
-        <v>-3</v>
+        <v>-3.24</v>
       </c>
       <c r="T26" t="n">
-        <v>-1</v>
+        <v>-0.96</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-4</v>
+        <v>-3.92</v>
       </c>
       <c r="Y26" t="n">
-        <v>-3</v>
+        <v>-2.91</v>
       </c>
       <c r="Z26" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -3808,43 +3808,43 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="C27" t="n">
-        <v>26</v>
+        <v>27.3</v>
       </c>
       <c r="D27" t="n">
-        <v>25.9</v>
+        <v>24.864</v>
       </c>
       <c r="E27" t="n">
-        <v>25.8</v>
+        <v>26.316</v>
       </c>
       <c r="F27" t="n">
-        <v>25.7</v>
+        <v>26.985</v>
       </c>
       <c r="G27" t="n">
-        <v>25.6</v>
+        <v>26.368</v>
       </c>
       <c r="H27" t="n">
         <v>25.5</v>
       </c>
       <c r="I27" t="n">
-        <v>25.5</v>
+        <v>22.95</v>
       </c>
       <c r="J27" t="n">
-        <v>25.5</v>
+        <v>24.48</v>
       </c>
       <c r="K27" t="n">
-        <v>25.5</v>
+        <v>23.97</v>
       </c>
       <c r="L27" t="n">
-        <v>-4</v>
+        <v>-4.04</v>
       </c>
       <c r="M27" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="N27" t="n">
-        <v>-1</v>
+        <v>-0.95</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3856,13 +3856,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>-4</v>
+        <v>-4.36</v>
       </c>
       <c r="S27" t="n">
-        <v>-3</v>
+        <v>-2.76</v>
       </c>
       <c r="T27" t="n">
-        <v>-1</v>
+        <v>-0.95</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3877,10 +3877,10 @@
         <v>-4</v>
       </c>
       <c r="Y27" t="n">
-        <v>-3</v>
+        <v>-2.76</v>
       </c>
       <c r="Z27" t="n">
-        <v>-1</v>
+        <v>-0.99</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3897,43 +3897,43 @@
         <v>57</v>
       </c>
       <c r="B28" t="n">
-        <v>25</v>
+        <v>27.25</v>
       </c>
       <c r="C28" t="n">
-        <v>26</v>
+        <v>28.34</v>
       </c>
       <c r="D28" t="n">
-        <v>25.9</v>
+        <v>26.159</v>
       </c>
       <c r="E28" t="n">
-        <v>25.8</v>
+        <v>26.574</v>
       </c>
       <c r="F28" t="n">
-        <v>25.7</v>
+        <v>25.957</v>
       </c>
       <c r="G28" t="n">
-        <v>25.6</v>
+        <v>27.904</v>
       </c>
       <c r="H28" t="n">
-        <v>25.5</v>
+        <v>22.95</v>
       </c>
       <c r="I28" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="J28" t="n">
-        <v>25.5</v>
+        <v>27.795</v>
       </c>
       <c r="K28" t="n">
-        <v>25.5</v>
+        <v>23.97</v>
       </c>
       <c r="L28" t="n">
-        <v>-4</v>
+        <v>-4.12</v>
       </c>
       <c r="M28" t="n">
-        <v>-3</v>
+        <v>-3.24</v>
       </c>
       <c r="N28" t="n">
-        <v>-1</v>
+        <v>-0.99</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-4</v>
+        <v>-4.24</v>
       </c>
       <c r="S28" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="T28" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3966,10 +3966,10 @@
         <v>-4</v>
       </c>
       <c r="Y28" t="n">
-        <v>-3</v>
+        <v>-2.73</v>
       </c>
       <c r="Z28" t="n">
-        <v>-1</v>
+        <v>-0.96</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -3986,43 +3986,43 @@
         <v>59</v>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="C29" t="n">
-        <v>26</v>
+        <v>26.78</v>
       </c>
       <c r="D29" t="n">
-        <v>25.9</v>
+        <v>26.677</v>
       </c>
       <c r="E29" t="n">
-        <v>25.8</v>
+        <v>23.478</v>
       </c>
       <c r="F29" t="n">
         <v>25.7</v>
       </c>
       <c r="G29" t="n">
-        <v>25.6</v>
+        <v>27.136</v>
       </c>
       <c r="H29" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="I29" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="J29" t="n">
-        <v>25.5</v>
+        <v>24.99</v>
       </c>
       <c r="K29" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="L29" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="M29" t="n">
-        <v>-3</v>
+        <v>-3.15</v>
       </c>
       <c r="N29" t="n">
-        <v>-1</v>
+        <v>-0.97</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-4</v>
+        <v>-3.68</v>
       </c>
       <c r="S29" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="T29" t="n">
-        <v>-1</v>
+        <v>-0.97</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -4052,13 +4052,13 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="Y29" t="n">
-        <v>-3</v>
+        <v>-3.06</v>
       </c>
       <c r="Z29" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -4075,43 +4075,43 @@
         <v>61</v>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="C30" t="n">
-        <v>26</v>
+        <v>27.3</v>
       </c>
       <c r="D30" t="n">
-        <v>25.9</v>
+        <v>24.864</v>
       </c>
       <c r="E30" t="n">
-        <v>25.8</v>
+        <v>26.316</v>
       </c>
       <c r="F30" t="n">
-        <v>25.7</v>
+        <v>27.499</v>
       </c>
       <c r="G30" t="n">
-        <v>25.6</v>
+        <v>27.648</v>
       </c>
       <c r="H30" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="I30" t="n">
-        <v>25.5</v>
+        <v>26.52</v>
       </c>
       <c r="J30" t="n">
-        <v>25.5</v>
+        <v>25.755</v>
       </c>
       <c r="K30" t="n">
-        <v>25.5</v>
+        <v>27.03</v>
       </c>
       <c r="L30" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="M30" t="n">
-        <v>-3</v>
+        <v>-2.91</v>
       </c>
       <c r="N30" t="n">
-        <v>-1</v>
+        <v>-0.97</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -4126,10 +4126,10 @@
         <v>-4</v>
       </c>
       <c r="S30" t="n">
-        <v>-3</v>
+        <v>-3.09</v>
       </c>
       <c r="T30" t="n">
-        <v>-1</v>
+        <v>-1.04</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>-4</v>
+        <v>-3.84</v>
       </c>
       <c r="Y30" t="n">
-        <v>-3</v>
+        <v>-2.85</v>
       </c>
       <c r="Z30" t="n">
-        <v>-1</v>
+        <v>-0.91</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -4164,43 +4164,43 @@
         <v>63</v>
       </c>
       <c r="B31" t="n">
-        <v>25</v>
+        <v>26.25</v>
       </c>
       <c r="C31" t="n">
-        <v>26</v>
+        <v>27.56</v>
       </c>
       <c r="D31" t="n">
-        <v>25.9</v>
+        <v>25.123</v>
       </c>
       <c r="E31" t="n">
-        <v>25.8</v>
+        <v>26.832</v>
       </c>
       <c r="F31" t="n">
-        <v>25.7</v>
+        <v>26.471</v>
       </c>
       <c r="G31" t="n">
-        <v>25.6</v>
+        <v>26.368</v>
       </c>
       <c r="H31" t="n">
-        <v>25.5</v>
+        <v>26.52</v>
       </c>
       <c r="I31" t="n">
-        <v>25.5</v>
+        <v>26.265</v>
       </c>
       <c r="J31" t="n">
-        <v>25.5</v>
+        <v>26.775</v>
       </c>
       <c r="K31" t="n">
-        <v>25.5</v>
+        <v>24.48</v>
       </c>
       <c r="L31" t="n">
-        <v>-4</v>
+        <v>-3.84</v>
       </c>
       <c r="M31" t="n">
-        <v>-3</v>
+        <v>-3.24</v>
       </c>
       <c r="N31" t="n">
-        <v>-1</v>
+        <v>-0.92</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -4212,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-4</v>
+        <v>-3.88</v>
       </c>
       <c r="S31" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="T31" t="n">
-        <v>-1</v>
+        <v>-1.01</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -4230,13 +4230,13 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="Y31" t="n">
-        <v>-3</v>
+        <v>-2.88</v>
       </c>
       <c r="Z31" t="n">
-        <v>-1</v>
+        <v>-0.93</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -4253,43 +4253,43 @@
         <v>65</v>
       </c>
       <c r="B32" t="n">
-        <v>25</v>
+        <v>27.25</v>
       </c>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>24.7</v>
       </c>
       <c r="D32" t="n">
-        <v>25.9</v>
+        <v>27.195</v>
       </c>
       <c r="E32" t="n">
-        <v>25.8</v>
+        <v>27.348</v>
       </c>
       <c r="F32" t="n">
-        <v>25.7</v>
+        <v>24.158</v>
       </c>
       <c r="G32" t="n">
-        <v>25.6</v>
+        <v>23.04</v>
       </c>
       <c r="H32" t="n">
-        <v>25.5</v>
+        <v>26.265</v>
       </c>
       <c r="I32" t="n">
-        <v>25.5</v>
+        <v>23.205</v>
       </c>
       <c r="J32" t="n">
-        <v>25.5</v>
+        <v>27.795</v>
       </c>
       <c r="K32" t="n">
-        <v>25.5</v>
+        <v>25.755</v>
       </c>
       <c r="L32" t="n">
-        <v>-4</v>
+        <v>-4.32</v>
       </c>
       <c r="M32" t="n">
-        <v>-3</v>
+        <v>-3.03</v>
       </c>
       <c r="N32" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -4301,13 +4301,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-4</v>
+        <v>-3.64</v>
       </c>
       <c r="S32" t="n">
-        <v>-3</v>
+        <v>-2.94</v>
       </c>
       <c r="T32" t="n">
-        <v>-1</v>
+        <v>-1.04</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -4322,10 +4322,10 @@
         <v>-4</v>
       </c>
       <c r="Y32" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="Z32" t="n">
-        <v>-1</v>
+        <v>-0.98</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -4342,43 +4342,43 @@
         <v>67</v>
       </c>
       <c r="B33" t="n">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="C33" t="n">
-        <v>26</v>
+        <v>25.74</v>
       </c>
       <c r="D33" t="n">
-        <v>25.9</v>
+        <v>26.159</v>
       </c>
       <c r="E33" t="n">
-        <v>25.8</v>
+        <v>27.606</v>
       </c>
       <c r="F33" t="n">
-        <v>25.7</v>
+        <v>24.672</v>
       </c>
       <c r="G33" t="n">
-        <v>25.6</v>
+        <v>25.85600000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>25.5</v>
+        <v>24.225</v>
       </c>
       <c r="I33" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="J33" t="n">
-        <v>25.5</v>
+        <v>24.735</v>
       </c>
       <c r="K33" t="n">
-        <v>25.5</v>
+        <v>27.795</v>
       </c>
       <c r="L33" t="n">
         <v>-4</v>
       </c>
       <c r="M33" t="n">
-        <v>-3</v>
+        <v>-3.03</v>
       </c>
       <c r="N33" t="n">
-        <v>-1</v>
+        <v>-0.96</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -4390,13 +4390,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-4</v>
+        <v>-4.16</v>
       </c>
       <c r="S33" t="n">
-        <v>-3</v>
+        <v>-2.76</v>
       </c>
       <c r="T33" t="n">
-        <v>-1</v>
+        <v>-0.96</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -4408,13 +4408,13 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>-4</v>
+        <v>-3.72</v>
       </c>
       <c r="Y33" t="n">
-        <v>-3</v>
+        <v>-3.03</v>
       </c>
       <c r="Z33" t="n">
-        <v>-1</v>
+        <v>-1.07</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -4431,43 +4431,43 @@
         <v>69</v>
       </c>
       <c r="B34" t="n">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="C34" t="n">
-        <v>26</v>
+        <v>27.82</v>
       </c>
       <c r="D34" t="n">
-        <v>25.9</v>
+        <v>27.972</v>
       </c>
       <c r="E34" t="n">
-        <v>25.8</v>
+        <v>27.09</v>
       </c>
       <c r="F34" t="n">
-        <v>25.7</v>
+        <v>25.957</v>
       </c>
       <c r="G34" t="n">
-        <v>25.6</v>
+        <v>24.576</v>
       </c>
       <c r="H34" t="n">
-        <v>25.5</v>
+        <v>24.225</v>
       </c>
       <c r="I34" t="n">
-        <v>25.5</v>
+        <v>24.225</v>
       </c>
       <c r="J34" t="n">
-        <v>25.5</v>
+        <v>25.755</v>
       </c>
       <c r="K34" t="n">
-        <v>25.5</v>
+        <v>23.205</v>
       </c>
       <c r="L34" t="n">
-        <v>-4</v>
+        <v>-4.12</v>
       </c>
       <c r="M34" t="n">
-        <v>-3</v>
+        <v>-3.12</v>
       </c>
       <c r="N34" t="n">
-        <v>-1</v>
+        <v>-0.92</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -4479,13 +4479,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="S34" t="n">
-        <v>-3</v>
+        <v>-2.82</v>
       </c>
       <c r="T34" t="n">
-        <v>-1</v>
+        <v>-0.97</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -4497,13 +4497,13 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-4</v>
+        <v>-4.36</v>
       </c>
       <c r="Y34" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="Z34" t="n">
-        <v>-1</v>
+        <v>-0.93</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -4520,43 +4520,43 @@
         <v>71</v>
       </c>
       <c r="B35" t="n">
-        <v>25</v>
+        <v>24.25</v>
       </c>
       <c r="C35" t="n">
         <v>26</v>
       </c>
       <c r="D35" t="n">
-        <v>25.9</v>
+        <v>23.828</v>
       </c>
       <c r="E35" t="n">
-        <v>25.8</v>
+        <v>24.252</v>
       </c>
       <c r="F35" t="n">
-        <v>25.7</v>
+        <v>26.214</v>
       </c>
       <c r="G35" t="n">
-        <v>25.6</v>
+        <v>27.392</v>
       </c>
       <c r="H35" t="n">
-        <v>25.5</v>
+        <v>24.48</v>
       </c>
       <c r="I35" t="n">
-        <v>25.5</v>
+        <v>23.97</v>
       </c>
       <c r="J35" t="n">
-        <v>25.5</v>
+        <v>25.755</v>
       </c>
       <c r="K35" t="n">
-        <v>25.5</v>
+        <v>23.46</v>
       </c>
       <c r="L35" t="n">
-        <v>-4</v>
+        <v>-4.32</v>
       </c>
       <c r="M35" t="n">
-        <v>-3</v>
+        <v>-2.94</v>
       </c>
       <c r="N35" t="n">
-        <v>-1</v>
+        <v>-0.91</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -4571,10 +4571,10 @@
         <v>-4</v>
       </c>
       <c r="S35" t="n">
-        <v>-3</v>
+        <v>-3.09</v>
       </c>
       <c r="T35" t="n">
-        <v>-1</v>
+        <v>-1.08</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -4586,13 +4586,13 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-4</v>
+        <v>-4.24</v>
       </c>
       <c r="Y35" t="n">
-        <v>-3</v>
+        <v>-3.06</v>
       </c>
       <c r="Z35" t="n">
-        <v>-1</v>
+        <v>-1.03</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
@@ -4609,43 +4609,43 @@
         <v>73</v>
       </c>
       <c r="B36" t="n">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="C36" t="n">
-        <v>26</v>
+        <v>24.7</v>
       </c>
       <c r="D36" t="n">
-        <v>25.9</v>
+        <v>26.418</v>
       </c>
       <c r="E36" t="n">
-        <v>25.8</v>
+        <v>25.284</v>
       </c>
       <c r="F36" t="n">
-        <v>25.7</v>
+        <v>23.644</v>
       </c>
       <c r="G36" t="n">
-        <v>25.6</v>
+        <v>25.088</v>
       </c>
       <c r="H36" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="I36" t="n">
-        <v>25.5</v>
+        <v>25.245</v>
       </c>
       <c r="J36" t="n">
-        <v>25.5</v>
+        <v>23.205</v>
       </c>
       <c r="K36" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="L36" t="n">
-        <v>-4</v>
+        <v>-4.32</v>
       </c>
       <c r="M36" t="n">
-        <v>-3</v>
+        <v>-3.18</v>
       </c>
       <c r="N36" t="n">
-        <v>-1</v>
+        <v>-1.06</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -4657,10 +4657,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="S36" t="n">
-        <v>-3</v>
+        <v>-3.09</v>
       </c>
       <c r="T36" t="n">
         <v>-1</v>
@@ -4675,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="Y36" t="n">
-        <v>-3</v>
+        <v>-3.24</v>
       </c>
       <c r="Z36" t="n">
-        <v>-1</v>
+        <v>-0.95</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -4698,43 +4698,43 @@
         <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>25</v>
+        <v>25.75</v>
       </c>
       <c r="C37" t="n">
-        <v>26</v>
+        <v>27.56</v>
       </c>
       <c r="D37" t="n">
-        <v>25.9</v>
+        <v>24.864</v>
       </c>
       <c r="E37" t="n">
-        <v>25.8</v>
+        <v>23.994</v>
       </c>
       <c r="F37" t="n">
-        <v>25.7</v>
+        <v>25.443</v>
       </c>
       <c r="G37" t="n">
-        <v>25.6</v>
+        <v>26.368</v>
       </c>
       <c r="H37" t="n">
-        <v>25.5</v>
+        <v>24.99</v>
       </c>
       <c r="I37" t="n">
-        <v>25.5</v>
+        <v>24.735</v>
       </c>
       <c r="J37" t="n">
         <v>25.5</v>
       </c>
       <c r="K37" t="n">
-        <v>25.5</v>
+        <v>27.03</v>
       </c>
       <c r="L37" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="M37" t="n">
-        <v>-3</v>
+        <v>-2.82</v>
       </c>
       <c r="N37" t="n">
-        <v>-1</v>
+        <v>-0.91</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4746,13 +4746,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-4</v>
+        <v>-3.84</v>
       </c>
       <c r="S37" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="T37" t="n">
-        <v>-1</v>
+        <v>-0.93</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4764,13 +4764,13 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-4</v>
+        <v>-4.32</v>
       </c>
       <c r="Y37" t="n">
-        <v>-3</v>
+        <v>-2.82</v>
       </c>
       <c r="Z37" t="n">
-        <v>-1</v>
+        <v>-0.92</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -4787,22 +4787,22 @@
         <v>77</v>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="C38" t="n">
-        <v>26</v>
+        <v>28.34</v>
       </c>
       <c r="D38" t="n">
-        <v>25.9</v>
+        <v>24.864</v>
       </c>
       <c r="E38" t="n">
-        <v>25.8</v>
+        <v>26.832</v>
       </c>
       <c r="F38" t="n">
-        <v>25.7</v>
+        <v>27.242</v>
       </c>
       <c r="G38" t="n">
-        <v>25.6</v>
+        <v>27.904</v>
       </c>
       <c r="H38" t="n">
         <v>25.5</v>
@@ -4811,19 +4811,19 @@
         <v>25.5</v>
       </c>
       <c r="J38" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="K38" t="n">
-        <v>25.5</v>
+        <v>27.03</v>
       </c>
       <c r="L38" t="n">
-        <v>-4</v>
+        <v>-4.04</v>
       </c>
       <c r="M38" t="n">
-        <v>-3</v>
+        <v>-2.91</v>
       </c>
       <c r="N38" t="n">
-        <v>-1</v>
+        <v>-0.97</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-4</v>
+        <v>-3.64</v>
       </c>
       <c r="S38" t="n">
         <v>-3</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-4</v>
+        <v>-4.36</v>
       </c>
       <c r="Y38" t="n">
-        <v>-3</v>
+        <v>-2.85</v>
       </c>
       <c r="Z38" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
@@ -4876,34 +4876,34 @@
         <v>79</v>
       </c>
       <c r="B39" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="C39" t="n">
-        <v>26</v>
+        <v>25.48</v>
       </c>
       <c r="D39" t="n">
-        <v>25.9</v>
+        <v>24.605</v>
       </c>
       <c r="E39" t="n">
-        <v>25.8</v>
+        <v>28.122</v>
       </c>
       <c r="F39" t="n">
-        <v>25.7</v>
+        <v>24.158</v>
       </c>
       <c r="G39" t="n">
         <v>25.6</v>
       </c>
       <c r="H39" t="n">
-        <v>25.5</v>
+        <v>27.795</v>
       </c>
       <c r="I39" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="J39" t="n">
-        <v>25.5</v>
+        <v>24.735</v>
       </c>
       <c r="K39" t="n">
-        <v>25.5</v>
+        <v>27.285</v>
       </c>
       <c r="L39" t="n">
         <v>-4</v>
@@ -4912,7 +4912,7 @@
         <v>-3</v>
       </c>
       <c r="N39" t="n">
-        <v>-1</v>
+        <v>-0.91</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -4924,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-4</v>
+        <v>-3.84</v>
       </c>
       <c r="S39" t="n">
-        <v>-3</v>
+        <v>-2.79</v>
       </c>
       <c r="T39" t="n">
-        <v>-1</v>
+        <v>-0.99</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -4942,13 +4942,13 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="Y39" t="n">
-        <v>-3</v>
+        <v>-2.94</v>
       </c>
       <c r="Z39" t="n">
-        <v>-1</v>
+        <v>-1.03</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
@@ -4965,43 +4965,43 @@
         <v>81</v>
       </c>
       <c r="B40" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="C40" t="n">
-        <v>26</v>
+        <v>28.34</v>
       </c>
       <c r="D40" t="n">
-        <v>25.9</v>
+        <v>23.569</v>
       </c>
       <c r="E40" t="n">
-        <v>25.8</v>
+        <v>24.51</v>
       </c>
       <c r="F40" t="n">
-        <v>25.7</v>
+        <v>24.929</v>
       </c>
       <c r="G40" t="n">
-        <v>25.6</v>
+        <v>26.368</v>
       </c>
       <c r="H40" t="n">
-        <v>25.5</v>
+        <v>23.46</v>
       </c>
       <c r="I40" t="n">
-        <v>25.5</v>
+        <v>22.95</v>
       </c>
       <c r="J40" t="n">
-        <v>25.5</v>
+        <v>25.755</v>
       </c>
       <c r="K40" t="n">
-        <v>25.5</v>
+        <v>23.46</v>
       </c>
       <c r="L40" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="M40" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="N40" t="n">
-        <v>-1</v>
+        <v>-1.06</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -5013,13 +5013,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="S40" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="T40" t="n">
-        <v>-1</v>
+        <v>-0.99</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -5031,13 +5031,13 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="Y40" t="n">
-        <v>-3</v>
+        <v>-2.91</v>
       </c>
       <c r="Z40" t="n">
-        <v>-1</v>
+        <v>-1.08</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
@@ -5057,40 +5057,40 @@
         <v>25</v>
       </c>
       <c r="C41" t="n">
-        <v>26</v>
+        <v>27.3</v>
       </c>
       <c r="D41" t="n">
-        <v>25.9</v>
+        <v>27.972</v>
       </c>
       <c r="E41" t="n">
-        <v>25.8</v>
+        <v>23.994</v>
       </c>
       <c r="F41" t="n">
-        <v>25.7</v>
+        <v>23.387</v>
       </c>
       <c r="G41" t="n">
-        <v>25.6</v>
+        <v>25.344</v>
       </c>
       <c r="H41" t="n">
-        <v>25.5</v>
+        <v>26.775</v>
       </c>
       <c r="I41" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="J41" t="n">
-        <v>25.5</v>
+        <v>26.265</v>
       </c>
       <c r="K41" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="L41" t="n">
-        <v>-4</v>
+        <v>-4.04</v>
       </c>
       <c r="M41" t="n">
-        <v>-3</v>
+        <v>-2.82</v>
       </c>
       <c r="N41" t="n">
-        <v>-1</v>
+        <v>-0.95</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -5102,13 +5102,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="S41" t="n">
         <v>-3</v>
       </c>
       <c r="T41" t="n">
-        <v>-1</v>
+        <v>-1.03</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -5120,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-4</v>
+        <v>-3.88</v>
       </c>
       <c r="Y41" t="n">
-        <v>-3</v>
+        <v>-2.94</v>
       </c>
       <c r="Z41" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
@@ -5143,43 +5143,43 @@
         <v>85</v>
       </c>
       <c r="B42" t="n">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="C42" t="n">
-        <v>26</v>
+        <v>24.7</v>
       </c>
       <c r="D42" t="n">
-        <v>25.9</v>
+        <v>26.418</v>
       </c>
       <c r="E42" t="n">
-        <v>25.8</v>
+        <v>26.316</v>
       </c>
       <c r="F42" t="n">
-        <v>25.7</v>
+        <v>26.471</v>
       </c>
       <c r="G42" t="n">
-        <v>25.6</v>
+        <v>27.136</v>
       </c>
       <c r="H42" t="n">
-        <v>25.5</v>
+        <v>26.52</v>
       </c>
       <c r="I42" t="n">
-        <v>25.5</v>
+        <v>23.46</v>
       </c>
       <c r="J42" t="n">
-        <v>25.5</v>
+        <v>23.97</v>
       </c>
       <c r="K42" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="L42" t="n">
-        <v>-4</v>
+        <v>-3.84</v>
       </c>
       <c r="M42" t="n">
-        <v>-3</v>
+        <v>-3.03</v>
       </c>
       <c r="N42" t="n">
-        <v>-1</v>
+        <v>-0.91</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -5191,13 +5191,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>-4</v>
+        <v>-4.36</v>
       </c>
       <c r="S42" t="n">
-        <v>-3</v>
+        <v>-3.21</v>
       </c>
       <c r="T42" t="n">
-        <v>-1</v>
+        <v>-1.07</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -5209,13 +5209,13 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>-4</v>
+        <v>-4.16</v>
       </c>
       <c r="Y42" t="n">
         <v>-3</v>
       </c>
       <c r="Z42" t="n">
-        <v>-1</v>
+        <v>-1.05</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
@@ -5232,43 +5232,43 @@
         <v>87</v>
       </c>
       <c r="B43" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C43" t="n">
-        <v>26</v>
+        <v>24.18</v>
       </c>
       <c r="D43" t="n">
-        <v>25.9</v>
+        <v>26.418</v>
       </c>
       <c r="E43" t="n">
-        <v>25.8</v>
+        <v>26.574</v>
       </c>
       <c r="F43" t="n">
-        <v>25.7</v>
+        <v>25.443</v>
       </c>
       <c r="G43" t="n">
-        <v>25.6</v>
+        <v>27.904</v>
       </c>
       <c r="H43" t="n">
-        <v>25.5</v>
+        <v>23.97</v>
       </c>
       <c r="I43" t="n">
-        <v>25.5</v>
+        <v>26.52</v>
       </c>
       <c r="J43" t="n">
-        <v>25.5</v>
+        <v>25.755</v>
       </c>
       <c r="K43" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="L43" t="n">
-        <v>-4</v>
+        <v>-3.76</v>
       </c>
       <c r="M43" t="n">
-        <v>-3</v>
+        <v>-2.88</v>
       </c>
       <c r="N43" t="n">
-        <v>-1</v>
+        <v>-1.09</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -5280,13 +5280,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-4</v>
+        <v>-3.92</v>
       </c>
       <c r="S43" t="n">
-        <v>-3</v>
+        <v>-2.73</v>
       </c>
       <c r="T43" t="n">
-        <v>-1</v>
+        <v>-0.91</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -5298,13 +5298,13 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>-4</v>
+        <v>-4.04</v>
       </c>
       <c r="Y43" t="n">
-        <v>-3</v>
+        <v>-3.15</v>
       </c>
       <c r="Z43" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
@@ -5321,43 +5321,43 @@
         <v>89</v>
       </c>
       <c r="B44" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="C44" t="n">
-        <v>26</v>
+        <v>25.48</v>
       </c>
       <c r="D44" t="n">
-        <v>25.9</v>
+        <v>26.936</v>
       </c>
       <c r="E44" t="n">
-        <v>25.8</v>
+        <v>27.09</v>
       </c>
       <c r="F44" t="n">
-        <v>25.7</v>
+        <v>23.901</v>
       </c>
       <c r="G44" t="n">
-        <v>25.6</v>
+        <v>26.112</v>
       </c>
       <c r="H44" t="n">
-        <v>25.5</v>
+        <v>24.48</v>
       </c>
       <c r="I44" t="n">
-        <v>25.5</v>
+        <v>27.03</v>
       </c>
       <c r="J44" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="K44" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="L44" t="n">
-        <v>-4</v>
+        <v>-3.68</v>
       </c>
       <c r="M44" t="n">
-        <v>-3</v>
+        <v>-2.88</v>
       </c>
       <c r="N44" t="n">
-        <v>-1</v>
+        <v>-1.01</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -5369,13 +5369,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="S44" t="n">
-        <v>-3</v>
+        <v>-2.94</v>
       </c>
       <c r="T44" t="n">
-        <v>-1</v>
+        <v>-0.95</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -5387,13 +5387,13 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-4</v>
+        <v>-4.36</v>
       </c>
       <c r="Y44" t="n">
-        <v>-3</v>
+        <v>-2.73</v>
       </c>
       <c r="Z44" t="n">
-        <v>-1</v>
+        <v>-0.97</v>
       </c>
       <c r="AA44" t="n">
         <v>0</v>
@@ -5410,43 +5410,43 @@
         <v>91</v>
       </c>
       <c r="B45" t="n">
-        <v>25</v>
+        <v>22.75</v>
       </c>
       <c r="C45" t="n">
-        <v>26</v>
+        <v>24.7</v>
       </c>
       <c r="D45" t="n">
-        <v>25.9</v>
+        <v>26.936</v>
       </c>
       <c r="E45" t="n">
-        <v>25.8</v>
+        <v>27.606</v>
       </c>
       <c r="F45" t="n">
-        <v>25.7</v>
+        <v>25.186</v>
       </c>
       <c r="G45" t="n">
-        <v>25.6</v>
+        <v>23.808</v>
       </c>
       <c r="H45" t="n">
-        <v>25.5</v>
+        <v>23.205</v>
       </c>
       <c r="I45" t="n">
-        <v>25.5</v>
+        <v>26.52</v>
       </c>
       <c r="J45" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="K45" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="L45" t="n">
-        <v>-4</v>
+        <v>-3.64</v>
       </c>
       <c r="M45" t="n">
-        <v>-3</v>
+        <v>-3.06</v>
       </c>
       <c r="N45" t="n">
-        <v>-1</v>
+        <v>-1.09</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -5458,13 +5458,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="S45" t="n">
-        <v>-3</v>
+        <v>-3.21</v>
       </c>
       <c r="T45" t="n">
-        <v>-1</v>
+        <v>-0.92</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -5476,13 +5476,13 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>-4</v>
+        <v>-3.88</v>
       </c>
       <c r="Y45" t="n">
-        <v>-3</v>
+        <v>-3.09</v>
       </c>
       <c r="Z45" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
@@ -5499,43 +5499,43 @@
         <v>93</v>
       </c>
       <c r="B46" t="n">
-        <v>25</v>
+        <v>24.25</v>
       </c>
       <c r="C46" t="n">
-        <v>26</v>
+        <v>23.4</v>
       </c>
       <c r="D46" t="n">
-        <v>25.9</v>
+        <v>23.569</v>
       </c>
       <c r="E46" t="n">
-        <v>25.8</v>
+        <v>26.316</v>
       </c>
       <c r="F46" t="n">
-        <v>25.7</v>
+        <v>25.186</v>
       </c>
       <c r="G46" t="n">
-        <v>25.6</v>
+        <v>27.648</v>
       </c>
       <c r="H46" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="I46" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="J46" t="n">
-        <v>25.5</v>
+        <v>25.245</v>
       </c>
       <c r="K46" t="n">
-        <v>25.5</v>
+        <v>24.225</v>
       </c>
       <c r="L46" t="n">
-        <v>-4</v>
+        <v>-3.64</v>
       </c>
       <c r="M46" t="n">
-        <v>-3</v>
+        <v>-3.12</v>
       </c>
       <c r="N46" t="n">
-        <v>-1</v>
+        <v>-0.96</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -5547,13 +5547,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-4</v>
+        <v>-4.12</v>
       </c>
       <c r="S46" t="n">
-        <v>-3</v>
+        <v>-2.76</v>
       </c>
       <c r="T46" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5565,13 +5565,13 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="Y46" t="n">
-        <v>-3</v>
+        <v>-3.03</v>
       </c>
       <c r="Z46" t="n">
-        <v>-1</v>
+        <v>-0.91</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
@@ -5588,43 +5588,43 @@
         <v>95</v>
       </c>
       <c r="B47" t="n">
-        <v>25</v>
+        <v>25.75</v>
       </c>
       <c r="C47" t="n">
-        <v>26</v>
+        <v>26.26</v>
       </c>
       <c r="D47" t="n">
-        <v>25.9</v>
+        <v>23.31</v>
       </c>
       <c r="E47" t="n">
-        <v>25.8</v>
+        <v>25.542</v>
       </c>
       <c r="F47" t="n">
-        <v>25.7</v>
+        <v>25.957</v>
       </c>
       <c r="G47" t="n">
-        <v>25.6</v>
+        <v>25.344</v>
       </c>
       <c r="H47" t="n">
-        <v>25.5</v>
+        <v>24.99</v>
       </c>
       <c r="I47" t="n">
-        <v>25.5</v>
+        <v>27.795</v>
       </c>
       <c r="J47" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="K47" t="n">
         <v>25.5</v>
       </c>
       <c r="L47" t="n">
-        <v>-4</v>
+        <v>-4.08</v>
       </c>
       <c r="M47" t="n">
-        <v>-3</v>
+        <v>-3.06</v>
       </c>
       <c r="N47" t="n">
-        <v>-1</v>
+        <v>-0.96</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -5636,13 +5636,13 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>-4</v>
+        <v>-3.84</v>
       </c>
       <c r="S47" t="n">
-        <v>-3</v>
+        <v>-2.85</v>
       </c>
       <c r="T47" t="n">
-        <v>-1</v>
+        <v>-1.07</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -5654,13 +5654,13 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="Y47" t="n">
-        <v>-3</v>
+        <v>-3.24</v>
       </c>
       <c r="Z47" t="n">
-        <v>-1</v>
+        <v>-1.04</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
@@ -5677,43 +5677,43 @@
         <v>97</v>
       </c>
       <c r="B48" t="n">
-        <v>25</v>
+        <v>23.75</v>
       </c>
       <c r="C48" t="n">
-        <v>26</v>
+        <v>27.3</v>
       </c>
       <c r="D48" t="n">
-        <v>25.9</v>
+        <v>25.123</v>
       </c>
       <c r="E48" t="n">
-        <v>25.8</v>
+        <v>25.026</v>
       </c>
       <c r="F48" t="n">
-        <v>25.7</v>
+        <v>23.387</v>
       </c>
       <c r="G48" t="n">
-        <v>25.6</v>
+        <v>26.88</v>
       </c>
       <c r="H48" t="n">
-        <v>25.5</v>
+        <v>25.245</v>
       </c>
       <c r="I48" t="n">
-        <v>25.5</v>
+        <v>26.265</v>
       </c>
       <c r="J48" t="n">
-        <v>25.5</v>
+        <v>23.205</v>
       </c>
       <c r="K48" t="n">
         <v>25.5</v>
       </c>
       <c r="L48" t="n">
-        <v>-4</v>
+        <v>-3.84</v>
       </c>
       <c r="M48" t="n">
-        <v>-3</v>
+        <v>-2.82</v>
       </c>
       <c r="N48" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -5725,13 +5725,13 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="S48" t="n">
-        <v>-3</v>
+        <v>-3.03</v>
       </c>
       <c r="T48" t="n">
-        <v>-1</v>
+        <v>-1.07</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -5743,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>-4</v>
+        <v>-3.76</v>
       </c>
       <c r="Y48" t="n">
-        <v>-3</v>
+        <v>-3.24</v>
       </c>
       <c r="Z48" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
@@ -5766,43 +5766,43 @@
         <v>99</v>
       </c>
       <c r="B49" t="n">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="C49" t="n">
-        <v>26</v>
+        <v>26.26</v>
       </c>
       <c r="D49" t="n">
-        <v>25.9</v>
+        <v>24.605</v>
       </c>
       <c r="E49" t="n">
-        <v>25.8</v>
+        <v>24.51</v>
       </c>
       <c r="F49" t="n">
-        <v>25.7</v>
+        <v>26.471</v>
       </c>
       <c r="G49" t="n">
-        <v>25.6</v>
+        <v>24.064</v>
       </c>
       <c r="H49" t="n">
-        <v>25.5</v>
+        <v>27.795</v>
       </c>
       <c r="I49" t="n">
-        <v>25.5</v>
+        <v>23.715</v>
       </c>
       <c r="J49" t="n">
-        <v>25.5</v>
+        <v>23.205</v>
       </c>
       <c r="K49" t="n">
-        <v>25.5</v>
+        <v>24.99</v>
       </c>
       <c r="L49" t="n">
-        <v>-4</v>
+        <v>-4.12</v>
       </c>
       <c r="M49" t="n">
-        <v>-3</v>
+        <v>-2.94</v>
       </c>
       <c r="N49" t="n">
-        <v>-1</v>
+        <v>-1.05</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>-4</v>
+        <v>-4.24</v>
       </c>
       <c r="S49" t="n">
-        <v>-3</v>
+        <v>-3.21</v>
       </c>
       <c r="T49" t="n">
-        <v>-1</v>
+        <v>-1.04</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -5832,13 +5832,13 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>-4</v>
+        <v>-3.76</v>
       </c>
       <c r="Y49" t="n">
-        <v>-3</v>
+        <v>-3.15</v>
       </c>
       <c r="Z49" t="n">
-        <v>-1</v>
+        <v>-0.96</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
@@ -5855,43 +5855,43 @@
         <v>101</v>
       </c>
       <c r="B50" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C50" t="n">
-        <v>26</v>
+        <v>24.96</v>
       </c>
       <c r="D50" t="n">
-        <v>25.9</v>
+        <v>23.31</v>
       </c>
       <c r="E50" t="n">
-        <v>25.8</v>
+        <v>27.606</v>
       </c>
       <c r="F50" t="n">
-        <v>25.7</v>
+        <v>24.929</v>
       </c>
       <c r="G50" t="n">
-        <v>25.6</v>
+        <v>25.85600000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>25.5</v>
+        <v>26.265</v>
       </c>
       <c r="I50" t="n">
-        <v>25.5</v>
+        <v>27.03</v>
       </c>
       <c r="J50" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="K50" t="n">
-        <v>25.5</v>
+        <v>23.205</v>
       </c>
       <c r="L50" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="M50" t="n">
         <v>-3</v>
       </c>
       <c r="N50" t="n">
-        <v>-1</v>
+        <v>-1.09</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -5903,13 +5903,13 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>-4</v>
+        <v>-3.64</v>
       </c>
       <c r="S50" t="n">
-        <v>-3</v>
+        <v>-2.79</v>
       </c>
       <c r="T50" t="n">
-        <v>-1</v>
+        <v>-0.93</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -5921,13 +5921,13 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>-4</v>
+        <v>-4.12</v>
       </c>
       <c r="Y50" t="n">
-        <v>-3</v>
+        <v>-3.03</v>
       </c>
       <c r="Z50" t="n">
-        <v>-1</v>
+        <v>-1.09</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
@@ -5944,43 +5944,43 @@
         <v>103</v>
       </c>
       <c r="B51" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" t="n">
-        <v>26</v>
+        <v>24.96</v>
       </c>
       <c r="D51" t="n">
-        <v>25.9</v>
+        <v>25.641</v>
       </c>
       <c r="E51" t="n">
-        <v>25.8</v>
+        <v>23.994</v>
       </c>
       <c r="F51" t="n">
         <v>25.7</v>
       </c>
       <c r="G51" t="n">
-        <v>25.6</v>
+        <v>23.808</v>
       </c>
       <c r="H51" t="n">
-        <v>25.5</v>
+        <v>25.755</v>
       </c>
       <c r="I51" t="n">
         <v>25.5</v>
       </c>
       <c r="J51" t="n">
-        <v>25.5</v>
+        <v>24.735</v>
       </c>
       <c r="K51" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="L51" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="M51" t="n">
         <v>-3</v>
       </c>
       <c r="N51" t="n">
-        <v>-1</v>
+        <v>-1.05</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -5992,13 +5992,13 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="S51" t="n">
         <v>-3</v>
       </c>
       <c r="T51" t="n">
-        <v>-1</v>
+        <v>-1.05</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -6010,13 +6010,13 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>-4</v>
+        <v>-4.04</v>
       </c>
       <c r="Y51" t="n">
         <v>-3</v>
       </c>
       <c r="Z51" t="n">
-        <v>-1</v>
+        <v>-1.03</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
@@ -6025,95 +6025,6 @@
         <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>105</v>
-      </c>
-      <c r="B52" t="n">
-        <v>25</v>
-      </c>
-      <c r="C52" t="n">
-        <v>26</v>
-      </c>
-      <c r="D52" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E52" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F52" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G52" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H52" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I52" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L52" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M52" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
         <v>0</v>
       </c>
     </row>

--- a/strategy_test.xlsx
+++ b/strategy_test.xlsx
@@ -147,12 +147,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$51</f>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$B$2:$B$51</f>
+              <f>'Raw_Data_COM'!$B$2:$B$32</f>
             </numRef>
           </val>
         </ser>
@@ -179,12 +179,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$51</f>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$C$2:$C$51</f>
+              <f>'Raw_Data_COM'!$C$2:$C$32</f>
             </numRef>
           </val>
         </ser>
@@ -211,12 +211,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$51</f>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$D$2:$D$51</f>
+              <f>'Raw_Data_COM'!$D$2:$D$32</f>
             </numRef>
           </val>
         </ser>
@@ -243,12 +243,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$51</f>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$E$2:$E$51</f>
+              <f>'Raw_Data_COM'!$E$2:$E$32</f>
             </numRef>
           </val>
         </ser>
@@ -275,12 +275,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$51</f>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$F$2:$F$51</f>
+              <f>'Raw_Data_COM'!$F$2:$F$32</f>
             </numRef>
           </val>
         </ser>
@@ -307,12 +307,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$51</f>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$G$2:$G$51</f>
+              <f>'Raw_Data_COM'!$G$2:$G$32</f>
             </numRef>
           </val>
         </ser>
@@ -339,12 +339,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$51</f>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$H$2:$H$51</f>
+              <f>'Raw_Data_COM'!$H$2:$H$32</f>
             </numRef>
           </val>
         </ser>
@@ -376,7 +376,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
-        <tickLblSkip val="5"/>
+        <tickLblSkip val="4"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -443,12 +443,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$51</f>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$I$2:$I$51</f>
+              <f>'Raw_Data_COM'!$I$2:$I$32</f>
             </numRef>
           </val>
         </ser>
@@ -475,12 +475,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$51</f>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$J$2:$J$51</f>
+              <f>'Raw_Data_COM'!$J$2:$J$32</f>
             </numRef>
           </val>
         </ser>
@@ -507,12 +507,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$51</f>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$K$2:$K$51</f>
+              <f>'Raw_Data_COM'!$K$2:$K$32</f>
             </numRef>
           </val>
         </ser>
@@ -544,7 +544,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
-        <tickLblSkip val="5"/>
+        <tickLblSkip val="4"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -933,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,22 +1103,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>6.661115736885929e-05</v>
+        <v>3.330557868442965e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00184475899713202</v>
+        <v>0.0009223794985660098</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1133,284 +1133,188 @@
         <v>0.0009223794985660098</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>67</v>
-      </c>
-      <c r="C9" t="n">
-        <v>103</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0001332223147377186</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.003689517994264039</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.665000416562526e-05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.00184475899713202</v>
-      </c>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Raw Data Processing</t>
+        </is>
+      </c>
+    </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Raw Data Processing</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Process Points</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>T_A [°C]</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>T_B [°C]</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>T_out [°C]</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Upre [V]</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Ur1 [V]</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Ur2 [V]</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>dT_A [°C]</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>dT_B [°C]</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>dT_out [°C]</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Q_Out [W]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.0375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.346</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25.346</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25.5885</v>
+      </c>
+      <c r="G12" t="n">
+        <v>24.8765</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.03750000000000142</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.3460000000000036</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.048085960277547</v>
+      </c>
+    </row>
+    <row r="13"/>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Calculation</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>T_A [°C]</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>T_B [°C]</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>T_out [°C]</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Upre [V]</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Ur1 [V]</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>Ur2 [V]</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>dT_A [°C]</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>dT_B [°C]</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>dT_out [°C]</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Q_Out [W]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Q_A [W]</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Q_B [W]</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Qpre [W] - cp flux</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>QSE,pre [W]</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Qr1 [W]</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Qr2 [W]</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>dHr [kJ/mol]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>1</v>
       </c>
-      <c r="B13" t="n">
-        <v>25.83526315789474</v>
-      </c>
-      <c r="C13" t="n">
-        <v>26.08505263157895</v>
-      </c>
-      <c r="D13" t="n">
-        <v>25.68789473684211</v>
-      </c>
-      <c r="E13" t="n">
-        <v>25.45973684210526</v>
-      </c>
-      <c r="F13" t="n">
-        <v>25.45973684210527</v>
-      </c>
-      <c r="G13" t="n">
-        <v>25.41947368421053</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.8352631578947403</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-1.08505263157895</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-0.6878947368421073</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-0.1434020765502436</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>25.17247368421053</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25.95031578947369</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25.43289473684211</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25.45973684210526</v>
-      </c>
-      <c r="F14" t="n">
-        <v>24.90947368421052</v>
-      </c>
-      <c r="G14" t="n">
-        <v>25.71473684210526</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.1724736842105266</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-0.950315789473688</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-0.4328947368421083</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-0.1804869287874153</v>
-      </c>
-    </row>
-    <row r="15"/>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Calculation</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Process Points</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Q_A [W]</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Q_B [W]</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>Qpre [W] - cp flux</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>QSE,pre [W]</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>Qr1 [W]</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>Qr2 [W]</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>dHr [kJ/mol]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.1160821706122096</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.07539855164906456</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-702.1176737534626</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-701.9261930312013</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-702.1176737534629</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-699.9885897506925</v>
-      </c>
-      <c r="H18" s="10" t="n">
-        <v>-31588.94007741124</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.0479396689472224</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.1320718130166387</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-702.1176737534627</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-701.9376622714988</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-673.3008265927975</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-715.6771645429363</v>
-      </c>
-      <c r="H19" s="10" t="n">
-        <v>-15696.29040339725</v>
+      <c r="B16" t="n">
+        <v>-0.004864186733277843</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.002605814321398933</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-696.1117159999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-696.1042459989452</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-708.94833225</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-671.5932522500001</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>-62352.73484168817</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1423,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,79 +1487,79 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="C2" t="n">
-        <v>24.7</v>
+        <v>23.66</v>
       </c>
       <c r="D2" t="n">
-        <v>26.936</v>
+        <v>27.71</v>
       </c>
       <c r="E2" t="n">
-        <v>27.864</v>
+        <v>26.32</v>
       </c>
       <c r="F2" t="n">
-        <v>26.728</v>
+        <v>23.64</v>
       </c>
       <c r="G2" t="n">
-        <v>27.136</v>
+        <v>25.6</v>
       </c>
       <c r="H2" t="n">
-        <v>25.245</v>
+        <v>24.73</v>
       </c>
       <c r="I2" t="n">
-        <v>23.715</v>
+        <v>23.97</v>
       </c>
       <c r="J2" t="n">
-        <v>24.735</v>
+        <v>23.97</v>
       </c>
       <c r="K2" t="n">
-        <v>24.99</v>
+        <v>26.77</v>
       </c>
       <c r="L2" t="n">
+        <v>-4.36</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>-4.04</v>
       </c>
-      <c r="M2" t="n">
-        <v>-3.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-3.12</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-3.6</v>
-      </c>
       <c r="Y2" t="n">
-        <v>-2.73</v>
+        <v>-2.88</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -1669,46 +1573,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>25.25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>27.82</v>
       </c>
       <c r="D3" t="n">
-        <v>23.31</v>
+        <v>23.57</v>
       </c>
       <c r="E3" t="n">
-        <v>26.574</v>
+        <v>26.57</v>
       </c>
       <c r="F3" t="n">
-        <v>28.013</v>
+        <v>23.64</v>
       </c>
       <c r="G3" t="n">
-        <v>24.32</v>
+        <v>25.6</v>
       </c>
       <c r="H3" t="n">
-        <v>23.715</v>
+        <v>27.8</v>
       </c>
       <c r="I3" t="n">
-        <v>25.245</v>
+        <v>24.48</v>
       </c>
       <c r="J3" t="n">
-        <v>23.715</v>
+        <v>26.27</v>
       </c>
       <c r="K3" t="n">
-        <v>23.97</v>
+        <v>24.73</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.68</v>
+        <v>-3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.24</v>
+        <v>-3.15</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.05</v>
+        <v>-0.97</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1720,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.8</v>
+        <v>-4.36</v>
       </c>
       <c r="S3" t="n">
-        <v>-2.79</v>
+        <v>-3.03</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.07</v>
+        <v>-0.93</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1738,13 +1642,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3.21</v>
+        <v>-2.82</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1.03</v>
+        <v>-1.06</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1758,64 +1662,64 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>25.25</v>
+        <v>24.75</v>
       </c>
       <c r="C4" t="n">
-        <v>27.56</v>
+        <v>23.92</v>
       </c>
       <c r="D4" t="n">
-        <v>28.231</v>
+        <v>28.23</v>
       </c>
       <c r="E4" t="n">
-        <v>26.316</v>
+        <v>27.35</v>
       </c>
       <c r="F4" t="n">
-        <v>23.387</v>
+        <v>24.67</v>
       </c>
       <c r="G4" t="n">
-        <v>23.04</v>
+        <v>24.06</v>
       </c>
       <c r="H4" t="n">
-        <v>25.245</v>
+        <v>23.97</v>
       </c>
       <c r="I4" t="n">
-        <v>27.795</v>
+        <v>26.27</v>
       </c>
       <c r="J4" t="n">
-        <v>23.205</v>
+        <v>24.23</v>
       </c>
       <c r="K4" t="n">
-        <v>24.48</v>
+        <v>26.52</v>
       </c>
       <c r="L4" t="n">
-        <v>-3.64</v>
+        <v>-4.08</v>
       </c>
       <c r="M4" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="S4" t="n">
         <v>-3.12</v>
       </c>
-      <c r="N4" t="n">
-        <v>-1.06</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-4.28</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-3.06</v>
-      </c>
       <c r="T4" t="n">
-        <v>-0.91</v>
+        <v>-1.04</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1830,10 +1734,10 @@
         <v>-3.88</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.95</v>
+        <v>-0.93</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1847,46 +1751,46 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>25.48</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>23.569</v>
+        <v>25.38</v>
       </c>
       <c r="E5" t="n">
-        <v>28.122</v>
+        <v>23.48</v>
       </c>
       <c r="F5" t="n">
-        <v>26.214</v>
+        <v>24.93</v>
       </c>
       <c r="G5" t="n">
-        <v>27.136</v>
+        <v>26.37</v>
       </c>
       <c r="H5" t="n">
-        <v>24.99</v>
+        <v>25.25</v>
       </c>
       <c r="I5" t="n">
-        <v>26.01</v>
+        <v>22.95</v>
       </c>
       <c r="J5" t="n">
-        <v>26.775</v>
+        <v>23.71</v>
       </c>
       <c r="K5" t="n">
-        <v>24.99</v>
+        <v>26.52</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.72</v>
+        <v>-3.96</v>
       </c>
       <c r="M5" t="n">
-        <v>-3.21</v>
+        <v>-2.79</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.92</v>
+        <v>-0.97</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1898,13 +1802,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-3.76</v>
+        <v>-4.2</v>
       </c>
       <c r="S5" t="n">
-        <v>-2.91</v>
+        <v>-2.79</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.09</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1919,10 +1823,10 @@
         <v>-4.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>-3.27</v>
+        <v>-2.79</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1.07</v>
+        <v>-1.03</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1936,46 +1840,46 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>24.5</v>
+        <v>25.75</v>
       </c>
       <c r="C6" t="n">
-        <v>26.26</v>
+        <v>25.22</v>
       </c>
       <c r="D6" t="n">
-        <v>23.828</v>
+        <v>26.68</v>
       </c>
       <c r="E6" t="n">
-        <v>27.606</v>
+        <v>26.06</v>
       </c>
       <c r="F6" t="n">
-        <v>26.471</v>
+        <v>27.24</v>
       </c>
       <c r="G6" t="n">
-        <v>24.32</v>
+        <v>26.37</v>
       </c>
       <c r="H6" t="n">
-        <v>26.265</v>
+        <v>24.73</v>
       </c>
       <c r="I6" t="n">
-        <v>27.03</v>
+        <v>23.71</v>
       </c>
       <c r="J6" t="n">
-        <v>24.225</v>
+        <v>26.01</v>
       </c>
       <c r="K6" t="n">
-        <v>23.715</v>
+        <v>23.2</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.16</v>
+        <v>-3.8</v>
       </c>
       <c r="M6" t="n">
-        <v>-3.18</v>
+        <v>-3.12</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.92</v>
+        <v>-1.08</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1987,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>-3.72</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>-4.08</v>
       </c>
-      <c r="S6" t="n">
-        <v>-3.18</v>
-      </c>
-      <c r="T6" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>-3.72</v>
-      </c>
       <c r="Y6" t="n">
-        <v>-3.15</v>
+        <v>-2.85</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1.06</v>
+        <v>-1.02</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -2025,46 +1929,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>25.5</v>
       </c>
       <c r="C7" t="n">
-        <v>26.78</v>
+        <v>23.4</v>
       </c>
       <c r="D7" t="n">
-        <v>26.677</v>
+        <v>27.71</v>
       </c>
       <c r="E7" t="n">
-        <v>24.51</v>
+        <v>27.09</v>
       </c>
       <c r="F7" t="n">
-        <v>27.499</v>
+        <v>25.19</v>
       </c>
       <c r="G7" t="n">
-        <v>24.576</v>
+        <v>26.11</v>
       </c>
       <c r="H7" t="n">
-        <v>26.775</v>
+        <v>24.73</v>
       </c>
       <c r="I7" t="n">
-        <v>27.03</v>
+        <v>25.25</v>
       </c>
       <c r="J7" t="n">
         <v>22.95</v>
       </c>
       <c r="K7" t="n">
-        <v>25.755</v>
+        <v>23.2</v>
       </c>
       <c r="L7" t="n">
-        <v>-4.36</v>
+        <v>-3.92</v>
       </c>
       <c r="M7" t="n">
-        <v>-3.06</v>
+        <v>-2.97</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.01</v>
+        <v>-0.98</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -2076,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-4.32</v>
+        <v>-3.76</v>
       </c>
       <c r="S7" t="n">
-        <v>-2.97</v>
+        <v>-2.94</v>
       </c>
       <c r="T7" t="n">
         <v>-0.9399999999999999</v>
@@ -2094,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>-3.6</v>
+        <v>-4.12</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.7</v>
+        <v>-2.76</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1.06</v>
+        <v>-0.92</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -2114,46 +2018,46 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>24.75</v>
+        <v>25.75</v>
       </c>
       <c r="C8" t="n">
-        <v>28.08</v>
+        <v>25.22</v>
       </c>
       <c r="D8" t="n">
-        <v>26.936</v>
+        <v>23.57</v>
       </c>
       <c r="E8" t="n">
-        <v>26.316</v>
+        <v>23.74</v>
       </c>
       <c r="F8" t="n">
-        <v>23.901</v>
+        <v>25.44</v>
       </c>
       <c r="G8" t="n">
-        <v>27.136</v>
+        <v>23.81</v>
       </c>
       <c r="H8" t="n">
         <v>25.5</v>
       </c>
       <c r="I8" t="n">
-        <v>27.03</v>
+        <v>24.99</v>
       </c>
       <c r="J8" t="n">
-        <v>26.01</v>
+        <v>24.48</v>
       </c>
       <c r="K8" t="n">
-        <v>23.715</v>
+        <v>24.48</v>
       </c>
       <c r="L8" t="n">
-        <v>-3.96</v>
+        <v>-3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>-3.15</v>
+        <v>-2.73</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.98</v>
+        <v>-0.95</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -2165,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-4.12</v>
+        <v>-4.28</v>
       </c>
       <c r="S8" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.9</v>
+        <v>-0.92</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -2183,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>-4.32</v>
+        <v>-4.24</v>
       </c>
       <c r="Y8" t="n">
-        <v>-3.24</v>
+        <v>-2.82</v>
       </c>
       <c r="Z8" t="n">
         <v>-0.98</v>
@@ -2203,46 +2107,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>25.25</v>
+        <v>25.75</v>
       </c>
       <c r="C9" t="n">
-        <v>26.26</v>
+        <v>28.08</v>
       </c>
       <c r="D9" t="n">
-        <v>24.087</v>
+        <v>24.86</v>
       </c>
       <c r="E9" t="n">
-        <v>23.22</v>
+        <v>24.77</v>
       </c>
       <c r="F9" t="n">
-        <v>27.242</v>
+        <v>23.9</v>
       </c>
       <c r="G9" t="n">
         <v>26.88</v>
       </c>
       <c r="H9" t="n">
-        <v>26.775</v>
+        <v>23.71</v>
       </c>
       <c r="I9" t="n">
-        <v>24.735</v>
+        <v>24.99</v>
       </c>
       <c r="J9" t="n">
-        <v>27.03</v>
+        <v>23.97</v>
       </c>
       <c r="K9" t="n">
-        <v>22.95</v>
+        <v>24.99</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.6</v>
+        <v>-4.36</v>
       </c>
       <c r="M9" t="n">
-        <v>-3.21</v>
+        <v>-3.15</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.05</v>
+        <v>-0.96</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -2254,13 +2158,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-3.64</v>
+        <v>-4.04</v>
       </c>
       <c r="S9" t="n">
         <v>-2.91</v>
       </c>
       <c r="T9" t="n">
-        <v>-1.02</v>
+        <v>-1.09</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -2272,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>-3.96</v>
+        <v>-3.72</v>
       </c>
       <c r="Y9" t="n">
-        <v>-2.97</v>
+        <v>-2.76</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.92</v>
+        <v>-1.04</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -2292,46 +2196,46 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>25.75</v>
+        <v>26.5</v>
       </c>
       <c r="C10" t="n">
-        <v>28.08</v>
+        <v>24.7</v>
       </c>
       <c r="D10" t="n">
-        <v>26.936</v>
+        <v>26.42</v>
       </c>
       <c r="E10" t="n">
-        <v>26.316</v>
+        <v>25.28</v>
       </c>
       <c r="F10" t="n">
-        <v>25.443</v>
+        <v>24.93</v>
       </c>
       <c r="G10" t="n">
-        <v>23.552</v>
+        <v>25.6</v>
       </c>
       <c r="H10" t="n">
-        <v>23.205</v>
+        <v>26.27</v>
       </c>
       <c r="I10" t="n">
-        <v>24.48</v>
+        <v>27.29</v>
       </c>
       <c r="J10" t="n">
-        <v>23.97</v>
+        <v>27.8</v>
       </c>
       <c r="K10" t="n">
-        <v>26.52</v>
+        <v>26.77</v>
       </c>
       <c r="L10" t="n">
-        <v>-3.6</v>
+        <v>-4.16</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.85</v>
+        <v>-3.18</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.01</v>
+        <v>-0.95</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -2343,31 +2247,31 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-3.6</v>
+        <v>-3.96</v>
       </c>
       <c r="S10" t="n">
-        <v>-3.12</v>
+        <v>-3.15</v>
       </c>
       <c r="T10" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-3.68</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="Z10" t="n">
         <v>-0.9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>-3.72</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>-2.94</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>-0.99</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -2381,82 +2285,82 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>23.25</v>
       </c>
       <c r="C11" t="n">
-        <v>24.96</v>
+        <v>24.18</v>
       </c>
       <c r="D11" t="n">
-        <v>26.677</v>
+        <v>25.38</v>
       </c>
       <c r="E11" t="n">
-        <v>27.09</v>
+        <v>23.22</v>
       </c>
       <c r="F11" t="n">
-        <v>23.901</v>
+        <v>26.73</v>
       </c>
       <c r="G11" t="n">
-        <v>23.04</v>
+        <v>23.55</v>
       </c>
       <c r="H11" t="n">
-        <v>24.99</v>
+        <v>24.23</v>
       </c>
       <c r="I11" t="n">
-        <v>23.715</v>
+        <v>26.52</v>
       </c>
       <c r="J11" t="n">
-        <v>25.245</v>
+        <v>24.48</v>
       </c>
       <c r="K11" t="n">
-        <v>23.97</v>
+        <v>26.52</v>
       </c>
       <c r="L11" t="n">
-        <v>-4.24</v>
+        <v>-3.84</v>
       </c>
       <c r="M11" t="n">
-        <v>-3.09</v>
+        <v>-2.88</v>
       </c>
       <c r="N11" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="Z11" t="n">
         <v>-1.08</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>-4.32</v>
-      </c>
-      <c r="S11" t="n">
-        <v>-2.88</v>
-      </c>
-      <c r="T11" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>-3.18</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>-0.93</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -2470,82 +2374,82 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>26.5</v>
+        <v>25.25</v>
       </c>
       <c r="C12" t="n">
-        <v>23.4</v>
+        <v>25.48</v>
       </c>
       <c r="D12" t="n">
-        <v>24.087</v>
+        <v>23.31</v>
       </c>
       <c r="E12" t="n">
-        <v>23.736</v>
+        <v>25.28</v>
       </c>
       <c r="F12" t="n">
-        <v>23.387</v>
+        <v>24.41</v>
       </c>
       <c r="G12" t="n">
-        <v>23.808</v>
+        <v>25.34</v>
       </c>
       <c r="H12" t="n">
-        <v>24.99</v>
+        <v>22.95</v>
       </c>
       <c r="I12" t="n">
-        <v>26.265</v>
+        <v>23.2</v>
       </c>
       <c r="J12" t="n">
-        <v>24.225</v>
+        <v>27.54</v>
       </c>
       <c r="K12" t="n">
-        <v>25.245</v>
+        <v>25.25</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.72</v>
+        <v>-4</v>
       </c>
       <c r="M12" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-2.73</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Y12" t="n">
         <v>-2.85</v>
       </c>
-      <c r="N12" t="n">
-        <v>-0.97</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>-2.91</v>
-      </c>
-      <c r="T12" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>-3.12</v>
-      </c>
       <c r="Z12" t="n">
-        <v>-1.03</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -2559,46 +2463,46 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>24.5</v>
       </c>
       <c r="C13" t="n">
-        <v>27.56</v>
+        <v>23.4</v>
       </c>
       <c r="D13" t="n">
-        <v>26.159</v>
+        <v>27.2</v>
       </c>
       <c r="E13" t="n">
-        <v>25.284</v>
+        <v>28.12</v>
       </c>
       <c r="F13" t="n">
-        <v>23.901</v>
+        <v>27.76</v>
       </c>
       <c r="G13" t="n">
-        <v>24.064</v>
+        <v>26.88</v>
       </c>
       <c r="H13" t="n">
-        <v>25.245</v>
+        <v>27.54</v>
       </c>
       <c r="I13" t="n">
-        <v>23.715</v>
+        <v>27.54</v>
       </c>
       <c r="J13" t="n">
-        <v>27.54</v>
+        <v>25.5</v>
       </c>
       <c r="K13" t="n">
-        <v>23.205</v>
+        <v>26.27</v>
       </c>
       <c r="L13" t="n">
         <v>-4.24</v>
       </c>
       <c r="M13" t="n">
-        <v>-2.82</v>
+        <v>-3.21</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.91</v>
+        <v>-0.9</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2610,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-3.6</v>
+        <v>-3.72</v>
       </c>
       <c r="S13" t="n">
-        <v>-2.73</v>
+        <v>-2.79</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.9</v>
+        <v>-0.98</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2628,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-4.36</v>
+        <v>-3.72</v>
       </c>
       <c r="Y13" t="n">
-        <v>-3.03</v>
+        <v>-3.06</v>
       </c>
       <c r="Z13" t="n">
-        <v>-1.09</v>
+        <v>-1.08</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2648,46 +2552,46 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5</v>
+        <v>24.75</v>
       </c>
       <c r="C14" t="n">
-        <v>28.34</v>
+        <v>24.7</v>
       </c>
       <c r="D14" t="n">
-        <v>23.31</v>
+        <v>27.71</v>
       </c>
       <c r="E14" t="n">
-        <v>25.542</v>
+        <v>27.09</v>
       </c>
       <c r="F14" t="n">
-        <v>24.415</v>
+        <v>25.96</v>
       </c>
       <c r="G14" t="n">
-        <v>26.112</v>
+        <v>23.3</v>
       </c>
       <c r="H14" t="n">
-        <v>26.775</v>
+        <v>23.97</v>
       </c>
       <c r="I14" t="n">
-        <v>24.48</v>
+        <v>27.8</v>
       </c>
       <c r="J14" t="n">
-        <v>24.735</v>
+        <v>27.8</v>
       </c>
       <c r="K14" t="n">
-        <v>27.54</v>
+        <v>23.2</v>
       </c>
       <c r="L14" t="n">
-        <v>-4.2</v>
+        <v>-3.76</v>
       </c>
       <c r="M14" t="n">
-        <v>-2.97</v>
+        <v>-3.24</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.06</v>
+        <v>-0.99</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2699,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-3.96</v>
+        <v>-4.28</v>
       </c>
       <c r="S14" t="n">
-        <v>-3.27</v>
+        <v>-3.18</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.07</v>
+        <v>-0.91</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2717,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.68</v>
+        <v>-3.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>-3.15</v>
+        <v>-2.91</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.93</v>
+        <v>-0.9</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2737,46 +2641,46 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>25.75</v>
+        <v>22.5</v>
       </c>
       <c r="C15" t="n">
-        <v>27.82</v>
+        <v>23.66</v>
       </c>
       <c r="D15" t="n">
-        <v>24.087</v>
+        <v>24.09</v>
       </c>
       <c r="E15" t="n">
-        <v>23.736</v>
+        <v>25.28</v>
       </c>
       <c r="F15" t="n">
-        <v>28.013</v>
+        <v>23.9</v>
       </c>
       <c r="G15" t="n">
-        <v>27.904</v>
+        <v>26.88</v>
       </c>
       <c r="H15" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="I15" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="J15" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="K15" t="n">
         <v>26.01</v>
       </c>
-      <c r="I15" t="n">
-        <v>23.46</v>
-      </c>
-      <c r="J15" t="n">
-        <v>24.735</v>
-      </c>
-      <c r="K15" t="n">
-        <v>25.755</v>
-      </c>
       <c r="L15" t="n">
-        <v>-4.36</v>
+        <v>-4.12</v>
       </c>
       <c r="M15" t="n">
-        <v>-2.94</v>
+        <v>-2.73</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.98</v>
+        <v>-1.08</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2788,13 +2692,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-4.28</v>
+        <v>-4.12</v>
       </c>
       <c r="S15" t="n">
-        <v>-2.73</v>
+        <v>-2.91</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.9</v>
+        <v>-0.97</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2806,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>-4.2</v>
+        <v>-3.76</v>
       </c>
       <c r="Y15" t="n">
-        <v>-3.18</v>
+        <v>-3.12</v>
       </c>
       <c r="Z15" t="n">
         <v>-1.08</v>
@@ -2826,46 +2730,46 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>26.25</v>
       </c>
       <c r="C16" t="n">
-        <v>25.48</v>
+        <v>26.78</v>
       </c>
       <c r="D16" t="n">
-        <v>25.9</v>
+        <v>23.57</v>
       </c>
       <c r="E16" t="n">
-        <v>27.606</v>
+        <v>25.54</v>
       </c>
       <c r="F16" t="n">
-        <v>25.443</v>
+        <v>24.93</v>
       </c>
       <c r="G16" t="n">
-        <v>26.88</v>
+        <v>25.34</v>
       </c>
       <c r="H16" t="n">
-        <v>24.735</v>
+        <v>26.52</v>
       </c>
       <c r="I16" t="n">
-        <v>23.205</v>
+        <v>24.99</v>
       </c>
       <c r="J16" t="n">
-        <v>25.245</v>
+        <v>25.5</v>
       </c>
       <c r="K16" t="n">
-        <v>24.735</v>
+        <v>24.99</v>
       </c>
       <c r="L16" t="n">
-        <v>-3.96</v>
+        <v>-4.2</v>
       </c>
       <c r="M16" t="n">
-        <v>-3.27</v>
+        <v>-2.73</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.05</v>
+        <v>-1.08</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2877,13 +2781,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-4.28</v>
+        <v>-4.04</v>
       </c>
       <c r="S16" t="n">
-        <v>-2.73</v>
+        <v>-2.97</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.03</v>
+        <v>-0.95</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2895,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-4.28</v>
+        <v>-4.12</v>
       </c>
       <c r="Y16" t="n">
         <v>-3.15</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1.04</v>
+        <v>-0.92</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2915,40 +2819,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="E17" t="n">
         <v>24.25</v>
       </c>
-      <c r="C17" t="n">
-        <v>27.04</v>
-      </c>
-      <c r="D17" t="n">
-        <v>27.713</v>
-      </c>
-      <c r="E17" t="n">
-        <v>23.22</v>
-      </c>
       <c r="F17" t="n">
-        <v>23.644</v>
+        <v>23.64</v>
       </c>
       <c r="G17" t="n">
-        <v>23.808</v>
+        <v>24.58</v>
       </c>
       <c r="H17" t="n">
-        <v>27.285</v>
+        <v>24.99</v>
       </c>
       <c r="I17" t="n">
-        <v>27.795</v>
+        <v>23.2</v>
       </c>
       <c r="J17" t="n">
-        <v>23.205</v>
+        <v>27.54</v>
       </c>
       <c r="K17" t="n">
-        <v>25.245</v>
+        <v>24.23</v>
       </c>
       <c r="L17" t="n">
-        <v>-4.16</v>
+        <v>-3.8</v>
       </c>
       <c r="M17" t="n">
         <v>-2.85</v>
@@ -2966,31 +2870,31 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>-4.08</v>
       </c>
-      <c r="S17" t="n">
-        <v>-2.76</v>
-      </c>
-      <c r="T17" t="n">
-        <v>-0.98</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>-3.72</v>
-      </c>
       <c r="Y17" t="n">
-        <v>-3.24</v>
+        <v>-2.88</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.92</v>
+        <v>-1</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -3004,64 +2908,64 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>26.5</v>
+        <v>26.25</v>
       </c>
       <c r="C18" t="n">
-        <v>28.08</v>
+        <v>28.34</v>
       </c>
       <c r="D18" t="n">
-        <v>23.31</v>
+        <v>24.61</v>
       </c>
       <c r="E18" t="n">
-        <v>27.348</v>
+        <v>25.8</v>
       </c>
       <c r="F18" t="n">
-        <v>25.7</v>
+        <v>26.47</v>
       </c>
       <c r="G18" t="n">
-        <v>26.368</v>
+        <v>24.32</v>
       </c>
       <c r="H18" t="n">
-        <v>26.775</v>
+        <v>23.71</v>
       </c>
       <c r="I18" t="n">
-        <v>24.735</v>
+        <v>27.54</v>
       </c>
       <c r="J18" t="n">
-        <v>25.5</v>
+        <v>23.2</v>
       </c>
       <c r="K18" t="n">
-        <v>26.01</v>
+        <v>26.27</v>
       </c>
       <c r="L18" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>-3.64</v>
       </c>
-      <c r="M18" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>-4.2</v>
-      </c>
       <c r="S18" t="n">
-        <v>-2.85</v>
+        <v>-3.09</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.91</v>
+        <v>-0.98</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -3073,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>-3.84</v>
+        <v>-4</v>
       </c>
       <c r="Y18" t="n">
-        <v>-2.79</v>
+        <v>-2.82</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.91</v>
+        <v>-0.92</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -3093,40 +2997,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="C19" t="n">
-        <v>24.44</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>26.418</v>
+        <v>25.9</v>
       </c>
       <c r="E19" t="n">
-        <v>26.316</v>
+        <v>25.03</v>
       </c>
       <c r="F19" t="n">
-        <v>25.186</v>
+        <v>24.16</v>
       </c>
       <c r="G19" t="n">
-        <v>27.136</v>
+        <v>27.39</v>
       </c>
       <c r="H19" t="n">
-        <v>23.46</v>
+        <v>24.48</v>
       </c>
       <c r="I19" t="n">
-        <v>27.795</v>
+        <v>23.2</v>
       </c>
       <c r="J19" t="n">
-        <v>26.775</v>
+        <v>25.75</v>
       </c>
       <c r="K19" t="n">
-        <v>23.715</v>
+        <v>24.23</v>
       </c>
       <c r="L19" t="n">
-        <v>-3.88</v>
+        <v>-4.32</v>
       </c>
       <c r="M19" t="n">
         <v>-3.06</v>
@@ -3144,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-3.68</v>
+        <v>-3.76</v>
       </c>
       <c r="S19" t="n">
-        <v>-3.24</v>
+        <v>-3.12</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.02</v>
+        <v>-1.06</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -3162,13 +3066,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-3.84</v>
+        <v>-4.32</v>
       </c>
       <c r="Y19" t="n">
-        <v>-3.27</v>
+        <v>-3.15</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.98</v>
+        <v>-1</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -3182,82 +3086,82 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>24.75</v>
+        <v>24.25</v>
       </c>
       <c r="C20" t="n">
-        <v>27.82</v>
+        <v>27.56</v>
       </c>
       <c r="D20" t="n">
-        <v>23.31</v>
+        <v>27.2</v>
       </c>
       <c r="E20" t="n">
-        <v>26.316</v>
+        <v>25.54</v>
       </c>
       <c r="F20" t="n">
-        <v>23.901</v>
+        <v>23.64</v>
       </c>
       <c r="G20" t="n">
-        <v>27.136</v>
+        <v>27.14</v>
       </c>
       <c r="H20" t="n">
-        <v>27.285</v>
+        <v>22.95</v>
       </c>
       <c r="I20" t="n">
-        <v>24.225</v>
+        <v>23.46</v>
       </c>
       <c r="J20" t="n">
-        <v>27.795</v>
+        <v>27.54</v>
       </c>
       <c r="K20" t="n">
-        <v>27.54</v>
+        <v>26.27</v>
       </c>
       <c r="L20" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-2.79</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>-4.28</v>
       </c>
-      <c r="M20" t="n">
-        <v>-2.85</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>-4.28</v>
-      </c>
-      <c r="S20" t="n">
-        <v>-3.09</v>
-      </c>
-      <c r="T20" t="n">
-        <v>-0.97</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>-4</v>
-      </c>
       <c r="Y20" t="n">
-        <v>-3.06</v>
+        <v>-3.24</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.93</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -3271,43 +3175,43 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="F21" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="H21" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="I21" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="J21" t="n">
         <v>25.5</v>
       </c>
-      <c r="C21" t="n">
-        <v>24.96</v>
-      </c>
-      <c r="D21" t="n">
-        <v>26.418</v>
-      </c>
-      <c r="E21" t="n">
-        <v>27.606</v>
-      </c>
-      <c r="F21" t="n">
-        <v>25.186</v>
-      </c>
-      <c r="G21" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>26.775</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27.285</v>
-      </c>
-      <c r="J21" t="n">
-        <v>24.735</v>
-      </c>
       <c r="K21" t="n">
-        <v>25.245</v>
+        <v>22.95</v>
       </c>
       <c r="L21" t="n">
-        <v>-4.24</v>
+        <v>-4.32</v>
       </c>
       <c r="M21" t="n">
-        <v>-2.97</v>
+        <v>-3.06</v>
       </c>
       <c r="N21" t="n">
         <v>-1.03</v>
@@ -3322,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-4.24</v>
+        <v>-4.04</v>
       </c>
       <c r="S21" t="n">
-        <v>-3.12</v>
+        <v>-2.88</v>
       </c>
       <c r="T21" t="n">
-        <v>-1.04</v>
+        <v>-0.91</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -3340,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>-3.64</v>
+        <v>-4.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>-2.76</v>
+        <v>-3.18</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.97</v>
+        <v>-1.03</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -3360,46 +3264,46 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>22.75</v>
+        <v>26.25</v>
       </c>
       <c r="C22" t="n">
-        <v>26.52</v>
+        <v>25.22</v>
       </c>
       <c r="D22" t="n">
-        <v>26.677</v>
+        <v>26.16</v>
       </c>
       <c r="E22" t="n">
-        <v>25.542</v>
+        <v>23.74</v>
       </c>
       <c r="F22" t="n">
-        <v>25.7</v>
+        <v>23.39</v>
       </c>
       <c r="G22" t="n">
-        <v>24.576</v>
+        <v>23.3</v>
       </c>
       <c r="H22" t="n">
-        <v>25.755</v>
+        <v>24.73</v>
       </c>
       <c r="I22" t="n">
-        <v>27.54</v>
+        <v>24.48</v>
       </c>
       <c r="J22" t="n">
-        <v>23.46</v>
+        <v>26.01</v>
       </c>
       <c r="K22" t="n">
-        <v>26.52</v>
+        <v>24.99</v>
       </c>
       <c r="L22" t="n">
-        <v>-4.32</v>
+        <v>-3.64</v>
       </c>
       <c r="M22" t="n">
-        <v>-2.97</v>
+        <v>-2.7</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.06</v>
+        <v>-0.99</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -3411,13 +3315,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-4.08</v>
+        <v>-3.6</v>
       </c>
       <c r="S22" t="n">
-        <v>-2.7</v>
+        <v>-3.12</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.04</v>
+        <v>-1.07</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -3429,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-4.2</v>
+        <v>-4.24</v>
       </c>
       <c r="Y22" t="n">
-        <v>-3.12</v>
+        <v>-3.24</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.97</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -3449,46 +3353,46 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>27</v>
+        <v>26.75</v>
       </c>
       <c r="C23" t="n">
-        <v>24.18</v>
+        <v>28.34</v>
       </c>
       <c r="D23" t="n">
-        <v>26.418</v>
+        <v>26.68</v>
       </c>
       <c r="E23" t="n">
-        <v>23.994</v>
+        <v>23.74</v>
       </c>
       <c r="F23" t="n">
-        <v>26.985</v>
+        <v>25.19</v>
       </c>
       <c r="G23" t="n">
-        <v>26.368</v>
+        <v>25.34</v>
       </c>
       <c r="H23" t="n">
-        <v>24.225</v>
+        <v>27.54</v>
       </c>
       <c r="I23" t="n">
-        <v>23.46</v>
+        <v>23.71</v>
       </c>
       <c r="J23" t="n">
-        <v>25.755</v>
+        <v>26.27</v>
       </c>
       <c r="K23" t="n">
-        <v>24.225</v>
+        <v>24.48</v>
       </c>
       <c r="L23" t="n">
-        <v>-3.68</v>
+        <v>-3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>-3.03</v>
+        <v>-3.12</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.92</v>
+        <v>-0.91</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3500,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-3.64</v>
+        <v>-4.04</v>
       </c>
       <c r="S23" t="n">
-        <v>-2.97</v>
+        <v>-3.06</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.06</v>
+        <v>-1.09</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -3518,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-4.36</v>
+        <v>-3.84</v>
       </c>
       <c r="Y23" t="n">
         <v>-2.91</v>
       </c>
       <c r="Z23" t="n">
-        <v>-1.01</v>
+        <v>-1.08</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -3538,46 +3442,46 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>25.75</v>
+        <v>23.5</v>
       </c>
       <c r="C24" t="n">
-        <v>25.74</v>
+        <v>23.92</v>
       </c>
       <c r="D24" t="n">
-        <v>28.231</v>
+        <v>25.12</v>
       </c>
       <c r="E24" t="n">
-        <v>27.348</v>
+        <v>27.09</v>
       </c>
       <c r="F24" t="n">
-        <v>27.242</v>
+        <v>28.01</v>
       </c>
       <c r="G24" t="n">
-        <v>24.832</v>
+        <v>24.83</v>
       </c>
       <c r="H24" t="n">
-        <v>25.5</v>
+        <v>27.54</v>
       </c>
       <c r="I24" t="n">
-        <v>27.03</v>
+        <v>27.29</v>
       </c>
       <c r="J24" t="n">
-        <v>23.97</v>
+        <v>23.2</v>
       </c>
       <c r="K24" t="n">
-        <v>26.01</v>
+        <v>24.23</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.92</v>
+        <v>-4</v>
       </c>
       <c r="M24" t="n">
-        <v>-2.97</v>
+        <v>-3</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.9</v>
+        <v>-1.09</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3589,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-3.84</v>
+        <v>-3.76</v>
       </c>
       <c r="S24" t="n">
-        <v>-3.06</v>
+        <v>-3.03</v>
       </c>
       <c r="T24" t="n">
-        <v>-1.09</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3607,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>-4.32</v>
+        <v>-3.64</v>
       </c>
       <c r="Y24" t="n">
-        <v>-3.18</v>
+        <v>-3.15</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.04</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -3627,46 +3531,46 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
-        <v>26.5</v>
+        <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>27.56</v>
+        <v>27.82</v>
       </c>
       <c r="D25" t="n">
-        <v>24.864</v>
+        <v>25.9</v>
       </c>
       <c r="E25" t="n">
-        <v>25.284</v>
+        <v>23.74</v>
       </c>
       <c r="F25" t="n">
-        <v>27.242</v>
+        <v>26.98</v>
       </c>
       <c r="G25" t="n">
-        <v>24.832</v>
+        <v>23.55</v>
       </c>
       <c r="H25" t="n">
         <v>27.54</v>
       </c>
       <c r="I25" t="n">
-        <v>23.205</v>
+        <v>26.27</v>
       </c>
       <c r="J25" t="n">
-        <v>24.225</v>
+        <v>24.23</v>
       </c>
       <c r="K25" t="n">
-        <v>26.775</v>
+        <v>22.95</v>
       </c>
       <c r="L25" t="n">
-        <v>-4.08</v>
+        <v>-4.24</v>
       </c>
       <c r="M25" t="n">
-        <v>-3.21</v>
+        <v>-3.24</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.09</v>
+        <v>-0.99</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3678,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-4</v>
+        <v>-4.28</v>
       </c>
       <c r="S25" t="n">
-        <v>-3.12</v>
+        <v>-2.73</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.09</v>
+        <v>-1.07</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -3696,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-3.88</v>
+        <v>-4.16</v>
       </c>
       <c r="Y25" t="n">
-        <v>-3.12</v>
+        <v>-3.24</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.97</v>
+        <v>-1.08</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3716,82 +3620,82 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n">
-        <v>23.75</v>
+        <v>24.5</v>
       </c>
       <c r="C26" t="n">
-        <v>25.74</v>
+        <v>27.3</v>
       </c>
       <c r="D26" t="n">
-        <v>23.828</v>
+        <v>27.2</v>
       </c>
       <c r="E26" t="n">
-        <v>26.316</v>
+        <v>27.35</v>
       </c>
       <c r="F26" t="n">
-        <v>25.7</v>
+        <v>24.93</v>
       </c>
       <c r="G26" t="n">
-        <v>24.576</v>
+        <v>24.58</v>
       </c>
       <c r="H26" t="n">
-        <v>24.48</v>
+        <v>26.77</v>
       </c>
       <c r="I26" t="n">
-        <v>26.52</v>
+        <v>24.99</v>
       </c>
       <c r="J26" t="n">
-        <v>26.265</v>
+        <v>25.5</v>
       </c>
       <c r="K26" t="n">
-        <v>23.46</v>
+        <v>25.5</v>
       </c>
       <c r="L26" t="n">
-        <v>-3.6</v>
+        <v>-4.24</v>
       </c>
       <c r="M26" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="Y26" t="n">
         <v>-3.15</v>
       </c>
-      <c r="N26" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>-4.08</v>
-      </c>
-      <c r="S26" t="n">
-        <v>-3.24</v>
-      </c>
-      <c r="T26" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>-3.92</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>-2.91</v>
-      </c>
       <c r="Z26" t="n">
-        <v>-1.02</v>
+        <v>-1.01</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -3805,46 +3709,46 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>24.5</v>
+        <v>25.75</v>
       </c>
       <c r="C27" t="n">
         <v>27.3</v>
       </c>
       <c r="D27" t="n">
-        <v>24.864</v>
+        <v>26.42</v>
       </c>
       <c r="E27" t="n">
-        <v>26.316</v>
+        <v>26.83</v>
       </c>
       <c r="F27" t="n">
-        <v>26.985</v>
+        <v>23.13</v>
       </c>
       <c r="G27" t="n">
-        <v>26.368</v>
+        <v>23.04</v>
       </c>
       <c r="H27" t="n">
-        <v>25.5</v>
+        <v>24.73</v>
       </c>
       <c r="I27" t="n">
-        <v>22.95</v>
+        <v>26.77</v>
       </c>
       <c r="J27" t="n">
-        <v>24.48</v>
+        <v>26.77</v>
       </c>
       <c r="K27" t="n">
-        <v>23.97</v>
+        <v>24.99</v>
       </c>
       <c r="L27" t="n">
-        <v>-4.04</v>
+        <v>-4.36</v>
       </c>
       <c r="M27" t="n">
-        <v>-2.97</v>
+        <v>-2.85</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.95</v>
+        <v>-1.04</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3859,10 +3763,10 @@
         <v>-4.36</v>
       </c>
       <c r="S27" t="n">
-        <v>-2.76</v>
+        <v>-2.91</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.95</v>
+        <v>-0.99</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3874,13 +3778,13 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="Y27" t="n">
-        <v>-2.76</v>
+        <v>-2.73</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.99</v>
+        <v>-1.05</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3894,46 +3798,46 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n">
         <v>27.25</v>
       </c>
       <c r="C28" t="n">
-        <v>28.34</v>
+        <v>27.3</v>
       </c>
       <c r="D28" t="n">
-        <v>26.159</v>
+        <v>27.2</v>
       </c>
       <c r="E28" t="n">
-        <v>26.574</v>
+        <v>27.35</v>
       </c>
       <c r="F28" t="n">
-        <v>25.957</v>
+        <v>23.64</v>
       </c>
       <c r="G28" t="n">
-        <v>27.904</v>
+        <v>26.37</v>
       </c>
       <c r="H28" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="I28" t="n">
         <v>22.95</v>
       </c>
-      <c r="I28" t="n">
-        <v>26.01</v>
-      </c>
       <c r="J28" t="n">
-        <v>27.795</v>
+        <v>25.75</v>
       </c>
       <c r="K28" t="n">
-        <v>23.97</v>
+        <v>26.52</v>
       </c>
       <c r="L28" t="n">
-        <v>-4.12</v>
+        <v>-4.32</v>
       </c>
       <c r="M28" t="n">
-        <v>-3.24</v>
+        <v>-3.09</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.99</v>
+        <v>-1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3945,13 +3849,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-4.24</v>
+        <v>-3.6</v>
       </c>
       <c r="S28" t="n">
-        <v>-2.97</v>
+        <v>-2.73</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.02</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3969,7 +3873,7 @@
         <v>-2.73</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.96</v>
+        <v>-1.04</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -3983,46 +3887,46 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>22.5</v>
+        <v>24.75</v>
       </c>
       <c r="C29" t="n">
-        <v>26.78</v>
+        <v>27.82</v>
       </c>
       <c r="D29" t="n">
-        <v>26.677</v>
+        <v>27.45</v>
       </c>
       <c r="E29" t="n">
-        <v>23.478</v>
+        <v>24.25</v>
       </c>
       <c r="F29" t="n">
-        <v>25.7</v>
+        <v>24.67</v>
       </c>
       <c r="G29" t="n">
-        <v>27.136</v>
+        <v>27.14</v>
       </c>
       <c r="H29" t="n">
-        <v>27.54</v>
+        <v>24.23</v>
       </c>
       <c r="I29" t="n">
-        <v>27.54</v>
+        <v>23.46</v>
       </c>
       <c r="J29" t="n">
-        <v>24.99</v>
+        <v>24.73</v>
       </c>
       <c r="K29" t="n">
-        <v>27.54</v>
+        <v>23.46</v>
       </c>
       <c r="L29" t="n">
-        <v>-4.28</v>
+        <v>-3.8</v>
       </c>
       <c r="M29" t="n">
         <v>-3.15</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.97</v>
+        <v>-0.9</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -4034,31 +3938,31 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-2.73</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>-3.68</v>
       </c>
-      <c r="S29" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="T29" t="n">
-        <v>-0.97</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>-4.28</v>
-      </c>
       <c r="Y29" t="n">
-        <v>-3.06</v>
+        <v>-2.94</v>
       </c>
       <c r="Z29" t="n">
-        <v>-1.02</v>
+        <v>-1.01</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -4072,46 +3976,46 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n">
-        <v>26.5</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>27.3</v>
+        <v>24.18</v>
       </c>
       <c r="D30" t="n">
-        <v>24.864</v>
+        <v>24.86</v>
       </c>
       <c r="E30" t="n">
-        <v>26.316</v>
+        <v>23.99</v>
       </c>
       <c r="F30" t="n">
-        <v>27.499</v>
+        <v>23.39</v>
       </c>
       <c r="G30" t="n">
-        <v>27.648</v>
+        <v>23.3</v>
       </c>
       <c r="H30" t="n">
-        <v>23.715</v>
+        <v>24.48</v>
       </c>
       <c r="I30" t="n">
-        <v>26.52</v>
+        <v>26.27</v>
       </c>
       <c r="J30" t="n">
-        <v>25.755</v>
+        <v>25.25</v>
       </c>
       <c r="K30" t="n">
-        <v>27.03</v>
+        <v>22.95</v>
       </c>
       <c r="L30" t="n">
-        <v>-4.28</v>
+        <v>-4.2</v>
       </c>
       <c r="M30" t="n">
-        <v>-2.91</v>
+        <v>-3.24</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.97</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -4123,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-4</v>
+        <v>-4.08</v>
       </c>
       <c r="S30" t="n">
-        <v>-3.09</v>
+        <v>-2.76</v>
       </c>
       <c r="T30" t="n">
-        <v>-1.04</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -4141,13 +4045,13 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>-3.84</v>
+        <v>-3.72</v>
       </c>
       <c r="Y30" t="n">
-        <v>-2.85</v>
+        <v>-3.12</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.91</v>
+        <v>-1.08</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -4161,46 +4065,46 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
-        <v>26.25</v>
+        <v>26</v>
       </c>
       <c r="C31" t="n">
         <v>27.56</v>
       </c>
       <c r="D31" t="n">
-        <v>25.123</v>
+        <v>23.57</v>
       </c>
       <c r="E31" t="n">
-        <v>26.832</v>
+        <v>23.22</v>
       </c>
       <c r="F31" t="n">
-        <v>26.471</v>
+        <v>25.7</v>
       </c>
       <c r="G31" t="n">
-        <v>26.368</v>
+        <v>23.3</v>
       </c>
       <c r="H31" t="n">
-        <v>26.52</v>
+        <v>24.48</v>
       </c>
       <c r="I31" t="n">
-        <v>26.265</v>
+        <v>25.75</v>
       </c>
       <c r="J31" t="n">
-        <v>26.775</v>
+        <v>23.2</v>
       </c>
       <c r="K31" t="n">
-        <v>24.48</v>
+        <v>25.75</v>
       </c>
       <c r="L31" t="n">
-        <v>-3.84</v>
+        <v>-4.28</v>
       </c>
       <c r="M31" t="n">
-        <v>-3.24</v>
+        <v>-3.27</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.92</v>
+        <v>-0.9</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -4212,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-3.88</v>
+        <v>-3.64</v>
       </c>
       <c r="S31" t="n">
-        <v>-2.7</v>
+        <v>-3</v>
       </c>
       <c r="T31" t="n">
-        <v>-1.01</v>
+        <v>-1.02</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -4230,13 +4134,13 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-4.28</v>
+        <v>-4.08</v>
       </c>
       <c r="Y31" t="n">
-        <v>-2.88</v>
+        <v>-3.06</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.93</v>
+        <v>-1.07</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -4250,46 +4154,46 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>27.25</v>
+        <v>24.75</v>
       </c>
       <c r="C32" t="n">
-        <v>24.7</v>
+        <v>23.92</v>
       </c>
       <c r="D32" t="n">
-        <v>27.195</v>
+        <v>23.83</v>
       </c>
       <c r="E32" t="n">
-        <v>27.348</v>
+        <v>25.28</v>
       </c>
       <c r="F32" t="n">
-        <v>24.158</v>
+        <v>24.41</v>
       </c>
       <c r="G32" t="n">
-        <v>23.04</v>
+        <v>24.83</v>
       </c>
       <c r="H32" t="n">
-        <v>26.265</v>
+        <v>24.48</v>
       </c>
       <c r="I32" t="n">
-        <v>23.205</v>
+        <v>25.75</v>
       </c>
       <c r="J32" t="n">
-        <v>27.795</v>
+        <v>25.5</v>
       </c>
       <c r="K32" t="n">
-        <v>25.755</v>
+        <v>27.29</v>
       </c>
       <c r="L32" t="n">
-        <v>-4.32</v>
+        <v>-4.16</v>
       </c>
       <c r="M32" t="n">
-        <v>-3.03</v>
+        <v>-2.73</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.02</v>
+        <v>-1.09</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -4301,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-3.64</v>
+        <v>-3.76</v>
       </c>
       <c r="S32" t="n">
-        <v>-2.94</v>
+        <v>-3.15</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.04</v>
+        <v>-1.05</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -4319,13 +4223,13 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-4</v>
+        <v>-4.08</v>
       </c>
       <c r="Y32" t="n">
-        <v>-2.97</v>
+        <v>-2.88</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.98</v>
+        <v>-1.03</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -4334,1697 +4238,6 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>67</v>
-      </c>
-      <c r="B33" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="C33" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="D33" t="n">
-        <v>26.159</v>
-      </c>
-      <c r="E33" t="n">
-        <v>27.606</v>
-      </c>
-      <c r="F33" t="n">
-        <v>24.672</v>
-      </c>
-      <c r="G33" t="n">
-        <v>25.85600000000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>24.225</v>
-      </c>
-      <c r="I33" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="J33" t="n">
-        <v>24.735</v>
-      </c>
-      <c r="K33" t="n">
-        <v>27.795</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M33" t="n">
-        <v>-3.03</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-4.16</v>
-      </c>
-      <c r="S33" t="n">
-        <v>-2.76</v>
-      </c>
-      <c r="T33" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>-3.72</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>-3.03</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>69</v>
-      </c>
-      <c r="B34" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>27.82</v>
-      </c>
-      <c r="D34" t="n">
-        <v>27.972</v>
-      </c>
-      <c r="E34" t="n">
-        <v>27.09</v>
-      </c>
-      <c r="F34" t="n">
-        <v>25.957</v>
-      </c>
-      <c r="G34" t="n">
-        <v>24.576</v>
-      </c>
-      <c r="H34" t="n">
-        <v>24.225</v>
-      </c>
-      <c r="I34" t="n">
-        <v>24.225</v>
-      </c>
-      <c r="J34" t="n">
-        <v>25.755</v>
-      </c>
-      <c r="K34" t="n">
-        <v>23.205</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="M34" t="n">
-        <v>-3.12</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-0.92</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>-4.28</v>
-      </c>
-      <c r="S34" t="n">
-        <v>-2.82</v>
-      </c>
-      <c r="T34" t="n">
-        <v>-0.97</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>-4.36</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>71</v>
-      </c>
-      <c r="B35" t="n">
-        <v>24.25</v>
-      </c>
-      <c r="C35" t="n">
-        <v>26</v>
-      </c>
-      <c r="D35" t="n">
-        <v>23.828</v>
-      </c>
-      <c r="E35" t="n">
-        <v>24.252</v>
-      </c>
-      <c r="F35" t="n">
-        <v>26.214</v>
-      </c>
-      <c r="G35" t="n">
-        <v>27.392</v>
-      </c>
-      <c r="H35" t="n">
-        <v>24.48</v>
-      </c>
-      <c r="I35" t="n">
-        <v>23.97</v>
-      </c>
-      <c r="J35" t="n">
-        <v>25.755</v>
-      </c>
-      <c r="K35" t="n">
-        <v>23.46</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-4.32</v>
-      </c>
-      <c r="M35" t="n">
-        <v>-2.94</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>-3.09</v>
-      </c>
-      <c r="T35" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>-4.24</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>-3.06</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>73</v>
-      </c>
-      <c r="B36" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="D36" t="n">
-        <v>26.418</v>
-      </c>
-      <c r="E36" t="n">
-        <v>25.284</v>
-      </c>
-      <c r="F36" t="n">
-        <v>23.644</v>
-      </c>
-      <c r="G36" t="n">
-        <v>25.088</v>
-      </c>
-      <c r="H36" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="I36" t="n">
-        <v>25.245</v>
-      </c>
-      <c r="J36" t="n">
-        <v>23.205</v>
-      </c>
-      <c r="K36" t="n">
-        <v>23.715</v>
-      </c>
-      <c r="L36" t="n">
-        <v>-4.32</v>
-      </c>
-      <c r="M36" t="n">
-        <v>-3.18</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-1.06</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="S36" t="n">
-        <v>-3.09</v>
-      </c>
-      <c r="T36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>-3.24</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>75</v>
-      </c>
-      <c r="B37" t="n">
-        <v>25.75</v>
-      </c>
-      <c r="C37" t="n">
-        <v>27.56</v>
-      </c>
-      <c r="D37" t="n">
-        <v>24.864</v>
-      </c>
-      <c r="E37" t="n">
-        <v>23.994</v>
-      </c>
-      <c r="F37" t="n">
-        <v>25.443</v>
-      </c>
-      <c r="G37" t="n">
-        <v>26.368</v>
-      </c>
-      <c r="H37" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="I37" t="n">
-        <v>24.735</v>
-      </c>
-      <c r="J37" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K37" t="n">
-        <v>27.03</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-3.96</v>
-      </c>
-      <c r="M37" t="n">
-        <v>-2.82</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="S37" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="T37" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>-4.32</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>-2.82</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>-0.92</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>77</v>
-      </c>
-      <c r="B38" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="C38" t="n">
-        <v>28.34</v>
-      </c>
-      <c r="D38" t="n">
-        <v>24.864</v>
-      </c>
-      <c r="E38" t="n">
-        <v>26.832</v>
-      </c>
-      <c r="F38" t="n">
-        <v>27.242</v>
-      </c>
-      <c r="G38" t="n">
-        <v>27.904</v>
-      </c>
-      <c r="H38" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I38" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="K38" t="n">
-        <v>27.03</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="M38" t="n">
-        <v>-2.91</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-0.97</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>-3.64</v>
-      </c>
-      <c r="S38" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>-4.36</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>-2.85</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>79</v>
-      </c>
-      <c r="B39" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C39" t="n">
-        <v>25.48</v>
-      </c>
-      <c r="D39" t="n">
-        <v>24.605</v>
-      </c>
-      <c r="E39" t="n">
-        <v>28.122</v>
-      </c>
-      <c r="F39" t="n">
-        <v>24.158</v>
-      </c>
-      <c r="G39" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H39" t="n">
-        <v>27.795</v>
-      </c>
-      <c r="I39" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="J39" t="n">
-        <v>24.735</v>
-      </c>
-      <c r="K39" t="n">
-        <v>27.285</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M39" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="S39" t="n">
-        <v>-2.79</v>
-      </c>
-      <c r="T39" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>-2.94</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>81</v>
-      </c>
-      <c r="B40" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>28.34</v>
-      </c>
-      <c r="D40" t="n">
-        <v>23.569</v>
-      </c>
-      <c r="E40" t="n">
-        <v>24.51</v>
-      </c>
-      <c r="F40" t="n">
-        <v>24.929</v>
-      </c>
-      <c r="G40" t="n">
-        <v>26.368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>23.46</v>
-      </c>
-      <c r="I40" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="J40" t="n">
-        <v>25.755</v>
-      </c>
-      <c r="K40" t="n">
-        <v>23.46</v>
-      </c>
-      <c r="L40" t="n">
-        <v>-4.28</v>
-      </c>
-      <c r="M40" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-1.06</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="S40" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="T40" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>-2.91</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>83</v>
-      </c>
-      <c r="B41" t="n">
-        <v>25</v>
-      </c>
-      <c r="C41" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D41" t="n">
-        <v>27.972</v>
-      </c>
-      <c r="E41" t="n">
-        <v>23.994</v>
-      </c>
-      <c r="F41" t="n">
-        <v>23.387</v>
-      </c>
-      <c r="G41" t="n">
-        <v>25.344</v>
-      </c>
-      <c r="H41" t="n">
-        <v>26.775</v>
-      </c>
-      <c r="I41" t="n">
-        <v>23.715</v>
-      </c>
-      <c r="J41" t="n">
-        <v>26.265</v>
-      </c>
-      <c r="K41" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="L41" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="M41" t="n">
-        <v>-2.82</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="S41" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T41" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>-3.88</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>-2.94</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>85</v>
-      </c>
-      <c r="B42" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="D42" t="n">
-        <v>26.418</v>
-      </c>
-      <c r="E42" t="n">
-        <v>26.316</v>
-      </c>
-      <c r="F42" t="n">
-        <v>26.471</v>
-      </c>
-      <c r="G42" t="n">
-        <v>27.136</v>
-      </c>
-      <c r="H42" t="n">
-        <v>26.52</v>
-      </c>
-      <c r="I42" t="n">
-        <v>23.46</v>
-      </c>
-      <c r="J42" t="n">
-        <v>23.97</v>
-      </c>
-      <c r="K42" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="M42" t="n">
-        <v>-3.03</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>-4.36</v>
-      </c>
-      <c r="S42" t="n">
-        <v>-3.21</v>
-      </c>
-      <c r="T42" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>-4.16</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>87</v>
-      </c>
-      <c r="B43" t="n">
-        <v>23</v>
-      </c>
-      <c r="C43" t="n">
-        <v>24.18</v>
-      </c>
-      <c r="D43" t="n">
-        <v>26.418</v>
-      </c>
-      <c r="E43" t="n">
-        <v>26.574</v>
-      </c>
-      <c r="F43" t="n">
-        <v>25.443</v>
-      </c>
-      <c r="G43" t="n">
-        <v>27.904</v>
-      </c>
-      <c r="H43" t="n">
-        <v>23.97</v>
-      </c>
-      <c r="I43" t="n">
-        <v>26.52</v>
-      </c>
-      <c r="J43" t="n">
-        <v>25.755</v>
-      </c>
-      <c r="K43" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="L43" t="n">
-        <v>-3.76</v>
-      </c>
-      <c r="M43" t="n">
-        <v>-2.88</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>-3.92</v>
-      </c>
-      <c r="S43" t="n">
-        <v>-2.73</v>
-      </c>
-      <c r="T43" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>-3.15</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>89</v>
-      </c>
-      <c r="B44" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>25.48</v>
-      </c>
-      <c r="D44" t="n">
-        <v>26.936</v>
-      </c>
-      <c r="E44" t="n">
-        <v>27.09</v>
-      </c>
-      <c r="F44" t="n">
-        <v>23.901</v>
-      </c>
-      <c r="G44" t="n">
-        <v>26.112</v>
-      </c>
-      <c r="H44" t="n">
-        <v>24.48</v>
-      </c>
-      <c r="I44" t="n">
-        <v>27.03</v>
-      </c>
-      <c r="J44" t="n">
-        <v>23.715</v>
-      </c>
-      <c r="K44" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-3.68</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-2.88</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="S44" t="n">
-        <v>-2.94</v>
-      </c>
-      <c r="T44" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>-4.36</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>-2.73</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>-0.97</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>91</v>
-      </c>
-      <c r="B45" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="C45" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="D45" t="n">
-        <v>26.936</v>
-      </c>
-      <c r="E45" t="n">
-        <v>27.606</v>
-      </c>
-      <c r="F45" t="n">
-        <v>25.186</v>
-      </c>
-      <c r="G45" t="n">
-        <v>23.808</v>
-      </c>
-      <c r="H45" t="n">
-        <v>23.205</v>
-      </c>
-      <c r="I45" t="n">
-        <v>26.52</v>
-      </c>
-      <c r="J45" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="K45" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-3.64</v>
-      </c>
-      <c r="M45" t="n">
-        <v>-3.06</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="S45" t="n">
-        <v>-3.21</v>
-      </c>
-      <c r="T45" t="n">
-        <v>-0.92</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>-3.88</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>-3.09</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>93</v>
-      </c>
-      <c r="B46" t="n">
-        <v>24.25</v>
-      </c>
-      <c r="C46" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="D46" t="n">
-        <v>23.569</v>
-      </c>
-      <c r="E46" t="n">
-        <v>26.316</v>
-      </c>
-      <c r="F46" t="n">
-        <v>25.186</v>
-      </c>
-      <c r="G46" t="n">
-        <v>27.648</v>
-      </c>
-      <c r="H46" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="I46" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="J46" t="n">
-        <v>25.245</v>
-      </c>
-      <c r="K46" t="n">
-        <v>24.225</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-3.64</v>
-      </c>
-      <c r="M46" t="n">
-        <v>-3.12</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="S46" t="n">
-        <v>-2.76</v>
-      </c>
-      <c r="T46" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>-3.03</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>95</v>
-      </c>
-      <c r="B47" t="n">
-        <v>25.75</v>
-      </c>
-      <c r="C47" t="n">
-        <v>26.26</v>
-      </c>
-      <c r="D47" t="n">
-        <v>23.31</v>
-      </c>
-      <c r="E47" t="n">
-        <v>25.542</v>
-      </c>
-      <c r="F47" t="n">
-        <v>25.957</v>
-      </c>
-      <c r="G47" t="n">
-        <v>25.344</v>
-      </c>
-      <c r="H47" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="I47" t="n">
-        <v>27.795</v>
-      </c>
-      <c r="J47" t="n">
-        <v>23.715</v>
-      </c>
-      <c r="K47" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-4.08</v>
-      </c>
-      <c r="M47" t="n">
-        <v>-3.06</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="S47" t="n">
-        <v>-2.85</v>
-      </c>
-      <c r="T47" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>-4.28</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>-3.24</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>-1.04</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>97</v>
-      </c>
-      <c r="B48" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="C48" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D48" t="n">
-        <v>25.123</v>
-      </c>
-      <c r="E48" t="n">
-        <v>25.026</v>
-      </c>
-      <c r="F48" t="n">
-        <v>23.387</v>
-      </c>
-      <c r="G48" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="H48" t="n">
-        <v>25.245</v>
-      </c>
-      <c r="I48" t="n">
-        <v>26.265</v>
-      </c>
-      <c r="J48" t="n">
-        <v>23.205</v>
-      </c>
-      <c r="K48" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="M48" t="n">
-        <v>-2.82</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="S48" t="n">
-        <v>-3.03</v>
-      </c>
-      <c r="T48" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="n">
-        <v>-3.76</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>-3.24</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>99</v>
-      </c>
-      <c r="B49" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="C49" t="n">
-        <v>26.26</v>
-      </c>
-      <c r="D49" t="n">
-        <v>24.605</v>
-      </c>
-      <c r="E49" t="n">
-        <v>24.51</v>
-      </c>
-      <c r="F49" t="n">
-        <v>26.471</v>
-      </c>
-      <c r="G49" t="n">
-        <v>24.064</v>
-      </c>
-      <c r="H49" t="n">
-        <v>27.795</v>
-      </c>
-      <c r="I49" t="n">
-        <v>23.715</v>
-      </c>
-      <c r="J49" t="n">
-        <v>23.205</v>
-      </c>
-      <c r="K49" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="L49" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="M49" t="n">
-        <v>-2.94</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="n">
-        <v>-4.24</v>
-      </c>
-      <c r="S49" t="n">
-        <v>-3.21</v>
-      </c>
-      <c r="T49" t="n">
-        <v>-1.04</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="n">
-        <v>-3.76</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>-3.15</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>101</v>
-      </c>
-      <c r="B50" t="n">
-        <v>23</v>
-      </c>
-      <c r="C50" t="n">
-        <v>24.96</v>
-      </c>
-      <c r="D50" t="n">
-        <v>23.31</v>
-      </c>
-      <c r="E50" t="n">
-        <v>27.606</v>
-      </c>
-      <c r="F50" t="n">
-        <v>24.929</v>
-      </c>
-      <c r="G50" t="n">
-        <v>25.85600000000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>26.265</v>
-      </c>
-      <c r="I50" t="n">
-        <v>27.03</v>
-      </c>
-      <c r="J50" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="K50" t="n">
-        <v>23.205</v>
-      </c>
-      <c r="L50" t="n">
-        <v>-4.28</v>
-      </c>
-      <c r="M50" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="n">
-        <v>-3.64</v>
-      </c>
-      <c r="S50" t="n">
-        <v>-2.79</v>
-      </c>
-      <c r="T50" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>-3.03</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>103</v>
-      </c>
-      <c r="B51" t="n">
-        <v>24</v>
-      </c>
-      <c r="C51" t="n">
-        <v>24.96</v>
-      </c>
-      <c r="D51" t="n">
-        <v>25.641</v>
-      </c>
-      <c r="E51" t="n">
-        <v>23.994</v>
-      </c>
-      <c r="F51" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G51" t="n">
-        <v>23.808</v>
-      </c>
-      <c r="H51" t="n">
-        <v>25.755</v>
-      </c>
-      <c r="I51" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>24.735</v>
-      </c>
-      <c r="K51" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="L51" t="n">
-        <v>-3.96</v>
-      </c>
-      <c r="M51" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="n">
-        <v>-4.28</v>
-      </c>
-      <c r="S51" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T51" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/strategy_test.xlsx
+++ b/strategy_test.xlsx
@@ -147,12 +147,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+              <f>'Raw_Data_COM'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$B$2:$B$32</f>
+              <f>'Raw_Data_COM'!$B$2:$B$71</f>
             </numRef>
           </val>
         </ser>
@@ -179,12 +179,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+              <f>'Raw_Data_COM'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$C$2:$C$32</f>
+              <f>'Raw_Data_COM'!$C$2:$C$71</f>
             </numRef>
           </val>
         </ser>
@@ -211,12 +211,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+              <f>'Raw_Data_COM'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$D$2:$D$32</f>
+              <f>'Raw_Data_COM'!$D$2:$D$71</f>
             </numRef>
           </val>
         </ser>
@@ -243,12 +243,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+              <f>'Raw_Data_COM'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$E$2:$E$32</f>
+              <f>'Raw_Data_COM'!$E$2:$E$71</f>
             </numRef>
           </val>
         </ser>
@@ -275,12 +275,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+              <f>'Raw_Data_COM'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$F$2:$F$32</f>
+              <f>'Raw_Data_COM'!$F$2:$F$71</f>
             </numRef>
           </val>
         </ser>
@@ -307,12 +307,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+              <f>'Raw_Data_COM'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$G$2:$G$32</f>
+              <f>'Raw_Data_COM'!$G$2:$G$71</f>
             </numRef>
           </val>
         </ser>
@@ -339,12 +339,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+              <f>'Raw_Data_COM'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$H$2:$H$32</f>
+              <f>'Raw_Data_COM'!$H$2:$H$71</f>
             </numRef>
           </val>
         </ser>
@@ -376,7 +376,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
-        <tickLblSkip val="4"/>
+        <tickLblSkip val="7"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -443,12 +443,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+              <f>'Raw_Data_COM'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$I$2:$I$32</f>
+              <f>'Raw_Data_COM'!$I$2:$I$71</f>
             </numRef>
           </val>
         </ser>
@@ -475,12 +475,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+              <f>'Raw_Data_COM'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$J$2:$J$32</f>
+              <f>'Raw_Data_COM'!$J$2:$J$71</f>
             </numRef>
           </val>
         </ser>
@@ -507,12 +507,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+              <f>'Raw_Data_COM'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$K$2:$K$32</f>
+              <f>'Raw_Data_COM'!$K$2:$K$71</f>
             </numRef>
           </val>
         </ser>
@@ -544,7 +544,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
-        <tickLblSkip val="4"/>
+        <tickLblSkip val="7"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -933,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,13 +990,13 @@
         <v>40.01</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>1.999500124968758</v>
+        <v>0.9997500624843789</v>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
@@ -1017,13 +1017,13 @@
         <v>60.05</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>1.998334721065779</v>
+        <v>0.9991673605328893</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>3.330557868442965e-05</v>
+        <v>1.665278934221482e-05</v>
       </c>
       <c r="G8" t="n">
         <v>0.0009223794985660098</v>
@@ -1127,194 +1127,386 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.332500208281263e-05</v>
+        <v>1.666250104140632e-05</v>
       </c>
       <c r="K8" t="n">
         <v>0.0009223794985660098</v>
       </c>
     </row>
-    <row r="9"/>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>36</v>
+      </c>
+      <c r="C9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.330557868442965e-05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00184475899713202</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.666250104140632e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0009223794985660098</v>
+      </c>
+    </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>56</v>
+      </c>
+      <c r="C10" t="n">
+        <v>74</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.661115736885929e-05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.003689517994264039</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.332500208281263e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.00184475899713202</v>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Raw Data Processing</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>T_A [°C]</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>T_B [°C]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>T_out [°C]</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>Upre [V]</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Ur1 [V]</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Ur2 [V]</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>dT_A [°C]</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>dT_B [°C]</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>dT_out [°C]</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>Q_Out [W]</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="14">
+      <c r="A14" t="n">
         <v>1</v>
       </c>
-      <c r="B12" t="n">
-        <v>25.07</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25.0375</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25.346</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25.346</v>
-      </c>
-      <c r="F12" t="n">
-        <v>25.5885</v>
-      </c>
-      <c r="G12" t="n">
-        <v>24.8765</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-0.03750000000000142</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-0.3460000000000036</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-0.048085960277547</v>
-      </c>
-    </row>
-    <row r="13"/>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="B14" t="n">
+        <v>25.67315789473684</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25.3578947368421</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.33894736842105</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25.4878947368421</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25.59473684210526</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25.15052631578947</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.6731578947368355</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.3578947368421019</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.3389473684210529</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.04710580836437475</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25.53631578947368</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25.22210526315789</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25.49947368421053</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25.28473684210526</v>
+      </c>
+      <c r="F15" t="n">
+        <v>25.47473684210527</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24.59947368421052</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.536315789473683</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.2221052631578928</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.4994736842105283</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.1041228543582107</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>25.53789473684211</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25.46473684210526</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25.20421052631579</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25.2321052631579</v>
+      </c>
+      <c r="F16" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>24.74315789473684</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5378947368421052</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.4647368421052605</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.2042105263157907</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.08514155424865297</v>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Calculation</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Q_A [W]</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>Q_B [W]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>Qpre [W] - cp flux</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>QSE,pre [W]</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>Qr1 [W]</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>Qr2 [W]</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>dHr [kJ/mol]</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="20">
+      <c r="A20" t="n">
         <v>1</v>
       </c>
-      <c r="B16" t="n">
-        <v>-0.004864186733277843</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.002605814321398933</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-696.1117159999999</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-696.1042459989452</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-708.94833225</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-671.5932522500001</v>
-      </c>
-      <c r="H16" s="10" t="n">
-        <v>-62352.73484168817</v>
+      <c r="B20" t="n">
+        <v>-0.04677665287114493</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.02486952615510443</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-703.6085675900277</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-703.5369214110015</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-709.2800277008308</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-685.8500265927975</v>
+      </c>
+      <c r="H20" s="10" t="n">
+        <v>-126027.7805948553</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.07453543280015174</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.01543373534919717</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-692.8873908587256</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-692.7974216905762</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-702.9116908587258</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-657.3330529085871</v>
+      </c>
+      <c r="H21" s="10" t="n">
+        <v>-61645.71730657521</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.1495097395912763</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.06458762233810968</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-690.1233465373963</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-689.9092491754669</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-693.6900000000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-664.7101783933515</v>
+      </c>
+      <c r="H22" s="10" t="n">
+        <v>-30751.52346896004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1327,7 +1519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,43 +1679,43 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>23.5</v>
+        <v>24.75</v>
       </c>
       <c r="C2" t="n">
-        <v>23.66</v>
+        <v>24.75</v>
       </c>
       <c r="D2" t="n">
-        <v>27.71</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>26.32</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>23.64</v>
+        <v>25.96</v>
       </c>
       <c r="G2" t="n">
-        <v>25.6</v>
+        <v>24.32</v>
       </c>
       <c r="H2" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="I2" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="J2" t="n">
         <v>24.73</v>
       </c>
-      <c r="I2" t="n">
-        <v>23.97</v>
-      </c>
-      <c r="J2" t="n">
-        <v>23.97</v>
-      </c>
       <c r="K2" t="n">
-        <v>26.77</v>
+        <v>25.15</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.36</v>
+        <v>-0.02</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.21</v>
+        <v>0.45</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.02</v>
+        <v>0.04</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1535,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-4.16</v>
+        <v>-4</v>
       </c>
       <c r="S2" t="n">
-        <v>-3.15</v>
+        <v>-3.09</v>
       </c>
       <c r="T2" t="n">
         <v>-0.95</v>
@@ -1556,10 +1748,10 @@
         <v>-4.04</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.88</v>
+        <v>-3.12</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.95</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -1576,43 +1768,43 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>24.75</v>
       </c>
       <c r="C3" t="n">
-        <v>27.82</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>23.57</v>
+        <v>24.75</v>
       </c>
       <c r="E3" t="n">
-        <v>26.57</v>
+        <v>25.25</v>
       </c>
       <c r="F3" t="n">
-        <v>23.64</v>
+        <v>24.67</v>
       </c>
       <c r="G3" t="n">
-        <v>25.6</v>
+        <v>26.37</v>
       </c>
       <c r="H3" t="n">
-        <v>27.8</v>
+        <v>24.73</v>
       </c>
       <c r="I3" t="n">
-        <v>24.48</v>
+        <v>25.5</v>
       </c>
       <c r="J3" t="n">
-        <v>26.27</v>
+        <v>25.75</v>
       </c>
       <c r="K3" t="n">
-        <v>24.73</v>
+        <v>23.9</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.6</v>
+        <v>-0.02</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.15</v>
+        <v>0.45</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.97</v>
+        <v>0.04</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1624,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-4.36</v>
+        <v>-3.88</v>
       </c>
       <c r="S3" t="n">
-        <v>-3.03</v>
+        <v>-2.91</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.93</v>
+        <v>-1.01</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1642,13 +1834,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>-3.96</v>
+        <v>-3.84</v>
       </c>
       <c r="Y3" t="n">
-        <v>-2.82</v>
+        <v>-2.94</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1.06</v>
+        <v>-0.96</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1665,61 +1857,61 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>24.75</v>
+        <v>25.5</v>
       </c>
       <c r="C4" t="n">
-        <v>23.92</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>28.23</v>
+        <v>25.75</v>
       </c>
       <c r="E4" t="n">
-        <v>27.35</v>
+        <v>25.5</v>
       </c>
       <c r="F4" t="n">
-        <v>24.67</v>
+        <v>25.44</v>
       </c>
       <c r="G4" t="n">
-        <v>24.06</v>
+        <v>24.58</v>
       </c>
       <c r="H4" t="n">
-        <v>23.97</v>
+        <v>24.99</v>
       </c>
       <c r="I4" t="n">
-        <v>26.27</v>
+        <v>25.25</v>
       </c>
       <c r="J4" t="n">
         <v>24.23</v>
       </c>
       <c r="K4" t="n">
-        <v>26.52</v>
+        <v>25.65</v>
       </c>
       <c r="L4" t="n">
-        <v>-4.08</v>
+        <v>-0.02</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.94</v>
+        <v>0.45</v>
       </c>
       <c r="N4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="T4" t="n">
         <v>-1.03</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-3.12</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-1.04</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1734,10 +1926,10 @@
         <v>-3.88</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.7</v>
+        <v>-3.03</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.93</v>
+        <v>-1</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1754,16 +1946,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>25.75</v>
       </c>
       <c r="D5" t="n">
-        <v>25.38</v>
+        <v>24.25</v>
       </c>
       <c r="E5" t="n">
-        <v>23.48</v>
+        <v>24.25</v>
       </c>
       <c r="F5" t="n">
         <v>24.93</v>
@@ -1772,25 +1964,25 @@
         <v>26.37</v>
       </c>
       <c r="H5" t="n">
-        <v>25.25</v>
+        <v>25.75</v>
       </c>
       <c r="I5" t="n">
-        <v>22.95</v>
+        <v>24.23</v>
       </c>
       <c r="J5" t="n">
-        <v>23.71</v>
+        <v>24.99</v>
       </c>
       <c r="K5" t="n">
-        <v>26.52</v>
+        <v>25.4</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.96</v>
+        <v>-0.02</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.79</v>
+        <v>0.45</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.97</v>
+        <v>0.04</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1802,13 +1994,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-4.2</v>
+        <v>-4</v>
       </c>
       <c r="S5" t="n">
-        <v>-2.79</v>
+        <v>-2.85</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.09</v>
+        <v>-1.02</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1820,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>-4.2</v>
+        <v>-4.12</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.79</v>
+        <v>-3.09</v>
       </c>
       <c r="Z5" t="n">
         <v>-1.03</v>
@@ -1846,40 +2038,40 @@
         <v>25.75</v>
       </c>
       <c r="C6" t="n">
-        <v>25.22</v>
+        <v>25.75</v>
       </c>
       <c r="D6" t="n">
-        <v>26.68</v>
+        <v>25.75</v>
       </c>
       <c r="E6" t="n">
-        <v>26.06</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>27.24</v>
+        <v>26.21</v>
       </c>
       <c r="G6" t="n">
-        <v>26.37</v>
+        <v>26.11</v>
       </c>
       <c r="H6" t="n">
         <v>24.73</v>
       </c>
       <c r="I6" t="n">
-        <v>23.71</v>
+        <v>26.52</v>
       </c>
       <c r="J6" t="n">
-        <v>26.01</v>
+        <v>24.23</v>
       </c>
       <c r="K6" t="n">
-        <v>23.2</v>
+        <v>24.9</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.8</v>
+        <v>-0.02</v>
       </c>
       <c r="M6" t="n">
-        <v>-3.12</v>
+        <v>0.45</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.08</v>
+        <v>0.04</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1891,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.72</v>
+        <v>-4.12</v>
       </c>
       <c r="S6" t="n">
-        <v>-2.7</v>
+        <v>-2.88</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.03</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1909,13 +2101,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>-4.08</v>
+        <v>-3.92</v>
       </c>
       <c r="Y6" t="n">
         <v>-2.85</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1.02</v>
+        <v>-0.99</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1932,79 +2124,79 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D7" t="n">
         <v>25.5</v>
       </c>
-      <c r="C7" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>27.71</v>
-      </c>
       <c r="E7" t="n">
-        <v>27.09</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>25.19</v>
+        <v>25.96</v>
       </c>
       <c r="G7" t="n">
-        <v>26.11</v>
+        <v>25.34</v>
       </c>
       <c r="H7" t="n">
-        <v>24.73</v>
+        <v>25.25</v>
       </c>
       <c r="I7" t="n">
-        <v>25.25</v>
+        <v>26.52</v>
       </c>
       <c r="J7" t="n">
-        <v>22.95</v>
+        <v>25.75</v>
       </c>
       <c r="K7" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="L7" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>-3.92</v>
       </c>
-      <c r="M7" t="n">
+      <c r="Y7" t="n">
         <v>-2.97</v>
       </c>
-      <c r="N7" t="n">
-        <v>-0.98</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-3.76</v>
-      </c>
-      <c r="S7" t="n">
-        <v>-2.94</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>-2.76</v>
-      </c>
       <c r="Z7" t="n">
-        <v>-0.92</v>
+        <v>-0.96</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -2021,43 +2213,43 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>25.75</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>25.22</v>
+        <v>25.5</v>
       </c>
       <c r="D8" t="n">
-        <v>23.57</v>
+        <v>23.75</v>
       </c>
       <c r="E8" t="n">
-        <v>23.74</v>
+        <v>26</v>
       </c>
       <c r="F8" t="n">
         <v>25.44</v>
       </c>
       <c r="G8" t="n">
-        <v>23.81</v>
+        <v>26.37</v>
       </c>
       <c r="H8" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="I8" t="n">
-        <v>24.99</v>
+        <v>26.27</v>
       </c>
       <c r="J8" t="n">
-        <v>24.48</v>
+        <v>26.52</v>
       </c>
       <c r="K8" t="n">
-        <v>24.48</v>
+        <v>25.4</v>
       </c>
       <c r="L8" t="n">
-        <v>-3.6</v>
+        <v>-0.02</v>
       </c>
       <c r="M8" t="n">
-        <v>-2.73</v>
+        <v>0.45</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.95</v>
+        <v>0.04</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -2069,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-4.28</v>
+        <v>-3.8</v>
       </c>
       <c r="S8" t="n">
-        <v>-2.7</v>
+        <v>-3.06</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.92</v>
+        <v>-0.99</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -2087,13 +2279,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>-4.24</v>
+        <v>-3.88</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.82</v>
+        <v>-2.94</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.98</v>
+        <v>-1.04</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -2110,43 +2302,43 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>25.75</v>
+        <v>24.5</v>
       </c>
       <c r="C9" t="n">
-        <v>28.08</v>
+        <v>24.25</v>
       </c>
       <c r="D9" t="n">
-        <v>24.86</v>
+        <v>25.25</v>
       </c>
       <c r="E9" t="n">
-        <v>24.77</v>
+        <v>23.75</v>
       </c>
       <c r="F9" t="n">
-        <v>23.9</v>
+        <v>24.93</v>
       </c>
       <c r="G9" t="n">
-        <v>26.88</v>
+        <v>26.37</v>
       </c>
       <c r="H9" t="n">
-        <v>23.71</v>
+        <v>26.52</v>
       </c>
       <c r="I9" t="n">
-        <v>24.99</v>
+        <v>26.27</v>
       </c>
       <c r="J9" t="n">
-        <v>23.97</v>
+        <v>26.01</v>
       </c>
       <c r="K9" t="n">
-        <v>24.99</v>
+        <v>25.65</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.36</v>
+        <v>-0.02</v>
       </c>
       <c r="M9" t="n">
-        <v>-3.15</v>
+        <v>0.46</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.96</v>
+        <v>0.04</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -2158,13 +2350,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-4.04</v>
+        <v>-3.8</v>
       </c>
       <c r="S9" t="n">
-        <v>-2.91</v>
+        <v>-3.09</v>
       </c>
       <c r="T9" t="n">
-        <v>-1.09</v>
+        <v>-1.02</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -2176,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>-3.72</v>
+        <v>-3.84</v>
       </c>
       <c r="Y9" t="n">
-        <v>-2.76</v>
+        <v>-2.94</v>
       </c>
       <c r="Z9" t="n">
-        <v>-1.04</v>
+        <v>-1.02</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -2199,43 +2391,43 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>26.5</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7</v>
+        <v>25.25</v>
       </c>
       <c r="D10" t="n">
-        <v>26.42</v>
+        <v>25.75</v>
       </c>
       <c r="E10" t="n">
-        <v>25.28</v>
+        <v>23.75</v>
       </c>
       <c r="F10" t="n">
-        <v>24.93</v>
+        <v>24.67</v>
       </c>
       <c r="G10" t="n">
-        <v>25.6</v>
+        <v>26.62</v>
       </c>
       <c r="H10" t="n">
-        <v>26.27</v>
+        <v>25.75</v>
       </c>
       <c r="I10" t="n">
-        <v>27.29</v>
+        <v>25.25</v>
       </c>
       <c r="J10" t="n">
-        <v>27.8</v>
+        <v>25.25</v>
       </c>
       <c r="K10" t="n">
-        <v>26.77</v>
+        <v>23.9</v>
       </c>
       <c r="L10" t="n">
-        <v>-4.16</v>
+        <v>-0.02</v>
       </c>
       <c r="M10" t="n">
-        <v>-3.18</v>
+        <v>0.45</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.95</v>
+        <v>0.04</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -2247,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-3.96</v>
+        <v>-4.12</v>
       </c>
       <c r="S10" t="n">
-        <v>-3.15</v>
+        <v>-3.09</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.02</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -2265,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>-3.68</v>
+        <v>-4</v>
       </c>
       <c r="Y10" t="n">
         <v>-3.03</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.9</v>
+        <v>-0.98</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -2288,43 +2480,43 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>23.25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>24.18</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>25.38</v>
+        <v>23.75</v>
       </c>
       <c r="E11" t="n">
-        <v>23.22</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>26.73</v>
+        <v>25.96</v>
       </c>
       <c r="G11" t="n">
-        <v>23.55</v>
+        <v>25.34</v>
       </c>
       <c r="H11" t="n">
-        <v>24.23</v>
+        <v>26.01</v>
       </c>
       <c r="I11" t="n">
         <v>26.52</v>
       </c>
       <c r="J11" t="n">
-        <v>24.48</v>
+        <v>24.73</v>
       </c>
       <c r="K11" t="n">
-        <v>26.52</v>
+        <v>25.4</v>
       </c>
       <c r="L11" t="n">
-        <v>-3.84</v>
+        <v>-0.02</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.88</v>
+        <v>0.46</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.92</v>
+        <v>0.04</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2336,13 +2528,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-3.92</v>
+        <v>-4</v>
       </c>
       <c r="S11" t="n">
-        <v>-3.21</v>
+        <v>-3</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.9</v>
+        <v>-0.95</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2354,13 +2546,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-3.96</v>
+        <v>-4.04</v>
       </c>
       <c r="Y11" t="n">
-        <v>-3.21</v>
+        <v>-2.97</v>
       </c>
       <c r="Z11" t="n">
-        <v>-1.08</v>
+        <v>-0.97</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -2377,43 +2569,43 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>25.25</v>
+        <v>25.75</v>
       </c>
       <c r="C12" t="n">
-        <v>25.48</v>
+        <v>24.5</v>
       </c>
       <c r="D12" t="n">
-        <v>23.31</v>
+        <v>24.5</v>
       </c>
       <c r="E12" t="n">
-        <v>25.28</v>
+        <v>23.75</v>
       </c>
       <c r="F12" t="n">
-        <v>24.41</v>
+        <v>26.47</v>
       </c>
       <c r="G12" t="n">
         <v>25.34</v>
       </c>
       <c r="H12" t="n">
-        <v>22.95</v>
+        <v>25.75</v>
       </c>
       <c r="I12" t="n">
-        <v>23.2</v>
+        <v>26.01</v>
       </c>
       <c r="J12" t="n">
-        <v>27.54</v>
+        <v>24.48</v>
       </c>
       <c r="K12" t="n">
-        <v>25.25</v>
+        <v>24.4</v>
       </c>
       <c r="L12" t="n">
-        <v>-4</v>
+        <v>-0.02</v>
       </c>
       <c r="M12" t="n">
-        <v>-3.12</v>
+        <v>0.43</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.04</v>
+        <v>0.04</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2425,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-3.84</v>
+        <v>-3.96</v>
       </c>
       <c r="S12" t="n">
-        <v>-2.73</v>
+        <v>-2.97</v>
       </c>
       <c r="T12" t="n">
-        <v>-1.05</v>
+        <v>-0.96</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -2443,13 +2635,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>-3.88</v>
+        <v>-3.92</v>
       </c>
       <c r="Y12" t="n">
-        <v>-2.85</v>
+        <v>-2.91</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.99</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -2466,43 +2658,43 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>23.4</v>
+        <v>25.75</v>
       </c>
       <c r="D13" t="n">
-        <v>27.2</v>
+        <v>25.25</v>
       </c>
       <c r="E13" t="n">
-        <v>28.12</v>
+        <v>25.75</v>
       </c>
       <c r="F13" t="n">
-        <v>27.76</v>
+        <v>24.67</v>
       </c>
       <c r="G13" t="n">
-        <v>26.88</v>
+        <v>24.32</v>
       </c>
       <c r="H13" t="n">
-        <v>27.54</v>
+        <v>26.01</v>
       </c>
       <c r="I13" t="n">
-        <v>27.54</v>
+        <v>24.99</v>
       </c>
       <c r="J13" t="n">
-        <v>25.5</v>
+        <v>26.27</v>
       </c>
       <c r="K13" t="n">
-        <v>26.27</v>
+        <v>24.9</v>
       </c>
       <c r="L13" t="n">
-        <v>-4.24</v>
+        <v>-0.02</v>
       </c>
       <c r="M13" t="n">
-        <v>-3.21</v>
+        <v>0.43</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.9</v>
+        <v>0.04</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2514,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-3.72</v>
+        <v>-4.08</v>
       </c>
       <c r="S13" t="n">
-        <v>-2.79</v>
+        <v>-3.03</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.98</v>
+        <v>-0.96</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2532,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-3.72</v>
+        <v>-3.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>-3.06</v>
+        <v>-3.09</v>
       </c>
       <c r="Z13" t="n">
-        <v>-1.08</v>
+        <v>-1</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2555,43 +2747,43 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="C14" t="n">
-        <v>24.7</v>
+        <v>23.75</v>
       </c>
       <c r="D14" t="n">
-        <v>27.71</v>
+        <v>25.75</v>
       </c>
       <c r="E14" t="n">
-        <v>27.09</v>
+        <v>25.5</v>
       </c>
       <c r="F14" t="n">
         <v>25.96</v>
       </c>
       <c r="G14" t="n">
-        <v>23.3</v>
+        <v>26.37</v>
       </c>
       <c r="H14" t="n">
-        <v>23.97</v>
+        <v>24.99</v>
       </c>
       <c r="I14" t="n">
-        <v>27.8</v>
+        <v>25.5</v>
       </c>
       <c r="J14" t="n">
-        <v>27.8</v>
+        <v>26.52</v>
       </c>
       <c r="K14" t="n">
-        <v>23.2</v>
+        <v>25.9</v>
       </c>
       <c r="L14" t="n">
-        <v>-3.76</v>
+        <v>-0.02</v>
       </c>
       <c r="M14" t="n">
-        <v>-3.24</v>
+        <v>0.47</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.99</v>
+        <v>0.04</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2603,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-4.28</v>
+        <v>-4.16</v>
       </c>
       <c r="S14" t="n">
-        <v>-3.18</v>
+        <v>-2.91</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.91</v>
+        <v>-0.95</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2621,13 +2813,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.8</v>
+        <v>-3.84</v>
       </c>
       <c r="Y14" t="n">
-        <v>-2.91</v>
+        <v>-2.85</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.9</v>
+        <v>-0.96</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2644,43 +2836,43 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>22.5</v>
+        <v>25.75</v>
       </c>
       <c r="C15" t="n">
-        <v>23.66</v>
+        <v>24.5</v>
       </c>
       <c r="D15" t="n">
-        <v>24.09</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>25.28</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>23.9</v>
+        <v>25.7</v>
       </c>
       <c r="G15" t="n">
-        <v>26.88</v>
+        <v>24.32</v>
       </c>
       <c r="H15" t="n">
-        <v>24.48</v>
+        <v>24.99</v>
       </c>
       <c r="I15" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="J15" t="n">
         <v>24.73</v>
       </c>
-      <c r="J15" t="n">
-        <v>27.03</v>
-      </c>
       <c r="K15" t="n">
-        <v>26.01</v>
+        <v>25.15</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.12</v>
+        <v>-0.02</v>
       </c>
       <c r="M15" t="n">
-        <v>-2.73</v>
+        <v>0.43</v>
       </c>
       <c r="N15" t="n">
-        <v>-1.08</v>
+        <v>0.04</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2692,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-4.12</v>
+        <v>-4.04</v>
       </c>
       <c r="S15" t="n">
-        <v>-2.91</v>
+        <v>-3.09</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.97</v>
+        <v>-0.96</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2710,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>-3.76</v>
+        <v>-3.96</v>
       </c>
       <c r="Y15" t="n">
-        <v>-3.12</v>
+        <v>-3.09</v>
       </c>
       <c r="Z15" t="n">
-        <v>-1.08</v>
+        <v>-1.03</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2733,43 +2925,43 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>26.25</v>
+        <v>25.5</v>
       </c>
       <c r="C16" t="n">
-        <v>26.78</v>
+        <v>24.25</v>
       </c>
       <c r="D16" t="n">
-        <v>23.57</v>
+        <v>24.5</v>
       </c>
       <c r="E16" t="n">
-        <v>25.54</v>
+        <v>23.75</v>
       </c>
       <c r="F16" t="n">
-        <v>24.93</v>
+        <v>25.19</v>
       </c>
       <c r="G16" t="n">
-        <v>25.34</v>
+        <v>26.37</v>
       </c>
       <c r="H16" t="n">
-        <v>26.52</v>
+        <v>25.5</v>
       </c>
       <c r="I16" t="n">
-        <v>24.99</v>
+        <v>24.23</v>
       </c>
       <c r="J16" t="n">
         <v>25.5</v>
       </c>
       <c r="K16" t="n">
-        <v>24.99</v>
+        <v>25.9</v>
       </c>
       <c r="L16" t="n">
-        <v>-4.2</v>
+        <v>-0.02</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.73</v>
+        <v>0.45</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.08</v>
+        <v>0.04</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2781,31 +2973,31 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>-4.04</v>
       </c>
-      <c r="S16" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="T16" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>-4.12</v>
-      </c>
       <c r="Y16" t="n">
-        <v>-3.15</v>
+        <v>-2.94</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.92</v>
+        <v>-0.98</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2822,43 +3014,43 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>23.25</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>25.22</v>
+        <v>23.75</v>
       </c>
       <c r="D17" t="n">
-        <v>24.35</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
-        <v>24.25</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>23.64</v>
+        <v>25.96</v>
       </c>
       <c r="G17" t="n">
-        <v>24.58</v>
+        <v>25.86</v>
       </c>
       <c r="H17" t="n">
-        <v>24.99</v>
+        <v>24.48</v>
       </c>
       <c r="I17" t="n">
-        <v>23.2</v>
+        <v>25.25</v>
       </c>
       <c r="J17" t="n">
-        <v>27.54</v>
+        <v>26.27</v>
       </c>
       <c r="K17" t="n">
-        <v>24.23</v>
+        <v>25.9</v>
       </c>
       <c r="L17" t="n">
-        <v>-3.8</v>
+        <v>-0.02</v>
       </c>
       <c r="M17" t="n">
-        <v>-2.85</v>
+        <v>0.47</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.02</v>
+        <v>0.04</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2870,13 +3062,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-3.96</v>
+        <v>-4</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.88</v>
+        <v>-2.91</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.01</v>
+        <v>-0.95</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2888,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-4.08</v>
+        <v>-3.84</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.88</v>
+        <v>-2.97</v>
       </c>
       <c r="Z17" t="n">
-        <v>-1</v>
+        <v>-1.04</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2911,43 +3103,43 @@
         <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>26.25</v>
+        <v>25.5</v>
       </c>
       <c r="C18" t="n">
-        <v>28.34</v>
+        <v>24.5</v>
       </c>
       <c r="D18" t="n">
-        <v>24.61</v>
+        <v>24.5</v>
       </c>
       <c r="E18" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>26.47</v>
+        <v>25.19</v>
       </c>
       <c r="G18" t="n">
-        <v>24.32</v>
+        <v>24.83</v>
       </c>
       <c r="H18" t="n">
-        <v>23.71</v>
+        <v>25.25</v>
       </c>
       <c r="I18" t="n">
-        <v>27.54</v>
+        <v>25.25</v>
       </c>
       <c r="J18" t="n">
-        <v>23.2</v>
+        <v>24.99</v>
       </c>
       <c r="K18" t="n">
-        <v>26.27</v>
+        <v>24.9</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.92</v>
+        <v>-0.02</v>
       </c>
       <c r="M18" t="n">
-        <v>-2.88</v>
+        <v>0.44</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.97</v>
+        <v>0.04</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2959,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-3.64</v>
+        <v>-3.8</v>
       </c>
       <c r="S18" t="n">
-        <v>-3.09</v>
+        <v>-3</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.98</v>
+        <v>-1.02</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2980,10 +3172,10 @@
         <v>-4</v>
       </c>
       <c r="Y18" t="n">
-        <v>-2.82</v>
+        <v>-3.03</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.92</v>
+        <v>-1.02</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -3000,43 +3192,43 @@
         <v>22</v>
       </c>
       <c r="B19" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D19" t="n">
         <v>25.5</v>
       </c>
-      <c r="C19" t="n">
-        <v>26</v>
-      </c>
-      <c r="D19" t="n">
-        <v>25.9</v>
-      </c>
       <c r="E19" t="n">
-        <v>25.03</v>
+        <v>25.5</v>
       </c>
       <c r="F19" t="n">
-        <v>24.16</v>
+        <v>25.7</v>
       </c>
       <c r="G19" t="n">
-        <v>27.39</v>
+        <v>25.6</v>
       </c>
       <c r="H19" t="n">
-        <v>24.48</v>
+        <v>24.73</v>
       </c>
       <c r="I19" t="n">
-        <v>23.2</v>
+        <v>26.27</v>
       </c>
       <c r="J19" t="n">
-        <v>25.75</v>
+        <v>24.23</v>
       </c>
       <c r="K19" t="n">
-        <v>24.23</v>
+        <v>23.66</v>
       </c>
       <c r="L19" t="n">
-        <v>-4.32</v>
+        <v>-0.02</v>
       </c>
       <c r="M19" t="n">
-        <v>-3.06</v>
+        <v>0.43</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.9399999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -3048,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-3.76</v>
+        <v>-3.92</v>
       </c>
       <c r="S19" t="n">
-        <v>-3.12</v>
+        <v>-2.85</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.06</v>
+        <v>-1.02</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -3066,13 +3258,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-4.32</v>
+        <v>-4.04</v>
       </c>
       <c r="Y19" t="n">
-        <v>-3.15</v>
+        <v>-2.88</v>
       </c>
       <c r="Z19" t="n">
-        <v>-1</v>
+        <v>-1.03</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -3089,43 +3281,43 @@
         <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>24.25</v>
+        <v>25.25</v>
       </c>
       <c r="C20" t="n">
-        <v>27.56</v>
+        <v>23.75</v>
       </c>
       <c r="D20" t="n">
-        <v>27.2</v>
+        <v>25.25</v>
       </c>
       <c r="E20" t="n">
-        <v>25.54</v>
+        <v>25.75</v>
       </c>
       <c r="F20" t="n">
-        <v>23.64</v>
+        <v>24.93</v>
       </c>
       <c r="G20" t="n">
-        <v>27.14</v>
+        <v>25.09</v>
       </c>
       <c r="H20" t="n">
-        <v>22.95</v>
+        <v>24.73</v>
       </c>
       <c r="I20" t="n">
-        <v>23.46</v>
+        <v>26.52</v>
       </c>
       <c r="J20" t="n">
-        <v>27.54</v>
+        <v>24.73</v>
       </c>
       <c r="K20" t="n">
-        <v>26.27</v>
+        <v>25.4</v>
       </c>
       <c r="L20" t="n">
-        <v>-3.8</v>
+        <v>-0.02</v>
       </c>
       <c r="M20" t="n">
-        <v>-3</v>
+        <v>0.44</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.97</v>
+        <v>0.04</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -3137,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-4</v>
+        <v>-3.88</v>
       </c>
       <c r="S20" t="n">
-        <v>-2.79</v>
+        <v>-3.03</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.08</v>
+        <v>-1.04</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -3155,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-4.28</v>
+        <v>-3.96</v>
       </c>
       <c r="Y20" t="n">
-        <v>-3.24</v>
+        <v>-2.97</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.93</v>
+        <v>-0.99</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -3178,43 +3370,43 @@
         <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>25.25</v>
+        <v>25.75</v>
       </c>
       <c r="C21" t="n">
-        <v>27.3</v>
+        <v>25.5</v>
       </c>
       <c r="D21" t="n">
-        <v>25.9</v>
+        <v>24.75</v>
       </c>
       <c r="E21" t="n">
-        <v>26.32</v>
+        <v>24.5</v>
       </c>
       <c r="F21" t="n">
-        <v>27.5</v>
+        <v>26.73</v>
       </c>
       <c r="G21" t="n">
-        <v>25.34</v>
+        <v>26.62</v>
       </c>
       <c r="H21" t="n">
         <v>26.01</v>
       </c>
       <c r="I21" t="n">
-        <v>26.77</v>
+        <v>24.73</v>
       </c>
       <c r="J21" t="n">
-        <v>25.5</v>
+        <v>24.23</v>
       </c>
       <c r="K21" t="n">
-        <v>22.95</v>
+        <v>25.65</v>
       </c>
       <c r="L21" t="n">
-        <v>-4.32</v>
+        <v>-0.02</v>
       </c>
       <c r="M21" t="n">
-        <v>-3.06</v>
+        <v>0.43</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.03</v>
+        <v>0.04</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -3226,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-4.04</v>
+        <v>-3.8</v>
       </c>
       <c r="S21" t="n">
-        <v>-2.88</v>
+        <v>-3.03</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.91</v>
+        <v>-1.04</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -3244,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>-4.2</v>
+        <v>-3.84</v>
       </c>
       <c r="Y21" t="n">
-        <v>-3.18</v>
+        <v>-2.97</v>
       </c>
       <c r="Z21" t="n">
-        <v>-1.03</v>
+        <v>-1.01</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -3267,43 +3459,43 @@
         <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>26.25</v>
+        <v>24.5</v>
       </c>
       <c r="C22" t="n">
-        <v>25.22</v>
+        <v>24.5</v>
       </c>
       <c r="D22" t="n">
-        <v>26.16</v>
+        <v>25.5</v>
       </c>
       <c r="E22" t="n">
-        <v>23.74</v>
+        <v>26</v>
       </c>
       <c r="F22" t="n">
-        <v>23.39</v>
+        <v>25.7</v>
       </c>
       <c r="G22" t="n">
-        <v>23.3</v>
+        <v>26.11</v>
       </c>
       <c r="H22" t="n">
-        <v>24.73</v>
+        <v>26.27</v>
       </c>
       <c r="I22" t="n">
-        <v>24.48</v>
+        <v>26.52</v>
       </c>
       <c r="J22" t="n">
-        <v>26.01</v>
+        <v>26.27</v>
       </c>
       <c r="K22" t="n">
-        <v>24.99</v>
+        <v>23.9</v>
       </c>
       <c r="L22" t="n">
-        <v>-3.64</v>
+        <v>-0.02</v>
       </c>
       <c r="M22" t="n">
-        <v>-2.7</v>
+        <v>0.46</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.99</v>
+        <v>0.04</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -3315,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-3.6</v>
+        <v>-4.16</v>
       </c>
       <c r="S22" t="n">
-        <v>-3.12</v>
+        <v>-2.88</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.07</v>
+        <v>-1.04</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -3333,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-4.24</v>
+        <v>-4.08</v>
       </c>
       <c r="Y22" t="n">
-        <v>-3.24</v>
+        <v>-3.09</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.04</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -3356,43 +3548,43 @@
         <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>26.75</v>
+        <v>24.75</v>
       </c>
       <c r="C23" t="n">
-        <v>28.34</v>
+        <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>26.68</v>
+        <v>25.5</v>
       </c>
       <c r="E23" t="n">
-        <v>23.74</v>
+        <v>23.75</v>
       </c>
       <c r="F23" t="n">
-        <v>25.19</v>
+        <v>26.21</v>
       </c>
       <c r="G23" t="n">
-        <v>25.34</v>
+        <v>24.32</v>
       </c>
       <c r="H23" t="n">
-        <v>27.54</v>
+        <v>25.25</v>
       </c>
       <c r="I23" t="n">
-        <v>23.71</v>
+        <v>25.75</v>
       </c>
       <c r="J23" t="n">
-        <v>26.27</v>
+        <v>25.75</v>
       </c>
       <c r="K23" t="n">
-        <v>24.48</v>
+        <v>24.9</v>
       </c>
       <c r="L23" t="n">
-        <v>-3.6</v>
+        <v>-0.02</v>
       </c>
       <c r="M23" t="n">
-        <v>-3.12</v>
+        <v>0.44</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.91</v>
+        <v>0.04</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3404,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-4.04</v>
+        <v>-4</v>
       </c>
       <c r="S23" t="n">
-        <v>-3.06</v>
+        <v>-3.09</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.09</v>
+        <v>-1.03</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -3425,10 +3617,10 @@
         <v>-3.84</v>
       </c>
       <c r="Y23" t="n">
-        <v>-2.91</v>
+        <v>-3.03</v>
       </c>
       <c r="Z23" t="n">
-        <v>-1.08</v>
+        <v>-0.99</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -3445,43 +3637,43 @@
         <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>23.5</v>
+        <v>24.75</v>
       </c>
       <c r="C24" t="n">
-        <v>23.92</v>
+        <v>25.75</v>
       </c>
       <c r="D24" t="n">
-        <v>25.12</v>
+        <v>25.25</v>
       </c>
       <c r="E24" t="n">
-        <v>27.09</v>
+        <v>24.25</v>
       </c>
       <c r="F24" t="n">
-        <v>28.01</v>
+        <v>25.7</v>
       </c>
       <c r="G24" t="n">
-        <v>24.83</v>
+        <v>24.58</v>
       </c>
       <c r="H24" t="n">
-        <v>27.54</v>
+        <v>26.27</v>
       </c>
       <c r="I24" t="n">
-        <v>27.29</v>
+        <v>25.25</v>
       </c>
       <c r="J24" t="n">
-        <v>23.2</v>
+        <v>26.01</v>
       </c>
       <c r="K24" t="n">
-        <v>24.23</v>
+        <v>25.65</v>
       </c>
       <c r="L24" t="n">
-        <v>-4</v>
+        <v>-0.02</v>
       </c>
       <c r="M24" t="n">
-        <v>-3</v>
+        <v>0.43</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.09</v>
+        <v>0.04</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3493,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-3.76</v>
+        <v>-3.8</v>
       </c>
       <c r="S24" t="n">
-        <v>-3.03</v>
+        <v>-2.88</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.95</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3511,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>-3.64</v>
+        <v>-3.96</v>
       </c>
       <c r="Y24" t="n">
-        <v>-3.15</v>
+        <v>-2.88</v>
       </c>
       <c r="Z24" t="n">
-        <v>-1.04</v>
+        <v>-0.95</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -3534,43 +3726,43 @@
         <v>28</v>
       </c>
       <c r="B25" t="n">
-        <v>25</v>
+        <v>23.75</v>
       </c>
       <c r="C25" t="n">
-        <v>27.82</v>
+        <v>25.5</v>
       </c>
       <c r="D25" t="n">
-        <v>25.9</v>
+        <v>25.25</v>
       </c>
       <c r="E25" t="n">
-        <v>23.74</v>
+        <v>26</v>
       </c>
       <c r="F25" t="n">
-        <v>26.98</v>
+        <v>25.7</v>
       </c>
       <c r="G25" t="n">
-        <v>23.55</v>
+        <v>25.34</v>
       </c>
       <c r="H25" t="n">
-        <v>27.54</v>
+        <v>24.73</v>
       </c>
       <c r="I25" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="J25" t="n">
         <v>26.27</v>
       </c>
-      <c r="J25" t="n">
-        <v>24.23</v>
-      </c>
       <c r="K25" t="n">
-        <v>22.95</v>
+        <v>25.4</v>
       </c>
       <c r="L25" t="n">
-        <v>-4.24</v>
+        <v>-0.02</v>
       </c>
       <c r="M25" t="n">
-        <v>-3.24</v>
+        <v>0.46</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.99</v>
+        <v>0.04</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3582,13 +3774,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-4.28</v>
+        <v>-3.96</v>
       </c>
       <c r="S25" t="n">
-        <v>-2.73</v>
+        <v>-2.88</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.07</v>
+        <v>-1</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -3600,13 +3792,13 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-4.16</v>
+        <v>-4.08</v>
       </c>
       <c r="Y25" t="n">
-        <v>-3.24</v>
+        <v>-3.12</v>
       </c>
       <c r="Z25" t="n">
-        <v>-1.08</v>
+        <v>-1.02</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3626,40 +3818,40 @@
         <v>24.5</v>
       </c>
       <c r="C26" t="n">
-        <v>27.3</v>
+        <v>25.5</v>
       </c>
       <c r="D26" t="n">
-        <v>27.2</v>
+        <v>25.5</v>
       </c>
       <c r="E26" t="n">
-        <v>27.35</v>
+        <v>24.25</v>
       </c>
       <c r="F26" t="n">
-        <v>24.93</v>
+        <v>25.44</v>
       </c>
       <c r="G26" t="n">
-        <v>24.58</v>
+        <v>24.83</v>
       </c>
       <c r="H26" t="n">
-        <v>26.77</v>
+        <v>26.27</v>
       </c>
       <c r="I26" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="J26" t="n">
         <v>24.99</v>
       </c>
-      <c r="J26" t="n">
-        <v>25.5</v>
-      </c>
       <c r="K26" t="n">
-        <v>25.5</v>
+        <v>24.9</v>
       </c>
       <c r="L26" t="n">
-        <v>-4.24</v>
+        <v>-0.02</v>
       </c>
       <c r="M26" t="n">
-        <v>-3.12</v>
+        <v>0.47</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.91</v>
+        <v>0.04</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3671,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-3.76</v>
+        <v>-3.92</v>
       </c>
       <c r="S26" t="n">
-        <v>-2.97</v>
+        <v>-2.88</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.95</v>
+        <v>-1.03</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -3689,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-4.08</v>
+        <v>-3.84</v>
       </c>
       <c r="Y26" t="n">
-        <v>-3.15</v>
+        <v>-3.06</v>
       </c>
       <c r="Z26" t="n">
-        <v>-1.01</v>
+        <v>-1.02</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -3712,79 +3904,79 @@
         <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>25.75</v>
+        <v>25.25</v>
       </c>
       <c r="C27" t="n">
-        <v>27.3</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>26.42</v>
+        <v>24.25</v>
       </c>
       <c r="E27" t="n">
-        <v>26.83</v>
+        <v>26</v>
       </c>
       <c r="F27" t="n">
-        <v>23.13</v>
+        <v>26.21</v>
       </c>
       <c r="G27" t="n">
-        <v>23.04</v>
+        <v>24.58</v>
       </c>
       <c r="H27" t="n">
-        <v>24.73</v>
+        <v>24.48</v>
       </c>
       <c r="I27" t="n">
-        <v>26.77</v>
+        <v>24.23</v>
       </c>
       <c r="J27" t="n">
-        <v>26.77</v>
+        <v>25.25</v>
       </c>
       <c r="K27" t="n">
-        <v>24.99</v>
+        <v>25.65</v>
       </c>
       <c r="L27" t="n">
-        <v>-4.36</v>
+        <v>-0.02</v>
       </c>
       <c r="M27" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="Y27" t="n">
         <v>-2.85</v>
       </c>
-      <c r="N27" t="n">
-        <v>-1.04</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>-4.36</v>
-      </c>
-      <c r="S27" t="n">
-        <v>-2.91</v>
-      </c>
-      <c r="T27" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>-3.96</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>-2.73</v>
-      </c>
       <c r="Z27" t="n">
-        <v>-1.05</v>
+        <v>-0.97</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3801,62 +3993,62 @@
         <v>31</v>
       </c>
       <c r="B28" t="n">
-        <v>27.25</v>
+        <v>24.5</v>
       </c>
       <c r="C28" t="n">
-        <v>27.3</v>
+        <v>25.25</v>
       </c>
       <c r="D28" t="n">
-        <v>27.2</v>
+        <v>23.75</v>
       </c>
       <c r="E28" t="n">
-        <v>27.35</v>
+        <v>25.75</v>
       </c>
       <c r="F28" t="n">
-        <v>23.64</v>
+        <v>24.67</v>
       </c>
       <c r="G28" t="n">
-        <v>26.37</v>
+        <v>26.62</v>
       </c>
       <c r="H28" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="I28" t="n">
         <v>25.75</v>
       </c>
-      <c r="I28" t="n">
-        <v>22.95</v>
-      </c>
       <c r="J28" t="n">
-        <v>25.75</v>
+        <v>26.52</v>
       </c>
       <c r="K28" t="n">
-        <v>26.52</v>
+        <v>25.4</v>
       </c>
       <c r="L28" t="n">
-        <v>-4.32</v>
+        <v>-0.02</v>
       </c>
       <c r="M28" t="n">
-        <v>-3.09</v>
+        <v>0.46</v>
       </c>
       <c r="N28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="T28" t="n">
         <v>-1</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="S28" t="n">
-        <v>-2.73</v>
-      </c>
-      <c r="T28" t="n">
-        <v>-1.02</v>
-      </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
@@ -3867,13 +4059,13 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-4</v>
+        <v>-4.12</v>
       </c>
       <c r="Y28" t="n">
-        <v>-2.73</v>
+        <v>-3</v>
       </c>
       <c r="Z28" t="n">
-        <v>-1.04</v>
+        <v>-0.97</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -3890,43 +4082,43 @@
         <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>24.75</v>
+        <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>27.82</v>
+        <v>24.5</v>
       </c>
       <c r="D29" t="n">
-        <v>27.45</v>
+        <v>24.5</v>
       </c>
       <c r="E29" t="n">
-        <v>24.25</v>
+        <v>24.5</v>
       </c>
       <c r="F29" t="n">
-        <v>24.67</v>
+        <v>26.73</v>
       </c>
       <c r="G29" t="n">
-        <v>27.14</v>
+        <v>24.58</v>
       </c>
       <c r="H29" t="n">
-        <v>24.23</v>
+        <v>25.5</v>
       </c>
       <c r="I29" t="n">
-        <v>23.46</v>
+        <v>26.52</v>
       </c>
       <c r="J29" t="n">
-        <v>24.73</v>
+        <v>25.75</v>
       </c>
       <c r="K29" t="n">
-        <v>23.46</v>
+        <v>25.4</v>
       </c>
       <c r="L29" t="n">
-        <v>-3.8</v>
+        <v>-0.02</v>
       </c>
       <c r="M29" t="n">
-        <v>-3.15</v>
+        <v>0.47</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.9</v>
+        <v>0.04</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3938,10 +4130,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-3.76</v>
+        <v>-4.08</v>
       </c>
       <c r="S29" t="n">
-        <v>-2.73</v>
+        <v>-2.97</v>
       </c>
       <c r="T29" t="n">
         <v>-1</v>
@@ -3956,13 +4148,13 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-3.68</v>
+        <v>-3.84</v>
       </c>
       <c r="Y29" t="n">
         <v>-2.94</v>
       </c>
       <c r="Z29" t="n">
-        <v>-1.01</v>
+        <v>-1.04</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -3979,43 +4171,43 @@
         <v>33</v>
       </c>
       <c r="B30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C30" t="n">
-        <v>24.18</v>
+        <v>23.75</v>
       </c>
       <c r="D30" t="n">
-        <v>24.86</v>
+        <v>25.5</v>
       </c>
       <c r="E30" t="n">
-        <v>23.99</v>
+        <v>25</v>
       </c>
       <c r="F30" t="n">
-        <v>23.39</v>
+        <v>25.44</v>
       </c>
       <c r="G30" t="n">
-        <v>23.3</v>
+        <v>25.6</v>
       </c>
       <c r="H30" t="n">
-        <v>24.48</v>
+        <v>24.73</v>
       </c>
       <c r="I30" t="n">
         <v>26.27</v>
       </c>
       <c r="J30" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="K30" t="n">
-        <v>22.95</v>
+        <v>24.65</v>
       </c>
       <c r="L30" t="n">
-        <v>-4.2</v>
+        <v>-0.02</v>
       </c>
       <c r="M30" t="n">
-        <v>-3.24</v>
+        <v>0.44</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.9399999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -4027,13 +4219,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-4.08</v>
+        <v>-4.16</v>
       </c>
       <c r="S30" t="n">
-        <v>-2.76</v>
+        <v>-2.88</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.96</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -4045,13 +4237,13 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>-3.72</v>
+        <v>-4.04</v>
       </c>
       <c r="Y30" t="n">
-        <v>-3.12</v>
+        <v>-2.85</v>
       </c>
       <c r="Z30" t="n">
-        <v>-1.08</v>
+        <v>-1</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -4068,43 +4260,43 @@
         <v>34</v>
       </c>
       <c r="B31" t="n">
-        <v>26</v>
+        <v>24.75</v>
       </c>
       <c r="C31" t="n">
-        <v>27.56</v>
+        <v>24</v>
       </c>
       <c r="D31" t="n">
-        <v>23.57</v>
+        <v>25.25</v>
       </c>
       <c r="E31" t="n">
-        <v>23.22</v>
+        <v>25.75</v>
       </c>
       <c r="F31" t="n">
-        <v>25.7</v>
+        <v>25.96</v>
       </c>
       <c r="G31" t="n">
-        <v>23.3</v>
+        <v>25.86</v>
       </c>
       <c r="H31" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="I31" t="n">
         <v>24.48</v>
       </c>
-      <c r="I31" t="n">
-        <v>25.75</v>
-      </c>
       <c r="J31" t="n">
-        <v>23.2</v>
+        <v>26.52</v>
       </c>
       <c r="K31" t="n">
-        <v>25.75</v>
+        <v>24.65</v>
       </c>
       <c r="L31" t="n">
-        <v>-4.28</v>
+        <v>-0.02</v>
       </c>
       <c r="M31" t="n">
-        <v>-3.27</v>
+        <v>0.45</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.9</v>
+        <v>0.04</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -4116,31 +4308,31 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-3.64</v>
+        <v>-3.8</v>
       </c>
       <c r="S31" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y31" t="n">
         <v>-3</v>
       </c>
-      <c r="T31" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>-4.08</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>-3.06</v>
-      </c>
       <c r="Z31" t="n">
-        <v>-1.07</v>
+        <v>-0.97</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -4157,61 +4349,61 @@
         <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>24.75</v>
+        <v>24.25</v>
       </c>
       <c r="C32" t="n">
-        <v>23.92</v>
+        <v>23.75</v>
       </c>
       <c r="D32" t="n">
-        <v>23.83</v>
+        <v>24.25</v>
       </c>
       <c r="E32" t="n">
-        <v>25.28</v>
+        <v>26</v>
       </c>
       <c r="F32" t="n">
-        <v>24.41</v>
+        <v>25.7</v>
       </c>
       <c r="G32" t="n">
-        <v>24.83</v>
+        <v>26.62</v>
       </c>
       <c r="H32" t="n">
-        <v>24.48</v>
+        <v>24.99</v>
       </c>
       <c r="I32" t="n">
         <v>25.75</v>
       </c>
       <c r="J32" t="n">
-        <v>25.5</v>
+        <v>24.73</v>
       </c>
       <c r="K32" t="n">
-        <v>27.29</v>
+        <v>23.66</v>
       </c>
       <c r="L32" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>-4.16</v>
       </c>
-      <c r="M32" t="n">
-        <v>-2.73</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>-3.76</v>
-      </c>
       <c r="S32" t="n">
-        <v>-3.15</v>
+        <v>-2.91</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.05</v>
+        <v>-1.02</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -4223,10 +4415,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-4.08</v>
+        <v>-4.04</v>
       </c>
       <c r="Y32" t="n">
-        <v>-2.88</v>
+        <v>-3.03</v>
       </c>
       <c r="Z32" t="n">
         <v>-1.03</v>
@@ -4238,6 +4430,3477 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36</v>
+      </c>
+      <c r="B33" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C33" t="n">
+        <v>24</v>
+      </c>
+      <c r="D33" t="n">
+        <v>26</v>
+      </c>
+      <c r="E33" t="n">
+        <v>26</v>
+      </c>
+      <c r="F33" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="G33" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="H33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="J33" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="K33" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="D34" t="n">
+        <v>24</v>
+      </c>
+      <c r="E34" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="F34" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="G34" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="H34" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="I34" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="J34" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="K34" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38</v>
+      </c>
+      <c r="B35" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="C35" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="F35" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="G35" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="H35" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="I35" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="J35" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="K35" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39</v>
+      </c>
+      <c r="B36" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D36" t="n">
+        <v>25</v>
+      </c>
+      <c r="E36" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="F36" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="G36" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="H36" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="J36" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="K36" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>40</v>
+      </c>
+      <c r="B37" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="D37" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="E37" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="F37" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="G37" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="H37" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="J37" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="K37" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="D38" t="n">
+        <v>24</v>
+      </c>
+      <c r="E38" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="G38" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="H38" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="J38" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="K38" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42</v>
+      </c>
+      <c r="B39" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="F39" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="G39" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="H39" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="I39" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="J39" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="K39" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>43</v>
+      </c>
+      <c r="B40" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="C40" t="n">
+        <v>26</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
+      </c>
+      <c r="F40" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="G40" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="H40" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="I40" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="J40" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>44</v>
+      </c>
+      <c r="B41" t="n">
+        <v>24</v>
+      </c>
+      <c r="C41" t="n">
+        <v>26</v>
+      </c>
+      <c r="D41" t="n">
+        <v>26</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="F41" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="H41" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="J41" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="K41" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>45</v>
+      </c>
+      <c r="B42" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>24</v>
+      </c>
+      <c r="E42" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="F42" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="G42" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="I42" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="J42" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="K42" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>46</v>
+      </c>
+      <c r="B43" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="C43" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D43" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="E43" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="F43" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="G43" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="I43" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="J43" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>47</v>
+      </c>
+      <c r="B44" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C44" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="E44" t="n">
+        <v>24</v>
+      </c>
+      <c r="F44" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="G44" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="I44" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="J44" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="K44" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>48</v>
+      </c>
+      <c r="B45" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="C45" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D45" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="E45" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="F45" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="G45" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="H45" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="I45" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="J45" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="K45" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>49</v>
+      </c>
+      <c r="B46" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="C46" t="n">
+        <v>25</v>
+      </c>
+      <c r="D46" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>25</v>
+      </c>
+      <c r="F46" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="G46" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="H46" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="I46" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="J46" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="K46" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>50</v>
+      </c>
+      <c r="B47" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="C47" t="n">
+        <v>26</v>
+      </c>
+      <c r="D47" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G47" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="H47" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="I47" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="J47" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="K47" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>51</v>
+      </c>
+      <c r="B48" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C48" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D48" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="E48" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="G48" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="I48" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="J48" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="K48" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52</v>
+      </c>
+      <c r="B49" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D49" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="E49" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="G49" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="H49" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="I49" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="J49" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="K49" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53</v>
+      </c>
+      <c r="B50" t="n">
+        <v>24</v>
+      </c>
+      <c r="C50" t="n">
+        <v>24</v>
+      </c>
+      <c r="D50" t="n">
+        <v>25</v>
+      </c>
+      <c r="E50" t="n">
+        <v>24</v>
+      </c>
+      <c r="F50" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="G50" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="H50" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="I50" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="J50" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="K50" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54</v>
+      </c>
+      <c r="B51" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="C51" t="n">
+        <v>24</v>
+      </c>
+      <c r="D51" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="F51" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="G51" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="H51" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="I51" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="J51" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="K51" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>55</v>
+      </c>
+      <c r="B52" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="E52" t="n">
+        <v>24</v>
+      </c>
+      <c r="F52" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="G52" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="H52" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="I52" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="J52" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="K52" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56</v>
+      </c>
+      <c r="B53" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="C53" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D53" t="n">
+        <v>26</v>
+      </c>
+      <c r="E53" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="G53" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="H53" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="I53" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="K53" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>57</v>
+      </c>
+      <c r="B54" t="n">
+        <v>26</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="E54" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="F54" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="G54" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="H54" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="I54" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="J54" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="K54" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58</v>
+      </c>
+      <c r="B55" t="n">
+        <v>24</v>
+      </c>
+      <c r="C55" t="n">
+        <v>26</v>
+      </c>
+      <c r="D55" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="E55" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="G55" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="H55" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="K55" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59</v>
+      </c>
+      <c r="B56" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D56" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="E56" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="G56" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="H56" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="I56" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="K56" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60</v>
+      </c>
+      <c r="B57" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D57" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="E57" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="F57" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="G57" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="H57" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="I57" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="J57" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="K57" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>61</v>
+      </c>
+      <c r="B58" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>24</v>
+      </c>
+      <c r="F58" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="G58" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="H58" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="I58" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="J58" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="K58" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>62</v>
+      </c>
+      <c r="B59" t="n">
+        <v>25</v>
+      </c>
+      <c r="C59" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="D59" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G59" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="H59" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="J59" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="K59" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63</v>
+      </c>
+      <c r="B60" t="n">
+        <v>24</v>
+      </c>
+      <c r="C60" t="n">
+        <v>25</v>
+      </c>
+      <c r="D60" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="E60" t="n">
+        <v>26</v>
+      </c>
+      <c r="F60" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="G60" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="H60" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="I60" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="J60" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="K60" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64</v>
+      </c>
+      <c r="B61" t="n">
+        <v>26</v>
+      </c>
+      <c r="C61" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D61" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="E61" t="n">
+        <v>24</v>
+      </c>
+      <c r="F61" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="G61" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="H61" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="I61" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="J61" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65</v>
+      </c>
+      <c r="B62" t="n">
+        <v>25</v>
+      </c>
+      <c r="C62" t="n">
+        <v>24</v>
+      </c>
+      <c r="D62" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="E62" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="F62" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="G62" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="H62" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="I62" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="J62" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="K62" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>66</v>
+      </c>
+      <c r="B63" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D63" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>26</v>
+      </c>
+      <c r="F63" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="G63" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="H63" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I63" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="J63" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="K63" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>67</v>
+      </c>
+      <c r="B64" t="n">
+        <v>25</v>
+      </c>
+      <c r="C64" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="D64" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="E64" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="F64" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="G64" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="H64" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="I64" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="J64" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="K64" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>68</v>
+      </c>
+      <c r="B65" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="C65" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="D65" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="F65" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="G65" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="H65" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I65" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="J65" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="K65" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>69</v>
+      </c>
+      <c r="B66" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="C66" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D66" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="E66" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="G66" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H66" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="I66" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="J66" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="K66" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>70</v>
+      </c>
+      <c r="B67" t="n">
+        <v>26</v>
+      </c>
+      <c r="C67" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="E67" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="F67" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="G67" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="H67" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I67" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="J67" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="K67" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>71</v>
+      </c>
+      <c r="B68" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="C68" t="n">
+        <v>26</v>
+      </c>
+      <c r="D68" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="E68" t="n">
+        <v>24</v>
+      </c>
+      <c r="F68" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="G68" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="H68" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="I68" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="J68" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="K68" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="T68" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>72</v>
+      </c>
+      <c r="B69" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="C69" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D69" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="E69" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="G69" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="H69" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="I69" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="J69" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="K69" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T69" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>73</v>
+      </c>
+      <c r="B70" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="C70" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D70" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="E70" t="n">
+        <v>25</v>
+      </c>
+      <c r="F70" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="G70" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="H70" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="J70" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="K70" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="T70" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>74</v>
+      </c>
+      <c r="B71" t="n">
+        <v>24</v>
+      </c>
+      <c r="C71" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="D71" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="E71" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="F71" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="G71" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="H71" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I71" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="J71" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="K71" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="T71" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="n">
         <v>0</v>
       </c>
     </row>

--- a/strategy_test.xlsx
+++ b/strategy_test.xlsx
@@ -147,12 +147,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$71</f>
+              <f>'Raw_Data_COM'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$B$2:$B$71</f>
+              <f>'Raw_Data_COM'!$B$2:$B$70</f>
             </numRef>
           </val>
         </ser>
@@ -179,12 +179,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$71</f>
+              <f>'Raw_Data_COM'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$C$2:$C$71</f>
+              <f>'Raw_Data_COM'!$C$2:$C$70</f>
             </numRef>
           </val>
         </ser>
@@ -211,12 +211,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$71</f>
+              <f>'Raw_Data_COM'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$D$2:$D$71</f>
+              <f>'Raw_Data_COM'!$D$2:$D$70</f>
             </numRef>
           </val>
         </ser>
@@ -243,12 +243,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$71</f>
+              <f>'Raw_Data_COM'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$E$2:$E$71</f>
+              <f>'Raw_Data_COM'!$E$2:$E$70</f>
             </numRef>
           </val>
         </ser>
@@ -275,12 +275,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$71</f>
+              <f>'Raw_Data_COM'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$F$2:$F$71</f>
+              <f>'Raw_Data_COM'!$F$2:$F$70</f>
             </numRef>
           </val>
         </ser>
@@ -307,12 +307,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$71</f>
+              <f>'Raw_Data_COM'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$G$2:$G$71</f>
+              <f>'Raw_Data_COM'!$G$2:$G$70</f>
             </numRef>
           </val>
         </ser>
@@ -339,12 +339,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$71</f>
+              <f>'Raw_Data_COM'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$H$2:$H$71</f>
+              <f>'Raw_Data_COM'!$H$2:$H$70</f>
             </numRef>
           </val>
         </ser>
@@ -443,12 +443,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$71</f>
+              <f>'Raw_Data_COM'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$I$2:$I$71</f>
+              <f>'Raw_Data_COM'!$I$2:$I$70</f>
             </numRef>
           </val>
         </ser>
@@ -475,12 +475,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$71</f>
+              <f>'Raw_Data_COM'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$J$2:$J$71</f>
+              <f>'Raw_Data_COM'!$J$2:$J$70</f>
             </numRef>
           </val>
         </ser>
@@ -507,12 +507,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$71</f>
+              <f>'Raw_Data_COM'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Raw_Data_COM'!$K$2:$K$71</f>
+              <f>'Raw_Data_COM'!$K$2:$K$70</f>
             </numRef>
           </val>
         </ser>
@@ -1156,16 +1156,16 @@
         <v>0.00184475899713202</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.666250104140632e-05</v>
+        <v>3.332500208281263e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0009223794985660098</v>
+        <v>0.00184475899713202</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1176,7 @@
         <v>56</v>
       </c>
       <c r="C10" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
@@ -1191,16 +1191,16 @@
         <v>0.003689517994264039</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.332500208281263e-05</v>
+        <v>6.665000416562526e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00184475899713202</v>
+        <v>0.003689517994264039</v>
       </c>
     </row>
     <row r="11"/>
@@ -1273,34 +1273,34 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>25.67315789473684</v>
+        <v>25.5778947368421</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3578947368421</v>
+        <v>25.55894736842105</v>
       </c>
       <c r="D14" t="n">
-        <v>25.33894736842105</v>
+        <v>25.52684210526316</v>
       </c>
       <c r="E14" t="n">
-        <v>25.4878947368421</v>
+        <v>25.29684210526316</v>
       </c>
       <c r="F14" t="n">
-        <v>25.59473684210526</v>
+        <v>25.31157894736842</v>
       </c>
       <c r="G14" t="n">
-        <v>25.15052631578947</v>
+        <v>24.89999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.6731578947368355</v>
+        <v>-0.5778947368421008</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3578947368421019</v>
+        <v>-0.5589473684210482</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.3389473684210529</v>
+        <v>-0.5268421052631567</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.04710580836437475</v>
+        <v>-0.07321881082723444</v>
       </c>
     </row>
     <row r="15">
@@ -1308,34 +1308,34 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>25.53631578947368</v>
+        <v>25.4978947368421</v>
       </c>
       <c r="C15" t="n">
-        <v>25.22210526315789</v>
+        <v>25.55894736842105</v>
       </c>
       <c r="D15" t="n">
-        <v>25.49947368421053</v>
+        <v>25.40473684210526</v>
       </c>
       <c r="E15" t="n">
-        <v>25.28473684210526</v>
+        <v>25.2721052631579</v>
       </c>
       <c r="F15" t="n">
-        <v>25.47473684210527</v>
+        <v>25.50105263157895</v>
       </c>
       <c r="G15" t="n">
-        <v>24.59947368421052</v>
+        <v>24.67631578947368</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.536315789473683</v>
+        <v>-0.4978947368421025</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2221052631578928</v>
+        <v>-0.5589473684210482</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.4994736842105283</v>
+        <v>-0.4047368421052617</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.1041228543582107</v>
+        <v>-0.1124980330192672</v>
       </c>
     </row>
     <row r="16">
@@ -1343,34 +1343,34 @@
         <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>25.53789473684211</v>
+        <v>25.44277777777778</v>
       </c>
       <c r="C16" t="n">
-        <v>25.46473684210526</v>
+        <v>25.3</v>
       </c>
       <c r="D16" t="n">
-        <v>25.20421052631579</v>
+        <v>25.4</v>
       </c>
       <c r="E16" t="n">
-        <v>25.2321052631579</v>
+        <v>25.37055555555555</v>
       </c>
       <c r="F16" t="n">
-        <v>25.3</v>
+        <v>25.37222222222222</v>
       </c>
       <c r="G16" t="n">
-        <v>24.74315789473684</v>
+        <v>24.92777777777777</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5378947368421052</v>
+        <v>-0.4427777777777777</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4647368421052605</v>
+        <v>-0.2999999999999972</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.2042105263157907</v>
+        <v>-0.3999999999999986</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.08514155424865297</v>
+        <v>-0.2223628220926998</v>
       </c>
     </row>
     <row r="17"/>
@@ -1428,25 +1428,25 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.04677665287114493</v>
+        <v>-0.04015697017397751</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.02486952615510443</v>
+        <v>-0.03884034820106021</v>
       </c>
       <c r="D20" t="n">
-        <v>-703.6085675900277</v>
+        <v>-693.5239047091416</v>
       </c>
       <c r="E20" t="n">
-        <v>-703.5369214110015</v>
+        <v>-693.4449073907665</v>
       </c>
       <c r="F20" t="n">
-        <v>-709.2800277008308</v>
+        <v>-694.2991867036012</v>
       </c>
       <c r="G20" t="n">
-        <v>-685.8500265927975</v>
+        <v>-672.8099999999995</v>
       </c>
       <c r="H20" s="10" t="n">
-        <v>-126027.7805948553</v>
+        <v>-123740.6701399569</v>
       </c>
     </row>
     <row r="21">
@@ -1454,25 +1454,25 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.07453543280015174</v>
+        <v>-0.06919579924332024</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01543373534919717</v>
+        <v>-0.07768069640212041</v>
       </c>
       <c r="D21" t="n">
-        <v>-692.8873908587256</v>
+        <v>-692.223514958449</v>
       </c>
       <c r="E21" t="n">
-        <v>-692.7974216905762</v>
+        <v>-692.0766384628035</v>
       </c>
       <c r="F21" t="n">
-        <v>-702.9116908587258</v>
+        <v>-704.3057905817175</v>
       </c>
       <c r="G21" t="n">
-        <v>-657.3330529085871</v>
+        <v>-661.2731925207752</v>
       </c>
       <c r="H21" s="10" t="n">
-        <v>-61645.71730657521</v>
+        <v>-61784.48779093941</v>
       </c>
     </row>
     <row r="22">
@@ -1480,25 +1480,25 @@
         <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.1495097395912763</v>
+        <v>-0.1230716452832516</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.06458762233810968</v>
+        <v>-0.08338605828476189</v>
       </c>
       <c r="D22" t="n">
-        <v>-690.1233465373963</v>
+        <v>-697.4062003086419</v>
       </c>
       <c r="E22" t="n">
-        <v>-689.9092491754669</v>
+        <v>-697.1997426050739</v>
       </c>
       <c r="F22" t="n">
-        <v>-693.6900000000001</v>
+        <v>-697.4941049382714</v>
       </c>
       <c r="G22" t="n">
-        <v>-664.7101783933515</v>
+        <v>-674.2496604938267</v>
       </c>
       <c r="H22" s="10" t="n">
-        <v>-30751.52346896004</v>
+        <v>-31063.35263627471</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC71"/>
+  <dimension ref="A1:AC70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1679,34 +1679,34 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>24.75</v>
+        <v>25.5</v>
       </c>
       <c r="C2" t="n">
         <v>24.75</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>25.96</v>
+        <v>26.21</v>
       </c>
       <c r="G2" t="n">
-        <v>24.32</v>
+        <v>25.09</v>
       </c>
       <c r="H2" t="n">
-        <v>24.99</v>
+        <v>26.01</v>
       </c>
       <c r="I2" t="n">
-        <v>24.23</v>
+        <v>25.25</v>
       </c>
       <c r="J2" t="n">
         <v>24.73</v>
       </c>
       <c r="K2" t="n">
-        <v>25.15</v>
+        <v>24.15</v>
       </c>
       <c r="L2" t="n">
         <v>-0.02</v>
@@ -1727,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="S2" t="n">
-        <v>-3.09</v>
+        <v>-3.06</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.95</v>
+        <v>-0.99</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-4.04</v>
+        <v>-3.92</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.12</v>
+        <v>-3.06</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -1768,40 +1768,40 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="D3" t="n">
-        <v>24.75</v>
+        <v>25.5</v>
       </c>
       <c r="E3" t="n">
-        <v>25.25</v>
+        <v>24.25</v>
       </c>
       <c r="F3" t="n">
-        <v>24.67</v>
+        <v>25.7</v>
       </c>
       <c r="G3" t="n">
-        <v>26.37</v>
+        <v>25.6</v>
       </c>
       <c r="H3" t="n">
-        <v>24.73</v>
+        <v>25.5</v>
       </c>
       <c r="I3" t="n">
-        <v>25.5</v>
+        <v>25.25</v>
       </c>
       <c r="J3" t="n">
-        <v>25.75</v>
+        <v>25.5</v>
       </c>
       <c r="K3" t="n">
-        <v>23.9</v>
+        <v>25.15</v>
       </c>
       <c r="L3" t="n">
         <v>-0.02</v>
       </c>
       <c r="M3" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="N3" t="n">
         <v>0.04</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.88</v>
+        <v>-4.08</v>
       </c>
       <c r="S3" t="n">
-        <v>-2.91</v>
+        <v>-2.94</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.01</v>
+        <v>-0.97</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1834,13 +1834,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>-3.84</v>
+        <v>-4.08</v>
       </c>
       <c r="Y3" t="n">
-        <v>-2.94</v>
+        <v>-3</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.96</v>
+        <v>-0.97</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1860,37 +1860,37 @@
         <v>25.5</v>
       </c>
       <c r="C4" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D4" t="n">
         <v>25</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="I4" t="n">
         <v>25.75</v>
       </c>
-      <c r="E4" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25.44</v>
-      </c>
-      <c r="G4" t="n">
-        <v>24.58</v>
-      </c>
-      <c r="H4" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25.25</v>
-      </c>
       <c r="J4" t="n">
-        <v>24.23</v>
+        <v>26.01</v>
       </c>
       <c r="K4" t="n">
-        <v>25.65</v>
+        <v>25.4</v>
       </c>
       <c r="L4" t="n">
         <v>-0.02</v>
       </c>
       <c r="M4" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="N4" t="n">
         <v>0.04</v>
@@ -1905,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-4.16</v>
+        <v>-3.88</v>
       </c>
       <c r="S4" t="n">
-        <v>-2.88</v>
+        <v>-2.97</v>
       </c>
       <c r="T4" t="n">
-        <v>-1.03</v>
+        <v>-1.01</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>-3.88</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.03</v>
+        <v>-2.94</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1946,40 +1946,40 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>25.75</v>
+        <v>24.25</v>
       </c>
       <c r="D5" t="n">
-        <v>24.25</v>
+        <v>24.5</v>
       </c>
       <c r="E5" t="n">
-        <v>24.25</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>24.93</v>
+        <v>26.21</v>
       </c>
       <c r="G5" t="n">
-        <v>26.37</v>
+        <v>25.6</v>
       </c>
       <c r="H5" t="n">
-        <v>25.75</v>
+        <v>25.5</v>
       </c>
       <c r="I5" t="n">
-        <v>24.23</v>
+        <v>24.73</v>
       </c>
       <c r="J5" t="n">
         <v>24.99</v>
       </c>
       <c r="K5" t="n">
-        <v>25.4</v>
+        <v>24.15</v>
       </c>
       <c r="L5" t="n">
         <v>-0.02</v>
       </c>
       <c r="M5" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="N5" t="n">
         <v>0.04</v>
@@ -1997,10 +1997,10 @@
         <v>-4</v>
       </c>
       <c r="S5" t="n">
-        <v>-2.85</v>
+        <v>-2.94</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.02</v>
+        <v>-0.98</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2012,13 +2012,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>-4.12</v>
+        <v>-4.08</v>
       </c>
       <c r="Y5" t="n">
-        <v>-3.09</v>
+        <v>-2.91</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1.03</v>
+        <v>-1.01</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2035,40 +2035,40 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>25.75</v>
+        <v>24.75</v>
       </c>
       <c r="C6" t="n">
-        <v>25.75</v>
+        <v>25.5</v>
       </c>
       <c r="D6" t="n">
-        <v>25.75</v>
+        <v>24.25</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="F6" t="n">
-        <v>26.21</v>
+        <v>25.96</v>
       </c>
       <c r="G6" t="n">
-        <v>26.11</v>
+        <v>24.83</v>
       </c>
       <c r="H6" t="n">
-        <v>24.73</v>
+        <v>26.01</v>
       </c>
       <c r="I6" t="n">
-        <v>26.52</v>
+        <v>24.99</v>
       </c>
       <c r="J6" t="n">
-        <v>24.23</v>
+        <v>25.25</v>
       </c>
       <c r="K6" t="n">
-        <v>24.9</v>
+        <v>24.65</v>
       </c>
       <c r="L6" t="n">
         <v>-0.02</v>
       </c>
       <c r="M6" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="N6" t="n">
         <v>0.04</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-4.12</v>
+        <v>-3.96</v>
       </c>
       <c r="S6" t="n">
-        <v>-2.88</v>
+        <v>-3.03</v>
       </c>
       <c r="T6" t="n">
-        <v>-1.03</v>
+        <v>-1.02</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -2101,13 +2101,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>-3.92</v>
+        <v>-4.04</v>
       </c>
       <c r="Y6" t="n">
-        <v>-2.85</v>
+        <v>-2.94</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.99</v>
+        <v>-1.01</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -2124,34 +2124,34 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C7" t="n">
         <v>24.25</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>24.75</v>
       </c>
-      <c r="D7" t="n">
-        <v>25.5</v>
-      </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>25.25</v>
       </c>
       <c r="F7" t="n">
-        <v>25.96</v>
+        <v>25.44</v>
       </c>
       <c r="G7" t="n">
-        <v>25.34</v>
+        <v>25.09</v>
       </c>
       <c r="H7" t="n">
-        <v>25.25</v>
+        <v>24.99</v>
       </c>
       <c r="I7" t="n">
-        <v>26.52</v>
+        <v>25.75</v>
       </c>
       <c r="J7" t="n">
         <v>25.75</v>
       </c>
       <c r="K7" t="n">
-        <v>23.9</v>
+        <v>24.65</v>
       </c>
       <c r="L7" t="n">
         <v>-0.02</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-4.12</v>
+        <v>-3.92</v>
       </c>
       <c r="S7" t="n">
-        <v>-2.97</v>
+        <v>-3</v>
       </c>
       <c r="T7" t="n">
         <v>-1</v>
@@ -2190,13 +2190,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>-3.92</v>
+        <v>-4.04</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.97</v>
+        <v>-2.94</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.96</v>
+        <v>-1</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -2213,34 +2213,34 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>24.5</v>
       </c>
       <c r="C8" t="n">
-        <v>25.5</v>
+        <v>24.75</v>
       </c>
       <c r="D8" t="n">
-        <v>23.75</v>
+        <v>25.5</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>24.75</v>
       </c>
       <c r="F8" t="n">
-        <v>25.44</v>
+        <v>25.96</v>
       </c>
       <c r="G8" t="n">
-        <v>26.37</v>
+        <v>25.34</v>
       </c>
       <c r="H8" t="n">
-        <v>26.01</v>
+        <v>24.99</v>
       </c>
       <c r="I8" t="n">
-        <v>26.27</v>
+        <v>24.73</v>
       </c>
       <c r="J8" t="n">
-        <v>26.52</v>
+        <v>24.99</v>
       </c>
       <c r="K8" t="n">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="L8" t="n">
         <v>-0.02</v>
@@ -2261,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-3.8</v>
+        <v>-4.04</v>
       </c>
       <c r="S8" t="n">
-        <v>-3.06</v>
+        <v>-3</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.99</v>
+        <v>-0.98</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -2279,13 +2279,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>-3.88</v>
+        <v>-4.08</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.94</v>
+        <v>-3</v>
       </c>
       <c r="Z8" t="n">
-        <v>-1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -2302,40 +2302,40 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="C9" t="n">
         <v>24.25</v>
       </c>
       <c r="D9" t="n">
-        <v>25.25</v>
+        <v>24.75</v>
       </c>
       <c r="E9" t="n">
-        <v>23.75</v>
+        <v>24.25</v>
       </c>
       <c r="F9" t="n">
-        <v>24.93</v>
+        <v>25.19</v>
       </c>
       <c r="G9" t="n">
-        <v>26.37</v>
+        <v>26.11</v>
       </c>
       <c r="H9" t="n">
-        <v>26.52</v>
+        <v>24.99</v>
       </c>
       <c r="I9" t="n">
-        <v>26.27</v>
+        <v>24.99</v>
       </c>
       <c r="J9" t="n">
-        <v>26.01</v>
+        <v>25.5</v>
       </c>
       <c r="K9" t="n">
-        <v>25.65</v>
+        <v>24.4</v>
       </c>
       <c r="L9" t="n">
         <v>-0.02</v>
       </c>
       <c r="M9" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="N9" t="n">
         <v>0.04</v>
@@ -2350,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-3.8</v>
+        <v>-3.88</v>
       </c>
       <c r="S9" t="n">
-        <v>-3.09</v>
+        <v>-3.03</v>
       </c>
       <c r="T9" t="n">
         <v>-1.02</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>-3.84</v>
+        <v>-3.92</v>
       </c>
       <c r="Y9" t="n">
-        <v>-2.94</v>
+        <v>-3</v>
       </c>
       <c r="Z9" t="n">
-        <v>-1.02</v>
+        <v>-1.01</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -2391,34 +2391,34 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>25.25</v>
+        <v>24.25</v>
       </c>
       <c r="D10" t="n">
-        <v>25.75</v>
+        <v>24.25</v>
       </c>
       <c r="E10" t="n">
-        <v>23.75</v>
+        <v>25.25</v>
       </c>
       <c r="F10" t="n">
-        <v>24.67</v>
+        <v>24.93</v>
       </c>
       <c r="G10" t="n">
-        <v>26.62</v>
+        <v>25.34</v>
       </c>
       <c r="H10" t="n">
-        <v>25.75</v>
+        <v>25.5</v>
       </c>
       <c r="I10" t="n">
-        <v>25.25</v>
+        <v>24.73</v>
       </c>
       <c r="J10" t="n">
         <v>25.25</v>
       </c>
       <c r="K10" t="n">
-        <v>23.9</v>
+        <v>25.15</v>
       </c>
       <c r="L10" t="n">
         <v>-0.02</v>
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-4.12</v>
+        <v>-4</v>
       </c>
       <c r="S10" t="n">
-        <v>-3.09</v>
+        <v>-2.97</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.02</v>
+        <v>-1.01</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>-4</v>
+        <v>-4.08</v>
       </c>
       <c r="Y10" t="n">
-        <v>-3.03</v>
+        <v>-3.06</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.98</v>
+        <v>-1.01</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -2480,40 +2480,40 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>24.25</v>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>24.25</v>
       </c>
       <c r="D11" t="n">
-        <v>23.75</v>
+        <v>25.5</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>24.75</v>
       </c>
       <c r="F11" t="n">
-        <v>25.96</v>
+        <v>26.21</v>
       </c>
       <c r="G11" t="n">
-        <v>25.34</v>
+        <v>25.86</v>
       </c>
       <c r="H11" t="n">
-        <v>26.01</v>
+        <v>24.99</v>
       </c>
       <c r="I11" t="n">
-        <v>26.52</v>
+        <v>25.75</v>
       </c>
       <c r="J11" t="n">
-        <v>24.73</v>
+        <v>25.25</v>
       </c>
       <c r="K11" t="n">
-        <v>25.4</v>
+        <v>24.4</v>
       </c>
       <c r="L11" t="n">
         <v>-0.02</v>
       </c>
       <c r="M11" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="N11" t="n">
         <v>0.04</v>
@@ -2528,13 +2528,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="S11" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.95</v>
+        <v>-1.01</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2546,13 +2546,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-4.04</v>
+        <v>-3.88</v>
       </c>
       <c r="Y11" t="n">
-        <v>-2.97</v>
+        <v>-3.03</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.97</v>
+        <v>-0.99</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -2569,40 +2569,40 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>25.75</v>
+        <v>25.5</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5</v>
+        <v>25.25</v>
       </c>
       <c r="D12" t="n">
-        <v>24.5</v>
+        <v>25.25</v>
       </c>
       <c r="E12" t="n">
-        <v>23.75</v>
+        <v>24.75</v>
       </c>
       <c r="F12" t="n">
-        <v>26.47</v>
+        <v>25.44</v>
       </c>
       <c r="G12" t="n">
-        <v>25.34</v>
+        <v>25.6</v>
       </c>
       <c r="H12" t="n">
         <v>25.75</v>
       </c>
       <c r="I12" t="n">
-        <v>26.01</v>
+        <v>24.73</v>
       </c>
       <c r="J12" t="n">
-        <v>24.48</v>
+        <v>25.25</v>
       </c>
       <c r="K12" t="n">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="L12" t="n">
         <v>-0.02</v>
       </c>
       <c r="M12" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="N12" t="n">
         <v>0.04</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-3.96</v>
+        <v>-4.08</v>
       </c>
       <c r="S12" t="n">
         <v>-2.97</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.96</v>
+        <v>-0.99</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -2635,13 +2635,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>-3.92</v>
+        <v>-4.04</v>
       </c>
       <c r="Y12" t="n">
-        <v>-2.91</v>
+        <v>-3.06</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.99</v>
+        <v>-0.97</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -2658,40 +2658,40 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>25.75</v>
+        <v>24.5</v>
       </c>
       <c r="D13" t="n">
-        <v>25.25</v>
+        <v>24.75</v>
       </c>
       <c r="E13" t="n">
-        <v>25.75</v>
+        <v>25.25</v>
       </c>
       <c r="F13" t="n">
-        <v>24.67</v>
+        <v>25.44</v>
       </c>
       <c r="G13" t="n">
-        <v>24.32</v>
+        <v>26.11</v>
       </c>
       <c r="H13" t="n">
         <v>26.01</v>
       </c>
       <c r="I13" t="n">
-        <v>24.99</v>
+        <v>24.73</v>
       </c>
       <c r="J13" t="n">
-        <v>26.27</v>
+        <v>25.5</v>
       </c>
       <c r="K13" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="L13" t="n">
         <v>-0.02</v>
       </c>
       <c r="M13" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="N13" t="n">
         <v>0.04</v>
@@ -2706,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-4.08</v>
+        <v>-4</v>
       </c>
       <c r="S13" t="n">
         <v>-3.03</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.96</v>
+        <v>-1</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-3.96</v>
+        <v>-4.08</v>
       </c>
       <c r="Y13" t="n">
-        <v>-3.09</v>
+        <v>-2.94</v>
       </c>
       <c r="Z13" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2747,40 +2747,40 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5</v>
+        <v>24.75</v>
       </c>
       <c r="C14" t="n">
-        <v>23.75</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>25.75</v>
+        <v>25.5</v>
       </c>
       <c r="E14" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
         <v>25.96</v>
       </c>
       <c r="G14" t="n">
-        <v>26.37</v>
+        <v>25.34</v>
       </c>
       <c r="H14" t="n">
-        <v>24.99</v>
+        <v>25.25</v>
       </c>
       <c r="I14" t="n">
-        <v>25.5</v>
+        <v>25.25</v>
       </c>
       <c r="J14" t="n">
-        <v>26.52</v>
+        <v>24.73</v>
       </c>
       <c r="K14" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="L14" t="n">
         <v>-0.02</v>
       </c>
       <c r="M14" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="N14" t="n">
         <v>0.04</v>
@@ -2795,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-4.16</v>
+        <v>-4.08</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.91</v>
+        <v>-3.03</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.95</v>
+        <v>-1</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2813,13 +2813,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.84</v>
+        <v>-4</v>
       </c>
       <c r="Y14" t="n">
-        <v>-2.85</v>
+        <v>-3</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.96</v>
+        <v>-0.98</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2836,40 +2836,40 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>25.75</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
         <v>24.5</v>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>25.25</v>
       </c>
       <c r="F15" t="n">
-        <v>25.7</v>
+        <v>25.19</v>
       </c>
       <c r="G15" t="n">
-        <v>24.32</v>
+        <v>25.6</v>
       </c>
       <c r="H15" t="n">
-        <v>24.99</v>
+        <v>25.5</v>
       </c>
       <c r="I15" t="n">
-        <v>25.25</v>
+        <v>24.73</v>
       </c>
       <c r="J15" t="n">
-        <v>24.73</v>
+        <v>25.75</v>
       </c>
       <c r="K15" t="n">
-        <v>25.15</v>
+        <v>25.4</v>
       </c>
       <c r="L15" t="n">
         <v>-0.02</v>
       </c>
       <c r="M15" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="N15" t="n">
         <v>0.04</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-4.04</v>
+        <v>-3.92</v>
       </c>
       <c r="S15" t="n">
-        <v>-3.09</v>
+        <v>-3</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.96</v>
+        <v>-0.99</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2905,10 +2905,10 @@
         <v>-3.96</v>
       </c>
       <c r="Y15" t="n">
-        <v>-3.09</v>
+        <v>-2.97</v>
       </c>
       <c r="Z15" t="n">
-        <v>-1.03</v>
+        <v>-0.99</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2925,40 +2925,40 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5</v>
+        <v>24.25</v>
       </c>
       <c r="C16" t="n">
-        <v>24.25</v>
+        <v>25.25</v>
       </c>
       <c r="D16" t="n">
         <v>24.5</v>
       </c>
       <c r="E16" t="n">
-        <v>23.75</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
-        <v>25.19</v>
+        <v>26.21</v>
       </c>
       <c r="G16" t="n">
-        <v>26.37</v>
+        <v>24.83</v>
       </c>
       <c r="H16" t="n">
-        <v>25.5</v>
+        <v>25.75</v>
       </c>
       <c r="I16" t="n">
-        <v>24.23</v>
+        <v>26.01</v>
       </c>
       <c r="J16" t="n">
-        <v>25.5</v>
+        <v>24.99</v>
       </c>
       <c r="K16" t="n">
-        <v>25.9</v>
+        <v>24.65</v>
       </c>
       <c r="L16" t="n">
         <v>-0.02</v>
       </c>
       <c r="M16" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="N16" t="n">
         <v>0.04</v>
@@ -2973,13 +2973,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-4.12</v>
+        <v>-4.08</v>
       </c>
       <c r="S16" t="n">
-        <v>-2.94</v>
+        <v>-3</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.02</v>
+        <v>-0.98</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-4.04</v>
+        <v>-4.08</v>
       </c>
       <c r="Y16" t="n">
-        <v>-2.94</v>
+        <v>-3.06</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.98</v>
+        <v>-1</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -3014,40 +3014,40 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>24.25</v>
       </c>
       <c r="C17" t="n">
-        <v>23.75</v>
+        <v>25.5</v>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>24.75</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>24.25</v>
       </c>
       <c r="F17" t="n">
-        <v>25.96</v>
+        <v>25.7</v>
       </c>
       <c r="G17" t="n">
-        <v>25.86</v>
+        <v>25.34</v>
       </c>
       <c r="H17" t="n">
-        <v>24.48</v>
+        <v>25.5</v>
       </c>
       <c r="I17" t="n">
-        <v>25.25</v>
+        <v>26.01</v>
       </c>
       <c r="J17" t="n">
-        <v>26.27</v>
+        <v>25.5</v>
       </c>
       <c r="K17" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="L17" t="n">
         <v>-0.02</v>
       </c>
       <c r="M17" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="N17" t="n">
         <v>0.04</v>
@@ -3062,13 +3062,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-4</v>
+        <v>-4.08</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.91</v>
+        <v>-2.94</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.95</v>
+        <v>-1.01</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-3.84</v>
+        <v>-4.08</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.97</v>
+        <v>-3.03</v>
       </c>
       <c r="Z17" t="n">
-        <v>-1.04</v>
+        <v>-1.01</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -3103,40 +3103,40 @@
         <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
         <v>24.5</v>
       </c>
       <c r="D18" t="n">
-        <v>24.5</v>
+        <v>24.25</v>
       </c>
       <c r="E18" t="n">
-        <v>26</v>
+        <v>25.25</v>
       </c>
       <c r="F18" t="n">
-        <v>25.19</v>
+        <v>26.21</v>
       </c>
       <c r="G18" t="n">
-        <v>24.83</v>
+        <v>26.11</v>
       </c>
       <c r="H18" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="I18" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="J18" t="n">
         <v>24.99</v>
       </c>
       <c r="K18" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="L18" t="n">
         <v>-0.02</v>
       </c>
       <c r="M18" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="N18" t="n">
         <v>0.04</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-3.8</v>
+        <v>-3.88</v>
       </c>
       <c r="S18" t="n">
-        <v>-3</v>
+        <v>-2.91</v>
       </c>
       <c r="T18" t="n">
-        <v>-1.02</v>
+        <v>-1</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -3169,13 +3169,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>-4</v>
+        <v>-3.92</v>
       </c>
       <c r="Y18" t="n">
-        <v>-3.03</v>
+        <v>-2.97</v>
       </c>
       <c r="Z18" t="n">
-        <v>-1.02</v>
+        <v>-0.98</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -3192,40 +3192,40 @@
         <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>25.25</v>
+        <v>25</v>
       </c>
       <c r="C19" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D19" t="n">
         <v>24.5</v>
       </c>
-      <c r="D19" t="n">
-        <v>25.5</v>
-      </c>
       <c r="E19" t="n">
-        <v>25.5</v>
+        <v>24.75</v>
       </c>
       <c r="F19" t="n">
         <v>25.7</v>
       </c>
       <c r="G19" t="n">
-        <v>25.6</v>
+        <v>25.86</v>
       </c>
       <c r="H19" t="n">
-        <v>24.73</v>
+        <v>24.99</v>
       </c>
       <c r="I19" t="n">
-        <v>26.27</v>
+        <v>25.75</v>
       </c>
       <c r="J19" t="n">
-        <v>24.23</v>
+        <v>24.99</v>
       </c>
       <c r="K19" t="n">
-        <v>23.66</v>
+        <v>24.9</v>
       </c>
       <c r="L19" t="n">
         <v>-0.02</v>
       </c>
       <c r="M19" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="N19" t="n">
         <v>0.04</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-3.92</v>
+        <v>-3.96</v>
       </c>
       <c r="S19" t="n">
-        <v>-2.85</v>
+        <v>-3</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.02</v>
+        <v>-1.01</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -3261,10 +3261,10 @@
         <v>-4.04</v>
       </c>
       <c r="Y19" t="n">
-        <v>-2.88</v>
+        <v>-3</v>
       </c>
       <c r="Z19" t="n">
-        <v>-1.03</v>
+        <v>-1.01</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -3284,28 +3284,28 @@
         <v>25.25</v>
       </c>
       <c r="C20" t="n">
-        <v>23.75</v>
+        <v>24.25</v>
       </c>
       <c r="D20" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="E20" t="n">
+        <v>25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="H20" t="n">
         <v>25.75</v>
       </c>
-      <c r="F20" t="n">
-        <v>24.93</v>
-      </c>
-      <c r="G20" t="n">
-        <v>25.09</v>
-      </c>
-      <c r="H20" t="n">
-        <v>24.73</v>
-      </c>
       <c r="I20" t="n">
-        <v>26.52</v>
+        <v>24.99</v>
       </c>
       <c r="J20" t="n">
-        <v>24.73</v>
+        <v>25.5</v>
       </c>
       <c r="K20" t="n">
         <v>25.4</v>
@@ -3329,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-3.88</v>
+        <v>-4</v>
       </c>
       <c r="S20" t="n">
-        <v>-3.03</v>
+        <v>-2.94</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.04</v>
+        <v>-0.97</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-3.96</v>
+        <v>-4</v>
       </c>
       <c r="Y20" t="n">
-        <v>-2.97</v>
+        <v>-3</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.99</v>
+        <v>-0.98</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -3370,40 +3370,40 @@
         <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>25.75</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
         <v>25.5</v>
       </c>
       <c r="D21" t="n">
-        <v>24.75</v>
+        <v>25</v>
       </c>
       <c r="E21" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="F21" t="n">
-        <v>26.73</v>
+        <v>25.19</v>
       </c>
       <c r="G21" t="n">
-        <v>26.62</v>
+        <v>25.6</v>
       </c>
       <c r="H21" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I21" t="n">
         <v>26.01</v>
       </c>
-      <c r="I21" t="n">
-        <v>24.73</v>
-      </c>
       <c r="J21" t="n">
-        <v>24.23</v>
+        <v>25.25</v>
       </c>
       <c r="K21" t="n">
-        <v>25.65</v>
+        <v>25.15</v>
       </c>
       <c r="L21" t="n">
         <v>-0.02</v>
       </c>
       <c r="M21" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="N21" t="n">
         <v>0.04</v>
@@ -3418,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-3.8</v>
+        <v>-3.96</v>
       </c>
       <c r="S21" t="n">
-        <v>-3.03</v>
+        <v>-3.06</v>
       </c>
       <c r="T21" t="n">
-        <v>-1.04</v>
+        <v>-1.02</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>-3.84</v>
+        <v>-4</v>
       </c>
       <c r="Y21" t="n">
-        <v>-2.97</v>
+        <v>-3</v>
       </c>
       <c r="Z21" t="n">
         <v>-1.01</v>
@@ -3459,40 +3459,40 @@
         <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>24.5</v>
+        <v>25.25</v>
       </c>
       <c r="C22" t="n">
-        <v>24.5</v>
+        <v>25.25</v>
       </c>
       <c r="D22" t="n">
-        <v>25.5</v>
+        <v>24.25</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>25.25</v>
       </c>
       <c r="F22" t="n">
-        <v>25.7</v>
+        <v>24.93</v>
       </c>
       <c r="G22" t="n">
         <v>26.11</v>
       </c>
       <c r="H22" t="n">
-        <v>26.27</v>
+        <v>24.99</v>
       </c>
       <c r="I22" t="n">
-        <v>26.52</v>
+        <v>25.5</v>
       </c>
       <c r="J22" t="n">
-        <v>26.27</v>
+        <v>24.73</v>
       </c>
       <c r="K22" t="n">
-        <v>23.9</v>
+        <v>24.9</v>
       </c>
       <c r="L22" t="n">
         <v>-0.02</v>
       </c>
       <c r="M22" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="N22" t="n">
         <v>0.04</v>
@@ -3507,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-4.16</v>
+        <v>-3.88</v>
       </c>
       <c r="S22" t="n">
-        <v>-2.88</v>
+        <v>-3.03</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.04</v>
+        <v>-0.99</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -3525,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-4.08</v>
+        <v>-3.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>-3.09</v>
+        <v>-3.03</v>
       </c>
       <c r="Z22" t="n">
-        <v>-1.04</v>
+        <v>-0.97</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -3548,31 +3548,31 @@
         <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>24.75</v>
+        <v>25.5</v>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>25.25</v>
       </c>
       <c r="D23" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="E23" t="n">
-        <v>23.75</v>
+        <v>25.25</v>
       </c>
       <c r="F23" t="n">
-        <v>26.21</v>
+        <v>25.19</v>
       </c>
       <c r="G23" t="n">
-        <v>24.32</v>
+        <v>25.09</v>
       </c>
       <c r="H23" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="I23" t="n">
-        <v>25.75</v>
+        <v>25.5</v>
       </c>
       <c r="J23" t="n">
-        <v>25.75</v>
+        <v>26.01</v>
       </c>
       <c r="K23" t="n">
         <v>24.9</v>
@@ -3581,7 +3581,7 @@
         <v>-0.02</v>
       </c>
       <c r="M23" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="N23" t="n">
         <v>0.04</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-4</v>
+        <v>-3.92</v>
       </c>
       <c r="S23" t="n">
-        <v>-3.09</v>
+        <v>-3</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.03</v>
+        <v>-1.01</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -3614,13 +3614,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-3.84</v>
+        <v>-3.96</v>
       </c>
       <c r="Y23" t="n">
-        <v>-3.03</v>
+        <v>-2.91</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -3640,37 +3640,37 @@
         <v>24.75</v>
       </c>
       <c r="C24" t="n">
-        <v>25.75</v>
+        <v>25.25</v>
       </c>
       <c r="D24" t="n">
         <v>25.25</v>
       </c>
       <c r="E24" t="n">
-        <v>24.25</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>25.7</v>
+        <v>25.96</v>
       </c>
       <c r="G24" t="n">
-        <v>24.58</v>
+        <v>25.34</v>
       </c>
       <c r="H24" t="n">
-        <v>26.27</v>
+        <v>25.25</v>
       </c>
       <c r="I24" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="J24" t="n">
-        <v>26.01</v>
+        <v>25.25</v>
       </c>
       <c r="K24" t="n">
-        <v>25.65</v>
+        <v>24.4</v>
       </c>
       <c r="L24" t="n">
         <v>-0.02</v>
       </c>
       <c r="M24" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="N24" t="n">
         <v>0.04</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-3.8</v>
+        <v>-3.92</v>
       </c>
       <c r="S24" t="n">
-        <v>-2.88</v>
+        <v>-3</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.95</v>
+        <v>-0.98</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>-3.96</v>
+        <v>-4</v>
       </c>
       <c r="Y24" t="n">
-        <v>-2.88</v>
+        <v>-2.91</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.95</v>
+        <v>-0.99</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -3726,40 +3726,40 @@
         <v>28</v>
       </c>
       <c r="B25" t="n">
-        <v>23.75</v>
+        <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>25.5</v>
+        <v>24.75</v>
       </c>
       <c r="D25" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="E25" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="F25" t="n">
-        <v>25.7</v>
+        <v>25.44</v>
       </c>
       <c r="G25" t="n">
-        <v>25.34</v>
+        <v>25.09</v>
       </c>
       <c r="H25" t="n">
-        <v>24.73</v>
+        <v>24.99</v>
       </c>
       <c r="I25" t="n">
-        <v>24.99</v>
+        <v>25.5</v>
       </c>
       <c r="J25" t="n">
-        <v>26.27</v>
+        <v>25.25</v>
       </c>
       <c r="K25" t="n">
-        <v>25.4</v>
+        <v>24.15</v>
       </c>
       <c r="L25" t="n">
         <v>-0.02</v>
       </c>
       <c r="M25" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="N25" t="n">
         <v>0.04</v>
@@ -3774,31 +3774,31 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>-3.96</v>
       </c>
-      <c r="S25" t="n">
-        <v>-2.88</v>
-      </c>
-      <c r="T25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>-4.08</v>
-      </c>
       <c r="Y25" t="n">
-        <v>-3.12</v>
+        <v>-2.91</v>
       </c>
       <c r="Z25" t="n">
-        <v>-1.02</v>
+        <v>-1.01</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3815,40 +3815,40 @@
         <v>29</v>
       </c>
       <c r="B26" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D26" t="n">
         <v>24.5</v>
       </c>
-      <c r="C26" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D26" t="n">
-        <v>25.5</v>
-      </c>
       <c r="E26" t="n">
-        <v>24.25</v>
+        <v>24.75</v>
       </c>
       <c r="F26" t="n">
         <v>25.44</v>
       </c>
       <c r="G26" t="n">
-        <v>24.83</v>
+        <v>25.86</v>
       </c>
       <c r="H26" t="n">
-        <v>26.27</v>
+        <v>26.01</v>
       </c>
       <c r="I26" t="n">
-        <v>26.52</v>
+        <v>26.01</v>
       </c>
       <c r="J26" t="n">
         <v>24.99</v>
       </c>
       <c r="K26" t="n">
-        <v>24.9</v>
+        <v>24.65</v>
       </c>
       <c r="L26" t="n">
         <v>-0.02</v>
       </c>
       <c r="M26" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="N26" t="n">
         <v>0.04</v>
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-3.92</v>
+        <v>-4.04</v>
       </c>
       <c r="S26" t="n">
-        <v>-2.88</v>
+        <v>-3</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.03</v>
+        <v>-1.02</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-3.84</v>
+        <v>-4.08</v>
       </c>
       <c r="Y26" t="n">
-        <v>-3.06</v>
+        <v>-2.97</v>
       </c>
       <c r="Z26" t="n">
         <v>-1.02</v>
@@ -3904,40 +3904,40 @@
         <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>25.25</v>
+        <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>26</v>
+        <v>24.5</v>
       </c>
       <c r="D27" t="n">
-        <v>24.25</v>
+        <v>24.75</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>26.21</v>
+        <v>24.93</v>
       </c>
       <c r="G27" t="n">
-        <v>24.58</v>
+        <v>25.34</v>
       </c>
       <c r="H27" t="n">
-        <v>24.48</v>
+        <v>25.25</v>
       </c>
       <c r="I27" t="n">
-        <v>24.23</v>
+        <v>24.73</v>
       </c>
       <c r="J27" t="n">
-        <v>25.25</v>
+        <v>24.99</v>
       </c>
       <c r="K27" t="n">
-        <v>25.65</v>
+        <v>25.4</v>
       </c>
       <c r="L27" t="n">
         <v>-0.02</v>
       </c>
       <c r="M27" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="N27" t="n">
         <v>0.04</v>
@@ -3955,10 +3955,10 @@
         <v>-3.88</v>
       </c>
       <c r="S27" t="n">
-        <v>-2.88</v>
+        <v>-3</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.97</v>
+        <v>-0.98</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>-3.92</v>
+        <v>-4.04</v>
       </c>
       <c r="Y27" t="n">
-        <v>-2.85</v>
+        <v>-2.97</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.97</v>
+        <v>-0.98</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3993,34 +3993,34 @@
         <v>31</v>
       </c>
       <c r="B28" t="n">
-        <v>24.5</v>
+        <v>24.25</v>
       </c>
       <c r="C28" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="D28" t="n">
-        <v>23.75</v>
+        <v>25.25</v>
       </c>
       <c r="E28" t="n">
+        <v>25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="G28" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="H28" t="n">
         <v>25.75</v>
       </c>
-      <c r="F28" t="n">
-        <v>24.67</v>
-      </c>
-      <c r="G28" t="n">
-        <v>26.62</v>
-      </c>
-      <c r="H28" t="n">
-        <v>26.52</v>
-      </c>
       <c r="I28" t="n">
-        <v>25.75</v>
+        <v>24.73</v>
       </c>
       <c r="J28" t="n">
-        <v>26.52</v>
+        <v>24.99</v>
       </c>
       <c r="K28" t="n">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="L28" t="n">
         <v>-0.02</v>
@@ -4041,31 +4041,31 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-4</v>
+        <v>-4.04</v>
       </c>
       <c r="S28" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Y28" t="n">
         <v>-3.03</v>
       </c>
-      <c r="T28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>-3</v>
-      </c>
       <c r="Z28" t="n">
-        <v>-0.97</v>
+        <v>-1.02</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -4082,28 +4082,28 @@
         <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="C29" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="D29" t="n">
-        <v>24.5</v>
+        <v>24.25</v>
       </c>
       <c r="E29" t="n">
-        <v>24.5</v>
+        <v>24.25</v>
       </c>
       <c r="F29" t="n">
-        <v>26.73</v>
+        <v>25.7</v>
       </c>
       <c r="G29" t="n">
-        <v>24.58</v>
+        <v>25.6</v>
       </c>
       <c r="H29" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="I29" t="n">
-        <v>26.52</v>
+        <v>24.73</v>
       </c>
       <c r="J29" t="n">
         <v>25.75</v>
@@ -4115,7 +4115,7 @@
         <v>-0.02</v>
       </c>
       <c r="M29" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="N29" t="n">
         <v>0.04</v>
@@ -4130,13 +4130,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-4.08</v>
+        <v>-3.88</v>
       </c>
       <c r="S29" t="n">
         <v>-2.97</v>
       </c>
       <c r="T29" t="n">
-        <v>-1</v>
+        <v>-0.99</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -4148,13 +4148,13 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-3.84</v>
+        <v>-3.96</v>
       </c>
       <c r="Y29" t="n">
-        <v>-2.94</v>
+        <v>-2.91</v>
       </c>
       <c r="Z29" t="n">
-        <v>-1.04</v>
+        <v>-1.01</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -4171,16 +4171,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>24.25</v>
       </c>
       <c r="C30" t="n">
-        <v>23.75</v>
+        <v>25.25</v>
       </c>
       <c r="D30" t="n">
-        <v>25.5</v>
+        <v>25.25</v>
       </c>
       <c r="E30" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="F30" t="n">
         <v>25.44</v>
@@ -4189,22 +4189,22 @@
         <v>25.6</v>
       </c>
       <c r="H30" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="I30" t="n">
         <v>24.73</v>
       </c>
-      <c r="I30" t="n">
-        <v>26.27</v>
-      </c>
       <c r="J30" t="n">
-        <v>25.5</v>
+        <v>25.75</v>
       </c>
       <c r="K30" t="n">
-        <v>24.65</v>
+        <v>24.4</v>
       </c>
       <c r="L30" t="n">
         <v>-0.02</v>
       </c>
       <c r="M30" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="N30" t="n">
         <v>0.04</v>
@@ -4219,13 +4219,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-4.16</v>
+        <v>-4.04</v>
       </c>
       <c r="S30" t="n">
-        <v>-2.88</v>
+        <v>-3.06</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.96</v>
+        <v>-1</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -4240,10 +4240,10 @@
         <v>-4.04</v>
       </c>
       <c r="Y30" t="n">
-        <v>-2.85</v>
+        <v>-2.94</v>
       </c>
       <c r="Z30" t="n">
-        <v>-1</v>
+        <v>-1.01</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -4260,40 +4260,40 @@
         <v>34</v>
       </c>
       <c r="B31" t="n">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="C31" t="n">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="D31" t="n">
         <v>25.25</v>
       </c>
       <c r="E31" t="n">
-        <v>25.75</v>
+        <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>25.96</v>
+        <v>25.44</v>
       </c>
       <c r="G31" t="n">
-        <v>25.86</v>
+        <v>26.11</v>
       </c>
       <c r="H31" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I31" t="n">
         <v>24.73</v>
       </c>
-      <c r="I31" t="n">
-        <v>24.48</v>
-      </c>
       <c r="J31" t="n">
-        <v>26.52</v>
+        <v>26.01</v>
       </c>
       <c r="K31" t="n">
-        <v>24.65</v>
+        <v>24.9</v>
       </c>
       <c r="L31" t="n">
         <v>-0.02</v>
       </c>
       <c r="M31" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="N31" t="n">
         <v>0.04</v>
@@ -4308,13 +4308,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-3.8</v>
+        <v>-3.96</v>
       </c>
       <c r="S31" t="n">
-        <v>-2.94</v>
+        <v>-2.91</v>
       </c>
       <c r="T31" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -4326,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-3.96</v>
+        <v>-3.92</v>
       </c>
       <c r="Y31" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.97</v>
+        <v>-0.99</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -4349,40 +4349,40 @@
         <v>35</v>
       </c>
       <c r="B32" t="n">
+        <v>25</v>
+      </c>
+      <c r="C32" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" t="n">
         <v>24.25</v>
       </c>
-      <c r="C32" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="D32" t="n">
-        <v>24.25</v>
-      </c>
-      <c r="E32" t="n">
-        <v>26</v>
-      </c>
       <c r="F32" t="n">
-        <v>25.7</v>
+        <v>25.19</v>
       </c>
       <c r="G32" t="n">
-        <v>26.62</v>
+        <v>25.34</v>
       </c>
       <c r="H32" t="n">
-        <v>24.99</v>
+        <v>25.75</v>
       </c>
       <c r="I32" t="n">
-        <v>25.75</v>
+        <v>24.73</v>
       </c>
       <c r="J32" t="n">
         <v>24.73</v>
       </c>
       <c r="K32" t="n">
-        <v>23.66</v>
+        <v>24.15</v>
       </c>
       <c r="L32" t="n">
         <v>-0.02</v>
       </c>
       <c r="M32" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="N32" t="n">
         <v>0.04</v>
@@ -4397,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-4.16</v>
+        <v>-4</v>
       </c>
       <c r="S32" t="n">
-        <v>-2.91</v>
+        <v>-3</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.02</v>
+        <v>-0.99</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -4415,13 +4415,13 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-4.04</v>
+        <v>-4.08</v>
       </c>
       <c r="Y32" t="n">
-        <v>-3.03</v>
+        <v>-3</v>
       </c>
       <c r="Z32" t="n">
-        <v>-1.03</v>
+        <v>-0.99</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -4438,34 +4438,34 @@
         <v>36</v>
       </c>
       <c r="B33" t="n">
-        <v>25.25</v>
+        <v>24.75</v>
       </c>
       <c r="C33" t="n">
-        <v>24</v>
+        <v>24.25</v>
       </c>
       <c r="D33" t="n">
-        <v>26</v>
+        <v>25.25</v>
       </c>
       <c r="E33" t="n">
-        <v>26</v>
+        <v>24.25</v>
       </c>
       <c r="F33" t="n">
-        <v>25.44</v>
+        <v>24.93</v>
       </c>
       <c r="G33" t="n">
-        <v>24.32</v>
+        <v>25.6</v>
       </c>
       <c r="H33" t="n">
         <v>25.5</v>
       </c>
       <c r="I33" t="n">
-        <v>25.75</v>
+        <v>24.73</v>
       </c>
       <c r="J33" t="n">
-        <v>26.27</v>
+        <v>25.5</v>
       </c>
       <c r="K33" t="n">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="L33" t="n">
         <v>-0.02</v>
@@ -4486,13 +4486,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-4.16</v>
+        <v>-4.08</v>
       </c>
       <c r="S33" t="n">
-        <v>-3.03</v>
+        <v>-2.91</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.96</v>
+        <v>-1.01</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -4504,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>-4.04</v>
+        <v>-4</v>
       </c>
       <c r="Y33" t="n">
-        <v>-2.88</v>
+        <v>-3.06</v>
       </c>
       <c r="Z33" t="n">
-        <v>-1.02</v>
+        <v>-0.97</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -4527,40 +4527,40 @@
         <v>37</v>
       </c>
       <c r="B34" t="n">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="C34" t="n">
         <v>25.25</v>
       </c>
       <c r="D34" t="n">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="E34" t="n">
-        <v>25.25</v>
+        <v>25</v>
       </c>
       <c r="F34" t="n">
-        <v>26.47</v>
+        <v>24.93</v>
       </c>
       <c r="G34" t="n">
-        <v>24.32</v>
+        <v>25.6</v>
       </c>
       <c r="H34" t="n">
-        <v>24.48</v>
+        <v>24.73</v>
       </c>
       <c r="I34" t="n">
         <v>24.99</v>
       </c>
       <c r="J34" t="n">
-        <v>24.48</v>
+        <v>25.25</v>
       </c>
       <c r="K34" t="n">
-        <v>24.9</v>
+        <v>24.65</v>
       </c>
       <c r="L34" t="n">
         <v>-0.02</v>
       </c>
       <c r="M34" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="N34" t="n">
         <v>0.04</v>
@@ -4575,13 +4575,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-3.96</v>
+        <v>-4.04</v>
       </c>
       <c r="S34" t="n">
-        <v>-2.88</v>
+        <v>-2.94</v>
       </c>
       <c r="T34" t="n">
-        <v>-1.03</v>
+        <v>-1</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -4593,13 +4593,13 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-4.08</v>
+        <v>-3.88</v>
       </c>
       <c r="Y34" t="n">
-        <v>-3.09</v>
+        <v>-2.97</v>
       </c>
       <c r="Z34" t="n">
-        <v>-1</v>
+        <v>-1.01</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -4616,40 +4616,40 @@
         <v>38</v>
       </c>
       <c r="B35" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="C35" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="G35" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="H35" t="n">
         <v>25.75</v>
       </c>
-      <c r="C35" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D35" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>24.25</v>
-      </c>
-      <c r="F35" t="n">
-        <v>24.41</v>
-      </c>
-      <c r="G35" t="n">
-        <v>25.34</v>
-      </c>
-      <c r="H35" t="n">
-        <v>26.01</v>
-      </c>
       <c r="I35" t="n">
-        <v>24.99</v>
+        <v>25.5</v>
       </c>
       <c r="J35" t="n">
-        <v>26.27</v>
+        <v>25.25</v>
       </c>
       <c r="K35" t="n">
-        <v>24.9</v>
+        <v>24.15</v>
       </c>
       <c r="L35" t="n">
         <v>-0.02</v>
       </c>
       <c r="M35" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="N35" t="n">
         <v>0.04</v>
@@ -4664,31 +4664,31 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>-3.96</v>
       </c>
-      <c r="S35" t="n">
-        <v>-3.03</v>
-      </c>
-      <c r="T35" t="n">
-        <v>-1.04</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>-3.8</v>
-      </c>
       <c r="Y35" t="n">
-        <v>-2.94</v>
+        <v>-3.06</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.98</v>
+        <v>-0.99</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
@@ -4705,40 +4705,40 @@
         <v>39</v>
       </c>
       <c r="B36" t="n">
-        <v>23.75</v>
+        <v>25.5</v>
       </c>
       <c r="C36" t="n">
-        <v>25.75</v>
+        <v>25.5</v>
       </c>
       <c r="D36" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="E36" t="n">
-        <v>25.75</v>
+        <v>24.25</v>
       </c>
       <c r="F36" t="n">
-        <v>24.67</v>
+        <v>25.19</v>
       </c>
       <c r="G36" t="n">
-        <v>24.58</v>
+        <v>24.83</v>
       </c>
       <c r="H36" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="I36" t="n">
         <v>25.25</v>
       </c>
       <c r="J36" t="n">
-        <v>24.48</v>
+        <v>25.25</v>
       </c>
       <c r="K36" t="n">
-        <v>24.9</v>
+        <v>24.65</v>
       </c>
       <c r="L36" t="n">
         <v>-0.02</v>
       </c>
       <c r="M36" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="N36" t="n">
         <v>0.04</v>
@@ -4753,31 +4753,31 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-4</v>
+        <v>-3.92</v>
       </c>
       <c r="S36" t="n">
-        <v>-3.03</v>
+        <v>-3.06</v>
       </c>
       <c r="T36" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="Z36" t="n">
         <v>-0.97</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>-2.91</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>-1.01</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -4797,37 +4797,37 @@
         <v>24.75</v>
       </c>
       <c r="C37" t="n">
-        <v>23.75</v>
+        <v>25.5</v>
       </c>
       <c r="D37" t="n">
-        <v>23.75</v>
+        <v>25</v>
       </c>
       <c r="E37" t="n">
-        <v>23.75</v>
+        <v>24.5</v>
       </c>
       <c r="F37" t="n">
-        <v>26.47</v>
+        <v>24.93</v>
       </c>
       <c r="G37" t="n">
-        <v>24.32</v>
+        <v>25.86</v>
       </c>
       <c r="H37" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="J37" t="n">
         <v>24.73</v>
       </c>
-      <c r="I37" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="J37" t="n">
-        <v>26.27</v>
-      </c>
       <c r="K37" t="n">
-        <v>25.15</v>
+        <v>24.15</v>
       </c>
       <c r="L37" t="n">
         <v>-0.02</v>
       </c>
       <c r="M37" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="N37" t="n">
         <v>0.04</v>
@@ -4842,10 +4842,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-3.84</v>
+        <v>-4.08</v>
       </c>
       <c r="S37" t="n">
-        <v>-2.88</v>
+        <v>-2.94</v>
       </c>
       <c r="T37" t="n">
         <v>-1.02</v>
@@ -4860,13 +4860,13 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>-2.85</v>
+        <v>-3.03</v>
       </c>
       <c r="Z37" t="n">
-        <v>-1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -4883,34 +4883,34 @@
         <v>41</v>
       </c>
       <c r="B38" t="n">
-        <v>25.25</v>
+        <v>24.25</v>
       </c>
       <c r="C38" t="n">
-        <v>25.25</v>
+        <v>24.25</v>
       </c>
       <c r="D38" t="n">
-        <v>24</v>
+        <v>25.25</v>
       </c>
       <c r="E38" t="n">
-        <v>24.5</v>
+        <v>25.25</v>
       </c>
       <c r="F38" t="n">
-        <v>24.93</v>
+        <v>25.96</v>
       </c>
       <c r="G38" t="n">
-        <v>24.32</v>
+        <v>25.34</v>
       </c>
       <c r="H38" t="n">
-        <v>25.5</v>
+        <v>25.25</v>
       </c>
       <c r="I38" t="n">
-        <v>24.48</v>
+        <v>24.99</v>
       </c>
       <c r="J38" t="n">
-        <v>26.52</v>
+        <v>25.25</v>
       </c>
       <c r="K38" t="n">
-        <v>25.9</v>
+        <v>24.65</v>
       </c>
       <c r="L38" t="n">
         <v>-0.02</v>
@@ -4931,31 +4931,31 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>-4.04</v>
       </c>
-      <c r="S38" t="n">
-        <v>-3.09</v>
-      </c>
-      <c r="T38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>-3.96</v>
-      </c>
       <c r="Y38" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.97</v>
+        <v>-1.01</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
@@ -4972,10 +4972,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="n">
-        <v>25.25</v>
+        <v>24.25</v>
       </c>
       <c r="C39" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="D39" t="n">
         <v>24.5</v>
@@ -4984,22 +4984,22 @@
         <v>24.75</v>
       </c>
       <c r="F39" t="n">
-        <v>26.73</v>
+        <v>25.96</v>
       </c>
       <c r="G39" t="n">
-        <v>26.62</v>
+        <v>25.86</v>
       </c>
       <c r="H39" t="n">
-        <v>26.52</v>
+        <v>25.75</v>
       </c>
       <c r="I39" t="n">
-        <v>24.48</v>
+        <v>25.5</v>
       </c>
       <c r="J39" t="n">
-        <v>25.75</v>
+        <v>26.01</v>
       </c>
       <c r="K39" t="n">
-        <v>23.66</v>
+        <v>24.9</v>
       </c>
       <c r="L39" t="n">
         <v>-0.02</v>
@@ -5020,10 +5020,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-4</v>
+        <v>-3.88</v>
       </c>
       <c r="S39" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="T39" t="n">
         <v>-1</v>
@@ -5041,7 +5041,7 @@
         <v>-3.88</v>
       </c>
       <c r="Y39" t="n">
-        <v>-3.12</v>
+        <v>-3.03</v>
       </c>
       <c r="Z39" t="n">
         <v>-0.98</v>
@@ -5061,40 +5061,40 @@
         <v>43</v>
       </c>
       <c r="B40" t="n">
-        <v>25.75</v>
+        <v>25</v>
       </c>
       <c r="C40" t="n">
-        <v>26</v>
+        <v>25.25</v>
       </c>
       <c r="D40" t="n">
         <v>25</v>
       </c>
       <c r="E40" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="F40" t="n">
-        <v>25.44</v>
+        <v>26.21</v>
       </c>
       <c r="G40" t="n">
-        <v>26.11</v>
+        <v>25.34</v>
       </c>
       <c r="H40" t="n">
-        <v>26.27</v>
+        <v>24.73</v>
       </c>
       <c r="I40" t="n">
-        <v>24.73</v>
+        <v>25.25</v>
       </c>
       <c r="J40" t="n">
-        <v>25.25</v>
+        <v>26.01</v>
       </c>
       <c r="K40" t="n">
-        <v>25.65</v>
+        <v>25.15</v>
       </c>
       <c r="L40" t="n">
         <v>-0.02</v>
       </c>
       <c r="M40" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="N40" t="n">
         <v>0.04</v>
@@ -5112,10 +5112,10 @@
         <v>-3.96</v>
       </c>
       <c r="S40" t="n">
-        <v>-3</v>
+        <v>-2.91</v>
       </c>
       <c r="T40" t="n">
-        <v>-1</v>
+        <v>-0.97</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -5130,10 +5130,10 @@
         <v>-4.04</v>
       </c>
       <c r="Y40" t="n">
-        <v>-3</v>
+        <v>-2.94</v>
       </c>
       <c r="Z40" t="n">
-        <v>-1.03</v>
+        <v>-1.02</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
@@ -5150,34 +5150,34 @@
         <v>44</v>
       </c>
       <c r="B41" t="n">
-        <v>24</v>
+        <v>24.75</v>
       </c>
       <c r="C41" t="n">
-        <v>26</v>
+        <v>24.75</v>
       </c>
       <c r="D41" t="n">
-        <v>26</v>
+        <v>24.25</v>
       </c>
       <c r="E41" t="n">
+        <v>25</v>
+      </c>
+      <c r="F41" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="H41" t="n">
         <v>25.75</v>
-      </c>
-      <c r="F41" t="n">
-        <v>26.47</v>
-      </c>
-      <c r="G41" t="n">
-        <v>26.62</v>
-      </c>
-      <c r="H41" t="n">
-        <v>26.52</v>
       </c>
       <c r="I41" t="n">
         <v>24.99</v>
       </c>
       <c r="J41" t="n">
-        <v>26.52</v>
+        <v>24.99</v>
       </c>
       <c r="K41" t="n">
-        <v>24.9</v>
+        <v>25.15</v>
       </c>
       <c r="L41" t="n">
         <v>-0.02</v>
@@ -5198,13 +5198,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-4.08</v>
+        <v>-4</v>
       </c>
       <c r="S41" t="n">
-        <v>-2.88</v>
+        <v>-2.94</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.03</v>
+        <v>-0.98</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -5216,13 +5216,13 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-3.92</v>
+        <v>-4</v>
       </c>
       <c r="Y41" t="n">
-        <v>-2.88</v>
+        <v>-3</v>
       </c>
       <c r="Z41" t="n">
-        <v>-1.03</v>
+        <v>-1.02</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
@@ -5239,34 +5239,34 @@
         <v>45</v>
       </c>
       <c r="B42" t="n">
-        <v>23.75</v>
+        <v>24.75</v>
       </c>
       <c r="C42" t="n">
-        <v>25.5</v>
+        <v>24.75</v>
       </c>
       <c r="D42" t="n">
-        <v>24</v>
+        <v>24.75</v>
       </c>
       <c r="E42" t="n">
-        <v>24.75</v>
+        <v>24.25</v>
       </c>
       <c r="F42" t="n">
-        <v>26.73</v>
+        <v>25.19</v>
       </c>
       <c r="G42" t="n">
-        <v>25.6</v>
+        <v>26.11</v>
       </c>
       <c r="H42" t="n">
-        <v>24.73</v>
+        <v>24.99</v>
       </c>
       <c r="I42" t="n">
         <v>26.01</v>
       </c>
       <c r="J42" t="n">
-        <v>25.25</v>
+        <v>24.99</v>
       </c>
       <c r="K42" t="n">
-        <v>23.66</v>
+        <v>24.15</v>
       </c>
       <c r="L42" t="n">
         <v>-0.02</v>
@@ -5287,31 +5287,31 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>-4.04</v>
       </c>
-      <c r="S42" t="n">
-        <v>-3.03</v>
-      </c>
-      <c r="T42" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>-4.12</v>
-      </c>
       <c r="Y42" t="n">
-        <v>-2.91</v>
+        <v>-2.94</v>
       </c>
       <c r="Z42" t="n">
-        <v>-0.95</v>
+        <v>-1.01</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
@@ -5328,25 +5328,25 @@
         <v>46</v>
       </c>
       <c r="B43" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C43" t="n">
         <v>24.25</v>
       </c>
-      <c r="C43" t="n">
-        <v>25.75</v>
-      </c>
       <c r="D43" t="n">
-        <v>23.75</v>
+        <v>25</v>
       </c>
       <c r="E43" t="n">
-        <v>23.75</v>
+        <v>25</v>
       </c>
       <c r="F43" t="n">
-        <v>26.21</v>
+        <v>25.96</v>
       </c>
       <c r="G43" t="n">
-        <v>25.6</v>
+        <v>24.83</v>
       </c>
       <c r="H43" t="n">
-        <v>26.27</v>
+        <v>24.99</v>
       </c>
       <c r="I43" t="n">
         <v>25.25</v>
@@ -5355,13 +5355,13 @@
         <v>25.5</v>
       </c>
       <c r="K43" t="n">
-        <v>23.9</v>
+        <v>25.15</v>
       </c>
       <c r="L43" t="n">
         <v>-0.02</v>
       </c>
       <c r="M43" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="N43" t="n">
         <v>0.04</v>
@@ -5379,10 +5379,10 @@
         <v>-3.92</v>
       </c>
       <c r="S43" t="n">
-        <v>-3.06</v>
+        <v>-3.03</v>
       </c>
       <c r="T43" t="n">
-        <v>-1.03</v>
+        <v>-0.97</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -5394,13 +5394,13 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>-4.04</v>
+        <v>-4.08</v>
       </c>
       <c r="Y43" t="n">
-        <v>-2.88</v>
+        <v>-3.03</v>
       </c>
       <c r="Z43" t="n">
-        <v>-1.03</v>
+        <v>-0.98</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
@@ -5417,40 +5417,40 @@
         <v>47</v>
       </c>
       <c r="B44" t="n">
-        <v>25.25</v>
+        <v>24.25</v>
       </c>
       <c r="C44" t="n">
-        <v>25.5</v>
+        <v>25.25</v>
       </c>
       <c r="D44" t="n">
-        <v>24.25</v>
+        <v>25</v>
       </c>
       <c r="E44" t="n">
-        <v>24</v>
+        <v>25.25</v>
       </c>
       <c r="F44" t="n">
-        <v>25.44</v>
+        <v>25.96</v>
       </c>
       <c r="G44" t="n">
-        <v>25.6</v>
+        <v>26.11</v>
       </c>
       <c r="H44" t="n">
-        <v>24.73</v>
+        <v>25.5</v>
       </c>
       <c r="I44" t="n">
-        <v>24.48</v>
+        <v>25.5</v>
       </c>
       <c r="J44" t="n">
-        <v>24.73</v>
+        <v>25.5</v>
       </c>
       <c r="K44" t="n">
-        <v>23.66</v>
+        <v>25.4</v>
       </c>
       <c r="L44" t="n">
         <v>-0.02</v>
       </c>
       <c r="M44" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="N44" t="n">
         <v>0.04</v>
@@ -5465,13 +5465,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>-3.84</v>
+        <v>-4.04</v>
       </c>
       <c r="S44" t="n">
-        <v>-2.94</v>
+        <v>-3.06</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.95</v>
+        <v>-1.01</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -5483,13 +5483,13 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-3.96</v>
+        <v>-3.92</v>
       </c>
       <c r="Y44" t="n">
-        <v>-3</v>
+        <v>-3.03</v>
       </c>
       <c r="Z44" t="n">
-        <v>-1.03</v>
+        <v>-0.97</v>
       </c>
       <c r="AA44" t="n">
         <v>0</v>
@@ -5506,40 +5506,40 @@
         <v>48</v>
       </c>
       <c r="B45" t="n">
-        <v>23.75</v>
+        <v>24.75</v>
       </c>
       <c r="C45" t="n">
-        <v>25.75</v>
+        <v>24.25</v>
       </c>
       <c r="D45" t="n">
         <v>24.25</v>
       </c>
       <c r="E45" t="n">
-        <v>24.75</v>
+        <v>25</v>
       </c>
       <c r="F45" t="n">
-        <v>24.41</v>
+        <v>26.21</v>
       </c>
       <c r="G45" t="n">
-        <v>26.11</v>
+        <v>25.86</v>
       </c>
       <c r="H45" t="n">
-        <v>26.52</v>
+        <v>26.01</v>
       </c>
       <c r="I45" t="n">
-        <v>26.52</v>
+        <v>25.5</v>
       </c>
       <c r="J45" t="n">
-        <v>26.27</v>
+        <v>26.01</v>
       </c>
       <c r="K45" t="n">
-        <v>23.66</v>
+        <v>24.15</v>
       </c>
       <c r="L45" t="n">
         <v>-0.02</v>
       </c>
       <c r="M45" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="N45" t="n">
         <v>0.04</v>
@@ -5554,13 +5554,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>-4.16</v>
+        <v>-3.88</v>
       </c>
       <c r="S45" t="n">
-        <v>-2.94</v>
+        <v>-3.03</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.98</v>
+        <v>-0.99</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -5572,13 +5572,13 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>-4.12</v>
+        <v>-3.96</v>
       </c>
       <c r="Y45" t="n">
         <v>-2.97</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.98</v>
+        <v>-0.97</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
@@ -5595,40 +5595,40 @@
         <v>49</v>
       </c>
       <c r="B46" t="n">
-        <v>23.75</v>
+        <v>24.75</v>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="D46" t="n">
         <v>24.5</v>
       </c>
       <c r="E46" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="F46" t="n">
-        <v>24.41</v>
+        <v>26.21</v>
       </c>
       <c r="G46" t="n">
-        <v>24.83</v>
+        <v>25.86</v>
       </c>
       <c r="H46" t="n">
-        <v>24.73</v>
+        <v>25.5</v>
       </c>
       <c r="I46" t="n">
-        <v>26.27</v>
+        <v>25.75</v>
       </c>
       <c r="J46" t="n">
-        <v>24.23</v>
+        <v>26.01</v>
       </c>
       <c r="K46" t="n">
-        <v>24.4</v>
+        <v>24.15</v>
       </c>
       <c r="L46" t="n">
         <v>-0.02</v>
       </c>
       <c r="M46" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="N46" t="n">
         <v>0.04</v>
@@ -5646,10 +5646,10 @@
         <v>-3.88</v>
       </c>
       <c r="S46" t="n">
-        <v>-3.12</v>
+        <v>-3.06</v>
       </c>
       <c r="T46" t="n">
-        <v>-1.02</v>
+        <v>-0.97</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>-3.06</v>
       </c>
       <c r="Z46" t="n">
-        <v>-1.04</v>
+        <v>-1.02</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
@@ -5684,34 +5684,34 @@
         <v>50</v>
       </c>
       <c r="B47" t="n">
-        <v>25.75</v>
+        <v>24.25</v>
       </c>
       <c r="C47" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="D47" t="n">
-        <v>24.5</v>
+        <v>25.25</v>
       </c>
       <c r="E47" t="n">
         <v>25</v>
       </c>
       <c r="F47" t="n">
-        <v>25.7</v>
+        <v>25.19</v>
       </c>
       <c r="G47" t="n">
         <v>25.34</v>
       </c>
       <c r="H47" t="n">
-        <v>26.27</v>
+        <v>24.73</v>
       </c>
       <c r="I47" t="n">
-        <v>24.73</v>
+        <v>24.99</v>
       </c>
       <c r="J47" t="n">
-        <v>24.23</v>
+        <v>25.5</v>
       </c>
       <c r="K47" t="n">
-        <v>23.9</v>
+        <v>24.15</v>
       </c>
       <c r="L47" t="n">
         <v>-0.02</v>
@@ -5732,31 +5732,31 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
         <v>-3.88</v>
       </c>
-      <c r="S47" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T47" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>-3.96</v>
-      </c>
       <c r="Y47" t="n">
-        <v>-3.03</v>
+        <v>-2.97</v>
       </c>
       <c r="Z47" t="n">
-        <v>-0.96</v>
+        <v>-0.99</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
@@ -5773,13 +5773,13 @@
         <v>51</v>
       </c>
       <c r="B48" t="n">
-        <v>25.25</v>
+        <v>24.75</v>
       </c>
       <c r="C48" t="n">
-        <v>24.25</v>
+        <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>25.75</v>
+        <v>24.5</v>
       </c>
       <c r="E48" t="n">
         <v>25.5</v>
@@ -5788,25 +5788,25 @@
         <v>25.44</v>
       </c>
       <c r="G48" t="n">
-        <v>25.6</v>
+        <v>25.34</v>
       </c>
       <c r="H48" t="n">
-        <v>24.48</v>
+        <v>25.75</v>
       </c>
       <c r="I48" t="n">
         <v>24.73</v>
       </c>
       <c r="J48" t="n">
-        <v>24.73</v>
+        <v>26.01</v>
       </c>
       <c r="K48" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="L48" t="n">
         <v>-0.02</v>
       </c>
       <c r="M48" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="N48" t="n">
         <v>0.04</v>
@@ -5821,13 +5821,13 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>-3.88</v>
+        <v>-3.96</v>
       </c>
       <c r="S48" t="n">
-        <v>-3.06</v>
+        <v>-2.94</v>
       </c>
       <c r="T48" t="n">
-        <v>-1.03</v>
+        <v>-0.98</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -5839,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>-3.88</v>
+        <v>-4.08</v>
       </c>
       <c r="Y48" t="n">
-        <v>-2.91</v>
+        <v>-2.94</v>
       </c>
       <c r="Z48" t="n">
-        <v>-1.02</v>
+        <v>-1.01</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
@@ -5862,40 +5862,40 @@
         <v>52</v>
       </c>
       <c r="B49" t="n">
-        <v>25.75</v>
+        <v>24.5</v>
       </c>
       <c r="C49" t="n">
-        <v>25.75</v>
+        <v>24.25</v>
       </c>
       <c r="D49" t="n">
-        <v>24.75</v>
+        <v>24.25</v>
       </c>
       <c r="E49" t="n">
-        <v>24.5</v>
+        <v>25.25</v>
       </c>
       <c r="F49" t="n">
-        <v>25.96</v>
+        <v>24.93</v>
       </c>
       <c r="G49" t="n">
-        <v>25.09</v>
+        <v>26.11</v>
       </c>
       <c r="H49" t="n">
-        <v>24.73</v>
+        <v>25.25</v>
       </c>
       <c r="I49" t="n">
-        <v>25.75</v>
+        <v>25.25</v>
       </c>
       <c r="J49" t="n">
-        <v>26.27</v>
+        <v>25.25</v>
       </c>
       <c r="K49" t="n">
-        <v>24.65</v>
+        <v>24.15</v>
       </c>
       <c r="L49" t="n">
         <v>-0.02</v>
       </c>
       <c r="M49" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="N49" t="n">
         <v>0.04</v>
@@ -5913,10 +5913,10 @@
         <v>-4.08</v>
       </c>
       <c r="S49" t="n">
-        <v>-3.12</v>
+        <v>-2.94</v>
       </c>
       <c r="T49" t="n">
-        <v>-1.03</v>
+        <v>-0.98</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -5928,13 +5928,13 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>-4.08</v>
+        <v>-4.04</v>
       </c>
       <c r="Y49" t="n">
-        <v>-3.12</v>
+        <v>-3.06</v>
       </c>
       <c r="Z49" t="n">
-        <v>-1.03</v>
+        <v>-1.02</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
@@ -5951,31 +5951,31 @@
         <v>53</v>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="C50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="E50" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="F50" t="n">
-        <v>24.67</v>
+        <v>24.93</v>
       </c>
       <c r="G50" t="n">
-        <v>24.32</v>
+        <v>25.34</v>
       </c>
       <c r="H50" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="I50" t="n">
         <v>24.73</v>
       </c>
-      <c r="I50" t="n">
-        <v>25.75</v>
-      </c>
       <c r="J50" t="n">
-        <v>24.73</v>
+        <v>25.5</v>
       </c>
       <c r="K50" t="n">
         <v>24.4</v>
@@ -5984,7 +5984,7 @@
         <v>-0.02</v>
       </c>
       <c r="M50" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="N50" t="n">
         <v>0.04</v>
@@ -5999,13 +5999,13 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="S50" t="n">
-        <v>-3.06</v>
+        <v>-2.91</v>
       </c>
       <c r="T50" t="n">
-        <v>-1.02</v>
+        <v>-1</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -6017,13 +6017,13 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>-4.08</v>
+        <v>-4.04</v>
       </c>
       <c r="Y50" t="n">
-        <v>-2.85</v>
+        <v>-3</v>
       </c>
       <c r="Z50" t="n">
-        <v>-1.02</v>
+        <v>-1.01</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
@@ -6040,40 +6040,40 @@
         <v>54</v>
       </c>
       <c r="B51" t="n">
-        <v>23.75</v>
+        <v>25</v>
       </c>
       <c r="C51" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>24.5</v>
+        <v>24.75</v>
       </c>
       <c r="E51" t="n">
-        <v>25.25</v>
+        <v>25</v>
       </c>
       <c r="F51" t="n">
         <v>25.19</v>
       </c>
       <c r="G51" t="n">
-        <v>24.58</v>
+        <v>25.34</v>
       </c>
       <c r="H51" t="n">
-        <v>26.27</v>
+        <v>25.25</v>
       </c>
       <c r="I51" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="J51" t="n">
         <v>26.01</v>
       </c>
-      <c r="J51" t="n">
-        <v>26.27</v>
-      </c>
       <c r="K51" t="n">
-        <v>25.9</v>
+        <v>24.9</v>
       </c>
       <c r="L51" t="n">
         <v>-0.02</v>
       </c>
       <c r="M51" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="N51" t="n">
         <v>0.04</v>
@@ -6088,13 +6088,13 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>-3.96</v>
+        <v>-4.04</v>
       </c>
       <c r="S51" t="n">
-        <v>-3.12</v>
+        <v>-3</v>
       </c>
       <c r="T51" t="n">
-        <v>-1.04</v>
+        <v>-0.98</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -6106,13 +6106,13 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>-4.16</v>
+        <v>-3.92</v>
       </c>
       <c r="Y51" t="n">
-        <v>-3.03</v>
+        <v>-3</v>
       </c>
       <c r="Z51" t="n">
-        <v>-1</v>
+        <v>-0.97</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
@@ -6129,34 +6129,34 @@
         <v>55</v>
       </c>
       <c r="B52" t="n">
-        <v>25.5</v>
+        <v>24.75</v>
       </c>
       <c r="C52" t="n">
-        <v>24.5</v>
+        <v>25.25</v>
       </c>
       <c r="D52" t="n">
-        <v>24.25</v>
+        <v>25</v>
       </c>
       <c r="E52" t="n">
-        <v>24</v>
+        <v>24.75</v>
       </c>
       <c r="F52" t="n">
-        <v>25.19</v>
+        <v>25.44</v>
       </c>
       <c r="G52" t="n">
-        <v>25.34</v>
+        <v>26.11</v>
       </c>
       <c r="H52" t="n">
-        <v>25.25</v>
+        <v>24.99</v>
       </c>
       <c r="I52" t="n">
-        <v>25.25</v>
+        <v>24.73</v>
       </c>
       <c r="J52" t="n">
-        <v>25.75</v>
+        <v>25.25</v>
       </c>
       <c r="K52" t="n">
-        <v>24.65</v>
+        <v>24.9</v>
       </c>
       <c r="L52" t="n">
         <v>-0.02</v>
@@ -6180,7 +6180,7 @@
         <v>-4</v>
       </c>
       <c r="S52" t="n">
-        <v>-2.97</v>
+        <v>-2.91</v>
       </c>
       <c r="T52" t="n">
         <v>-1.02</v>
@@ -6195,13 +6195,13 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>-3.88</v>
+        <v>-4</v>
       </c>
       <c r="Y52" t="n">
-        <v>-3</v>
+        <v>-2.94</v>
       </c>
       <c r="Z52" t="n">
-        <v>-0.96</v>
+        <v>-0.98</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
@@ -6218,34 +6218,34 @@
         <v>56</v>
       </c>
       <c r="B53" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25</v>
+      </c>
+      <c r="D53" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="E53" t="n">
         <v>24.75</v>
       </c>
-      <c r="C53" t="n">
-        <v>24.25</v>
-      </c>
-      <c r="D53" t="n">
-        <v>26</v>
-      </c>
-      <c r="E53" t="n">
-        <v>24.5</v>
-      </c>
       <c r="F53" t="n">
-        <v>26.21</v>
+        <v>25.96</v>
       </c>
       <c r="G53" t="n">
-        <v>25.86</v>
+        <v>25.34</v>
       </c>
       <c r="H53" t="n">
-        <v>26.27</v>
+        <v>24.99</v>
       </c>
       <c r="I53" t="n">
-        <v>24.23</v>
+        <v>26.01</v>
       </c>
       <c r="J53" t="n">
-        <v>26.01</v>
+        <v>24.73</v>
       </c>
       <c r="K53" t="n">
-        <v>23.9</v>
+        <v>24.4</v>
       </c>
       <c r="L53" t="n">
         <v>-0.02</v>
@@ -6266,13 +6266,13 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>-4.08</v>
+        <v>-3.88</v>
       </c>
       <c r="S53" t="n">
-        <v>-3.12</v>
+        <v>-2.97</v>
       </c>
       <c r="T53" t="n">
-        <v>-1.02</v>
+        <v>-0.98</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -6287,10 +6287,10 @@
         <v>-4.08</v>
       </c>
       <c r="Y53" t="n">
-        <v>-3.12</v>
+        <v>-2.94</v>
       </c>
       <c r="Z53" t="n">
-        <v>-0.99</v>
+        <v>-1.02</v>
       </c>
       <c r="AA53" t="n">
         <v>0</v>
@@ -6307,31 +6307,31 @@
         <v>57</v>
       </c>
       <c r="B54" t="n">
-        <v>26</v>
+        <v>25.25</v>
       </c>
       <c r="C54" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>25.75</v>
+        <v>25.25</v>
       </c>
       <c r="E54" t="n">
         <v>24.75</v>
       </c>
       <c r="F54" t="n">
-        <v>24.67</v>
+        <v>24.93</v>
       </c>
       <c r="G54" t="n">
-        <v>25.86</v>
+        <v>25.34</v>
       </c>
       <c r="H54" t="n">
-        <v>24.48</v>
+        <v>25.75</v>
       </c>
       <c r="I54" t="n">
-        <v>25.25</v>
+        <v>25.75</v>
       </c>
       <c r="J54" t="n">
-        <v>25.75</v>
+        <v>25.5</v>
       </c>
       <c r="K54" t="n">
         <v>25.4</v>
@@ -6340,7 +6340,7 @@
         <v>-0.02</v>
       </c>
       <c r="M54" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="N54" t="n">
         <v>0.04</v>
@@ -6355,13 +6355,13 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>-4.08</v>
+        <v>-3.92</v>
       </c>
       <c r="S54" t="n">
-        <v>-3.06</v>
+        <v>-2.94</v>
       </c>
       <c r="T54" t="n">
-        <v>-0.95</v>
+        <v>-0.97</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -6373,13 +6373,13 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>-4.12</v>
+        <v>-3.96</v>
       </c>
       <c r="Y54" t="n">
         <v>-2.97</v>
       </c>
       <c r="Z54" t="n">
-        <v>-1.01</v>
+        <v>-0.99</v>
       </c>
       <c r="AA54" t="n">
         <v>0</v>
@@ -6396,40 +6396,40 @@
         <v>58</v>
       </c>
       <c r="B55" t="n">
-        <v>24</v>
+        <v>24.25</v>
       </c>
       <c r="C55" t="n">
-        <v>26</v>
+        <v>25.25</v>
       </c>
       <c r="D55" t="n">
-        <v>25.75</v>
+        <v>25</v>
       </c>
       <c r="E55" t="n">
-        <v>25.5</v>
+        <v>24.75</v>
       </c>
       <c r="F55" t="n">
         <v>25.44</v>
       </c>
       <c r="G55" t="n">
-        <v>26.11</v>
+        <v>25.86</v>
       </c>
       <c r="H55" t="n">
-        <v>25.5</v>
+        <v>26.01</v>
       </c>
       <c r="I55" t="n">
-        <v>25.5</v>
+        <v>24.99</v>
       </c>
       <c r="J55" t="n">
-        <v>25.25</v>
+        <v>25.75</v>
       </c>
       <c r="K55" t="n">
-        <v>25.65</v>
+        <v>24.65</v>
       </c>
       <c r="L55" t="n">
         <v>-0.02</v>
       </c>
       <c r="M55" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="N55" t="n">
         <v>0.04</v>
@@ -6444,13 +6444,13 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>-4.08</v>
+        <v>-3.92</v>
       </c>
       <c r="S55" t="n">
-        <v>-2.94</v>
+        <v>-2.97</v>
       </c>
       <c r="T55" t="n">
-        <v>-1.04</v>
+        <v>-0.97</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -6462,13 +6462,13 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>-4.16</v>
+        <v>-3.88</v>
       </c>
       <c r="Y55" t="n">
-        <v>-3.09</v>
+        <v>-3.03</v>
       </c>
       <c r="Z55" t="n">
-        <v>-1</v>
+        <v>-0.99</v>
       </c>
       <c r="AA55" t="n">
         <v>0</v>
@@ -6485,40 +6485,40 @@
         <v>59</v>
       </c>
       <c r="B56" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="C56" t="n">
-        <v>24.75</v>
+        <v>24.25</v>
       </c>
       <c r="D56" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="E56" t="n">
-        <v>25.5</v>
+        <v>24.25</v>
       </c>
       <c r="F56" t="n">
-        <v>26.73</v>
+        <v>24.93</v>
       </c>
       <c r="G56" t="n">
-        <v>25.34</v>
+        <v>24.83</v>
       </c>
       <c r="H56" t="n">
-        <v>24.99</v>
+        <v>25.5</v>
       </c>
       <c r="I56" t="n">
-        <v>25.5</v>
+        <v>25.75</v>
       </c>
       <c r="J56" t="n">
-        <v>24.48</v>
+        <v>25.75</v>
       </c>
       <c r="K56" t="n">
-        <v>23.9</v>
+        <v>24.4</v>
       </c>
       <c r="L56" t="n">
         <v>-0.02</v>
       </c>
       <c r="M56" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="N56" t="n">
         <v>0.04</v>
@@ -6533,13 +6533,13 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>-4.04</v>
+        <v>-4</v>
       </c>
       <c r="S56" t="n">
-        <v>-2.94</v>
+        <v>-3.06</v>
       </c>
       <c r="T56" t="n">
-        <v>-0.98</v>
+        <v>-0.99</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -6551,10 +6551,10 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>-4.04</v>
+        <v>-3.92</v>
       </c>
       <c r="Y56" t="n">
-        <v>-3.09</v>
+        <v>-2.97</v>
       </c>
       <c r="Z56" t="n">
         <v>-1.01</v>
@@ -6574,40 +6574,40 @@
         <v>60</v>
       </c>
       <c r="B57" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="C57" t="n">
-        <v>24.75</v>
+        <v>24.25</v>
       </c>
       <c r="D57" t="n">
-        <v>24.75</v>
+        <v>24.25</v>
       </c>
       <c r="E57" t="n">
-        <v>25.75</v>
+        <v>24.25</v>
       </c>
       <c r="F57" t="n">
-        <v>26.73</v>
+        <v>25.7</v>
       </c>
       <c r="G57" t="n">
-        <v>24.58</v>
+        <v>25.34</v>
       </c>
       <c r="H57" t="n">
-        <v>24.48</v>
+        <v>25.25</v>
       </c>
       <c r="I57" t="n">
-        <v>25.75</v>
+        <v>24.99</v>
       </c>
       <c r="J57" t="n">
-        <v>24.73</v>
+        <v>26.01</v>
       </c>
       <c r="K57" t="n">
-        <v>23.66</v>
+        <v>24.15</v>
       </c>
       <c r="L57" t="n">
         <v>-0.02</v>
       </c>
       <c r="M57" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="N57" t="n">
         <v>0.04</v>
@@ -6625,10 +6625,10 @@
         <v>-4.04</v>
       </c>
       <c r="S57" t="n">
-        <v>-2.85</v>
+        <v>-2.94</v>
       </c>
       <c r="T57" t="n">
-        <v>-1.03</v>
+        <v>-0.99</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -6640,13 +6640,13 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>-4.12</v>
+        <v>-4.04</v>
       </c>
       <c r="Y57" t="n">
-        <v>-3</v>
+        <v>-2.94</v>
       </c>
       <c r="Z57" t="n">
-        <v>-1.03</v>
+        <v>-0.98</v>
       </c>
       <c r="AA57" t="n">
         <v>0</v>
@@ -6666,37 +6666,37 @@
         <v>25.5</v>
       </c>
       <c r="C58" t="n">
-        <v>25.5</v>
+        <v>24.75</v>
       </c>
       <c r="D58" t="n">
-        <v>25.5</v>
+        <v>25.25</v>
       </c>
       <c r="E58" t="n">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="F58" t="n">
-        <v>26.73</v>
+        <v>25.44</v>
       </c>
       <c r="G58" t="n">
-        <v>26.62</v>
+        <v>26.11</v>
       </c>
       <c r="H58" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="I58" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="J58" t="n">
         <v>24.73</v>
       </c>
-      <c r="I58" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="J58" t="n">
-        <v>26.27</v>
-      </c>
       <c r="K58" t="n">
-        <v>24.4</v>
+        <v>25.15</v>
       </c>
       <c r="L58" t="n">
         <v>-0.02</v>
       </c>
       <c r="M58" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="N58" t="n">
         <v>0.04</v>
@@ -6711,13 +6711,13 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>-3.92</v>
+        <v>-4.08</v>
       </c>
       <c r="S58" t="n">
-        <v>-3.12</v>
+        <v>-2.97</v>
       </c>
       <c r="T58" t="n">
-        <v>-0.96</v>
+        <v>-0.97</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -6729,13 +6729,13 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>-4.04</v>
+        <v>-3.96</v>
       </c>
       <c r="Y58" t="n">
-        <v>-2.88</v>
+        <v>-2.91</v>
       </c>
       <c r="Z58" t="n">
-        <v>-1.03</v>
+        <v>-0.97</v>
       </c>
       <c r="AA58" t="n">
         <v>0</v>
@@ -6752,34 +6752,34 @@
         <v>62</v>
       </c>
       <c r="B59" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="C59" t="n">
-        <v>25.25</v>
+        <v>24.75</v>
       </c>
       <c r="D59" t="n">
-        <v>24.5</v>
+        <v>25.25</v>
       </c>
       <c r="E59" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="F59" t="n">
         <v>25.7</v>
       </c>
       <c r="G59" t="n">
-        <v>25.34</v>
+        <v>25.09</v>
       </c>
       <c r="H59" t="n">
-        <v>25.5</v>
+        <v>25.75</v>
       </c>
       <c r="I59" t="n">
-        <v>26.27</v>
+        <v>24.73</v>
       </c>
       <c r="J59" t="n">
-        <v>24.23</v>
+        <v>25.25</v>
       </c>
       <c r="K59" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="L59" t="n">
         <v>-0.02</v>
@@ -6800,13 +6800,13 @@
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>-4</v>
+        <v>-3.88</v>
       </c>
       <c r="S59" t="n">
-        <v>-2.91</v>
+        <v>-3.03</v>
       </c>
       <c r="T59" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
@@ -6818,13 +6818,13 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>-3.88</v>
+        <v>-4.04</v>
       </c>
       <c r="Y59" t="n">
-        <v>-2.85</v>
+        <v>-2.94</v>
       </c>
       <c r="Z59" t="n">
-        <v>-0.98</v>
+        <v>-1.02</v>
       </c>
       <c r="AA59" t="n">
         <v>0</v>
@@ -6841,40 +6841,40 @@
         <v>63</v>
       </c>
       <c r="B60" t="n">
-        <v>24</v>
+        <v>25.25</v>
       </c>
       <c r="C60" t="n">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="D60" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="E60" t="n">
-        <v>26</v>
+        <v>24.25</v>
       </c>
       <c r="F60" t="n">
-        <v>25.19</v>
+        <v>24.93</v>
       </c>
       <c r="G60" t="n">
-        <v>26.37</v>
+        <v>24.83</v>
       </c>
       <c r="H60" t="n">
-        <v>26.52</v>
+        <v>24.73</v>
       </c>
       <c r="I60" t="n">
-        <v>26.52</v>
+        <v>25.5</v>
       </c>
       <c r="J60" t="n">
-        <v>26.52</v>
+        <v>26.01</v>
       </c>
       <c r="K60" t="n">
-        <v>25.65</v>
+        <v>25.15</v>
       </c>
       <c r="L60" t="n">
         <v>-0.02</v>
       </c>
       <c r="M60" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="N60" t="n">
         <v>0.04</v>
@@ -6889,13 +6889,13 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>-3.84</v>
+        <v>-3.88</v>
       </c>
       <c r="S60" t="n">
-        <v>-3.06</v>
+        <v>-2.91</v>
       </c>
       <c r="T60" t="n">
-        <v>-1.02</v>
+        <v>-0.97</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
@@ -6907,13 +6907,13 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>-3.88</v>
+        <v>-4.08</v>
       </c>
       <c r="Y60" t="n">
-        <v>-3.12</v>
+        <v>-2.97</v>
       </c>
       <c r="Z60" t="n">
-        <v>-1.03</v>
+        <v>-1.01</v>
       </c>
       <c r="AA60" t="n">
         <v>0</v>
@@ -6930,40 +6930,40 @@
         <v>64</v>
       </c>
       <c r="B61" t="n">
-        <v>26</v>
+        <v>25.25</v>
       </c>
       <c r="C61" t="n">
-        <v>24.75</v>
+        <v>25.25</v>
       </c>
       <c r="D61" t="n">
-        <v>24.25</v>
+        <v>25.5</v>
       </c>
       <c r="E61" t="n">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="F61" t="n">
-        <v>26.73</v>
+        <v>25.19</v>
       </c>
       <c r="G61" t="n">
-        <v>26.11</v>
+        <v>24.83</v>
       </c>
       <c r="H61" t="n">
-        <v>24.99</v>
+        <v>26.01</v>
       </c>
       <c r="I61" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J61" t="n">
         <v>24.73</v>
       </c>
-      <c r="J61" t="n">
-        <v>25.5</v>
-      </c>
       <c r="K61" t="n">
-        <v>23.9</v>
+        <v>25.15</v>
       </c>
       <c r="L61" t="n">
         <v>-0.02</v>
       </c>
       <c r="M61" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="N61" t="n">
         <v>0.04</v>
@@ -6978,10 +6978,10 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>-4</v>
+        <v>-4.04</v>
       </c>
       <c r="S61" t="n">
-        <v>-3.12</v>
+        <v>-2.94</v>
       </c>
       <c r="T61" t="n">
         <v>-0.97</v>
@@ -6996,13 +6996,13 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>-4.16</v>
+        <v>-4.08</v>
       </c>
       <c r="Y61" t="n">
         <v>-2.97</v>
       </c>
       <c r="Z61" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="AA61" t="n">
         <v>0</v>
@@ -7019,40 +7019,40 @@
         <v>65</v>
       </c>
       <c r="B62" t="n">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="C62" t="n">
-        <v>24</v>
+        <v>24.25</v>
       </c>
       <c r="D62" t="n">
-        <v>25.75</v>
+        <v>24.75</v>
       </c>
       <c r="E62" t="n">
         <v>24.25</v>
       </c>
       <c r="F62" t="n">
-        <v>24.93</v>
+        <v>25.19</v>
       </c>
       <c r="G62" t="n">
-        <v>24.32</v>
+        <v>24.83</v>
       </c>
       <c r="H62" t="n">
-        <v>24.48</v>
+        <v>25.75</v>
       </c>
       <c r="I62" t="n">
-        <v>24.48</v>
+        <v>25.5</v>
       </c>
       <c r="J62" t="n">
-        <v>24.99</v>
+        <v>25.25</v>
       </c>
       <c r="K62" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="L62" t="n">
         <v>-0.02</v>
       </c>
       <c r="M62" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="N62" t="n">
         <v>0.04</v>
@@ -7067,13 +7067,13 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>-3.84</v>
+        <v>-3.92</v>
       </c>
       <c r="S62" t="n">
-        <v>-2.85</v>
+        <v>-2.94</v>
       </c>
       <c r="T62" t="n">
-        <v>-0.96</v>
+        <v>-0.97</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -7088,10 +7088,10 @@
         <v>-4.08</v>
       </c>
       <c r="Y62" t="n">
-        <v>-2.91</v>
+        <v>-3.03</v>
       </c>
       <c r="Z62" t="n">
-        <v>-1.03</v>
+        <v>-1.02</v>
       </c>
       <c r="AA62" t="n">
         <v>0</v>
@@ -7108,40 +7108,40 @@
         <v>66</v>
       </c>
       <c r="B63" t="n">
-        <v>25.5</v>
+        <v>25.25</v>
       </c>
       <c r="C63" t="n">
-        <v>25.75</v>
+        <v>25.5</v>
       </c>
       <c r="D63" t="n">
-        <v>25.5</v>
+        <v>24.5</v>
       </c>
       <c r="E63" t="n">
-        <v>26</v>
+        <v>24.75</v>
       </c>
       <c r="F63" t="n">
-        <v>24.67</v>
+        <v>25.44</v>
       </c>
       <c r="G63" t="n">
-        <v>24.83</v>
+        <v>25.09</v>
       </c>
       <c r="H63" t="n">
-        <v>25.5</v>
+        <v>24.73</v>
       </c>
       <c r="I63" t="n">
-        <v>25.75</v>
+        <v>24.73</v>
       </c>
       <c r="J63" t="n">
-        <v>26.27</v>
+        <v>25.25</v>
       </c>
       <c r="K63" t="n">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="L63" t="n">
         <v>-0.02</v>
       </c>
       <c r="M63" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="N63" t="n">
         <v>0.04</v>
@@ -7156,10 +7156,10 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>-3.8</v>
+        <v>-4.08</v>
       </c>
       <c r="S63" t="n">
-        <v>-3.12</v>
+        <v>-3.03</v>
       </c>
       <c r="T63" t="n">
         <v>-1.02</v>
@@ -7174,13 +7174,13 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>-4.04</v>
+        <v>-3.96</v>
       </c>
       <c r="Y63" t="n">
-        <v>-3.12</v>
+        <v>-2.97</v>
       </c>
       <c r="Z63" t="n">
-        <v>-0.98</v>
+        <v>-1</v>
       </c>
       <c r="AA63" t="n">
         <v>0</v>
@@ -7197,40 +7197,40 @@
         <v>67</v>
       </c>
       <c r="B64" t="n">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="C64" t="n">
-        <v>23.75</v>
+        <v>25.25</v>
       </c>
       <c r="D64" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="E64" t="n">
-        <v>25.25</v>
+        <v>24.25</v>
       </c>
       <c r="F64" t="n">
-        <v>24.41</v>
+        <v>26.21</v>
       </c>
       <c r="G64" t="n">
-        <v>25.86</v>
+        <v>26.11</v>
       </c>
       <c r="H64" t="n">
-        <v>24.48</v>
+        <v>26.01</v>
       </c>
       <c r="I64" t="n">
-        <v>24.48</v>
+        <v>24.73</v>
       </c>
       <c r="J64" t="n">
-        <v>26.01</v>
+        <v>25.75</v>
       </c>
       <c r="K64" t="n">
-        <v>23.9</v>
+        <v>24.15</v>
       </c>
       <c r="L64" t="n">
         <v>-0.02</v>
       </c>
       <c r="M64" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="N64" t="n">
         <v>0.04</v>
@@ -7245,13 +7245,13 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>-4.16</v>
+        <v>-4</v>
       </c>
       <c r="S64" t="n">
-        <v>-2.91</v>
+        <v>-2.97</v>
       </c>
       <c r="T64" t="n">
-        <v>-1.01</v>
+        <v>-0.99</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>-3.92</v>
       </c>
       <c r="Y64" t="n">
-        <v>-3.06</v>
+        <v>-2.94</v>
       </c>
       <c r="Z64" t="n">
         <v>-0.99</v>
@@ -7286,40 +7286,40 @@
         <v>68</v>
       </c>
       <c r="B65" t="n">
-        <v>24.25</v>
+        <v>24.5</v>
       </c>
       <c r="C65" t="n">
-        <v>23.75</v>
+        <v>25</v>
       </c>
       <c r="D65" t="n">
         <v>24.5</v>
       </c>
       <c r="E65" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="F65" t="n">
         <v>24.93</v>
       </c>
       <c r="G65" t="n">
-        <v>25.09</v>
+        <v>25.6</v>
       </c>
       <c r="H65" t="n">
         <v>25.5</v>
       </c>
       <c r="I65" t="n">
-        <v>26.52</v>
+        <v>25.75</v>
       </c>
       <c r="J65" t="n">
-        <v>24.73</v>
+        <v>25.25</v>
       </c>
       <c r="K65" t="n">
-        <v>23.66</v>
+        <v>25.4</v>
       </c>
       <c r="L65" t="n">
         <v>-0.02</v>
       </c>
       <c r="M65" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="N65" t="n">
         <v>0.04</v>
@@ -7334,13 +7334,13 @@
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>-3.84</v>
+        <v>-3.88</v>
       </c>
       <c r="S65" t="n">
-        <v>-2.91</v>
+        <v>-2.97</v>
       </c>
       <c r="T65" t="n">
-        <v>-0.96</v>
+        <v>-1</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -7352,13 +7352,13 @@
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="Y65" t="n">
-        <v>-3.12</v>
+        <v>-2.97</v>
       </c>
       <c r="Z65" t="n">
-        <v>-0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA65" t="n">
         <v>0</v>
@@ -7375,13 +7375,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="n">
-        <v>25.75</v>
+        <v>25</v>
       </c>
       <c r="C66" t="n">
-        <v>25.75</v>
+        <v>24.5</v>
       </c>
       <c r="D66" t="n">
-        <v>24.75</v>
+        <v>25</v>
       </c>
       <c r="E66" t="n">
         <v>25.5</v>
@@ -7390,16 +7390,16 @@
         <v>25.19</v>
       </c>
       <c r="G66" t="n">
-        <v>25.6</v>
+        <v>25.34</v>
       </c>
       <c r="H66" t="n">
-        <v>26.01</v>
+        <v>25.5</v>
       </c>
       <c r="I66" t="n">
-        <v>25.75</v>
+        <v>24.99</v>
       </c>
       <c r="J66" t="n">
-        <v>24.23</v>
+        <v>25.25</v>
       </c>
       <c r="K66" t="n">
         <v>25.15</v>
@@ -7408,7 +7408,7 @@
         <v>-0.02</v>
       </c>
       <c r="M66" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="N66" t="n">
         <v>0.04</v>
@@ -7423,13 +7423,13 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="S66" t="n">
-        <v>-2.91</v>
+        <v>-3.06</v>
       </c>
       <c r="T66" t="n">
-        <v>-1.04</v>
+        <v>-0.98</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -7441,13 +7441,13 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>-3.96</v>
+        <v>-3.92</v>
       </c>
       <c r="Y66" t="n">
-        <v>-2.88</v>
+        <v>-2.94</v>
       </c>
       <c r="Z66" t="n">
-        <v>-1.03</v>
+        <v>-1.01</v>
       </c>
       <c r="AA66" t="n">
         <v>0</v>
@@ -7464,19 +7464,19 @@
         <v>70</v>
       </c>
       <c r="B67" t="n">
-        <v>26</v>
+        <v>24.5</v>
       </c>
       <c r="C67" t="n">
         <v>25.5</v>
       </c>
       <c r="D67" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="E67" t="n">
-        <v>25.75</v>
+        <v>25.25</v>
       </c>
       <c r="F67" t="n">
-        <v>25.96</v>
+        <v>25.7</v>
       </c>
       <c r="G67" t="n">
         <v>24.83</v>
@@ -7485,19 +7485,19 @@
         <v>25.5</v>
       </c>
       <c r="I67" t="n">
-        <v>24.23</v>
+        <v>26.01</v>
       </c>
       <c r="J67" t="n">
-        <v>24.48</v>
+        <v>25.5</v>
       </c>
       <c r="K67" t="n">
-        <v>24.4</v>
+        <v>25.15</v>
       </c>
       <c r="L67" t="n">
         <v>-0.02</v>
       </c>
       <c r="M67" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="N67" t="n">
         <v>0.04</v>
@@ -7512,13 +7512,13 @@
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>-4.08</v>
+        <v>-4.04</v>
       </c>
       <c r="S67" t="n">
-        <v>-3.09</v>
+        <v>-2.94</v>
       </c>
       <c r="T67" t="n">
-        <v>-1.04</v>
+        <v>-1.02</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
@@ -7530,13 +7530,13 @@
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>-4.08</v>
+        <v>-4.04</v>
       </c>
       <c r="Y67" t="n">
-        <v>-3.09</v>
+        <v>-2.97</v>
       </c>
       <c r="Z67" t="n">
-        <v>-0.99</v>
+        <v>-1.02</v>
       </c>
       <c r="AA67" t="n">
         <v>0</v>
@@ -7553,40 +7553,40 @@
         <v>71</v>
       </c>
       <c r="B68" t="n">
-        <v>23.75</v>
+        <v>24.25</v>
       </c>
       <c r="C68" t="n">
-        <v>26</v>
+        <v>25.25</v>
       </c>
       <c r="D68" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="E68" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F68" t="n">
-        <v>24.41</v>
+        <v>25.44</v>
       </c>
       <c r="G68" t="n">
-        <v>24.32</v>
+        <v>25.09</v>
       </c>
       <c r="H68" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="I68" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="J68" t="n">
         <v>24.73</v>
       </c>
-      <c r="I68" t="n">
-        <v>24.23</v>
-      </c>
-      <c r="J68" t="n">
-        <v>24.23</v>
-      </c>
       <c r="K68" t="n">
-        <v>25.9</v>
+        <v>25.15</v>
       </c>
       <c r="L68" t="n">
         <v>-0.02</v>
       </c>
       <c r="M68" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="N68" t="n">
         <v>0.04</v>
@@ -7601,10 +7601,10 @@
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>-4.08</v>
+        <v>-4</v>
       </c>
       <c r="S68" t="n">
-        <v>-2.91</v>
+        <v>-2.97</v>
       </c>
       <c r="T68" t="n">
         <v>-1.01</v>
@@ -7619,13 +7619,13 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>-3.88</v>
+        <v>-3.92</v>
       </c>
       <c r="Y68" t="n">
-        <v>-3.06</v>
+        <v>-2.91</v>
       </c>
       <c r="Z68" t="n">
-        <v>-1.01</v>
+        <v>-0.99</v>
       </c>
       <c r="AA68" t="n">
         <v>0</v>
@@ -7642,40 +7642,40 @@
         <v>72</v>
       </c>
       <c r="B69" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>25</v>
+      </c>
+      <c r="D69" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="E69" t="n">
         <v>24.75</v>
       </c>
-      <c r="C69" t="n">
-        <v>25.75</v>
-      </c>
-      <c r="D69" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="E69" t="n">
-        <v>25.5</v>
-      </c>
       <c r="F69" t="n">
-        <v>25.96</v>
+        <v>25.44</v>
       </c>
       <c r="G69" t="n">
         <v>25.34</v>
       </c>
       <c r="H69" t="n">
-        <v>24.99</v>
+        <v>25.25</v>
       </c>
       <c r="I69" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="J69" t="n">
         <v>26.01</v>
       </c>
-      <c r="J69" t="n">
-        <v>24.48</v>
-      </c>
       <c r="K69" t="n">
-        <v>24.15</v>
+        <v>25.4</v>
       </c>
       <c r="L69" t="n">
         <v>-0.02</v>
       </c>
       <c r="M69" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="N69" t="n">
         <v>0.04</v>
@@ -7690,13 +7690,13 @@
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>-3.96</v>
+        <v>-3.88</v>
       </c>
       <c r="S69" t="n">
         <v>-3</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.99</v>
+        <v>-0.97</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
@@ -7708,13 +7708,13 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>-4.12</v>
+        <v>-3.88</v>
       </c>
       <c r="Y69" t="n">
-        <v>-3.12</v>
+        <v>-2.94</v>
       </c>
       <c r="Z69" t="n">
-        <v>-0.96</v>
+        <v>-1.02</v>
       </c>
       <c r="AA69" t="n">
         <v>0</v>
@@ -7731,40 +7731,40 @@
         <v>73</v>
       </c>
       <c r="B70" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D70" t="n">
         <v>24.25</v>
       </c>
-      <c r="C70" t="n">
-        <v>24.25</v>
-      </c>
-      <c r="D70" t="n">
-        <v>25.25</v>
-      </c>
       <c r="E70" t="n">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="F70" t="n">
-        <v>25.96</v>
+        <v>26.21</v>
       </c>
       <c r="G70" t="n">
-        <v>24.83</v>
+        <v>25.6</v>
       </c>
       <c r="H70" t="n">
-        <v>24.73</v>
+        <v>24.99</v>
       </c>
       <c r="I70" t="n">
-        <v>24.23</v>
+        <v>24.99</v>
       </c>
       <c r="J70" t="n">
-        <v>26.27</v>
+        <v>25.25</v>
       </c>
       <c r="K70" t="n">
-        <v>25.4</v>
+        <v>25.15</v>
       </c>
       <c r="L70" t="n">
         <v>-0.02</v>
       </c>
       <c r="M70" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="N70" t="n">
         <v>0.04</v>
@@ -7779,13 +7779,13 @@
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>-3.96</v>
+        <v>-4.04</v>
       </c>
       <c r="S70" t="n">
-        <v>-3.12</v>
+        <v>-3.03</v>
       </c>
       <c r="T70" t="n">
-        <v>-0.97</v>
+        <v>-0.99</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
@@ -7797,13 +7797,13 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>-3.88</v>
+        <v>-4.04</v>
       </c>
       <c r="Y70" t="n">
-        <v>-3</v>
+        <v>-2.91</v>
       </c>
       <c r="Z70" t="n">
-        <v>-0.97</v>
+        <v>-1.01</v>
       </c>
       <c r="AA70" t="n">
         <v>0</v>
@@ -7812,95 +7812,6 @@
         <v>0</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>74</v>
-      </c>
-      <c r="B71" t="n">
-        <v>24</v>
-      </c>
-      <c r="C71" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="D71" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="E71" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="F71" t="n">
-        <v>24.67</v>
-      </c>
-      <c r="G71" t="n">
-        <v>26.62</v>
-      </c>
-      <c r="H71" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I71" t="n">
-        <v>24.73</v>
-      </c>
-      <c r="J71" t="n">
-        <v>26.27</v>
-      </c>
-      <c r="K71" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L71" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="S71" t="n">
-        <v>-3.03</v>
-      </c>
-      <c r="T71" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="n">
-        <v>-3.88</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>-2.85</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="n">
         <v>0</v>
       </c>
     </row>

--- a/strategy_test.xlsx
+++ b/strategy_test.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="Evaluation" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Raw_Data_COM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Dia_Raw_Temp" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Dia_Raw_Voltage" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,49 +26,16 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor rgb="003BCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor rgb="003D33FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor rgb="00FF087F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightTrellis">
-        <fgColor rgb="003BCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightTrellis">
-        <fgColor rgb="003D33FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightTrellis">
-        <fgColor rgb="004B0082"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -78,570 +43,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick"/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Raw_Data_COM'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Raw_Data_COM'!$B$2:$B$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Raw_Data_COM'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Raw_Data_COM'!$C$2:$C$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Raw_Data_COM'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Raw_Data_COM'!$D$2:$D$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'Raw_Data_COM'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Raw_Data_COM'!$E$2:$E$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'Raw_Data_COM'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Raw_Data_COM'!$F$2:$F$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'Raw_Data_COM'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Raw_Data_COM'!$G$2:$G$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <tx>
-            <strRef>
-              <f>'Raw_Data_COM'!H1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Raw_Data_COM'!$H$2:$H$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Time [s]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-        <tickLblSkip val="1"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Temperature [°C]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Raw_Data_COM'!I1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Raw_Data_COM'!$I$2:$I$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Raw_Data_COM'!J1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Raw_Data_COM'!$J$2:$J$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Raw_Data_COM'!K1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Raw_Data_COM'!$A$2:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Raw_Data_COM'!$K$2:$K$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Time [s]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-        <tickLblSkip val="1"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Voltage [mV]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <absoluteAnchor>
-    <pos x="0" y="0"/>
-    <ext cx="0" cy="0"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </absoluteAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <absoluteAnchor>
-    <pos x="0" y="0"/>
-    <ext cx="0" cy="0"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </absoluteAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -942,157 +355,157 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Substance Data</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Substance</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Molar Mass [g/mol]</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Weighing [g]</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Volume [ml]</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Concentration [mol/l]</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Additional data</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" t="n">
         <v>40.01</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1.999500124968758</v>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>250</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9997500624843789</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>concentration [mol/l]</t>
         </is>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" t="n">
         <v>55.34276991396059</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" t="n">
         <v>60.05</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>1.998334721065779</v>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>250</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9991673605328893</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>cp [J/(molK)]</t>
         </is>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" t="n">
         <v>75.336</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Process setup</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Evaluation Start Time</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Evaluation End Time</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>V_A [ml/min]</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>V_A,act [ml/min]</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>n_A,act [mol/s]</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>n_A,act,water [mol/s]</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>V_B [ml/min]</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>V_B,act [ml/min]</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>n_B,act [mol/s]</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>n_B,act,water [mol/s]</t>
         </is>
@@ -1103,19 +516,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>3.330557868442965e-05</v>
+        <v>1.665278934221482e-05</v>
       </c>
       <c r="G8" t="n">
         <v>0.0009223794985660098</v>
@@ -1123,11 +536,11 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.332500208281263e-05</v>
+        <v>1.666250104140632e-05</v>
       </c>
       <c r="K8" t="n">
         <v>0.0009223794985660098</v>
@@ -1135,64 +548,64 @@
     </row>
     <row r="9"/>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Raw Data Processing</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>T_A [°C]</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>T_B [°C]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>T_out [°C]</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Upre [V]</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Ur1 [V]</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Ur2 [V]</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>dT_A [°C]</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>dT_B [°C]</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>dT_out [°C]</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Q_Out [W]</t>
         </is>
@@ -1203,81 +616,81 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>16.56142857142857</v>
+        <v>15.52909090909091</v>
       </c>
       <c r="C12" t="n">
-        <v>16.20428571428571</v>
+        <v>15.50090909090909</v>
       </c>
       <c r="D12" t="n">
-        <v>16.65285714285714</v>
+        <v>15.44545454545454</v>
       </c>
       <c r="E12" t="n">
-        <v>23.85</v>
+        <v>15.48454545454546</v>
       </c>
       <c r="F12" t="n">
-        <v>24.00285714285715</v>
+        <v>15.47272727272727</v>
       </c>
       <c r="G12" t="n">
-        <v>23.44428571428571</v>
+        <v>14.9</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.561428571428571</v>
+        <v>-0.5290909090909111</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.204285714285714</v>
+        <v>-0.5009090909090901</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.65285714285714</v>
+        <v>-0.4454545454545435</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.2297087367511197</v>
+        <v>-0.0619078311508084</v>
       </c>
     </row>
     <row r="13"/>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Calculation</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Q_A [W]</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Q_B [W]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Qpre [W] - cp flux</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>QSE,pre [W]</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Qr1 [W]</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Qr2 [W]</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>dHr [kJ/mol]</t>
         </is>
@@ -1288,35 +701,28 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1085011448871972</v>
+        <v>-0.03676567115282733</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.08368386563577966</v>
+        <v>-0.03480736220826073</v>
       </c>
       <c r="D16" t="n">
-        <v>-619.5224999999999</v>
+        <v>-273.7402388429753</v>
       </c>
       <c r="E16" t="n">
-        <v>-619.330314989477</v>
+        <v>-273.6686658096142</v>
       </c>
       <c r="F16" t="n">
-        <v>-627.1428653061225</v>
+        <v>-273.3507438016529</v>
       </c>
       <c r="G16" t="n">
-        <v>-599.5231040816325</v>
-      </c>
-      <c r="H16" s="10" t="n">
-        <v>-55432.93544324733</v>
+        <v>-254.81</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-48153.57361241719</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1327,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1484,82 +890,82 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="E2" t="n">
         <v>15</v>
       </c>
-      <c r="C2" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16.23</v>
-      </c>
       <c r="F2" t="n">
-        <v>16.62</v>
+        <v>15.39</v>
       </c>
       <c r="G2" t="n">
-        <v>16.24</v>
+        <v>15.6</v>
       </c>
       <c r="H2" t="n">
-        <v>16.55</v>
+        <v>15.5</v>
       </c>
       <c r="I2" t="n">
-        <v>23.86</v>
+        <v>15.04</v>
       </c>
       <c r="J2" t="n">
-        <v>24.02</v>
+        <v>15.19</v>
       </c>
       <c r="K2" t="n">
-        <v>23.45</v>
+        <v>14.45</v>
       </c>
       <c r="L2" t="n">
-        <v>95</v>
+        <v>-0.02</v>
       </c>
       <c r="M2" t="n">
-        <v>75</v>
+        <v>0.45</v>
       </c>
       <c r="N2" t="n">
-        <v>75</v>
+        <v>0.04</v>
       </c>
       <c r="O2" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.49</v>
+        <v>-4.08</v>
       </c>
       <c r="S2" t="n">
-        <v>16.45</v>
+        <v>-3.06</v>
       </c>
       <c r="T2" t="n">
-        <v>17.9</v>
+        <v>-0.98</v>
       </c>
       <c r="U2" t="n">
-        <v>22.83</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>17.87</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>24.09</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-3.96</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-3.06</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-1.02</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -1573,82 +979,82 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="C3" t="n">
         <v>15</v>
       </c>
-      <c r="C3" t="n">
-        <v>16.27</v>
-      </c>
       <c r="D3" t="n">
-        <v>16.14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>16.25</v>
+        <v>14.55</v>
       </c>
       <c r="F3" t="n">
-        <v>16.52</v>
+        <v>15.23</v>
       </c>
       <c r="G3" t="n">
-        <v>16.13</v>
+        <v>15.29</v>
       </c>
       <c r="H3" t="n">
-        <v>16.68</v>
+        <v>15.65</v>
       </c>
       <c r="I3" t="n">
-        <v>23.84</v>
+        <v>15.65</v>
       </c>
       <c r="J3" t="n">
-        <v>24</v>
+        <v>15.35</v>
       </c>
       <c r="K3" t="n">
-        <v>23.44</v>
+        <v>14.45</v>
       </c>
       <c r="L3" t="n">
-        <v>95</v>
+        <v>-0.02</v>
       </c>
       <c r="M3" t="n">
-        <v>75</v>
+        <v>0.44</v>
       </c>
       <c r="N3" t="n">
-        <v>76</v>
+        <v>0.04</v>
       </c>
       <c r="O3" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>19.88</v>
+        <v>-4.04</v>
       </c>
       <c r="S3" t="n">
-        <v>17.17</v>
+        <v>-3</v>
       </c>
       <c r="T3" t="n">
-        <v>18.53</v>
+        <v>-0.99</v>
       </c>
       <c r="U3" t="n">
-        <v>24.26</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>18.66</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>23.9</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-3.88</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-2.91</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>-0.97</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1662,82 +1068,82 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>16.29</v>
+        <v>14.85</v>
       </c>
       <c r="D4" t="n">
-        <v>16.13</v>
+        <v>14.55</v>
       </c>
       <c r="E4" t="n">
-        <v>16.22</v>
+        <v>14.55</v>
       </c>
       <c r="F4" t="n">
-        <v>16.62</v>
+        <v>15.86</v>
       </c>
       <c r="G4" t="n">
-        <v>16.2</v>
+        <v>15.91</v>
       </c>
       <c r="H4" t="n">
-        <v>16.66</v>
+        <v>15.19</v>
       </c>
       <c r="I4" t="n">
-        <v>23.81</v>
+        <v>15.65</v>
       </c>
       <c r="J4" t="n">
-        <v>23.95</v>
+        <v>15.35</v>
       </c>
       <c r="K4" t="n">
-        <v>23.39</v>
+        <v>14.45</v>
       </c>
       <c r="L4" t="n">
-        <v>96</v>
+        <v>-0.02</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>0.45</v>
       </c>
       <c r="N4" t="n">
-        <v>76</v>
+        <v>0.04</v>
       </c>
       <c r="O4" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.06</v>
+        <v>-3.96</v>
       </c>
       <c r="S4" t="n">
-        <v>17.98</v>
+        <v>-3.03</v>
       </c>
       <c r="T4" t="n">
-        <v>19.56</v>
+        <v>-1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>24.29</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>18.29</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>26.3</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-3.88</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-2.97</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>-1.01</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1751,82 +1157,82 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="C5" t="n">
         <v>15</v>
       </c>
-      <c r="C5" t="n">
-        <v>16.29</v>
-      </c>
       <c r="D5" t="n">
-        <v>16.13</v>
+        <v>14.7</v>
       </c>
       <c r="E5" t="n">
-        <v>16.16</v>
+        <v>14.7</v>
       </c>
       <c r="F5" t="n">
-        <v>16.57</v>
+        <v>15.7</v>
       </c>
       <c r="G5" t="n">
-        <v>16.27</v>
+        <v>15.6</v>
       </c>
       <c r="H5" t="n">
-        <v>16.64</v>
+        <v>15.04</v>
       </c>
       <c r="I5" t="n">
-        <v>23.87</v>
+        <v>15.35</v>
       </c>
       <c r="J5" t="n">
-        <v>24.05</v>
+        <v>15.81</v>
       </c>
       <c r="K5" t="n">
-        <v>23.48</v>
+        <v>15.05</v>
       </c>
       <c r="L5" t="n">
-        <v>96</v>
+        <v>-0.02</v>
       </c>
       <c r="M5" t="n">
-        <v>75</v>
+        <v>0.44</v>
       </c>
       <c r="N5" t="n">
-        <v>75</v>
+        <v>0.04</v>
       </c>
       <c r="O5" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>21.12</v>
+        <v>-3.96</v>
       </c>
       <c r="S5" t="n">
-        <v>18.63</v>
+        <v>-3.03</v>
       </c>
       <c r="T5" t="n">
-        <v>20.02</v>
+        <v>-1.02</v>
       </c>
       <c r="U5" t="n">
-        <v>26.26</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>19.76</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>27.21</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-3.96</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-3.06</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>-0.99</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1840,82 +1246,82 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>14.55</v>
       </c>
       <c r="C6" t="n">
-        <v>16.3</v>
+        <v>14.85</v>
       </c>
       <c r="D6" t="n">
-        <v>16.11</v>
+        <v>14.7</v>
       </c>
       <c r="E6" t="n">
-        <v>16.16</v>
+        <v>15.15</v>
       </c>
       <c r="F6" t="n">
-        <v>16.53</v>
+        <v>15.23</v>
       </c>
       <c r="G6" t="n">
-        <v>16.18</v>
+        <v>15.76</v>
       </c>
       <c r="H6" t="n">
-        <v>16.64</v>
+        <v>15.04</v>
       </c>
       <c r="I6" t="n">
-        <v>23.84</v>
+        <v>15.04</v>
       </c>
       <c r="J6" t="n">
-        <v>23.98</v>
+        <v>15.65</v>
       </c>
       <c r="K6" t="n">
-        <v>23.44</v>
+        <v>14.6</v>
       </c>
       <c r="L6" t="n">
-        <v>95</v>
+        <v>-0.02</v>
       </c>
       <c r="M6" t="n">
-        <v>75</v>
+        <v>0.44</v>
       </c>
       <c r="N6" t="n">
-        <v>76</v>
+        <v>0.04</v>
       </c>
       <c r="O6" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.95</v>
+        <v>-4.08</v>
       </c>
       <c r="S6" t="n">
-        <v>19.35</v>
+        <v>-3</v>
       </c>
       <c r="T6" t="n">
-        <v>20.22</v>
+        <v>-1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>26.8</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>28.03</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-3.92</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-2.91</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>-0.99</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1929,82 +1335,82 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>16.25</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>16.24</v>
+        <v>15.3</v>
       </c>
       <c r="E7" t="n">
-        <v>16.19</v>
+        <v>14.55</v>
       </c>
       <c r="F7" t="n">
-        <v>16.52</v>
+        <v>15.7</v>
       </c>
       <c r="G7" t="n">
-        <v>16.25</v>
+        <v>15.6</v>
       </c>
       <c r="H7" t="n">
-        <v>16.61</v>
+        <v>15.65</v>
       </c>
       <c r="I7" t="n">
-        <v>23.84</v>
+        <v>15.35</v>
       </c>
       <c r="J7" t="n">
-        <v>24</v>
+        <v>15.35</v>
       </c>
       <c r="K7" t="n">
-        <v>23.42</v>
+        <v>14.9</v>
       </c>
       <c r="L7" t="n">
-        <v>95</v>
+        <v>-0.02</v>
       </c>
       <c r="M7" t="n">
-        <v>75</v>
+        <v>0.46</v>
       </c>
       <c r="N7" t="n">
-        <v>75</v>
+        <v>0.04</v>
       </c>
       <c r="O7" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.94</v>
+        <v>-3.96</v>
       </c>
       <c r="S7" t="n">
-        <v>19.82</v>
+        <v>-3.03</v>
       </c>
       <c r="T7" t="n">
-        <v>20.88</v>
+        <v>-0.99</v>
       </c>
       <c r="U7" t="n">
-        <v>27.39</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>21.09</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>29.07</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-3.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -2018,82 +1424,82 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>16.27</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>16.12</v>
+        <v>14.55</v>
       </c>
       <c r="E8" t="n">
-        <v>16.24</v>
+        <v>14.85</v>
       </c>
       <c r="F8" t="n">
-        <v>16.55</v>
+        <v>15.7</v>
       </c>
       <c r="G8" t="n">
-        <v>16.18</v>
+        <v>15.6</v>
       </c>
       <c r="H8" t="n">
-        <v>16.66</v>
+        <v>15.81</v>
       </c>
       <c r="I8" t="n">
-        <v>23.89</v>
+        <v>15.5</v>
       </c>
       <c r="J8" t="n">
-        <v>24.02</v>
+        <v>15.35</v>
       </c>
       <c r="K8" t="n">
-        <v>23.46</v>
+        <v>14.45</v>
       </c>
       <c r="L8" t="n">
-        <v>95</v>
+        <v>-0.02</v>
       </c>
       <c r="M8" t="n">
-        <v>75</v>
+        <v>0.45</v>
       </c>
       <c r="N8" t="n">
-        <v>75</v>
+        <v>0.04</v>
       </c>
       <c r="O8" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.19</v>
+        <v>-3.92</v>
       </c>
       <c r="S8" t="n">
-        <v>21.95</v>
+        <v>-2.94</v>
       </c>
       <c r="T8" t="n">
-        <v>21.95</v>
+        <v>-1.02</v>
       </c>
       <c r="U8" t="n">
-        <v>28.28</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>22.59</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>29.79</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-3.92</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-3.06</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>-0.97</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -2107,82 +1513,82 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>16.31</v>
+        <v>15.15</v>
       </c>
       <c r="D9" t="n">
-        <v>16.16</v>
+        <v>14.85</v>
       </c>
       <c r="E9" t="n">
-        <v>16.2</v>
+        <v>15.15</v>
       </c>
       <c r="F9" t="n">
-        <v>16.62</v>
+        <v>15.39</v>
       </c>
       <c r="G9" t="n">
-        <v>16.22</v>
+        <v>15.6</v>
       </c>
       <c r="H9" t="n">
-        <v>16.68</v>
+        <v>15.5</v>
       </c>
       <c r="I9" t="n">
-        <v>23.86</v>
+        <v>15.35</v>
       </c>
       <c r="J9" t="n">
-        <v>24.02</v>
+        <v>15.81</v>
       </c>
       <c r="K9" t="n">
-        <v>23.48</v>
+        <v>15.2</v>
       </c>
       <c r="L9" t="n">
-        <v>95</v>
+        <v>-0.02</v>
       </c>
       <c r="M9" t="n">
-        <v>74</v>
+        <v>0.44</v>
       </c>
       <c r="N9" t="n">
-        <v>75</v>
+        <v>0.04</v>
       </c>
       <c r="O9" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>24.15</v>
+        <v>-3.92</v>
       </c>
       <c r="S9" t="n">
-        <v>21.41</v>
+        <v>-2.91</v>
       </c>
       <c r="T9" t="n">
-        <v>23.29</v>
+        <v>-0.97</v>
       </c>
       <c r="U9" t="n">
-        <v>29.59</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>22.64</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>31.4</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-3.88</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>-0.98</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -2191,6 +1597,1252 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H12" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>16</v>
+      </c>
+      <c r="B13" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="K14" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="G15" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="J15" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="J16" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="J17" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="J18" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>22</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="D19" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="J19" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="K19" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="J20" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="G21" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="H21" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="J21" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="K21" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="G22" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="H22" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="G23" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="H23" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="J23" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/strategy_test.xlsx
+++ b/strategy_test.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Evaluation" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Raw_Data_COM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Dia_Raw_Temp" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Dia_Raw_Voltage" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,16 +28,49 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="003BCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="003D33FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="00FF087F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor rgb="003BCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor rgb="003D33FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor rgb="004B0082"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -43,18 +78,570 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$B$2:$B$32</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$C$2:$C$32</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$D$2:$D$32</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$E$2:$E$32</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$F$2:$F$32</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$G$2:$G$32</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$H$2:$H$32</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+        <tickLblSkip val="4"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperature [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$I$2:$I$32</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$J$2:$J$32</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Raw_Data_COM'!K1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Raw_Data_COM'!$A$2:$A$32</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Raw_Data_COM'!$K$2:$K$32</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+        <tickLblSkip val="4"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Voltage [mV]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <absoluteAnchor>
+    <pos x="0" y="0"/>
+    <ext cx="0" cy="0"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </absoluteAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <absoluteAnchor>
+    <pos x="0" y="0"/>
+    <ext cx="0" cy="0"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </absoluteAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,87 +942,87 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Substance Data</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Substance</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Molar Mass [g/mol]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Weighing [g]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Volume [ml]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Concentration [mol/l]</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Additional data</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>40.01</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="3" t="n">
         <v>0.9997500624843789</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>concentration [mol/l]</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="5" t="n">
         <v>55.34276991396059</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="6" t="n">
         <v>60.05</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="6" t="n">
         <v>250</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="6" t="n">
         <v>0.9991673605328893</v>
       </c>
       <c r="H4" t="inlineStr">
@@ -443,69 +1030,69 @@
           <t>cp [J/(molK)]</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="7" t="n">
         <v>75.336</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Process setup</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Evaluation Start Time</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Evaluation End Time</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>V_A [ml/min]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>V_A,act [ml/min]</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>n_A,act [mol/s]</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>n_A,act,water [mol/s]</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>V_B [ml/min]</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>V_B,act [ml/min]</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>n_B,act [mol/s]</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>n_B,act,water [mol/s]</t>
         </is>
@@ -519,12 +1106,12 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
@@ -536,7 +1123,7 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
@@ -548,64 +1135,64 @@
     </row>
     <row r="9"/>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Raw Data Processing</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>T_A [°C]</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>T_B [°C]</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>T_out [°C]</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Upre [V]</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>Ur1 [V]</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>Ur2 [V]</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>dT_A [°C]</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>dT_B [°C]</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>dT_out [°C]</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>Q_Out [W]</t>
         </is>
@@ -616,81 +1203,81 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>15.52909090909091</v>
+        <v>15.6765</v>
       </c>
       <c r="C12" t="n">
-        <v>15.50090909090909</v>
+        <v>15.5145</v>
       </c>
       <c r="D12" t="n">
-        <v>15.44545454545454</v>
+        <v>15.4085</v>
       </c>
       <c r="E12" t="n">
-        <v>15.48454545454546</v>
+        <v>15.432</v>
       </c>
       <c r="F12" t="n">
-        <v>15.47272727272727</v>
+        <v>15.4225</v>
       </c>
       <c r="G12" t="n">
-        <v>14.9</v>
+        <v>14.885</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5290909090909111</v>
+        <v>-0.6764999999999954</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5009090909090901</v>
+        <v>-0.5144999999999982</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.4454545454545435</v>
+        <v>-0.4085000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0619078311508084</v>
+        <v>-0.05677200801554261</v>
       </c>
     </row>
     <row r="13"/>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Calculation</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Process Points</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Q_A [W]</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Q_B [W]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>Qpre [W] - cp flux</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>QSE,pre [W]</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>Qr1 [W]</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>Qr2 [W]</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>dHr [kJ/mol]</t>
         </is>
@@ -701,28 +1288,35 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.03676567115282733</v>
+        <v>-0.04700889035803466</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03480736220826073</v>
+        <v>-0.03575177248959188</v>
       </c>
       <c r="D16" t="n">
-        <v>-273.7402388429753</v>
+        <v>-272.010624</v>
       </c>
       <c r="E16" t="n">
-        <v>-273.6686658096142</v>
+        <v>-271.9278633371523</v>
       </c>
       <c r="F16" t="n">
-        <v>-273.3507438016529</v>
+        <v>-271.69850625</v>
       </c>
       <c r="G16" t="n">
-        <v>-254.81</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-48153.57361241719</v>
+        <v>-254.333225</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>-47920.88281403982</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -733,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,31 +1490,31 @@
         <v>14.55</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
         <v>15.15</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>14.55</v>
       </c>
-      <c r="E2" t="n">
-        <v>15</v>
-      </c>
       <c r="F2" t="n">
-        <v>15.39</v>
+        <v>15.54</v>
       </c>
       <c r="G2" t="n">
-        <v>15.6</v>
+        <v>15.76</v>
       </c>
       <c r="H2" t="n">
-        <v>15.5</v>
+        <v>15.65</v>
       </c>
       <c r="I2" t="n">
-        <v>15.04</v>
+        <v>15.35</v>
       </c>
       <c r="J2" t="n">
-        <v>15.19</v>
+        <v>15.65</v>
       </c>
       <c r="K2" t="n">
-        <v>14.45</v>
+        <v>14.9</v>
       </c>
       <c r="L2" t="n">
         <v>-0.02</v>
@@ -944,10 +1538,10 @@
         <v>-4.08</v>
       </c>
       <c r="S2" t="n">
-        <v>-3.06</v>
+        <v>-3.03</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.98</v>
+        <v>-1</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -959,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-3.96</v>
+        <v>-4</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.06</v>
+        <v>-2.94</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.02</v>
+        <v>-1.01</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -982,34 +1576,34 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>15.15</v>
+        <v>14.55</v>
       </c>
       <c r="C3" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="E3" t="n">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
-        <v>15</v>
-      </c>
-      <c r="E3" t="n">
-        <v>14.55</v>
-      </c>
       <c r="F3" t="n">
-        <v>15.23</v>
+        <v>15.39</v>
       </c>
       <c r="G3" t="n">
         <v>15.29</v>
       </c>
       <c r="H3" t="n">
-        <v>15.65</v>
+        <v>15.04</v>
       </c>
       <c r="I3" t="n">
-        <v>15.65</v>
+        <v>15.35</v>
       </c>
       <c r="J3" t="n">
-        <v>15.35</v>
+        <v>15.5</v>
       </c>
       <c r="K3" t="n">
-        <v>14.45</v>
+        <v>14.9</v>
       </c>
       <c r="L3" t="n">
         <v>-0.02</v>
@@ -1033,10 +1627,10 @@
         <v>-4.04</v>
       </c>
       <c r="S3" t="n">
-        <v>-3</v>
+        <v>-3.03</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.99</v>
+        <v>-0.97</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1048,13 +1642,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>-3.88</v>
+        <v>-4.08</v>
       </c>
       <c r="Y3" t="n">
         <v>-2.91</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1071,7 +1665,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C4" t="n">
         <v>14.85</v>
@@ -1080,31 +1674,31 @@
         <v>14.55</v>
       </c>
       <c r="E4" t="n">
-        <v>14.55</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>15.86</v>
+        <v>15.7</v>
       </c>
       <c r="G4" t="n">
         <v>15.91</v>
       </c>
       <c r="H4" t="n">
-        <v>15.19</v>
+        <v>15.04</v>
       </c>
       <c r="I4" t="n">
         <v>15.65</v>
       </c>
       <c r="J4" t="n">
-        <v>15.35</v>
+        <v>15.04</v>
       </c>
       <c r="K4" t="n">
-        <v>14.45</v>
+        <v>15.2</v>
       </c>
       <c r="L4" t="n">
         <v>-0.02</v>
       </c>
       <c r="M4" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="N4" t="n">
         <v>0.04</v>
@@ -1122,7 +1716,7 @@
         <v>-3.96</v>
       </c>
       <c r="S4" t="n">
-        <v>-3.03</v>
+        <v>-3</v>
       </c>
       <c r="T4" t="n">
         <v>-1.01</v>
@@ -1137,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>-3.88</v>
+        <v>-4</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.97</v>
+        <v>-3.03</v>
       </c>
       <c r="Z4" t="n">
         <v>-1.01</v>
@@ -1160,40 +1754,40 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C5" t="n">
         <v>14.85</v>
       </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
       <c r="D5" t="n">
-        <v>14.7</v>
+        <v>15.15</v>
       </c>
       <c r="E5" t="n">
         <v>14.7</v>
       </c>
       <c r="F5" t="n">
-        <v>15.7</v>
+        <v>15.86</v>
       </c>
       <c r="G5" t="n">
-        <v>15.6</v>
+        <v>15.29</v>
       </c>
       <c r="H5" t="n">
-        <v>15.04</v>
+        <v>15.19</v>
       </c>
       <c r="I5" t="n">
-        <v>15.35</v>
+        <v>15.5</v>
       </c>
       <c r="J5" t="n">
         <v>15.81</v>
       </c>
       <c r="K5" t="n">
-        <v>15.05</v>
+        <v>14.9</v>
       </c>
       <c r="L5" t="n">
         <v>-0.02</v>
       </c>
       <c r="M5" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="N5" t="n">
         <v>0.04</v>
@@ -1208,13 +1802,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-3.96</v>
+        <v>-3.88</v>
       </c>
       <c r="S5" t="n">
         <v>-3.03</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.02</v>
+        <v>-0.98</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1226,13 +1820,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>-3.96</v>
+        <v>-4.04</v>
       </c>
       <c r="Y5" t="n">
-        <v>-3.06</v>
+        <v>-2.94</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.99</v>
+        <v>-1.01</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1252,37 +1846,37 @@
         <v>14.55</v>
       </c>
       <c r="C6" t="n">
-        <v>14.85</v>
+        <v>14.55</v>
       </c>
       <c r="D6" t="n">
-        <v>14.7</v>
+        <v>15.15</v>
       </c>
       <c r="E6" t="n">
-        <v>15.15</v>
+        <v>15.3</v>
       </c>
       <c r="F6" t="n">
         <v>15.23</v>
       </c>
       <c r="G6" t="n">
-        <v>15.76</v>
+        <v>15.6</v>
       </c>
       <c r="H6" t="n">
-        <v>15.04</v>
+        <v>15.81</v>
       </c>
       <c r="I6" t="n">
-        <v>15.04</v>
+        <v>15.35</v>
       </c>
       <c r="J6" t="n">
-        <v>15.65</v>
+        <v>15.5</v>
       </c>
       <c r="K6" t="n">
-        <v>14.6</v>
+        <v>14.75</v>
       </c>
       <c r="L6" t="n">
         <v>-0.02</v>
       </c>
       <c r="M6" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="N6" t="n">
         <v>0.04</v>
@@ -1297,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-4.08</v>
+        <v>-3.88</v>
       </c>
       <c r="S6" t="n">
         <v>-3</v>
       </c>
       <c r="T6" t="n">
-        <v>-1.01</v>
+        <v>-1</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1318,10 +1912,10 @@
         <v>-3.92</v>
       </c>
       <c r="Y6" t="n">
-        <v>-2.91</v>
+        <v>-3.03</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.99</v>
+        <v>-1.01</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1338,40 +1932,40 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="D7" t="n">
         <v>15</v>
       </c>
-      <c r="C7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15.3</v>
-      </c>
       <c r="E7" t="n">
-        <v>14.55</v>
+        <v>15.15</v>
       </c>
       <c r="F7" t="n">
-        <v>15.7</v>
+        <v>15.23</v>
       </c>
       <c r="G7" t="n">
-        <v>15.6</v>
+        <v>15.76</v>
       </c>
       <c r="H7" t="n">
-        <v>15.65</v>
+        <v>15.19</v>
       </c>
       <c r="I7" t="n">
-        <v>15.35</v>
+        <v>15.04</v>
       </c>
       <c r="J7" t="n">
-        <v>15.35</v>
+        <v>15.5</v>
       </c>
       <c r="K7" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="L7" t="n">
         <v>-0.02</v>
       </c>
       <c r="M7" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="N7" t="n">
         <v>0.04</v>
@@ -1386,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-3.96</v>
+        <v>-4.04</v>
       </c>
       <c r="S7" t="n">
         <v>-3.03</v>
@@ -1404,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>-3.96</v>
+        <v>-3.88</v>
       </c>
       <c r="Y7" t="n">
-        <v>-3</v>
+        <v>-3.06</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1</v>
+        <v>-1.01</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -1427,34 +2021,34 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>15.15</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>14.55</v>
       </c>
       <c r="D8" t="n">
-        <v>14.55</v>
+        <v>14.85</v>
       </c>
       <c r="E8" t="n">
-        <v>14.85</v>
+        <v>14.7</v>
       </c>
       <c r="F8" t="n">
-        <v>15.7</v>
+        <v>16.01</v>
       </c>
       <c r="G8" t="n">
-        <v>15.6</v>
+        <v>15.13</v>
       </c>
       <c r="H8" t="n">
-        <v>15.81</v>
+        <v>15.04</v>
       </c>
       <c r="I8" t="n">
-        <v>15.5</v>
+        <v>15.35</v>
       </c>
       <c r="J8" t="n">
         <v>15.35</v>
       </c>
       <c r="K8" t="n">
-        <v>14.45</v>
+        <v>15.05</v>
       </c>
       <c r="L8" t="n">
         <v>-0.02</v>
@@ -1475,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-3.92</v>
+        <v>-4</v>
       </c>
       <c r="S8" t="n">
         <v>-2.94</v>
       </c>
       <c r="T8" t="n">
-        <v>-1.02</v>
+        <v>-0.97</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1493,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>-3.92</v>
+        <v>-3.88</v>
       </c>
       <c r="Y8" t="n">
-        <v>-3.06</v>
+        <v>-3</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.97</v>
+        <v>-0.99</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1516,40 +2110,40 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>14.55</v>
       </c>
       <c r="C9" t="n">
-        <v>15.15</v>
+        <v>15.3</v>
       </c>
       <c r="D9" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E9" t="n">
         <v>14.85</v>
       </c>
-      <c r="E9" t="n">
-        <v>15.15</v>
-      </c>
       <c r="F9" t="n">
-        <v>15.39</v>
+        <v>15.7</v>
       </c>
       <c r="G9" t="n">
-        <v>15.6</v>
+        <v>15.29</v>
       </c>
       <c r="H9" t="n">
         <v>15.5</v>
       </c>
       <c r="I9" t="n">
-        <v>15.35</v>
+        <v>15.5</v>
       </c>
       <c r="J9" t="n">
-        <v>15.81</v>
+        <v>15.5</v>
       </c>
       <c r="K9" t="n">
-        <v>15.2</v>
+        <v>14.45</v>
       </c>
       <c r="L9" t="n">
         <v>-0.02</v>
       </c>
       <c r="M9" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="N9" t="n">
         <v>0.04</v>
@@ -1564,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-3.92</v>
+        <v>-4.04</v>
       </c>
       <c r="S9" t="n">
         <v>-2.91</v>
@@ -1582,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>-3.88</v>
+        <v>-4.04</v>
       </c>
       <c r="Y9" t="n">
-        <v>-3</v>
+        <v>-2.91</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.98</v>
+        <v>-0.99</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1605,31 +2199,31 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>14.7</v>
+        <v>14.85</v>
       </c>
       <c r="D10" t="n">
         <v>14.55</v>
       </c>
       <c r="E10" t="n">
-        <v>15.15</v>
+        <v>14.85</v>
       </c>
       <c r="F10" t="n">
-        <v>15.86</v>
+        <v>15.7</v>
       </c>
       <c r="G10" t="n">
-        <v>15.44</v>
+        <v>15.29</v>
       </c>
       <c r="H10" t="n">
-        <v>15.81</v>
+        <v>15.5</v>
       </c>
       <c r="I10" t="n">
-        <v>15.5</v>
+        <v>15.04</v>
       </c>
       <c r="J10" t="n">
-        <v>15.35</v>
+        <v>15.65</v>
       </c>
       <c r="K10" t="n">
         <v>15.2</v>
@@ -1638,7 +2232,7 @@
         <v>-0.02</v>
       </c>
       <c r="M10" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="N10" t="n">
         <v>0.04</v>
@@ -1653,31 +2247,31 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-3.88</v>
+        <v>-3.96</v>
       </c>
       <c r="S10" t="n">
-        <v>-2.97</v>
+        <v>-2.91</v>
       </c>
       <c r="T10" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="Z10" t="n">
         <v>-1</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>-3.92</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>-0.97</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1694,40 +2288,40 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="C11" t="n">
         <v>14.55</v>
       </c>
-      <c r="C11" t="n">
-        <v>15</v>
-      </c>
       <c r="D11" t="n">
-        <v>15.15</v>
+        <v>14.7</v>
       </c>
       <c r="E11" t="n">
-        <v>15.15</v>
+        <v>14.55</v>
       </c>
       <c r="F11" t="n">
-        <v>15.86</v>
+        <v>15.7</v>
       </c>
       <c r="G11" t="n">
-        <v>15.44</v>
+        <v>15.91</v>
       </c>
       <c r="H11" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="J11" t="n">
         <v>15.65</v>
       </c>
-      <c r="I11" t="n">
-        <v>15.81</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15.35</v>
-      </c>
       <c r="K11" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="L11" t="n">
         <v>-0.02</v>
       </c>
       <c r="M11" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="N11" t="n">
         <v>0.04</v>
@@ -1742,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-4.08</v>
+        <v>-3.92</v>
       </c>
       <c r="S11" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.99</v>
+        <v>-1.02</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1760,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-3.96</v>
+        <v>-3.88</v>
       </c>
       <c r="Y11" t="n">
-        <v>-2.91</v>
+        <v>-3.03</v>
       </c>
       <c r="Z11" t="n">
-        <v>-1.01</v>
+        <v>-1</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1783,34 +2377,34 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>14.85</v>
+        <v>15.3</v>
       </c>
       <c r="C12" t="n">
-        <v>14.55</v>
+        <v>15.15</v>
       </c>
       <c r="D12" t="n">
-        <v>14.7</v>
+        <v>15.15</v>
       </c>
       <c r="E12" t="n">
-        <v>14.55</v>
+        <v>15.3</v>
       </c>
       <c r="F12" t="n">
-        <v>15.7</v>
+        <v>16.01</v>
       </c>
       <c r="G12" t="n">
-        <v>15.76</v>
+        <v>15.13</v>
       </c>
       <c r="H12" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="J12" t="n">
         <v>15.04</v>
       </c>
-      <c r="I12" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="J12" t="n">
-        <v>15.5</v>
-      </c>
       <c r="K12" t="n">
-        <v>14.9</v>
+        <v>14.45</v>
       </c>
       <c r="L12" t="n">
         <v>-0.02</v>
@@ -1831,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-3.92</v>
+        <v>-4.04</v>
       </c>
       <c r="S12" t="n">
-        <v>-3</v>
+        <v>-3.06</v>
       </c>
       <c r="T12" t="n">
         <v>-1.02</v>
@@ -1849,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>-4.04</v>
+        <v>-4.08</v>
       </c>
       <c r="Y12" t="n">
-        <v>-3.06</v>
+        <v>-2.91</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.98</v>
+        <v>-1.02</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1872,40 +2466,40 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>15.3</v>
+        <v>14.85</v>
       </c>
       <c r="C13" t="n">
-        <v>14.85</v>
+        <v>15.15</v>
       </c>
       <c r="D13" t="n">
-        <v>15.3</v>
+        <v>14.55</v>
       </c>
       <c r="E13" t="n">
-        <v>15.3</v>
+        <v>14.55</v>
       </c>
       <c r="F13" t="n">
-        <v>15.23</v>
+        <v>15.86</v>
       </c>
       <c r="G13" t="n">
-        <v>15.76</v>
+        <v>15.13</v>
       </c>
       <c r="H13" t="n">
-        <v>15.5</v>
+        <v>15.04</v>
       </c>
       <c r="I13" t="n">
-        <v>15.04</v>
+        <v>15.35</v>
       </c>
       <c r="J13" t="n">
         <v>15.35</v>
       </c>
       <c r="K13" t="n">
-        <v>14.9</v>
+        <v>14.45</v>
       </c>
       <c r="L13" t="n">
         <v>-0.02</v>
       </c>
       <c r="M13" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="N13" t="n">
         <v>0.04</v>
@@ -1920,31 +2514,31 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>-3.92</v>
       </c>
-      <c r="S13" t="n">
+      <c r="Y13" t="n">
         <v>-2.91</v>
       </c>
-      <c r="T13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>-4.08</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>-2.97</v>
-      </c>
       <c r="Z13" t="n">
-        <v>-1.02</v>
+        <v>-0.99</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1964,31 +2558,31 @@
         <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>14.7</v>
+        <v>15.15</v>
       </c>
       <c r="D14" t="n">
         <v>14.55</v>
       </c>
       <c r="E14" t="n">
-        <v>14.55</v>
+        <v>14.85</v>
       </c>
       <c r="F14" t="n">
         <v>15.54</v>
       </c>
       <c r="G14" t="n">
-        <v>15.6</v>
+        <v>15.91</v>
       </c>
       <c r="H14" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="I14" t="n">
         <v>15.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>15.19</v>
-      </c>
       <c r="J14" t="n">
-        <v>15.04</v>
+        <v>15.65</v>
       </c>
       <c r="K14" t="n">
-        <v>14.9</v>
+        <v>14.75</v>
       </c>
       <c r="L14" t="n">
         <v>-0.02</v>
@@ -2009,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-3.92</v>
+        <v>-3.88</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.94</v>
+        <v>-3.06</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.01</v>
+        <v>-1</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2027,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.96</v>
+        <v>-4</v>
       </c>
       <c r="Y14" t="n">
-        <v>-2.97</v>
+        <v>-3</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2053,7 +2647,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>15.3</v>
+        <v>14.55</v>
       </c>
       <c r="D15" t="n">
         <v>14.55</v>
@@ -2065,16 +2659,16 @@
         <v>15.54</v>
       </c>
       <c r="G15" t="n">
-        <v>15.44</v>
+        <v>15.76</v>
       </c>
       <c r="H15" t="n">
         <v>15.5</v>
       </c>
       <c r="I15" t="n">
-        <v>15.65</v>
+        <v>15.04</v>
       </c>
       <c r="J15" t="n">
-        <v>15.65</v>
+        <v>15.19</v>
       </c>
       <c r="K15" t="n">
         <v>14.9</v>
@@ -2104,7 +2698,7 @@
         <v>-2.91</v>
       </c>
       <c r="T15" t="n">
-        <v>-1.01</v>
+        <v>-1.02</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2116,13 +2710,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="Y15" t="n">
-        <v>-2.97</v>
+        <v>-3.03</v>
       </c>
       <c r="Z15" t="n">
-        <v>-1.02</v>
+        <v>-0.99</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2139,40 +2733,40 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="D16" t="n">
         <v>14.55</v>
       </c>
-      <c r="C16" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>14.7</v>
       </c>
-      <c r="E16" t="n">
-        <v>14.55</v>
-      </c>
       <c r="F16" t="n">
-        <v>15.86</v>
+        <v>15.23</v>
       </c>
       <c r="G16" t="n">
-        <v>15.6</v>
+        <v>15.13</v>
       </c>
       <c r="H16" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="I16" t="n">
         <v>15.5</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>15.65</v>
       </c>
-      <c r="J16" t="n">
-        <v>15.35</v>
-      </c>
       <c r="K16" t="n">
-        <v>14.6</v>
+        <v>14.75</v>
       </c>
       <c r="L16" t="n">
         <v>-0.02</v>
       </c>
       <c r="M16" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="N16" t="n">
         <v>0.04</v>
@@ -2187,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-4</v>
+        <v>-3.92</v>
       </c>
       <c r="S16" t="n">
-        <v>-3.03</v>
+        <v>-3.06</v>
       </c>
       <c r="T16" t="n">
         <v>-1.02</v>
@@ -2205,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-3.96</v>
+        <v>-4.04</v>
       </c>
       <c r="Y16" t="n">
-        <v>-2.91</v>
+        <v>-2.97</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1.02</v>
+        <v>-1.01</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2234,34 +2828,34 @@
         <v>14.85</v>
       </c>
       <c r="D17" t="n">
-        <v>15.15</v>
+        <v>14.7</v>
       </c>
       <c r="E17" t="n">
         <v>14.85</v>
       </c>
       <c r="F17" t="n">
-        <v>15.54</v>
+        <v>15.23</v>
       </c>
       <c r="G17" t="n">
-        <v>15.6</v>
+        <v>15.44</v>
       </c>
       <c r="H17" t="n">
-        <v>15.5</v>
+        <v>15.04</v>
       </c>
       <c r="I17" t="n">
         <v>15.81</v>
       </c>
       <c r="J17" t="n">
-        <v>15.65</v>
+        <v>15.5</v>
       </c>
       <c r="K17" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="L17" t="n">
         <v>-0.02</v>
       </c>
       <c r="M17" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="N17" t="n">
         <v>0.04</v>
@@ -2276,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-3.92</v>
+        <v>-3.88</v>
       </c>
       <c r="S17" t="n">
         <v>-3.06</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.98</v>
+        <v>-1.01</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2294,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-3.96</v>
+        <v>-3.92</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.97</v>
+        <v>-2.94</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.97</v>
+        <v>-1.01</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2317,10 +2911,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>15.15</v>
+        <v>14.7</v>
       </c>
       <c r="C18" t="n">
-        <v>14.85</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
         <v>14.7</v>
@@ -2332,16 +2926,16 @@
         <v>15.7</v>
       </c>
       <c r="G18" t="n">
-        <v>15.13</v>
+        <v>15.76</v>
       </c>
       <c r="H18" t="n">
-        <v>15.81</v>
+        <v>15.5</v>
       </c>
       <c r="I18" t="n">
-        <v>15.65</v>
+        <v>15.35</v>
       </c>
       <c r="J18" t="n">
-        <v>15.81</v>
+        <v>15.04</v>
       </c>
       <c r="K18" t="n">
         <v>14.75</v>
@@ -2365,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-3.92</v>
+        <v>-3.88</v>
       </c>
       <c r="S18" t="n">
-        <v>-2.91</v>
+        <v>-3</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.97</v>
+        <v>-0.99</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2386,10 +2980,10 @@
         <v>-3.96</v>
       </c>
       <c r="Y18" t="n">
-        <v>-2.97</v>
+        <v>-3.06</v>
       </c>
       <c r="Z18" t="n">
-        <v>-1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -2406,40 +3000,40 @@
         <v>22</v>
       </c>
       <c r="B19" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E19" t="n">
         <v>14.85</v>
       </c>
-      <c r="C19" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="D19" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>14.55</v>
-      </c>
       <c r="F19" t="n">
-        <v>15.23</v>
+        <v>15.7</v>
       </c>
       <c r="G19" t="n">
-        <v>15.76</v>
+        <v>15.13</v>
       </c>
       <c r="H19" t="n">
-        <v>15.81</v>
+        <v>15.35</v>
       </c>
       <c r="I19" t="n">
-        <v>15.04</v>
+        <v>15.35</v>
       </c>
       <c r="J19" t="n">
         <v>15.35</v>
       </c>
       <c r="K19" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="L19" t="n">
         <v>-0.02</v>
       </c>
       <c r="M19" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="N19" t="n">
         <v>0.04</v>
@@ -2454,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-4.04</v>
+        <v>-4</v>
       </c>
       <c r="S19" t="n">
-        <v>-3</v>
+        <v>-3.03</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.02</v>
+        <v>-0.99</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2472,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-3.96</v>
+        <v>-3.88</v>
       </c>
       <c r="Y19" t="n">
-        <v>-2.97</v>
+        <v>-2.94</v>
       </c>
       <c r="Z19" t="n">
         <v>-1.01</v>
@@ -2498,28 +3092,28 @@
         <v>14.55</v>
       </c>
       <c r="C20" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D20" t="n">
         <v>14.85</v>
-      </c>
-      <c r="D20" t="n">
-        <v>15.15</v>
       </c>
       <c r="E20" t="n">
         <v>14.85</v>
       </c>
       <c r="F20" t="n">
-        <v>15.86</v>
+        <v>15.54</v>
       </c>
       <c r="G20" t="n">
-        <v>15.13</v>
+        <v>15.6</v>
       </c>
       <c r="H20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="J20" t="n">
         <v>15.04</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="J20" t="n">
-        <v>15.81</v>
       </c>
       <c r="K20" t="n">
         <v>15.2</v>
@@ -2528,7 +3122,7 @@
         <v>-0.02</v>
       </c>
       <c r="M20" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="N20" t="n">
         <v>0.04</v>
@@ -2543,13 +3137,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-3.96</v>
+        <v>-4</v>
       </c>
       <c r="S20" t="n">
         <v>-3</v>
       </c>
       <c r="T20" t="n">
-        <v>-1</v>
+        <v>-0.98</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2561,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-4.04</v>
+        <v>-3.92</v>
       </c>
       <c r="Y20" t="n">
-        <v>-3</v>
+        <v>-2.97</v>
       </c>
       <c r="Z20" t="n">
         <v>-1.02</v>
@@ -2584,34 +3178,34 @@
         <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>15.15</v>
+        <v>14.7</v>
       </c>
       <c r="C21" t="n">
-        <v>14.55</v>
+        <v>14.85</v>
       </c>
       <c r="D21" t="n">
-        <v>14.55</v>
+        <v>14.85</v>
       </c>
       <c r="E21" t="n">
-        <v>14.85</v>
+        <v>14.7</v>
       </c>
       <c r="F21" t="n">
-        <v>15.23</v>
+        <v>15.86</v>
       </c>
       <c r="G21" t="n">
         <v>15.29</v>
       </c>
       <c r="H21" t="n">
-        <v>15.35</v>
+        <v>15.19</v>
       </c>
       <c r="I21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J21" t="n">
         <v>15.65</v>
       </c>
-      <c r="J21" t="n">
-        <v>15.19</v>
-      </c>
       <c r="K21" t="n">
-        <v>14.6</v>
+        <v>15.05</v>
       </c>
       <c r="L21" t="n">
         <v>-0.02</v>
@@ -2632,31 +3226,31 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>-3.88</v>
       </c>
-      <c r="S21" t="n">
-        <v>-2.91</v>
-      </c>
-      <c r="T21" t="n">
+      <c r="Y21" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="Z21" t="n">
         <v>-0.99</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>-0.98</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -2673,31 +3267,31 @@
         <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>14.85</v>
       </c>
       <c r="C22" t="n">
-        <v>14.55</v>
+        <v>14.7</v>
       </c>
       <c r="D22" t="n">
-        <v>14.7</v>
+        <v>14.85</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>15.15</v>
       </c>
       <c r="F22" t="n">
-        <v>15.86</v>
+        <v>15.39</v>
       </c>
       <c r="G22" t="n">
-        <v>15.29</v>
+        <v>15.76</v>
       </c>
       <c r="H22" t="n">
-        <v>15.35</v>
+        <v>15.81</v>
       </c>
       <c r="I22" t="n">
-        <v>15.81</v>
+        <v>15.19</v>
       </c>
       <c r="J22" t="n">
-        <v>15.81</v>
+        <v>15.65</v>
       </c>
       <c r="K22" t="n">
         <v>15.2</v>
@@ -2721,13 +3315,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-3.92</v>
+        <v>-4</v>
       </c>
       <c r="S22" t="n">
-        <v>-3.03</v>
+        <v>-2.97</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.98</v>
+        <v>-1</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2742,10 +3336,10 @@
         <v>-3.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>-3.03</v>
+        <v>-3.06</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.98</v>
+        <v>-1.01</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2762,34 +3356,34 @@
         <v>26</v>
       </c>
       <c r="B23" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="D23" t="n">
         <v>15.3</v>
       </c>
-      <c r="C23" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D23" t="n">
-        <v>14.7</v>
-      </c>
       <c r="E23" t="n">
-        <v>14.7</v>
+        <v>15.15</v>
       </c>
       <c r="F23" t="n">
-        <v>15.23</v>
+        <v>15.86</v>
       </c>
       <c r="G23" t="n">
-        <v>15.91</v>
+        <v>15.76</v>
       </c>
       <c r="H23" t="n">
-        <v>15.04</v>
+        <v>15.81</v>
       </c>
       <c r="I23" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="J23" t="n">
         <v>15.65</v>
       </c>
-      <c r="J23" t="n">
-        <v>15.19</v>
-      </c>
       <c r="K23" t="n">
-        <v>15.05</v>
+        <v>15.2</v>
       </c>
       <c r="L23" t="n">
         <v>-0.02</v>
@@ -2810,39 +3404,840 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="G24" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="H24" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="J24" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="K24" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="C25" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="D25" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="J25" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>-4</v>
       </c>
-      <c r="S23" t="n">
+      <c r="Y25" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="D26" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="G26" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H26" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="I26" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="J26" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="K26" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="E27" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="G27" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="H27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="K27" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="S27" t="n">
         <v>-2.94</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T27" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="G28" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="H28" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="K28" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="T28" t="n">
         <v>-0.98</v>
       </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="G29" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="H29" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="J29" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="K29" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C30" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="E30" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="J30" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
         <v>-3.92</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="S30" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="D31" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="G31" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="H31" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="I31" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="J31" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="Y31" t="n">
         <v>-2.94</v>
       </c>
-      <c r="Z23" t="n">
-        <v>-0.97</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
+      <c r="Z31" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="C32" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="E32" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="H32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="J32" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="K32" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
         <v>0</v>
       </c>
     </row>
